--- a/financial_models/opportunities/0669.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0669.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891E5A6A-5158-4A17-B706-68D5D6375313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD33DEBF-3F6E-41A0-A94E-4E415A278121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -944,18 +944,15 @@
   </si>
   <si>
     <t>0669.HK</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>創科實業</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>C0007</t>
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>C0007</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -976,7 +973,7 @@
     <numFmt numFmtId="185" formatCode="#,##0.0000"/>
     <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1169,13 +1166,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Microsoft YaHei"/>
-      <family val="1"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="14">
@@ -1521,7 +1511,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="286">
+  <cellXfs count="285">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2198,9 +2188,6 @@
     </xf>
     <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3574,8 +3561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3599,11 +3586,11 @@
         <v>262</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
         <v>197</v>
       </c>
-      <c r="C5" s="285" t="s">
+      <c r="C5" s="192" t="s">
         <v>263</v>
       </c>
     </row>
@@ -3637,7 +3624,7 @@
         <v>218</v>
       </c>
       <c r="C9" s="193" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3653,7 +3640,7 @@
         <v>220</v>
       </c>
       <c r="C11" s="193" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -4158,11 +4145,11 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.763277372262774E-2</v>
+        <v>1.68064955675114E-2</v>
       </c>
       <c r="D45" s="153">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.6901624087591244E-2</v>
+        <v>1.6109607868858553E-2</v>
       </c>
       <c r="E45" s="153" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4840,7 +4827,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4893,7 +4880,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>109.6</v>
+        <v>14.779999732971191</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>2</v>
@@ -4934,7 +4921,7 @@
       </c>
       <c r="G5" s="273">
         <f>G3*G4/1000000</f>
-        <v>64347.020360000002</v>
+        <v>8677.4538662252908</v>
       </c>
       <c r="H5" s="273"/>
       <c r="I5" s="38"/>
@@ -4983,7 +4970,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="133">
-        <v>7.78</v>
+        <v>1</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5166,7 +5153,7 @@
       </c>
       <c r="G24" s="179">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>9.0119151167483744E-2</v>
+        <v>8.5896135144102159E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5198,7 +5185,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.763277372262774E-2</v>
+        <v>1.68064955675114E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5228,20 +5215,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>97.360609024051541</v>
+        <v>12.273693535547251</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>192.47103195872461</v>
+        <v>24.26371901749636</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>114.5418929694724</v>
+        <v>14.439639453585002</v>
       </c>
       <c r="G29" s="272">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>167.36611474671707</v>
+        <v>21.098886102170749</v>
       </c>
       <c r="H29" s="272"/>
     </row>
@@ -10243,8 +10230,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D100" sqref="D100"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H103" sqref="H103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -12113,17 +12100,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.0119151167483841E-2</v>
+        <v>8.5896135144102242E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.0119151167483744E-2</v>
+        <v>8.5896135144102159E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.0119151167483744E-2</v>
+        <v>8.5896135144102159E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12164,17 +12151,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.763277372262774E-2</v>
+        <v>1.68064955675114E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.763277372262774E-2</v>
+        <v>1.68064955675114E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.763277372262774E-2</v>
+        <v>1.68064955675114E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12234,14 +12221,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>230.38465969400394</v>
+        <v>29.043272599876758</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>230.38465969400394</v>
+        <v>29.043272599876758</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12259,14 +12246,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>31.955283856054855</v>
+        <v>4.090714927264659</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>212</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>31.955283856054855</v>
+        <v>4.090714927264659</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12309,21 +12296,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>67248444.51623705</v>
+        <v>8477625.6743694656</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>114.5418929694724</v>
+        <v>14.439639453585002</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>114.5418929694724</v>
+        <v>14.439639453585002</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>167.36611474671707</v>
+        <v>21.098886102170749</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12372,27 +12359,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>67248444.51623705</v>
+        <v>8477625.6743694656</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>97.360609024051541</v>
+        <v>12.273693535547251</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>114.5418929694724</v>
+        <v>14.439639453585002</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>114.5418929694724</v>
+        <v>14.439639453585002</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>114.5418929694724</v>
+        <v>14.439639453585002</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>167.36611474671707</v>
+        <v>21.098886102170749</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12433,27 +12420,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>9327631.1723563913</v>
+        <v>1194064.8139649543</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>13.504310147620975</v>
+        <v>1.728737048687411</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>15.887423703083501</v>
+        <v>2.0338082925734247</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>15.887423703083501</v>
+        <v>2.0338082925734247</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>15.887423703083501</v>
+        <v>2.0338082925734247</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>23.214356857439615</v>
+        <v>2.9717563001895653</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12494,27 +12481,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>38288037.844296724</v>
+        <v>4835845.2441672105</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>55.432459585836256</v>
+        <v>7.0012152921173305</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>65.21465833627795</v>
+        <v>8.2367238730792138</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>65.21465833627795</v>
+        <v>8.2367238730792138</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>65.21465833627795</v>
+        <v>8.2367238730792138</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>95.290235802078342</v>
+        <v>12.035321201180157</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0669.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0669.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD33DEBF-3F6E-41A0-A94E-4E415A278121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{94E863A0-66E2-4510-98CB-E168264E8E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -625,9 +625,6 @@
     <t>Normalized Payout Ratio</t>
   </si>
   <si>
-    <t>Normalized E/P</t>
-  </si>
-  <si>
     <t>US Riskfree</t>
   </si>
   <si>
@@ -941,6 +938,10 @@
   </si>
   <si>
     <t>Unclear</t>
+  </si>
+  <si>
+    <t>Normalized PE Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>0669.HK</t>
@@ -1511,7 +1512,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="285">
+  <cellXfs count="286">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2147,6 +2148,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3561,7 +3565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3575,12 +3579,12 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="189" t="s">
         <v>262</v>
@@ -3588,7 +3592,7 @@
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C5" s="192" t="s">
         <v>263</v>
@@ -3612,7 +3616,7 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C8" s="192" t="s">
         <v>71</v>
@@ -3621,7 +3625,7 @@
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C9" s="193" t="s">
         <v>264</v>
@@ -3629,7 +3633,7 @@
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C10" s="194">
         <v>587107850</v>
@@ -3637,7 +3641,7 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C11" s="193" t="s">
         <v>265</v>
@@ -3661,7 +3665,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C14" s="220">
         <v>45473</v>
@@ -3669,10 +3673,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C15" s="177" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3686,55 +3690,55 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="241" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C17" s="243" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C18" s="243" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C19" s="243" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C20" s="243" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C21" s="243" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="227" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C22" s="244" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3871,7 +3875,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C29" s="151">
         <v>124056</v>
@@ -4119,7 +4123,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C44" s="251">
         <f>0.1261+0.1223</f>
@@ -4141,15 +4145,15 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.68064955675114E-2</v>
+        <v>1.7638084831028963E-2</v>
       </c>
       <c r="D45" s="153">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.6109607868858553E-2</v>
+        <v>1.6906714968872767E-2</v>
       </c>
       <c r="E45" s="153" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4190,13 +4194,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C47" s="195" t="s">
         <v>34</v>
       </c>
       <c r="D47" s="195" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>36</v>
@@ -4538,7 +4542,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C83" s="59"/>
     </row>
@@ -4556,7 +4560,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4564,26 +4568,26 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C87" s="237" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C89" s="269">
+      <c r="C89" s="270">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="269"/>
+      <c r="D89" s="270"/>
       <c r="E89" s="89" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F89" s="50" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4592,10 +4596,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000USD)</v>
       </c>
-      <c r="C90" s="270" t="s">
+      <c r="C90" s="271" t="s">
         <v>101</v>
       </c>
-      <c r="D90" s="270"/>
+      <c r="D90" s="271"/>
       <c r="E90" s="236" t="s">
         <v>102</v>
       </c>
@@ -4644,7 +4648,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4665,7 +4669,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4683,7 +4687,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4740,7 +4744,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C98" s="238">
         <f>C44</f>
@@ -4827,7 +4831,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4868,19 +4872,19 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C3" s="275" t="str">
+        <v>195</v>
+      </c>
+      <c r="C3" s="276" t="str">
         <f>Inputs!C4</f>
         <v>0669.HK</v>
       </c>
-      <c r="D3" s="276"/>
+      <c r="D3" s="277"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>14.779999732971191</v>
+        <v>109.6</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>2</v>
@@ -4888,42 +4892,42 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="C4" s="277" t="str">
+        <v>196</v>
+      </c>
+      <c r="C4" s="278" t="str">
         <f>Inputs!C5</f>
         <v>創科實業</v>
       </c>
-      <c r="D4" s="278"/>
+      <c r="D4" s="279"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="281">
+      <c r="G4" s="282">
         <f>Inputs!C10</f>
         <v>587107850</v>
       </c>
-      <c r="H4" s="281"/>
+      <c r="H4" s="282"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="279">
+      <c r="C5" s="280">
         <f>Inputs!C6</f>
         <v>45625</v>
       </c>
-      <c r="D5" s="280"/>
+      <c r="D5" s="281"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="273">
+      <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>8677.4538662252908</v>
-      </c>
-      <c r="H5" s="273"/>
+        <v>64347.020360000002</v>
+      </c>
+      <c r="H5" s="274"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4946,16 +4950,16 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="274" t="str">
+      <c r="G6" s="275" t="str">
         <f>Inputs!C11</f>
         <v>USD</v>
       </c>
-      <c r="H6" s="274"/>
+      <c r="H6" s="275"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C7" s="188" t="str">
         <f>Inputs!C8</f>
@@ -4970,7 +4974,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="133">
-        <v>1</v>
+        <v>7.7823433876037598</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4980,40 +4984,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C10" s="173">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C11" s="174">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5026,29 +5030,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C14" s="173">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C15" s="173">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C16" s="174">
         <v>0.16</v>
@@ -5058,12 +5062,12 @@
         <v>HK</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5073,7 +5077,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>52</v>
@@ -5081,7 +5085,7 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
@@ -5095,7 +5099,7 @@
         <v>0.60531106380837341</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G20" s="173">
         <v>0.15</v>
@@ -5103,7 +5107,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5114,14 +5118,14 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C22" s="172">
         <f>Fin_Analysis!I78</f>
         <v>0</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5133,7 +5137,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G23" s="178" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5149,16 +5153,16 @@
         <v>9.0344684898005026E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>176</v>
-      </c>
-      <c r="G24" s="179">
-        <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>8.5896135144102159E-2</v>
+        <v>261</v>
+      </c>
+      <c r="G24" s="269">
+        <f>G3/(Fin_Analysis!H86*G7)</f>
+        <v>11.093079230266298</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
@@ -5181,11 +5185,11 @@
         <v>7.2375155036871239E-2</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.68064955675114E-2</v>
+        <v>1.7638084831028963E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5202,12 +5206,12 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>239</v>
-      </c>
-      <c r="G28" s="271" t="s">
-        <v>260</v>
-      </c>
-      <c r="H28" s="271"/>
+        <v>238</v>
+      </c>
+      <c r="G28" s="272" t="s">
+        <v>259</v>
+      </c>
+      <c r="H28" s="272"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5215,42 +5219,42 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>12.273693535547251</v>
+        <v>97.402060567934925</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>24.26371901749636</v>
+        <v>192.55297702364862</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>14.439639453585002</v>
-      </c>
-      <c r="G29" s="272">
+        <v>114.59065949168814</v>
+      </c>
+      <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>21.098886102170749</v>
-      </c>
-      <c r="H29" s="272"/>
+        <v>167.43737132491185</v>
+      </c>
+      <c r="H29" s="273"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="197" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C32" s="225"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C33" s="246" t="str">
         <f>Inputs!C17</f>
@@ -5260,7 +5264,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C34" s="226" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
@@ -5271,14 +5275,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="197" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C35" s="225"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5288,7 +5292,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5298,14 +5302,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="197" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C38" s="225"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C39" s="246" t="str">
         <f>Inputs!C20</f>
@@ -5315,7 +5319,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -5330,14 +5334,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="227" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C43" s="245" t="str">
         <f>Inputs!C22</f>
@@ -6322,16 +6326,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="149" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>203</v>
+      </c>
+      <c r="G2" s="149" t="s">
         <v>204</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="H2" s="148" t="s">
         <v>205</v>
-      </c>
-      <c r="H2" s="148" t="s">
-        <v>206</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6349,7 +6353,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="147" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6382,7 +6386,7 @@
         <v>USD</v>
       </c>
       <c r="E4" s="147" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6749,7 +6753,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6800,7 +6804,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6851,7 +6855,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6902,7 +6906,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C15" s="233">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7004,7 +7008,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7157,7 +7161,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -8228,7 +8232,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8297,7 +8301,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8501,7 +8505,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -10399,7 +10403,7 @@
         <v>34</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>35</v>
@@ -11451,11 +11455,11 @@
         <v>90</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="282">
+      <c r="D56" s="283">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="280"/>
+      <c r="E56" s="281"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11466,11 +11470,11 @@
         <v>91</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="281">
+      <c r="D57" s="282">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="280"/>
+      <c r="E57" s="281"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11482,11 +11486,11 @@
         <v>93</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="281">
+      <c r="D58" s="282">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="280"/>
+      <c r="E58" s="281"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11700,19 +11704,19 @@
       <c r="B72" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="269">
+      <c r="C72" s="270">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="269"/>
-      <c r="E72" s="283" t="s">
-        <v>208</v>
-      </c>
-      <c r="F72" s="283"/>
-      <c r="H72" s="283" t="s">
+      <c r="D72" s="270"/>
+      <c r="E72" s="284" t="s">
         <v>207</v>
       </c>
-      <c r="I72" s="283"/>
+      <c r="F72" s="284"/>
+      <c r="H72" s="284" t="s">
+        <v>206</v>
+      </c>
+      <c r="I72" s="284"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11722,18 +11726,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000USD)</v>
       </c>
-      <c r="C73" s="270" t="s">
+      <c r="C73" s="271" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="270"/>
-      <c r="E73" s="284" t="s">
+      <c r="D73" s="271"/>
+      <c r="E73" s="285" t="s">
         <v>102</v>
       </c>
-      <c r="F73" s="270"/>
-      <c r="H73" s="284" t="s">
+      <c r="F73" s="271"/>
+      <c r="H73" s="285" t="s">
         <v>102</v>
       </c>
-      <c r="I73" s="270"/>
+      <c r="I73" s="271"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11810,7 +11814,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11870,7 +11874,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -11933,7 +11937,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11963,7 +11967,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12096,28 +12100,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5896135144102242E-2</v>
+        <v>9.0146295653564454E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5896135144102159E-2</v>
+        <v>9.0146295653564371E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5896135144102159E-2</v>
+        <v>9.0146295653564371E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C88" s="170">
         <f>Inputs!C44</f>
@@ -12147,21 +12151,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.68064955675114E-2</v>
+        <v>1.7638084831028963E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.68064955675114E-2</v>
+        <v>1.7638084831028963E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.68064955675114E-2</v>
+        <v>1.7638084831028963E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12192,15 +12196,15 @@
       <c r="D92" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="283" t="s">
-        <v>208</v>
-      </c>
-      <c r="F92" s="283"/>
+      <c r="E92" s="284" t="s">
+        <v>207</v>
+      </c>
+      <c r="F92" s="284"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="283" t="s">
-        <v>207</v>
-      </c>
-      <c r="I92" s="283"/>
+      <c r="H92" s="284" t="s">
+        <v>206</v>
+      </c>
+      <c r="I92" s="284"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12217,24 +12221,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>29.043272599876758</v>
+        <v>230.48274658897196</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>29.043272599876758</v>
+        <v>230.48274658897196</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C94" s="183">
         <f>Dashboard!G20</f>
@@ -12242,18 +12246,18 @@
       </c>
       <c r="D94" s="145"/>
       <c r="E94" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>4.090714927264659</v>
+        <v>31.965743145543428</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>4.090714927264659</v>
+        <v>31.965743145543428</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12272,14 +12276,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E96" s="184" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
@@ -12296,21 +12300,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>8477625.6743694656</v>
+        <v>67277075.724247113</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>14.439639453585002</v>
+        <v>114.59065949168814</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>14.439639453585002</v>
+        <v>114.59065949168814</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>21.098886102170749</v>
+        <v>167.43737132491185</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12359,27 +12363,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>8477625.6743694656</v>
+        <v>67277075.724247113</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>12.273693535547251</v>
+        <v>97.402060567934925</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>14.439639453585002</v>
+        <v>114.59065949168814</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>14.439639453585002</v>
+        <v>114.59065949168814</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>14.439639453585002</v>
+        <v>114.59065949168814</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>21.098886102170749</v>
+        <v>167.43737132491185</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12396,14 +12400,14 @@
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E102" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
@@ -12420,27 +12424,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1194064.8139649543</v>
+        <v>9330684.2009295002</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.728737048687411</v>
+        <v>13.508730245712224</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.0338082925734247</v>
+        <v>15.892623818484969</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>2.0338082925734247</v>
+        <v>15.892623818484969</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.0338082925734247</v>
+        <v>15.892623818484969</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.9717563001895653</v>
+        <v>23.221955152599712</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12450,21 +12454,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E105" s="185" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
@@ -12477,31 +12481,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>4835845.2441672105</v>
+        <v>38303879.96258831</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>7.0012152921173305</v>
+        <v>55.455395406823577</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>8.2367238730792138</v>
+        <v>65.241641655086553</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>8.2367238730792138</v>
+        <v>65.241641655086553</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>8.2367238730792138</v>
+        <v>65.241641655086553</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>12.035321201180157</v>
+        <v>95.329663238755785</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0669.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0669.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94E863A0-66E2-4510-98CB-E168264E8E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974FC3C3-D08C-4F20-9CB8-A96AA253BCB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="267">
   <si>
     <t>Company Info:</t>
   </si>
@@ -947,13 +947,17 @@
     <t>0669.HK</t>
   </si>
   <si>
+    <t>C0007</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Superior Cycl. </t>
+  </si>
+  <si>
     <t>創科實業</t>
-  </si>
-  <si>
-    <t>C0007</t>
-  </si>
-  <si>
-    <t>USD</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -974,7 +978,7 @@
     <numFmt numFmtId="185" formatCode="#,##0.0000"/>
     <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1167,6 +1171,13 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="14">
@@ -1512,7 +1523,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="286">
+  <cellXfs count="287">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2192,6 +2203,9 @@
     </xf>
     <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3565,8 +3579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91:F98"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3590,12 +3604,12 @@
         <v>262</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
         <v>196</v>
       </c>
-      <c r="C5" s="192" t="s">
-        <v>263</v>
+      <c r="C5" s="286" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3619,7 +3633,7 @@
         <v>216</v>
       </c>
       <c r="C8" s="192" t="s">
-        <v>71</v>
+        <v>265</v>
       </c>
       <c r="E8" s="268"/>
     </row>
@@ -3628,7 +3642,7 @@
         <v>217</v>
       </c>
       <c r="C9" s="193" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3644,7 +3658,7 @@
         <v>219</v>
       </c>
       <c r="C11" s="193" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -4963,7 +4977,7 @@
       </c>
       <c r="C7" s="188" t="str">
         <f>Inputs!C8</f>
-        <v>N</v>
+        <v xml:space="preserve">Superior Cycl. </v>
       </c>
       <c r="D7" s="188" t="str">
         <f>Inputs!C9</f>
@@ -6296,10 +6310,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="B19" sqref="B19"/>
+      <selection pane="topRight" activeCell="D47" sqref="D42:D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>

--- a/financial_models/opportunities/0669.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0669.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974FC3C3-D08C-4F20-9CB8-A96AA253BCB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7817E08-5C22-411A-A9BE-530DA4772CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,9 +43,6 @@
     <t>Current Price:</t>
   </si>
   <si>
-    <t>HKD</t>
-  </si>
-  <si>
     <t>Number of Shares:</t>
   </si>
   <si>
@@ -957,6 +954,10 @@
   </si>
   <si>
     <t>創科實業</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>HKD</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -2162,6 +2163,9 @@
     <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2203,9 +2207,6 @@
     </xf>
     <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3593,28 +3594,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C4" s="189" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>196</v>
-      </c>
-      <c r="C5" s="286" t="s">
-        <v>266</v>
+        <v>195</v>
+      </c>
+      <c r="C5" s="270" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6" s="190">
         <v>45625</v>
@@ -3622,7 +3623,7 @@
     </row>
     <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B7" s="140" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="191">
         <v>8</v>
@@ -3630,24 +3631,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C8" s="192" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E8" s="268"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C9" s="193" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C10" s="194">
         <v>587107850</v>
@@ -3655,15 +3656,15 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C11" s="193" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="219" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="220">
         <v>45291</v>
@@ -3671,7 +3672,7 @@
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="219" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="221">
         <v>1000</v>
@@ -3679,7 +3680,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C14" s="220">
         <v>45473</v>
@@ -3687,15 +3688,15 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C15" s="177" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="223" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C16" s="224">
         <v>0.25</v>
@@ -3704,61 +3705,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="241" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C17" s="243" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C18" s="243" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C19" s="243" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="242" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C20" s="243" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C21" s="243" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="227" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C22" s="244" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3807,7 +3808,7 @@
     </row>
     <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B25" s="94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" s="150">
         <v>13731411</v>
@@ -3827,7 +3828,7 @@
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C26" s="151">
         <v>8311775</v>
@@ -3847,7 +3848,7 @@
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C27" s="151">
         <f>2347219+1406210</f>
@@ -3869,7 +3870,7 @@
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C28" s="151">
         <v>548338</v>
@@ -3889,7 +3890,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C29" s="151">
         <v>124056</v>
@@ -3909,7 +3910,7 @@
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C30" s="151">
         <v>0</v>
@@ -3929,7 +3930,7 @@
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C31" s="151"/>
       <c r="D31" s="151"/>
@@ -3945,7 +3946,7 @@
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C32" s="151"/>
       <c r="D32" s="151"/>
@@ -3961,7 +3962,7 @@
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C33" s="151"/>
       <c r="D33" s="151"/>
@@ -3977,7 +3978,7 @@
     </row>
     <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C34" s="218"/>
       <c r="D34" s="151"/>
@@ -3993,7 +3994,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C35" s="218"/>
       <c r="D35" s="151"/>
@@ -4009,7 +4010,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C36" s="218"/>
       <c r="D36" s="151"/>
@@ -4025,7 +4026,7 @@
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C37" s="218"/>
       <c r="D37" s="151"/>
@@ -4041,7 +4042,7 @@
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C38" s="218"/>
       <c r="D38" s="151"/>
@@ -4057,7 +4058,7 @@
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C39" s="218"/>
       <c r="D39" s="151"/>
@@ -4073,7 +4074,7 @@
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C40" s="218"/>
       <c r="D40" s="151"/>
@@ -4089,7 +4090,7 @@
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C41" s="218"/>
       <c r="D41" s="151"/>
@@ -4105,7 +4106,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C42" s="218"/>
       <c r="D42" s="151"/>
@@ -4121,7 +4122,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C43" s="218"/>
       <c r="D43" s="151"/>
@@ -4137,7 +4138,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C44" s="251">
         <f>0.1261+0.1223</f>
@@ -4159,15 +4160,15 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.7638084831028963E-2</v>
+        <v>1.7017397041052162E-2</v>
       </c>
       <c r="D45" s="153">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.6906714968872767E-2</v>
+        <v>1.6311764232989211E-2</v>
       </c>
       <c r="E45" s="153" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4208,21 +4209,21 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C47" s="195" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D47" s="195" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="60">
@@ -4232,7 +4233,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -4242,7 +4243,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
@@ -4253,7 +4254,7 @@
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
@@ -4263,7 +4264,7 @@
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
@@ -4273,7 +4274,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4284,7 +4285,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4294,7 +4295,7 @@
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
@@ -4305,7 +4306,7 @@
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
@@ -4313,24 +4314,24 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="222" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
       <c r="E57" s="222" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
@@ -4341,7 +4342,7 @@
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C59" s="120"/>
       <c r="D59" s="196">
@@ -4352,7 +4353,7 @@
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
@@ -4363,7 +4364,7 @@
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
@@ -4374,7 +4375,7 @@
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
@@ -4385,7 +4386,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4396,7 +4397,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4406,31 +4407,31 @@
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C65" s="59"/>
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
       <c r="E65" s="222" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
       <c r="E66" s="222" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
@@ -4438,12 +4439,12 @@
         <v>0.1</v>
       </c>
       <c r="E67" s="222" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
@@ -4454,7 +4455,7 @@
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
@@ -4465,7 +4466,7 @@
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C70" s="59"/>
       <c r="D70" s="60">
@@ -4475,7 +4476,7 @@
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C71" s="59"/>
       <c r="D71" s="60">
@@ -4486,7 +4487,7 @@
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="247" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C72" s="248"/>
       <c r="D72" s="249">
@@ -4496,85 +4497,85 @@
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C73" s="59"/>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C74" s="59"/>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C76" s="120"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C77" s="83"/>
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C79" s="59"/>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C80" s="59"/>
     </row>
     <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C81" s="120"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C82" s="83"/>
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C83" s="59"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4582,26 +4583,26 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C87" s="237" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>128</v>
-      </c>
-      <c r="C89" s="270">
+        <v>127</v>
+      </c>
+      <c r="C89" s="271">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="270"/>
+      <c r="D89" s="271"/>
       <c r="E89" s="89" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F89" s="50" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4610,20 +4611,20 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000USD)</v>
       </c>
-      <c r="C90" s="271" t="s">
+      <c r="C90" s="272" t="s">
+        <v>100</v>
+      </c>
+      <c r="D90" s="272"/>
+      <c r="E90" s="236" t="s">
         <v>101</v>
       </c>
-      <c r="D90" s="271"/>
-      <c r="E90" s="236" t="s">
-        <v>102</v>
-      </c>
       <c r="F90" s="256" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4641,7 +4642,7 @@
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
@@ -4662,7 +4663,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4683,7 +4684,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4701,7 +4702,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4722,7 +4723,7 @@
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
@@ -4740,7 +4741,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4758,7 +4759,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C98" s="238">
         <f>C44</f>
@@ -4886,68 +4887,68 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C3" s="276" t="str">
+        <v>194</v>
+      </c>
+      <c r="C3" s="277" t="str">
         <f>Inputs!C4</f>
         <v>0669.HK</v>
       </c>
-      <c r="D3" s="277"/>
+      <c r="D3" s="278"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>109.6</v>
+        <v>113.6</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>2</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="C4" s="278" t="str">
+        <v>195</v>
+      </c>
+      <c r="C4" s="279" t="str">
         <f>Inputs!C5</f>
         <v>創科實業</v>
       </c>
-      <c r="D4" s="279"/>
+      <c r="D4" s="280"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="282">
+        <v>2</v>
+      </c>
+      <c r="G4" s="283">
         <f>Inputs!C10</f>
         <v>587107850</v>
       </c>
-      <c r="H4" s="282"/>
+      <c r="H4" s="283"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C5" s="280">
+        <v>163</v>
+      </c>
+      <c r="C5" s="281">
         <f>Inputs!C6</f>
         <v>45625</v>
       </c>
-      <c r="D5" s="281"/>
+      <c r="D5" s="282"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="G5" s="274">
+        <v>99</v>
+      </c>
+      <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>64347.020360000002</v>
-      </c>
-      <c r="H5" s="274"/>
+        <v>66695.451759999996</v>
+      </c>
+      <c r="H5" s="275"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="87" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="186">
         <f>Inputs!C7</f>
@@ -4962,18 +4963,18 @@
         <v>45291</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="275" t="str">
+        <v>4</v>
+      </c>
+      <c r="G6" s="276" t="str">
         <f>Inputs!C11</f>
         <v>USD</v>
       </c>
-      <c r="H6" s="275"/>
+      <c r="H6" s="276"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C7" s="188" t="str">
         <f>Inputs!C8</f>
@@ -4985,10 +4986,10 @@
       </c>
       <c r="E7" s="87"/>
       <c r="F7" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7823433876037598</v>
+        <v>7.7825133005777998</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4998,40 +4999,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C10" s="173">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C11" s="174">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5044,29 +5045,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C14" s="173">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C15" s="173">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C16" s="174">
         <v>0.16</v>
@@ -5076,12 +5077,12 @@
         <v>HK</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5091,29 +5092,29 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C20" s="172">
         <f>Fin_Analysis!I75</f>
         <v>0.60531106380837341</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G20" s="173">
         <v>0.15</v>
@@ -5121,7 +5122,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5132,26 +5133,26 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C22" s="172">
         <f>Fin_Analysis!I78</f>
         <v>0</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C23" s="172">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G23" s="178" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5160,30 +5161,30 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C24" s="172">
         <f>Fin_Analysis!I81</f>
         <v>9.0344684898005026E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>11.093079230266298</v>
+        <v>11.497685105939386</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G25" s="172">
         <f>Fin_Analysis!I88</f>
@@ -5192,83 +5193,83 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C26" s="172">
         <f>Fin_Analysis!I83</f>
         <v>7.2375155036871239E-2</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.7638084831028963E-2</v>
+        <v>1.7017397041052162E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="90" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>167</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>168</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>238</v>
-      </c>
-      <c r="G28" s="272" t="s">
-        <v>259</v>
-      </c>
-      <c r="H28" s="272"/>
+        <v>237</v>
+      </c>
+      <c r="G28" s="273" t="s">
+        <v>258</v>
+      </c>
+      <c r="H28" s="273"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>97.402060567934925</v>
+        <v>95.995206718954776</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>192.55297702364862</v>
+        <v>189.77178435401959</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>114.59065949168814</v>
-      </c>
-      <c r="G29" s="273">
+        <v>112.93553731641738</v>
+      </c>
+      <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>167.43737132491185</v>
-      </c>
-      <c r="H29" s="273"/>
+        <v>165.01894291653878</v>
+      </c>
+      <c r="H29" s="274"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="197" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C32" s="225"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C33" s="246" t="str">
         <f>Inputs!C17</f>
@@ -5278,7 +5279,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C34" s="226" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
@@ -5289,14 +5290,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="197" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C35" s="225"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5306,7 +5307,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5316,14 +5317,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="197" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C38" s="225"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C39" s="246" t="str">
         <f>Inputs!C20</f>
@@ -5333,7 +5334,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -5348,14 +5349,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="227" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C43" s="245" t="str">
         <f>Inputs!C22</f>
@@ -6335,21 +6336,21 @@
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="149" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2" s="149" t="s">
         <v>203</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="H2" s="148" t="s">
         <v>204</v>
-      </c>
-      <c r="H2" s="148" t="s">
-        <v>205</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6360,14 +6361,14 @@
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="103" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="202">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
       <c r="E3" s="147" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6389,7 +6390,7 @@
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="B4" s="103" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="128">
         <f>Inputs!C13</f>
@@ -6400,7 +6401,7 @@
         <v>USD</v>
       </c>
       <c r="E4" s="147" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6411,7 +6412,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6461,7 +6462,7 @@
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="201">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
@@ -6512,7 +6513,7 @@
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="92">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
@@ -6563,7 +6564,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8" s="200">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
@@ -6614,7 +6615,7 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C9" s="152">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -6665,7 +6666,7 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="200">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
@@ -6716,7 +6717,7 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11" s="200">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
@@ -6767,7 +6768,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6818,7 +6819,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6869,7 +6870,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6920,7 +6921,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C15" s="233">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6971,7 +6972,7 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C16" s="200" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
@@ -7022,7 +7023,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7073,7 +7074,7 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C18" s="153" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -7124,7 +7125,7 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C19" s="200" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
@@ -7175,7 +7176,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7226,7 +7227,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C21" s="200" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
@@ -7277,7 +7278,7 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C22" s="162">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
@@ -7328,7 +7329,7 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C23" s="154">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -7379,7 +7380,7 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C24" s="155">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -7430,7 +7431,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="235" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C25" s="234">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7481,7 +7482,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7532,7 +7533,7 @@
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27" s="65">
         <f>IF(C36="","",C36+C31+C32)</f>
@@ -7583,7 +7584,7 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C28</f>
@@ -7634,7 +7635,7 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
@@ -7685,7 +7686,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7736,7 +7737,7 @@
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I28</f>
@@ -7787,7 +7788,7 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
@@ -7838,7 +7839,7 @@
     <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C33" s="65">
         <f>Fin_Analysis!I15</f>
@@ -7889,7 +7890,7 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C34" s="65">
         <f>Fin_Analysis!I34</f>
@@ -7940,7 +7941,7 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C35" s="77">
         <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
@@ -7991,7 +7992,7 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8042,7 +8043,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8093,7 +8094,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8144,7 +8145,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8195,7 +8196,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C40" s="156" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8246,7 +8247,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8264,7 +8265,7 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C42" s="157">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
@@ -8315,7 +8316,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8366,7 +8367,7 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C44" s="154">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -8417,7 +8418,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C45" s="154">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -8468,7 +8469,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C46" s="154">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8519,7 +8520,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8570,7 +8571,7 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C48" s="154">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8621,7 +8622,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8639,7 +8640,7 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="95" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C50" s="157">
         <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
@@ -8690,7 +8691,7 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C51" s="154">
         <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
@@ -8741,7 +8742,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8758,7 +8759,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C53" s="157" t="e">
         <f>IF(C36="","",(C27-C36)/C27)</f>
@@ -8808,7 +8809,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="94" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C54" s="158" t="str">
         <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
@@ -8858,7 +8859,7 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C55" s="154">
         <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
@@ -8908,7 +8909,7 @@
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="98" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C56" s="159" t="e">
         <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
@@ -10267,7 +10268,7 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
@@ -10277,12 +10278,12 @@
       <c r="H2" s="7"/>
       <c r="I2" s="87"/>
       <c r="K2" s="50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="116">
@@ -10296,7 +10297,7 @@
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
       <c r="H3" s="47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" s="205">
         <f>Inputs!C83</f>
@@ -10306,7 +10307,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="65">
@@ -10324,10 +10325,10 @@
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5" s="63" t="e">
         <f>C28/I28</f>
@@ -10337,7 +10338,7 @@
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
@@ -10351,7 +10352,7 @@
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I6" s="63" t="e">
         <f>(C24+C25)/I28</f>
@@ -10362,7 +10363,7 @@
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="66">
@@ -10374,7 +10375,7 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I7" s="63" t="e">
         <f>C24/I28</f>
@@ -10392,7 +10393,7 @@
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="204">
@@ -10411,32 +10412,32 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="D10" s="74" t="s">
+        <v>196</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>197</v>
-      </c>
-      <c r="E10" s="74" t="s">
+      <c r="F10" s="111" t="s">
         <v>35</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>36</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
@@ -10453,7 +10454,7 @@
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -10464,7 +10465,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10481,7 +10482,7 @@
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -10492,7 +10493,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10509,7 +10510,7 @@
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -10520,7 +10521,7 @@
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
@@ -10537,7 +10538,7 @@
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I14" s="206">
         <f>Inputs!C76</f>
@@ -10548,7 +10549,7 @@
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
@@ -10565,7 +10566,7 @@
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
@@ -10575,7 +10576,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10597,7 +10598,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10619,7 +10620,7 @@
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
@@ -10640,7 +10641,7 @@
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
@@ -10665,7 +10666,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10692,7 +10693,7 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
@@ -10713,7 +10714,7 @@
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
@@ -10730,7 +10731,7 @@
       <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10742,13 +10743,13 @@
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="111" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G23" s="87"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10770,7 +10771,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10790,7 +10791,7 @@
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I25" s="63" t="e">
         <f>E28/I28</f>
@@ -10799,7 +10800,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10819,7 +10820,7 @@
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I26" s="63" t="e">
         <f>E24/($I$28-I22)</f>
@@ -10832,7 +10833,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10852,7 +10853,7 @@
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I27" s="63" t="e">
         <f>(E25+E24)/$I$28</f>
@@ -10865,7 +10866,7 @@
     </row>
     <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="79">
         <f>SUM(C11:C22)</f>
@@ -10882,7 +10883,7 @@
       <c r="F28" s="112"/>
       <c r="G28" s="87"/>
       <c r="H28" s="78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I28" s="207">
         <f>Inputs!C77</f>
@@ -10898,7 +10899,7 @@
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="112" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
@@ -10907,7 +10908,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
@@ -10923,7 +10924,7 @@
       <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -10933,7 +10934,7 @@
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
@@ -10950,7 +10951,7 @@
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -10960,7 +10961,7 @@
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
@@ -10977,7 +10978,7 @@
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -10987,7 +10988,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11007,7 +11008,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I33" s="206">
         <f>Inputs!C81</f>
@@ -11017,7 +11018,7 @@
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
@@ -11034,7 +11035,7 @@
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
@@ -11044,7 +11045,7 @@
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
@@ -11070,7 +11071,7 @@
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
@@ -11097,7 +11098,7 @@
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
@@ -11124,7 +11125,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11145,7 +11146,7 @@
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
@@ -11166,7 +11167,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
@@ -11187,7 +11188,7 @@
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
@@ -11208,7 +11209,7 @@
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
@@ -11225,7 +11226,7 @@
       <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -11243,7 +11244,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -11262,7 +11263,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -11281,7 +11282,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -11298,7 +11299,7 @@
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I46" s="63" t="e">
         <f>(E44+E24)/E64</f>
@@ -11311,7 +11312,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -11328,7 +11329,7 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I47" s="63" t="e">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -11341,7 +11342,7 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
@@ -11358,7 +11359,7 @@
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I48" s="208">
         <f>Inputs!C82</f>
@@ -11368,7 +11369,7 @@
     </row>
     <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C49" s="61">
         <f>C28+C48</f>
@@ -11385,7 +11386,7 @@
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
@@ -11401,14 +11402,14 @@
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
@@ -11420,12 +11421,12 @@
       <c r="G52" s="87"/>
       <c r="I52" s="87"/>
       <c r="K52" s="50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
@@ -11455,7 +11456,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11466,14 +11467,14 @@
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="283">
+      <c r="D56" s="284">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="281"/>
+      <c r="E56" s="282"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11481,30 +11482,30 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="282">
+      <c r="D57" s="283">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="281"/>
+      <c r="E57" s="282"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="282">
+      <c r="D58" s="283">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="281"/>
+      <c r="E58" s="282"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11521,11 +11522,11 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="9"/>
@@ -11535,7 +11536,7 @@
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11556,7 +11557,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11577,7 +11578,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11598,7 +11599,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C64" s="209"/>
       <c r="D64" s="209"/>
@@ -11613,7 +11614,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11644,11 +11645,11 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="87"/>
@@ -11658,7 +11659,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11679,7 +11680,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C69" s="209"/>
       <c r="D69" s="209"/>
@@ -11694,7 +11695,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11716,23 +11717,23 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>128</v>
-      </c>
-      <c r="C72" s="270">
+        <v>127</v>
+      </c>
+      <c r="C72" s="271">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="270"/>
-      <c r="E72" s="284" t="s">
-        <v>207</v>
-      </c>
-      <c r="F72" s="284"/>
-      <c r="H72" s="284" t="s">
+      <c r="D72" s="271"/>
+      <c r="E72" s="285" t="s">
         <v>206</v>
       </c>
-      <c r="I72" s="284"/>
+      <c r="F72" s="285"/>
+      <c r="H72" s="285" t="s">
+        <v>205</v>
+      </c>
+      <c r="I72" s="285"/>
       <c r="K72" s="50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11740,23 +11741,23 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000USD)</v>
       </c>
-      <c r="C73" s="271" t="s">
+      <c r="C73" s="272" t="s">
+        <v>100</v>
+      </c>
+      <c r="D73" s="272"/>
+      <c r="E73" s="286" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="271"/>
-      <c r="E73" s="285" t="s">
-        <v>102</v>
-      </c>
-      <c r="F73" s="271"/>
-      <c r="H73" s="285" t="s">
-        <v>102</v>
-      </c>
-      <c r="I73" s="271"/>
+      <c r="F73" s="272"/>
+      <c r="H73" s="286" t="s">
+        <v>101</v>
+      </c>
+      <c r="I73" s="272"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11777,7 +11778,7 @@
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
@@ -11807,7 +11808,7 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C76" s="162">
         <f>C74-C75</f>
@@ -11828,7 +11829,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11858,7 +11859,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11888,7 +11889,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -11919,7 +11920,7 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
@@ -11946,12 +11947,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="182" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11981,7 +11982,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12011,7 +12012,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C83" s="164">
         <f>C79-C81-C82-C80</f>
@@ -12041,7 +12042,7 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C84" s="212"/>
       <c r="D84" s="160">
@@ -12062,7 +12063,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="264" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C85" s="258">
         <f>C83*(1-I84)</f>
@@ -12093,7 +12094,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C86" s="168">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12114,28 +12115,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.0146295653564454E-2</v>
+        <v>8.6974029188138818E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.0146295653564371E-2</v>
+        <v>8.6974029188138721E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.0146295653564371E-2</v>
+        <v>8.6974029188138721E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C88" s="170">
         <f>Inputs!C44</f>
@@ -12165,21 +12166,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.7638084831028963E-2</v>
+        <v>1.7017397041052162E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.7638084831028963E-2</v>
+        <v>1.7017397041052162E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.7638084831028963E-2</v>
+        <v>1.7017397041052162E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12196,29 +12197,29 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C92" s="199" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="E92" s="284" t="s">
-        <v>207</v>
-      </c>
-      <c r="F92" s="284"/>
+        <v>156</v>
+      </c>
+      <c r="E92" s="285" t="s">
+        <v>206</v>
+      </c>
+      <c r="F92" s="285"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="284" t="s">
-        <v>206</v>
-      </c>
-      <c r="I92" s="284"/>
+      <c r="H92" s="285" t="s">
+        <v>205</v>
+      </c>
+      <c r="I92" s="285"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12235,24 +12236,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>230.48274658897196</v>
+        <v>227.1537047055505</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>230.48274658897196</v>
+        <v>227.1537047055505</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C94" s="183">
         <f>Dashboard!G20</f>
@@ -12260,18 +12261,18 @@
       </c>
       <c r="D94" s="145"/>
       <c r="E94" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>31.965743145543428</v>
+        <v>31.869073480807138</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>31.965743145543428</v>
+        <v>31.869073480807138</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12290,51 +12291,51 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E96" s="184" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>67277075.724247113</v>
+        <v>66305340.502436578</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>114.59065949168814</v>
+        <v>112.93553731641738</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>114.59065949168814</v>
+        <v>112.93553731641738</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>167.43737132491185</v>
+        <v>165.01894291653878</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
@@ -12352,7 +12353,7 @@
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -12373,31 +12374,31 @@
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>67277075.724247113</v>
+        <v>66305340.502436578</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>97.402060567934925</v>
+        <v>95.995206718954776</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>114.59065949168814</v>
+        <v>112.93553731641738</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>114.59065949168814</v>
+        <v>112.93553731641738</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>114.59065949168814</v>
+        <v>112.93553731641738</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>167.43737132491185</v>
+        <v>165.01894291653878</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12407,58 +12408,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E102" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>9330684.2009295002</v>
+        <v>9302466.6772712152</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>13.508730245712224</v>
+        <v>13.46787762364365</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>15.892623818484969</v>
+        <v>15.844561910169</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>15.892623818484969</v>
+        <v>15.844561910169</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>15.892623818484969</v>
+        <v>15.844561910169</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>23.221955152599712</v>
+        <v>23.151728140860865</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12468,58 +12469,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E105" s="185" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>38303879.96258831</v>
+        <v>37803903.589853898</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>55.455395406823577</v>
+        <v>54.731542171299211</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>65.241641655086553</v>
+        <v>64.390049613293186</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>65.241641655086553</v>
+        <v>64.390049613293186</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>65.241641655086553</v>
+        <v>64.390049613293186</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>95.329663238755785</v>
+        <v>94.085335528699815</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12528,7 +12529,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/0669.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0669.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7817E08-5C22-411A-A9BE-530DA4772CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{68BB4022-C219-464D-A84F-BC3337763272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -944,17 +944,16 @@
     <t>0669.HK</t>
   </si>
   <si>
+    <t>創科實業</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Superior Cycl. </t>
+  </si>
+  <si>
     <t>C0007</t>
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Superior Cycl. </t>
-  </si>
-  <si>
-    <t>創科實業</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>HKD</t>
@@ -979,7 +978,7 @@
     <numFmt numFmtId="185" formatCode="#,##0.0000"/>
     <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1172,13 +1171,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="SimSun"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="14">
@@ -1524,7 +1516,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="287">
+  <cellXfs count="286">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2161,9 +2153,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3580,8 +3569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3605,12 +3594,12 @@
         <v>261</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
         <v>195</v>
       </c>
-      <c r="C5" s="270" t="s">
-        <v>265</v>
+      <c r="C5" s="192" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3634,7 +3623,7 @@
         <v>215</v>
       </c>
       <c r="C8" s="192" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E8" s="268"/>
     </row>
@@ -3643,7 +3632,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="193" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3659,7 +3648,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="193" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -4164,11 +4153,11 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.7017397041052162E-2</v>
+        <v>1.7002619363387216E-2</v>
       </c>
       <c r="D45" s="153">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.6311764232989211E-2</v>
+        <v>1.6297599317320839E-2</v>
       </c>
       <c r="E45" s="153" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4593,11 +4582,11 @@
       <c r="B89" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="C89" s="271">
+      <c r="C89" s="270">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="271"/>
+      <c r="D89" s="270"/>
       <c r="E89" s="89" t="s">
         <v>206</v>
       </c>
@@ -4611,10 +4600,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000USD)</v>
       </c>
-      <c r="C90" s="272" t="s">
+      <c r="C90" s="271" t="s">
         <v>100</v>
       </c>
-      <c r="D90" s="272"/>
+      <c r="D90" s="271"/>
       <c r="E90" s="236" t="s">
         <v>101</v>
       </c>
@@ -4809,7 +4798,7 @@
   </conditionalFormatting>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
-      <formula1>"Tier 1, Superior Cycl. ,Cigar Butts, N"</formula1>
+      <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C11" xr:uid="{7C8576B4-3288-485C-91EB-6274925EDC41}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
@@ -4889,17 +4878,17 @@
       <c r="B3" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="277" t="str">
+      <c r="C3" s="276" t="str">
         <f>Inputs!C4</f>
         <v>0669.HK</v>
       </c>
-      <c r="D3" s="278"/>
+      <c r="D3" s="277"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>113.6</v>
+        <v>113.7</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>266</v>
@@ -4909,40 +4898,40 @@
       <c r="B4" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="C4" s="279" t="str">
+      <c r="C4" s="278" t="str">
         <f>Inputs!C5</f>
         <v>創科實業</v>
       </c>
-      <c r="D4" s="280"/>
+      <c r="D4" s="279"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="283">
+      <c r="G4" s="282">
         <f>Inputs!C10</f>
         <v>587107850</v>
       </c>
-      <c r="H4" s="283"/>
+      <c r="H4" s="282"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="281">
+      <c r="C5" s="280">
         <f>Inputs!C6</f>
         <v>45625</v>
       </c>
-      <c r="D5" s="282"/>
+      <c r="D5" s="281"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="275">
+      <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>66695.451759999996</v>
-      </c>
-      <c r="H5" s="275"/>
+        <v>66754.162544999999</v>
+      </c>
+      <c r="H5" s="274"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4965,11 +4954,11 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="276" t="str">
+      <c r="G6" s="275" t="str">
         <f>Inputs!C11</f>
         <v>USD</v>
       </c>
-      <c r="H6" s="276"/>
+      <c r="H6" s="275"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4989,7 +4978,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7825133005777998</v>
+        <v>7.782599925994873</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5172,7 +5161,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>11.497685105939386</v>
+        <v>11.507678218221514</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5204,7 +5193,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.7017397041052162E-2</v>
+        <v>1.7002619363387216E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5223,10 +5212,10 @@
       <c r="F28" s="53" t="s">
         <v>237</v>
       </c>
-      <c r="G28" s="273" t="s">
+      <c r="G28" s="272" t="s">
         <v>258</v>
       </c>
-      <c r="H28" s="273"/>
+      <c r="H28" s="272"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5234,22 +5223,22 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>95.995206718954776</v>
+        <v>95.962928930873247</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>189.77178435401959</v>
+        <v>189.70797477801477</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>112.93553731641738</v>
-      </c>
-      <c r="G29" s="274">
+        <v>112.89756344808617</v>
+      </c>
+      <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>165.01894291653878</v>
-      </c>
-      <c r="H29" s="274"/>
+        <v>164.9634563287085</v>
+      </c>
+      <c r="H29" s="273"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6311,10 +6300,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D47" sqref="D42:D47"/>
+      <selection pane="topRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -11470,11 +11459,11 @@
         <v>89</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="284">
+      <c r="D56" s="283">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="282"/>
+      <c r="E56" s="281"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11485,11 +11474,11 @@
         <v>90</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="283">
+      <c r="D57" s="282">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="282"/>
+      <c r="E57" s="281"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11501,11 +11490,11 @@
         <v>92</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="283">
+      <c r="D58" s="282">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="282"/>
+      <c r="E58" s="281"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11719,19 +11708,19 @@
       <c r="B72" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="C72" s="271">
+      <c r="C72" s="270">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="271"/>
-      <c r="E72" s="285" t="s">
+      <c r="D72" s="270"/>
+      <c r="E72" s="284" t="s">
         <v>206</v>
       </c>
-      <c r="F72" s="285"/>
-      <c r="H72" s="285" t="s">
+      <c r="F72" s="284"/>
+      <c r="H72" s="284" t="s">
         <v>205</v>
       </c>
-      <c r="I72" s="285"/>
+      <c r="I72" s="284"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11741,18 +11730,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000USD)</v>
       </c>
-      <c r="C73" s="272" t="s">
+      <c r="C73" s="271" t="s">
         <v>100</v>
       </c>
-      <c r="D73" s="272"/>
-      <c r="E73" s="286" t="s">
+      <c r="D73" s="271"/>
+      <c r="E73" s="285" t="s">
         <v>101</v>
       </c>
-      <c r="F73" s="272"/>
-      <c r="H73" s="286" t="s">
+      <c r="F73" s="271"/>
+      <c r="H73" s="285" t="s">
         <v>101</v>
       </c>
-      <c r="I73" s="272"/>
+      <c r="I73" s="271"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12119,17 +12108,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.6974029188138818E-2</v>
+        <v>8.6898502116315585E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.6974029188138721E-2</v>
+        <v>8.6898502116315501E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.6974029188138721E-2</v>
+        <v>8.6898502116315501E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12170,17 +12159,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.7017397041052162E-2</v>
+        <v>1.7002619363387216E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.7017397041052162E-2</v>
+        <v>1.7002619363387216E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.7017397041052162E-2</v>
+        <v>1.7002619363387216E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12211,15 +12200,15 @@
       <c r="D92" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E92" s="285" t="s">
+      <c r="E92" s="284" t="s">
         <v>206</v>
       </c>
-      <c r="F92" s="285"/>
+      <c r="F92" s="284"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="285" t="s">
+      <c r="H92" s="284" t="s">
         <v>205</v>
       </c>
-      <c r="I92" s="285"/>
+      <c r="I92" s="284"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12240,14 +12229,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>227.1537047055505</v>
+        <v>227.07732569254534</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>227.1537047055505</v>
+        <v>227.07732569254534</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12265,14 +12254,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>31.869073480807138</v>
+        <v>31.867112896666882</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>31.869073480807138</v>
+        <v>31.867112896666882</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12315,21 +12304,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>66305340.502436578</v>
+        <v>66283045.74624446</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>112.93553731641738</v>
+        <v>112.89756344808617</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>112.93553731641738</v>
+        <v>112.89756344808617</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>165.01894291653878</v>
+        <v>164.9634563287085</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12378,27 +12367,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>66305340.502436578</v>
+        <v>66283045.74624446</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>95.995206718954776</v>
+        <v>95.962928930873247</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>112.93553731641738</v>
+        <v>112.89756344808617</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>112.93553731641738</v>
+        <v>112.89756344808617</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>112.93553731641738</v>
+        <v>112.89756344808617</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>165.01894291653878</v>
+        <v>164.9634563287085</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12439,27 +12428,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>9302466.6772712152</v>
+        <v>9301894.3898891006</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>13.46787762364365</v>
+        <v>13.467049080344839</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>15.844561910169</v>
+        <v>15.843587153346871</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>15.844561910169</v>
+        <v>15.843587153346871</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>15.844561910169</v>
+        <v>15.843587153346871</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>23.151728140860865</v>
+        <v>23.150303847461188</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12500,27 +12489,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>37803903.589853898</v>
+        <v>37792470.068066783</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>54.731542171299211</v>
+        <v>54.714989005609041</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>64.390049613293186</v>
+        <v>64.370575300716524</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>64.390049613293186</v>
+        <v>64.370575300716524</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>64.390049613293186</v>
+        <v>64.370575300716524</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>94.085335528699815</v>
+        <v>94.056880088084853</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0669.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0669.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68BB4022-C219-464D-A84F-BC3337763272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4F6DD66-5F58-44D8-8B28-3A4BC7678799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4153,11 +4153,11 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.7002619363387216E-2</v>
+        <v>1.6987766002728777E-2</v>
       </c>
       <c r="D45" s="153">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.6297599317320839E-2</v>
+        <v>1.6283361856882936E-2</v>
       </c>
       <c r="E45" s="153" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4888,7 +4888,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>113.7</v>
+        <v>113.8</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>266</v>
@@ -4929,7 +4929,7 @@
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>66754.162544999999</v>
+        <v>66812.873330000002</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -4978,7 +4978,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.782599925994873</v>
+        <v>7.7826399803161621</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5161,7 +5161,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>11.507678218221514</v>
+        <v>11.517740029461972</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5193,7 +5193,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.7002619363387216E-2</v>
+        <v>1.6987766002728777E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5223,20 +5223,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>95.962928930873247</v>
+        <v>95.929914914532034</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>189.70797477801477</v>
+        <v>189.64270976110501</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>112.89756344808617</v>
+        <v>112.85872342886123</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>164.9634563287085</v>
+        <v>164.90670414009134</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12108,17 +12108,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.6898502116315585E-2</v>
+        <v>8.682258823710523E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.6898502116315501E-2</v>
+        <v>8.6822588237105147E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.6898502116315501E-2</v>
+        <v>8.6822588237105147E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12159,17 +12159,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.7002619363387216E-2</v>
+        <v>1.6987766002728777E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.7002619363387216E-2</v>
+        <v>1.6987766002728777E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.7002619363387216E-2</v>
+        <v>1.6987766002728777E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12229,14 +12229,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>227.07732569254534</v>
+        <v>226.9992045407146</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>227.07732569254534</v>
+        <v>226.9992045407146</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12254,14 +12254,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>31.867112896666882</v>
+        <v>31.864949859775471</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>31.867112896666882</v>
+        <v>31.864949859775471</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12304,21 +12304,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>66283045.74624446</v>
+        <v>66260242.466063336</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>112.89756344808617</v>
+        <v>112.85872342886123</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>112.89756344808617</v>
+        <v>112.85872342886123</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>164.9634563287085</v>
+        <v>164.90670414009134</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12367,27 +12367,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>66283045.74624446</v>
+        <v>66260242.466063336</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>95.962928930873247</v>
+        <v>95.929914914532034</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>112.89756344808617</v>
+        <v>112.85872342886123</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>112.89756344808617</v>
+        <v>112.85872342886123</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>112.89756344808617</v>
+        <v>112.85872342886123</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>164.9634563287085</v>
+        <v>164.90670414009134</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12428,27 +12428,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>9301894.3898891006</v>
+        <v>9301263.0072850175</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>13.467049080344839</v>
+        <v>13.466134980467837</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>15.843587153346871</v>
+        <v>15.842511741726868</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>15.843587153346871</v>
+        <v>15.842511741726868</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>15.843587153346871</v>
+        <v>15.842511741726868</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>23.150303847461188</v>
+        <v>23.148732479467114</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12489,27 +12489,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>37792470.068066783</v>
+        <v>37780752.736674182</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>54.714989005609041</v>
+        <v>54.698024947499938</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>64.370575300716524</v>
+        <v>64.350617585294046</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>64.370575300716524</v>
+        <v>64.350617585294046</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>64.370575300716524</v>
+        <v>64.350617585294046</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>94.056880088084853</v>
+        <v>94.027718309779232</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0669.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0669.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4F6DD66-5F58-44D8-8B28-3A4BC7678799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{47CF95BC-D3DE-4DD9-8372-FD0611952110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4153,11 +4153,11 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.6987766002728777E-2</v>
+        <v>1.6987271261969434E-2</v>
       </c>
       <c r="D45" s="153">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.6283361856882936E-2</v>
+        <v>1.62828876307364E-2</v>
       </c>
       <c r="E45" s="153" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4978,7 +4978,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7826399803161621</v>
+        <v>7.7824133237202959</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5161,7 +5161,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>11.517740029461972</v>
+        <v>11.518075474476078</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5193,7 +5193,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.6987766002728777E-2</v>
+        <v>1.6987271261969434E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5223,20 +5223,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>95.929914914532034</v>
+        <v>95.926005214456936</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>189.64270976110501</v>
+        <v>189.63498072144876</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>112.85872342886123</v>
+        <v>112.85412378171404</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>164.90670414009134</v>
+        <v>164.8999832360424</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12108,17 +12108,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.682258823710523E-2</v>
+        <v>8.6820059671946892E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.6822588237105147E-2</v>
+        <v>8.6820059671946795E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.6822588237105147E-2</v>
+        <v>8.6820059671946795E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12159,17 +12159,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.6987766002728777E-2</v>
+        <v>1.6987271261969434E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.6987766002728777E-2</v>
+        <v>1.6987271261969434E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.6987766002728777E-2</v>
+        <v>1.6987271261969434E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12229,14 +12229,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>226.9992045407146</v>
+        <v>226.98995300736513</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>226.9992045407146</v>
+        <v>226.98995300736513</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12254,14 +12254,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>31.864949859775471</v>
+        <v>31.863944340061298</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>31.864949859775471</v>
+        <v>31.863944340061298</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12304,21 +12304,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>66260242.466063336</v>
+        <v>66257541.977115996</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>112.85872342886123</v>
+        <v>112.85412378171404</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>112.85872342886123</v>
+        <v>112.85412378171404</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>164.90670414009134</v>
+        <v>164.8999832360424</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12367,27 +12367,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>66260242.466063336</v>
+        <v>66257541.977115996</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>95.929914914532034</v>
+        <v>95.926005214456936</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>112.85872342886123</v>
+        <v>112.85412378171404</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>112.85872342886123</v>
+        <v>112.85412378171404</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>112.85872342886123</v>
+        <v>112.85412378171404</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>164.90670414009134</v>
+        <v>164.8999832360424</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12428,27 +12428,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>9301263.0072850175</v>
+        <v>9300969.4997363891</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>13.466134980467837</v>
+        <v>13.465710047610385</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>15.842511741726868</v>
+        <v>15.842011820718099</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>15.842511741726868</v>
+        <v>15.842011820718099</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>15.842511741726868</v>
+        <v>15.842011820718099</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>23.148732479467114</v>
+        <v>23.148002005797185</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12489,27 +12489,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>37780752.736674182</v>
+        <v>37779255.738426201</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>54.698024947499938</v>
+        <v>54.695857631033661</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>64.350617585294046</v>
+        <v>64.348067801216075</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>64.350617585294046</v>
+        <v>64.348067801216075</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>64.350617585294046</v>
+        <v>64.348067801216075</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>94.027718309779232</v>
+        <v>94.023992620919799</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0669.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0669.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47CF95BC-D3DE-4DD9-8372-FD0611952110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{106E555E-5EA5-4A0B-8768-8FD47C86185E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4153,11 +4153,11 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.6987271261969434E-2</v>
+        <v>1.6987649429871035E-2</v>
       </c>
       <c r="D45" s="153">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.62828876307364E-2</v>
+        <v>1.6283250117762858E-2</v>
       </c>
       <c r="E45" s="153" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4590,7 +4590,7 @@
       <c r="E89" s="89" t="s">
         <v>206</v>
       </c>
-      <c r="F89" s="50" t="s">
+      <c r="F89" s="89" t="s">
         <v>205</v>
       </c>
       <c r="H89" s="31"/>
@@ -4978,7 +4978,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7824133237202959</v>
+        <v>7.7825865745544434</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5161,7 +5161,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>11.518075474476078</v>
+        <v>11.517819066639863</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5193,7 +5193,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.6987271261969434E-2</v>
+        <v>1.6987649429871035E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5223,20 +5223,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>95.926005214456936</v>
+        <v>95.928993688090372</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>189.63498072144876</v>
+        <v>189.64088859949078</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>112.85412378171404</v>
+        <v>112.8576396330475</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>164.8999832360424</v>
+        <v>164.90512052129634</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12108,17 +12108,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.6820059671946892E-2</v>
+        <v>8.6821992446156293E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.6820059671946795E-2</v>
+        <v>8.6821992446156196E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.6820059671946795E-2</v>
+        <v>8.6821992446156196E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12159,17 +12159,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.6987271261969434E-2</v>
+        <v>1.6987649429871035E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.6987271261969434E-2</v>
+        <v>1.6987649429871035E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.6987271261969434E-2</v>
+        <v>1.6987649429871035E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12229,14 +12229,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>226.98995300736513</v>
+        <v>226.99702464021487</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>226.98995300736513</v>
+        <v>226.99702464021487</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12254,14 +12254,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>31.863944340061298</v>
+        <v>31.864712934654126</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>31.863944340061298</v>
+        <v>31.864712934654126</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12304,21 +12304,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>66257541.977115996</v>
+        <v>66259606.161033303</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>112.85412378171404</v>
+        <v>112.8576396330475</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>112.85412378171404</v>
+        <v>112.8576396330475</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>164.8999832360424</v>
+        <v>164.90512052129634</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12367,27 +12367,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>66257541.977115996</v>
+        <v>66259606.161033303</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>95.926005214456936</v>
+        <v>95.928993688090372</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>112.85412378171404</v>
+        <v>112.8576396330475</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>112.85412378171404</v>
+        <v>112.8576396330475</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>112.85412378171404</v>
+        <v>112.8576396330475</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>164.8999832360424</v>
+        <v>164.90512052129634</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12428,27 +12428,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>9300969.4997363891</v>
+        <v>9301193.8497035261</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>13.465710047610385</v>
+        <v>13.466034855858249</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>15.842011820718099</v>
+        <v>15.842393948068528</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>15.842011820718099</v>
+        <v>15.842393948068528</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>15.842011820718099</v>
+        <v>15.842393948068528</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>23.148002005797185</v>
+        <v>23.148560361943758</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12489,27 +12489,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>37779255.738426201</v>
+        <v>37780400.005368419</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>54.695857631033661</v>
+        <v>54.697514271974313</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>64.348067801216075</v>
+        <v>64.350016790558016</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>64.348067801216075</v>
+        <v>64.350016790558016</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>64.348067801216075</v>
+        <v>64.350016790558016</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>94.023992620919799</v>
+        <v>94.026840441620053</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0669.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0669.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{106E555E-5EA5-4A0B-8768-8FD47C86185E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{02D6BBE4-4EB7-416A-9382-760E385EFE6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4153,11 +4153,11 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.6987649429871035E-2</v>
+        <v>1.6987576571834948E-2</v>
       </c>
       <c r="D45" s="153">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.6283250117762858E-2</v>
+        <v>1.6283180280812805E-2</v>
       </c>
       <c r="E45" s="153" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4978,7 +4978,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7825865745544434</v>
+        <v>7.7825531959533691</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5027,7 +5027,7 @@
         <v>0.06</v>
       </c>
       <c r="D12" s="173">
-        <v>6.6000000000000003E-2</v>
+        <v>6.4500000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5074,7 +5074,7 @@
         <v>255</v>
       </c>
       <c r="C17" s="176">
-        <v>7.1999999999999995E-2</v>
+        <v>6.8999999999999992E-2</v>
       </c>
       <c r="D17" s="177"/>
     </row>
@@ -5161,7 +5161,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>11.517819066639863</v>
+        <v>11.517868465426893</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5193,7 +5193,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.6987649429871035E-2</v>
+        <v>1.6987576571834948E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5223,20 +5223,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>95.928993688090372</v>
+        <v>98.159311363775487</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>189.64088859949078</v>
+        <v>195.42102662351829</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>112.8576396330475</v>
+        <v>115.48154278091233</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>164.90512052129634</v>
+        <v>169.93132749871157</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12108,17 +12108,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.6821992446156293E-2</v>
+        <v>8.6821620076813197E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.6821992446156196E-2</v>
+        <v>8.68216200768131E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.6821992446156196E-2</v>
+        <v>8.68216200768131E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12159,17 +12159,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.6987649429871035E-2</v>
+        <v>1.6987576571834948E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.6987649429871035E-2</v>
+        <v>1.6987576571834948E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.6987649429871035E-2</v>
+        <v>1.6987576571834948E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12218,7 +12218,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>6.6000000000000003E-2</v>
+        <v>6.4500000000000002E-2</v>
       </c>
       <c r="D93" s="240">
         <f>Inputs!C86</f>
@@ -12229,14 +12229,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>226.99702464021487</v>
+        <v>232.2746310959767</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>226.99702464021487</v>
+        <v>232.2746310959767</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12254,14 +12254,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>31.864712934654126</v>
+        <v>32.60560124859839</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>31.864712934654126</v>
+        <v>32.60560124859839</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12304,21 +12304,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>66259606.161033303</v>
+        <v>67800120.296784461</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>112.8576396330475</v>
+        <v>115.48154278091233</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>112.8576396330475</v>
+        <v>115.48154278091233</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>164.90512052129634</v>
+        <v>169.93132749871157</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12367,27 +12367,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>66259606.161033303</v>
+        <v>67800120.296784461</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>95.928993688090372</v>
+        <v>98.159311363775487</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>112.8576396330475</v>
+        <v>115.48154278091233</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>112.8576396330475</v>
+        <v>115.48154278091233</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>112.8576396330475</v>
+        <v>115.48154278091233</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>164.90512052129634</v>
+        <v>169.93132749871157</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12428,27 +12428,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>9301193.8497035261</v>
+        <v>9517456.454770999</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>13.466034855858249</v>
+        <v>13.779134424033591</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>15.842393948068528</v>
+        <v>16.210746381215991</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>15.842393948068528</v>
+        <v>16.210746381215991</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>15.842393948068528</v>
+        <v>16.210746381215991</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>23.148560361943758</v>
+        <v>23.854146610520413</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12489,27 +12489,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>37780400.005368419</v>
+        <v>38658788.375777736</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>54.697514271974313</v>
+        <v>55.969222893904536</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>64.350016790558016</v>
+        <v>65.846144581064166</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>64.350016790558016</v>
+        <v>65.846144581064166</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>64.350016790558016</v>
+        <v>65.846144581064166</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>94.026840441620053</v>
+        <v>96.892737054615992</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0669.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0669.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02D6BBE4-4EB7-416A-9382-760E385EFE6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE4F0827-F307-43DB-9B4F-40DC3386F5C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -950,7 +950,7 @@
     <t xml:space="preserve">Superior Cycl. </t>
   </si>
   <si>
-    <t>C0007</t>
+    <t>C0006</t>
   </si>
   <si>
     <t>USD</t>
@@ -964,7 +964,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="12">
+  <numFmts count="13">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
@@ -977,6 +977,7 @@
     <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="185" formatCode="#,##0.0000"/>
     <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="187" formatCode="&quot;g = &quot;0.00%"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1516,7 +1517,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="286">
+  <cellXfs count="287">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1816,9 +1817,6 @@
     <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2153,6 +2151,12 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3590,7 +3594,7 @@
       <c r="B4" s="141" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="189" t="s">
+      <c r="C4" s="188" t="s">
         <v>261</v>
       </c>
     </row>
@@ -3598,7 +3602,7 @@
       <c r="B5" s="141" t="s">
         <v>195</v>
       </c>
-      <c r="C5" s="192" t="s">
+      <c r="C5" s="191" t="s">
         <v>262</v>
       </c>
     </row>
@@ -3606,7 +3610,7 @@
       <c r="B6" s="141" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="190">
+      <c r="C6" s="189">
         <v>45625</v>
       </c>
     </row>
@@ -3614,7 +3618,7 @@
       <c r="B7" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="191">
+      <c r="C7" s="190">
         <v>8</v>
       </c>
     </row>
@@ -3622,16 +3626,16 @@
       <c r="B8" s="140" t="s">
         <v>215</v>
       </c>
-      <c r="C8" s="192" t="s">
+      <c r="C8" s="191" t="s">
         <v>263</v>
       </c>
-      <c r="E8" s="268"/>
+      <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
         <v>216</v>
       </c>
-      <c r="C9" s="193" t="s">
+      <c r="C9" s="192" t="s">
         <v>264</v>
       </c>
     </row>
@@ -3639,7 +3643,7 @@
       <c r="B10" s="140" t="s">
         <v>217</v>
       </c>
-      <c r="C10" s="194">
+      <c r="C10" s="193">
         <v>587107850</v>
       </c>
     </row>
@@ -3647,101 +3651,101 @@
       <c r="B11" s="140" t="s">
         <v>218</v>
       </c>
-      <c r="C11" s="193" t="s">
+      <c r="C11" s="192" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="219" t="s">
+      <c r="B12" s="218" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="220">
+      <c r="C12" s="219">
         <v>45291</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="219" t="s">
+      <c r="B13" s="218" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="221">
+      <c r="C13" s="220">
         <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="219" t="s">
+      <c r="B14" s="218" t="s">
         <v>219</v>
       </c>
-      <c r="C14" s="220">
+      <c r="C14" s="219">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="219" t="s">
+      <c r="B15" s="218" t="s">
         <v>256</v>
       </c>
-      <c r="C15" s="177" t="s">
+      <c r="C15" s="176" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="223" t="s">
+      <c r="B16" s="222" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="224">
+      <c r="C16" s="223">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="241" t="s">
+      <c r="B17" s="240" t="s">
         <v>224</v>
       </c>
-      <c r="C17" s="243" t="s">
+      <c r="C17" s="242" t="s">
         <v>245</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="241" t="s">
+      <c r="B18" s="240" t="s">
         <v>238</v>
       </c>
-      <c r="C18" s="243" t="s">
+      <c r="C18" s="242" t="s">
         <v>245</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="241" t="s">
+      <c r="B19" s="240" t="s">
         <v>239</v>
       </c>
-      <c r="C19" s="243" t="s">
+      <c r="C19" s="242" t="s">
         <v>245</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="242" t="s">
+      <c r="B20" s="241" t="s">
         <v>228</v>
       </c>
-      <c r="C20" s="243" t="s">
+      <c r="C20" s="242" t="s">
         <v>245</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="225" t="s">
+      <c r="B21" s="224" t="s">
         <v>231</v>
       </c>
-      <c r="C21" s="243" t="s">
+      <c r="C21" s="242" t="s">
         <v>245</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="227" t="s">
+      <c r="B22" s="226" t="s">
         <v>230</v>
       </c>
-      <c r="C22" s="244" t="s">
+      <c r="C22" s="243" t="s">
         <v>259</v>
       </c>
       <c r="D22" s="24"/>
@@ -3799,399 +3803,399 @@
       <c r="B25" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="150">
+      <c r="C25" s="149">
         <v>13731411</v>
       </c>
-      <c r="D25" s="150">
+      <c r="D25" s="149">
         <v>13253917</v>
       </c>
-      <c r="E25" s="150"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="150"/>
-      <c r="H25" s="150"/>
-      <c r="I25" s="150"/>
-      <c r="J25" s="150"/>
-      <c r="K25" s="150"/>
-      <c r="L25" s="150"/>
-      <c r="M25" s="150"/>
+      <c r="E25" s="149"/>
+      <c r="F25" s="149"/>
+      <c r="G25" s="149"/>
+      <c r="H25" s="149"/>
+      <c r="I25" s="149"/>
+      <c r="J25" s="149"/>
+      <c r="K25" s="149"/>
+      <c r="L25" s="149"/>
+      <c r="M25" s="149"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="151">
+      <c r="C26" s="150">
         <v>8311775</v>
       </c>
-      <c r="D26" s="151">
+      <c r="D26" s="150">
         <v>8041340</v>
       </c>
-      <c r="E26" s="151"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
-      <c r="H26" s="151"/>
-      <c r="I26" s="151"/>
-      <c r="J26" s="151"/>
-      <c r="K26" s="151"/>
-      <c r="L26" s="151"/>
-      <c r="M26" s="151"/>
+      <c r="E26" s="150"/>
+      <c r="F26" s="150"/>
+      <c r="G26" s="150"/>
+      <c r="H26" s="150"/>
+      <c r="I26" s="150"/>
+      <c r="J26" s="150"/>
+      <c r="K26" s="150"/>
+      <c r="L26" s="150"/>
+      <c r="M26" s="150"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C27" s="151">
+      <c r="C27" s="150">
         <f>2347219+1406210</f>
         <v>3753429</v>
       </c>
-      <c r="D27" s="151">
+      <c r="D27" s="150">
         <f>2191001+1349840</f>
         <v>3540841</v>
       </c>
-      <c r="E27" s="151"/>
-      <c r="F27" s="151"/>
-      <c r="G27" s="151"/>
-      <c r="H27" s="151"/>
-      <c r="I27" s="151"/>
-      <c r="J27" s="151"/>
-      <c r="K27" s="151"/>
-      <c r="L27" s="151"/>
-      <c r="M27" s="151"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="150"/>
+      <c r="H27" s="150"/>
+      <c r="I27" s="150"/>
+      <c r="J27" s="150"/>
+      <c r="K27" s="150"/>
+      <c r="L27" s="150"/>
+      <c r="M27" s="150"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="151">
+      <c r="C28" s="150">
         <v>548338</v>
       </c>
-      <c r="D28" s="151">
+      <c r="D28" s="150">
         <v>484343</v>
       </c>
-      <c r="E28" s="151"/>
-      <c r="F28" s="151"/>
-      <c r="G28" s="151"/>
-      <c r="H28" s="151"/>
-      <c r="I28" s="151"/>
-      <c r="J28" s="151"/>
-      <c r="K28" s="151"/>
-      <c r="L28" s="151"/>
-      <c r="M28" s="151"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="150"/>
+      <c r="I28" s="150"/>
+      <c r="J28" s="150"/>
+      <c r="K28" s="150"/>
+      <c r="L28" s="150"/>
+      <c r="M28" s="150"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
         <v>257</v>
       </c>
-      <c r="C29" s="151">
+      <c r="C29" s="150">
         <v>124056</v>
       </c>
-      <c r="D29" s="151">
+      <c r="D29" s="150">
         <v>69868</v>
       </c>
-      <c r="E29" s="151"/>
-      <c r="F29" s="151"/>
-      <c r="G29" s="151"/>
-      <c r="H29" s="151"/>
-      <c r="I29" s="151"/>
-      <c r="J29" s="151"/>
-      <c r="K29" s="151"/>
-      <c r="L29" s="151"/>
-      <c r="M29" s="151"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="150"/>
+      <c r="G29" s="150"/>
+      <c r="H29" s="150"/>
+      <c r="I29" s="150"/>
+      <c r="J29" s="150"/>
+      <c r="K29" s="150"/>
+      <c r="L29" s="150"/>
+      <c r="M29" s="150"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="151">
-        <v>0</v>
-      </c>
-      <c r="D30" s="151">
-        <v>0</v>
-      </c>
-      <c r="E30" s="151"/>
-      <c r="F30" s="151"/>
-      <c r="G30" s="151"/>
-      <c r="H30" s="151"/>
-      <c r="I30" s="151"/>
-      <c r="J30" s="151"/>
-      <c r="K30" s="151"/>
-      <c r="L30" s="151"/>
-      <c r="M30" s="151"/>
+      <c r="C30" s="150">
+        <v>0</v>
+      </c>
+      <c r="D30" s="150">
+        <v>0</v>
+      </c>
+      <c r="E30" s="150"/>
+      <c r="F30" s="150"/>
+      <c r="G30" s="150"/>
+      <c r="H30" s="150"/>
+      <c r="I30" s="150"/>
+      <c r="J30" s="150"/>
+      <c r="K30" s="150"/>
+      <c r="L30" s="150"/>
+      <c r="M30" s="150"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="151"/>
-      <c r="D31" s="151"/>
-      <c r="E31" s="151"/>
-      <c r="F31" s="151"/>
-      <c r="G31" s="151"/>
-      <c r="H31" s="151"/>
-      <c r="I31" s="151"/>
-      <c r="J31" s="151"/>
-      <c r="K31" s="151"/>
-      <c r="L31" s="151"/>
-      <c r="M31" s="151"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="150"/>
+      <c r="H31" s="150"/>
+      <c r="I31" s="150"/>
+      <c r="J31" s="150"/>
+      <c r="K31" s="150"/>
+      <c r="L31" s="150"/>
+      <c r="M31" s="150"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="151"/>
-      <c r="D32" s="151"/>
-      <c r="E32" s="151"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="151"/>
-      <c r="H32" s="151"/>
-      <c r="I32" s="151"/>
-      <c r="J32" s="151"/>
-      <c r="K32" s="151"/>
-      <c r="L32" s="151"/>
-      <c r="M32" s="151"/>
+      <c r="C32" s="150"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="150"/>
+      <c r="G32" s="150"/>
+      <c r="H32" s="150"/>
+      <c r="I32" s="150"/>
+      <c r="J32" s="150"/>
+      <c r="K32" s="150"/>
+      <c r="L32" s="150"/>
+      <c r="M32" s="150"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="151"/>
-      <c r="D33" s="151"/>
-      <c r="E33" s="151"/>
-      <c r="F33" s="151"/>
-      <c r="G33" s="151"/>
-      <c r="H33" s="151"/>
-      <c r="I33" s="151"/>
-      <c r="J33" s="151"/>
-      <c r="K33" s="151"/>
-      <c r="L33" s="151"/>
-      <c r="M33" s="151"/>
+      <c r="C33" s="150"/>
+      <c r="D33" s="150"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="150"/>
+      <c r="H33" s="150"/>
+      <c r="I33" s="150"/>
+      <c r="J33" s="150"/>
+      <c r="K33" s="150"/>
+      <c r="L33" s="150"/>
+      <c r="M33" s="150"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="218"/>
-      <c r="D34" s="151"/>
-      <c r="E34" s="151"/>
-      <c r="F34" s="151"/>
-      <c r="G34" s="151"/>
-      <c r="H34" s="151"/>
-      <c r="I34" s="151"/>
-      <c r="J34" s="151"/>
-      <c r="K34" s="151"/>
-      <c r="L34" s="151"/>
-      <c r="M34" s="151"/>
+      <c r="C34" s="217"/>
+      <c r="D34" s="150"/>
+      <c r="E34" s="150"/>
+      <c r="F34" s="150"/>
+      <c r="G34" s="150"/>
+      <c r="H34" s="150"/>
+      <c r="I34" s="150"/>
+      <c r="J34" s="150"/>
+      <c r="K34" s="150"/>
+      <c r="L34" s="150"/>
+      <c r="M34" s="150"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="C35" s="218"/>
-      <c r="D35" s="151"/>
-      <c r="E35" s="151"/>
-      <c r="F35" s="151"/>
-      <c r="G35" s="151"/>
-      <c r="H35" s="151"/>
-      <c r="I35" s="151"/>
-      <c r="J35" s="151"/>
-      <c r="K35" s="151"/>
-      <c r="L35" s="151"/>
-      <c r="M35" s="151"/>
+      <c r="C35" s="217"/>
+      <c r="D35" s="150"/>
+      <c r="E35" s="150"/>
+      <c r="F35" s="150"/>
+      <c r="G35" s="150"/>
+      <c r="H35" s="150"/>
+      <c r="I35" s="150"/>
+      <c r="J35" s="150"/>
+      <c r="K35" s="150"/>
+      <c r="L35" s="150"/>
+      <c r="M35" s="150"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>148</v>
       </c>
-      <c r="C36" s="218"/>
-      <c r="D36" s="151"/>
-      <c r="E36" s="151"/>
-      <c r="F36" s="151"/>
-      <c r="G36" s="151"/>
-      <c r="H36" s="151"/>
-      <c r="I36" s="151"/>
-      <c r="J36" s="151"/>
-      <c r="K36" s="151"/>
-      <c r="L36" s="151"/>
-      <c r="M36" s="151"/>
+      <c r="C36" s="217"/>
+      <c r="D36" s="150"/>
+      <c r="E36" s="150"/>
+      <c r="F36" s="150"/>
+      <c r="G36" s="150"/>
+      <c r="H36" s="150"/>
+      <c r="I36" s="150"/>
+      <c r="J36" s="150"/>
+      <c r="K36" s="150"/>
+      <c r="L36" s="150"/>
+      <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="218"/>
-      <c r="D37" s="151"/>
-      <c r="E37" s="151"/>
-      <c r="F37" s="151"/>
-      <c r="G37" s="151"/>
-      <c r="H37" s="151"/>
-      <c r="I37" s="151"/>
-      <c r="J37" s="151"/>
-      <c r="K37" s="151"/>
-      <c r="L37" s="151"/>
-      <c r="M37" s="151"/>
+      <c r="C37" s="217"/>
+      <c r="D37" s="150"/>
+      <c r="E37" s="150"/>
+      <c r="F37" s="150"/>
+      <c r="G37" s="150"/>
+      <c r="H37" s="150"/>
+      <c r="I37" s="150"/>
+      <c r="J37" s="150"/>
+      <c r="K37" s="150"/>
+      <c r="L37" s="150"/>
+      <c r="M37" s="150"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
         <v>115</v>
       </c>
-      <c r="C38" s="218"/>
-      <c r="D38" s="151"/>
-      <c r="E38" s="151"/>
-      <c r="F38" s="151"/>
-      <c r="G38" s="151"/>
-      <c r="H38" s="151"/>
-      <c r="I38" s="151"/>
-      <c r="J38" s="151"/>
-      <c r="K38" s="151"/>
-      <c r="L38" s="151"/>
-      <c r="M38" s="151"/>
+      <c r="C38" s="217"/>
+      <c r="D38" s="150"/>
+      <c r="E38" s="150"/>
+      <c r="F38" s="150"/>
+      <c r="G38" s="150"/>
+      <c r="H38" s="150"/>
+      <c r="I38" s="150"/>
+      <c r="J38" s="150"/>
+      <c r="K38" s="150"/>
+      <c r="L38" s="150"/>
+      <c r="M38" s="150"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="218"/>
-      <c r="D39" s="151"/>
-      <c r="E39" s="151"/>
-      <c r="F39" s="151"/>
-      <c r="G39" s="151"/>
-      <c r="H39" s="151"/>
-      <c r="I39" s="151"/>
-      <c r="J39" s="151"/>
-      <c r="K39" s="151"/>
-      <c r="L39" s="151"/>
-      <c r="M39" s="151"/>
+      <c r="C39" s="217"/>
+      <c r="D39" s="150"/>
+      <c r="E39" s="150"/>
+      <c r="F39" s="150"/>
+      <c r="G39" s="150"/>
+      <c r="H39" s="150"/>
+      <c r="I39" s="150"/>
+      <c r="J39" s="150"/>
+      <c r="K39" s="150"/>
+      <c r="L39" s="150"/>
+      <c r="M39" s="150"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="218"/>
-      <c r="D40" s="151"/>
-      <c r="E40" s="151"/>
-      <c r="F40" s="151"/>
-      <c r="G40" s="151"/>
-      <c r="H40" s="151"/>
-      <c r="I40" s="151"/>
-      <c r="J40" s="151"/>
-      <c r="K40" s="151"/>
-      <c r="L40" s="151"/>
-      <c r="M40" s="151"/>
+      <c r="C40" s="217"/>
+      <c r="D40" s="150"/>
+      <c r="E40" s="150"/>
+      <c r="F40" s="150"/>
+      <c r="G40" s="150"/>
+      <c r="H40" s="150"/>
+      <c r="I40" s="150"/>
+      <c r="J40" s="150"/>
+      <c r="K40" s="150"/>
+      <c r="L40" s="150"/>
+      <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
         <v>137</v>
       </c>
-      <c r="C41" s="218"/>
-      <c r="D41" s="151"/>
-      <c r="E41" s="151"/>
-      <c r="F41" s="151"/>
-      <c r="G41" s="151"/>
-      <c r="H41" s="151"/>
-      <c r="I41" s="151"/>
-      <c r="J41" s="151"/>
-      <c r="K41" s="151"/>
-      <c r="L41" s="151"/>
-      <c r="M41" s="151"/>
+      <c r="C41" s="217"/>
+      <c r="D41" s="150"/>
+      <c r="E41" s="150"/>
+      <c r="F41" s="150"/>
+      <c r="G41" s="150"/>
+      <c r="H41" s="150"/>
+      <c r="I41" s="150"/>
+      <c r="J41" s="150"/>
+      <c r="K41" s="150"/>
+      <c r="L41" s="150"/>
+      <c r="M41" s="150"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>138</v>
       </c>
-      <c r="C42" s="218"/>
-      <c r="D42" s="151"/>
-      <c r="E42" s="151"/>
-      <c r="F42" s="151"/>
-      <c r="G42" s="151"/>
-      <c r="H42" s="151"/>
-      <c r="I42" s="151"/>
-      <c r="J42" s="151"/>
-      <c r="K42" s="151"/>
-      <c r="L42" s="151"/>
-      <c r="M42" s="151"/>
+      <c r="C42" s="217"/>
+      <c r="D42" s="150"/>
+      <c r="E42" s="150"/>
+      <c r="F42" s="150"/>
+      <c r="G42" s="150"/>
+      <c r="H42" s="150"/>
+      <c r="I42" s="150"/>
+      <c r="J42" s="150"/>
+      <c r="K42" s="150"/>
+      <c r="L42" s="150"/>
+      <c r="M42" s="150"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>136</v>
       </c>
-      <c r="C43" s="218"/>
-      <c r="D43" s="151"/>
-      <c r="E43" s="151"/>
-      <c r="F43" s="151"/>
-      <c r="G43" s="151"/>
-      <c r="H43" s="151"/>
-      <c r="I43" s="151"/>
-      <c r="J43" s="151"/>
-      <c r="K43" s="151"/>
-      <c r="L43" s="151"/>
-      <c r="M43" s="151"/>
+      <c r="C43" s="217"/>
+      <c r="D43" s="150"/>
+      <c r="E43" s="150"/>
+      <c r="F43" s="150"/>
+      <c r="G43" s="150"/>
+      <c r="H43" s="150"/>
+      <c r="I43" s="150"/>
+      <c r="J43" s="150"/>
+      <c r="K43" s="150"/>
+      <c r="L43" s="150"/>
+      <c r="M43" s="150"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>207</v>
       </c>
-      <c r="C44" s="251">
+      <c r="C44" s="250">
         <f>0.1261+0.1223</f>
         <v>0.24840000000000001</v>
       </c>
-      <c r="D44" s="251">
+      <c r="D44" s="250">
         <f>0.1158+0.1223</f>
         <v>0.23810000000000001</v>
       </c>
-      <c r="E44" s="251"/>
-      <c r="F44" s="251"/>
-      <c r="G44" s="251"/>
-      <c r="H44" s="251"/>
-      <c r="I44" s="251"/>
-      <c r="J44" s="251"/>
-      <c r="K44" s="251"/>
-      <c r="L44" s="251"/>
-      <c r="M44" s="251"/>
+      <c r="E44" s="250"/>
+      <c r="F44" s="250"/>
+      <c r="G44" s="250"/>
+      <c r="H44" s="250"/>
+      <c r="I44" s="250"/>
+      <c r="J44" s="250"/>
+      <c r="K44" s="250"/>
+      <c r="L44" s="250"/>
+      <c r="M44" s="250"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
         <v>253</v>
       </c>
-      <c r="C45" s="153">
+      <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.6987576571834948E-2</v>
-      </c>
-      <c r="D45" s="153">
+        <v>1.7152361694647341E-2</v>
+      </c>
+      <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.6283180280812805E-2</v>
-      </c>
-      <c r="E45" s="153" t="str">
+        <v>1.6441132526149482E-2</v>
+      </c>
+      <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="153" t="str">
+      <c r="F45" s="152" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="153" t="str">
+      <c r="G45" s="152" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="153" t="str">
+      <c r="H45" s="152" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
@@ -4200,10 +4204,10 @@
       <c r="B47" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="C47" s="195" t="s">
+      <c r="C47" s="194" t="s">
         <v>33</v>
       </c>
-      <c r="D47" s="195" t="s">
+      <c r="D47" s="194" t="s">
         <v>196</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -4302,7 +4306,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="222" t="s">
+      <c r="E56" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4314,7 +4318,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="222" t="s">
+      <c r="E57" s="221" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4334,7 +4338,7 @@
         <v>50</v>
       </c>
       <c r="C59" s="120"/>
-      <c r="D59" s="196">
+      <c r="D59" s="195">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -4402,7 +4406,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="222" t="s">
+      <c r="E65" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4414,7 +4418,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="222" t="s">
+      <c r="E66" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4427,7 +4431,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="222" t="s">
+      <c r="E67" s="221" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4475,14 +4479,14 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="247" t="s">
+      <c r="B72" s="246" t="s">
         <v>75</v>
       </c>
-      <c r="C72" s="248"/>
-      <c r="D72" s="249">
-        <v>0</v>
-      </c>
-      <c r="E72" s="250"/>
+      <c r="C72" s="247"/>
+      <c r="D72" s="248">
+        <v>0</v>
+      </c>
+      <c r="E72" s="249"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -4566,7 +4570,7 @@
       <c r="B86" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="C86" s="198">
+      <c r="C86" s="197">
         <v>5</v>
       </c>
     </row>
@@ -4574,19 +4578,20 @@
       <c r="B87" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="C87" s="237" t="s">
+      <c r="C87" s="236" t="s">
         <v>251</v>
       </c>
+      <c r="D87" s="269"/>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="C89" s="270">
+      <c r="C89" s="271">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="270"/>
+      <c r="D89" s="271"/>
       <c r="E89" s="89" t="s">
         <v>206</v>
       </c>
@@ -4600,14 +4605,14 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000USD)</v>
       </c>
-      <c r="C90" s="271" t="s">
+      <c r="C90" s="272" t="s">
         <v>100</v>
       </c>
-      <c r="D90" s="271"/>
-      <c r="E90" s="236" t="s">
+      <c r="D90" s="272"/>
+      <c r="E90" s="235" t="s">
         <v>101</v>
       </c>
-      <c r="F90" s="256" t="s">
+      <c r="F90" s="255" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4619,12 +4624,12 @@
         <f>C25</f>
         <v>13731411</v>
       </c>
-      <c r="D91" s="210"/>
-      <c r="E91" s="252">
+      <c r="D91" s="209"/>
+      <c r="E91" s="251">
         <f>C91</f>
         <v>13731411</v>
       </c>
-      <c r="F91" s="252">
+      <c r="F91" s="251">
         <f>C91</f>
         <v>13731411</v>
       </c>
@@ -4637,15 +4642,15 @@
         <f>C26</f>
         <v>8311775</v>
       </c>
-      <c r="D92" s="160">
+      <c r="D92" s="159">
         <f>C92/C91</f>
         <v>0.60531106380837341</v>
       </c>
-      <c r="E92" s="253">
+      <c r="E92" s="252">
         <f>E91*D92</f>
         <v>8311775.0000000009</v>
       </c>
-      <c r="F92" s="253">
+      <c r="F92" s="252">
         <f>F91*D92</f>
         <v>8311775.0000000009</v>
       </c>
@@ -4658,15 +4663,15 @@
         <f>C27+C28</f>
         <v>4301767</v>
       </c>
-      <c r="D93" s="160">
+      <c r="D93" s="159">
         <f>C93/C91</f>
         <v>0.31327931266495485</v>
       </c>
-      <c r="E93" s="253">
+      <c r="E93" s="252">
         <f>E91*D93</f>
         <v>4301767</v>
       </c>
-      <c r="F93" s="253">
+      <c r="F93" s="252">
         <f>F91*D93</f>
         <v>4301767</v>
       </c>
@@ -4679,12 +4684,12 @@
         <f>C29</f>
         <v>124056</v>
       </c>
-      <c r="D94" s="160">
+      <c r="D94" s="159">
         <f>C94/C91</f>
         <v>9.0344684898005026E-3</v>
       </c>
-      <c r="E94" s="254"/>
-      <c r="F94" s="253">
+      <c r="E94" s="253"/>
+      <c r="F94" s="252">
         <f>F91*D94</f>
         <v>124056.00000000001</v>
       </c>
@@ -4697,15 +4702,15 @@
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="160">
+      <c r="D95" s="159">
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="253">
+      <c r="E95" s="252">
         <f>E91*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="253">
+      <c r="F95" s="252">
         <f>F91*D95</f>
         <v>0</v>
       </c>
@@ -4718,12 +4723,12 @@
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="160">
+      <c r="D96" s="159">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="254"/>
-      <c r="F96" s="253">
+      <c r="E96" s="253"/>
+      <c r="F96" s="252">
         <f>F91*D96</f>
         <v>0</v>
       </c>
@@ -4736,12 +4741,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>0</v>
       </c>
-      <c r="D97" s="160">
+      <c r="D97" s="159">
         <f>C97/C91</f>
         <v>0</v>
       </c>
-      <c r="E97" s="254"/>
-      <c r="F97" s="253">
+      <c r="E97" s="253"/>
+      <c r="F97" s="252">
         <f>F91*D97</f>
         <v>0</v>
       </c>
@@ -4750,16 +4755,16 @@
       <c r="B98" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="C98" s="238">
+      <c r="C98" s="237">
         <f>C44</f>
         <v>0.24840000000000001</v>
       </c>
-      <c r="D98" s="267"/>
-      <c r="E98" s="255">
+      <c r="D98" s="266"/>
+      <c r="E98" s="254">
         <f>F98</f>
         <v>0.24840000000000001</v>
       </c>
-      <c r="F98" s="255">
+      <c r="F98" s="254">
         <f>C98</f>
         <v>0.24840000000000001</v>
       </c>
@@ -4878,17 +4883,17 @@
       <c r="B3" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="276" t="str">
+      <c r="C3" s="277" t="str">
         <f>Inputs!C4</f>
         <v>0669.HK</v>
       </c>
-      <c r="D3" s="277"/>
+      <c r="D3" s="278"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>113.8</v>
+        <v>112.7</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>266</v>
@@ -4898,40 +4903,40 @@
       <c r="B4" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="C4" s="278" t="str">
+      <c r="C4" s="279" t="str">
         <f>Inputs!C5</f>
         <v>創科實業</v>
       </c>
-      <c r="D4" s="279"/>
+      <c r="D4" s="280"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="282">
+      <c r="G4" s="283">
         <f>Inputs!C10</f>
         <v>587107850</v>
       </c>
-      <c r="H4" s="282"/>
+      <c r="H4" s="283"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="280">
+      <c r="C5" s="281">
         <f>Inputs!C6</f>
         <v>45625</v>
       </c>
-      <c r="D5" s="281"/>
+      <c r="D5" s="282"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="274">
+      <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>66812.873330000002</v>
-      </c>
-      <c r="H5" s="274"/>
+        <v>66167.054694999999</v>
+      </c>
+      <c r="H5" s="275"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4939,11 +4944,11 @@
       <c r="B6" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="186">
+      <c r="C6" s="185">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="187">
+      <c r="D6" s="186">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4954,31 +4959,31 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="275" t="str">
+      <c r="G6" s="276" t="str">
         <f>Inputs!C11</f>
         <v>USD</v>
       </c>
-      <c r="H6" s="275"/>
+      <c r="H6" s="276"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
         <v>192</v>
       </c>
-      <c r="C7" s="188" t="str">
+      <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
         <v xml:space="preserve">Superior Cycl. </v>
       </c>
-      <c r="D7" s="188" t="str">
+      <c r="D7" s="187" t="str">
         <f>Inputs!C9</f>
-        <v>C0007</v>
+        <v>C0006</v>
       </c>
       <c r="E7" s="87"/>
       <c r="F7" s="35" t="s">
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7825531959533691</v>
+        <v>7.7820900281270342</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4998,7 +5003,7 @@
       <c r="B10" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C10" s="173">
+      <c r="C10" s="172">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -5009,7 +5014,7 @@
       <c r="B11" s="122" t="s">
         <v>179</v>
       </c>
-      <c r="C11" s="174">
+      <c r="C11" s="173">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
@@ -5023,11 +5028,11 @@
       <c r="B12" s="87" t="s">
         <v>254</v>
       </c>
-      <c r="C12" s="175">
+      <c r="C12" s="174">
         <v>0.06</v>
       </c>
-      <c r="D12" s="173">
-        <v>6.4500000000000002E-2</v>
+      <c r="D12" s="172">
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5036,7 +5041,7 @@
       <c r="B14" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C14" s="173">
+      <c r="C14" s="172">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -5047,7 +5052,7 @@
       <c r="B15" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C15" s="173">
+      <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -5058,10 +5063,10 @@
       <c r="B16" s="122" t="s">
         <v>187</v>
       </c>
-      <c r="C16" s="174">
+      <c r="C16" s="173">
         <v>0.16</v>
       </c>
-      <c r="D16" s="266" t="str">
+      <c r="D16" s="265" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
@@ -5073,10 +5078,10 @@
       <c r="B17" s="87" t="s">
         <v>255</v>
       </c>
-      <c r="C17" s="176">
-        <v>6.8999999999999992E-2</v>
-      </c>
-      <c r="D17" s="177"/>
+      <c r="C17" s="175">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5098,14 +5103,14 @@
       <c r="B20" s="137" t="s">
         <v>169</v>
       </c>
-      <c r="C20" s="172">
+      <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>0.60531106380837341</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>211</v>
       </c>
-      <c r="G20" s="173">
+      <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
@@ -5113,7 +5118,7 @@
       <c r="B21" s="137" t="s">
         <v>244</v>
       </c>
-      <c r="C21" s="172">
+      <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
         <v>0.31327931266495485</v>
       </c>
@@ -5124,7 +5129,7 @@
       <c r="B22" s="137" t="s">
         <v>191</v>
       </c>
-      <c r="C22" s="172">
+      <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>0</v>
       </c>
@@ -5136,14 +5141,14 @@
       <c r="B23" s="137" t="s">
         <v>171</v>
       </c>
-      <c r="C23" s="172">
+      <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
         <v>188</v>
       </c>
-      <c r="G23" s="178" t="e">
+      <c r="G23" s="177" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5152,30 +5157,30 @@
       <c r="B24" s="137" t="s">
         <v>170</v>
       </c>
-      <c r="C24" s="172">
+      <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>9.0344684898005026E-3</v>
       </c>
       <c r="F24" s="140" t="s">
         <v>260</v>
       </c>
-      <c r="G24" s="269">
+      <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>11.517868465426893</v>
+        <v>11.407214702207529</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
         <v>243</v>
       </c>
-      <c r="C25" s="172">
+      <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
         <v>174</v>
       </c>
-      <c r="G25" s="172">
+      <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
         <v>0.19566067250076241</v>
       </c>
@@ -5184,16 +5189,16 @@
       <c r="B26" s="138" t="s">
         <v>173</v>
       </c>
-      <c r="C26" s="172">
+      <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>7.2375155036871239E-2</v>
       </c>
       <c r="F26" s="141" t="s">
         <v>193</v>
       </c>
-      <c r="G26" s="179">
+      <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.6987576571834948E-2</v>
+        <v>1.7152361694647341E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5212,10 +5217,10 @@
       <c r="F28" s="53" t="s">
         <v>237</v>
       </c>
-      <c r="G28" s="272" t="s">
+      <c r="G28" s="273" t="s">
         <v>258</v>
       </c>
-      <c r="H28" s="272"/>
+      <c r="H28" s="273"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5223,22 +5228,22 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>98.159311363775487</v>
+        <v>96.294946884022153</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>195.42102662351829</v>
+        <v>190.36433712734646</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>115.48154278091233</v>
-      </c>
-      <c r="G29" s="273">
+        <v>113.28817280473194</v>
+      </c>
+      <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>169.93132749871157</v>
-      </c>
-      <c r="H29" s="273"/>
+        <v>165.53420619769258</v>
+      </c>
+      <c r="H29" s="274"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5250,17 +5255,17 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="197" t="s">
+      <c r="B32" s="196" t="s">
         <v>223</v>
       </c>
-      <c r="C32" s="225"/>
+      <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="C33" s="246" t="str">
+      <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
         <v>unclear</v>
       </c>
@@ -5270,7 +5275,7 @@
       <c r="B34" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="C34" s="226" t="e">
+      <c r="C34" s="225" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
@@ -5278,17 +5283,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="197" t="s">
+      <c r="B35" s="196" t="s">
         <v>226</v>
       </c>
-      <c r="C35" s="225"/>
+      <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="C36" s="246" t="str">
+      <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -5298,24 +5303,24 @@
       <c r="B37" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="C37" s="246" t="str">
+      <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
         <v>unclear</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="197" t="s">
+      <c r="B38" s="196" t="s">
         <v>227</v>
       </c>
-      <c r="C38" s="225"/>
+      <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="C39" s="246" t="str">
+      <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
         <v>unclear</v>
       </c>
@@ -5325,7 +5330,7 @@
       <c r="B40" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C40" s="246" t="str">
+      <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
         <v>unclear</v>
       </c>
@@ -5344,10 +5349,10 @@
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="227" t="s">
+      <c r="B43" s="226" t="s">
         <v>230</v>
       </c>
-      <c r="C43" s="245" t="str">
+      <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
         <v>Unclear</v>
       </c>
@@ -6329,16 +6334,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="149" t="s">
+      <c r="E2" s="148" t="s">
         <v>199</v>
       </c>
       <c r="F2" s="119" t="s">
         <v>202</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="G2" s="148" t="s">
         <v>203</v>
       </c>
-      <c r="H2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>204</v>
       </c>
       <c r="I2" s="7"/>
@@ -6352,11 +6357,11 @@
       <c r="B3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="202">
+      <c r="C3" s="201">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="147" t="s">
+      <c r="E3" s="146" t="s">
         <v>200</v>
       </c>
       <c r="F3" s="85" t="str">
@@ -6389,7 +6394,7 @@
         <f>Dashboard!G6</f>
         <v>USD</v>
       </c>
-      <c r="E4" s="147" t="s">
+      <c r="E4" s="146" t="s">
         <v>201</v>
       </c>
       <c r="F4" s="93" t="e">
@@ -6453,47 +6458,47 @@
       <c r="B6" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="201">
+      <c r="C6" s="200">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>13731411</v>
       </c>
-      <c r="D6" s="201">
+      <c r="D6" s="200">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>13253917</v>
       </c>
-      <c r="E6" s="201" t="str">
+      <c r="E6" s="200" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="201" t="str">
+      <c r="F6" s="200" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="201" t="str">
+      <c r="G6" s="200" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="201" t="str">
+      <c r="H6" s="200" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="201" t="str">
+      <c r="I6" s="200" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="201" t="str">
+      <c r="J6" s="200" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="201" t="str">
+      <c r="K6" s="200" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="201" t="str">
+      <c r="L6" s="200" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="201" t="str">
+      <c r="M6" s="200" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -6555,47 +6560,47 @@
       <c r="B8" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="200">
+      <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>8311775</v>
       </c>
-      <c r="D8" s="200">
+      <c r="D8" s="199">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>8041340</v>
       </c>
-      <c r="E8" s="200" t="str">
+      <c r="E8" s="199" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="200" t="str">
+      <c r="F8" s="199" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="200" t="str">
+      <c r="G8" s="199" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="200" t="str">
+      <c r="H8" s="199" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="200" t="str">
+      <c r="I8" s="199" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="200" t="str">
+      <c r="J8" s="199" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="200" t="str">
+      <c r="K8" s="199" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="200" t="str">
+      <c r="L8" s="199" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="200" t="str">
+      <c r="M8" s="199" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -6606,47 +6611,47 @@
       <c r="B9" s="98" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="152">
+      <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>5419636</v>
       </c>
-      <c r="D9" s="152">
+      <c r="D9" s="151">
         <f t="shared" si="2"/>
         <v>5212577</v>
       </c>
-      <c r="E9" s="152" t="str">
+      <c r="E9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="152" t="str">
+      <c r="F9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="152" t="str">
+      <c r="G9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="152" t="str">
+      <c r="H9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="152" t="str">
+      <c r="I9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="152" t="str">
+      <c r="J9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="152" t="str">
+      <c r="K9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="152" t="str">
+      <c r="L9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="152" t="str">
+      <c r="M9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6657,47 +6662,47 @@
       <c r="B10" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="200">
+      <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>3753429</v>
       </c>
-      <c r="D10" s="200">
+      <c r="D10" s="199">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>3540841</v>
       </c>
-      <c r="E10" s="200" t="str">
+      <c r="E10" s="199" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="200" t="str">
+      <c r="F10" s="199" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="200" t="str">
+      <c r="G10" s="199" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="200" t="str">
+      <c r="H10" s="199" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="200" t="str">
+      <c r="I10" s="199" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="200" t="str">
+      <c r="J10" s="199" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="200" t="str">
+      <c r="K10" s="199" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="200" t="str">
+      <c r="L10" s="199" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="200" t="str">
+      <c r="M10" s="199" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -6708,47 +6713,47 @@
       <c r="B11" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="200">
+      <c r="C11" s="199">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v>548338</v>
       </c>
-      <c r="D11" s="200">
+      <c r="D11" s="199">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v>484343</v>
       </c>
-      <c r="E11" s="200" t="str">
+      <c r="E11" s="199" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="200" t="str">
+      <c r="F11" s="199" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="200" t="str">
+      <c r="G11" s="199" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="200" t="str">
+      <c r="H11" s="199" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="200" t="str">
+      <c r="I11" s="199" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="200" t="str">
+      <c r="J11" s="199" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="200" t="str">
+      <c r="K11" s="199" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="200" t="str">
+      <c r="L11" s="199" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="200" t="str">
+      <c r="M11" s="199" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -6759,47 +6764,47 @@
       <c r="B12" s="99" t="s">
         <v>240</v>
       </c>
-      <c r="C12" s="200">
+      <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="D12" s="200">
+      <c r="D12" s="199">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="E12" s="200" t="str">
+      <c r="E12" s="199" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="200" t="str">
+      <c r="F12" s="199" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="200" t="str">
+      <c r="G12" s="199" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="200" t="str">
+      <c r="H12" s="199" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="200" t="str">
+      <c r="I12" s="199" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="200" t="str">
+      <c r="J12" s="199" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="200" t="str">
+      <c r="K12" s="199" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="200" t="str">
+      <c r="L12" s="199" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="200" t="str">
+      <c r="M12" s="199" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6807,50 +6812,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="229" t="s">
+      <c r="B13" s="228" t="s">
         <v>241</v>
       </c>
-      <c r="C13" s="230">
+      <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>8.1409623526671804E-2</v>
       </c>
-      <c r="D13" s="230">
+      <c r="D13" s="229">
         <f t="shared" si="3"/>
         <v>8.9588081772354541E-2</v>
       </c>
-      <c r="E13" s="230" t="str">
+      <c r="E13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="230" t="str">
+      <c r="F13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="230" t="str">
+      <c r="G13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="230" t="str">
+      <c r="H13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="230" t="str">
+      <c r="I13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="230" t="str">
+      <c r="J13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="230" t="str">
+      <c r="K13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="230" t="str">
+      <c r="L13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="230" t="str">
+      <c r="M13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6858,50 +6863,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="229" t="s">
+      <c r="B14" s="228" t="s">
         <v>233</v>
       </c>
-      <c r="C14" s="231">
+      <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>1117869</v>
       </c>
-      <c r="D14" s="231">
+      <c r="D14" s="230">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>1187393</v>
       </c>
-      <c r="E14" s="231" t="str">
+      <c r="E14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="231" t="str">
+      <c r="F14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="231" t="str">
+      <c r="G14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="231" t="str">
+      <c r="H14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="231" t="str">
+      <c r="I14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="231" t="str">
+      <c r="J14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="231" t="str">
+      <c r="K14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="231" t="str">
+      <c r="L14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="231" t="str">
+      <c r="M14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6909,50 +6914,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="232" t="s">
+      <c r="B15" s="231" t="s">
         <v>242</v>
       </c>
-      <c r="C15" s="233">
+      <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>-5.8551802141329788E-2</v>
       </c>
-      <c r="D15" s="233" t="str">
+      <c r="D15" s="232" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="233" t="str">
+      <c r="E15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="233" t="str">
+      <c r="F15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="233" t="str">
+      <c r="G15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="233" t="str">
+      <c r="H15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="233" t="str">
+      <c r="I15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="233" t="str">
+      <c r="J15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="233" t="str">
+      <c r="K15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="233" t="str">
+      <c r="L15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="233" t="str">
+      <c r="M15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6963,47 +6968,47 @@
       <c r="B16" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="200" t="str">
+      <c r="C16" s="199" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="200" t="str">
+      <c r="D16" s="199" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="200" t="str">
+      <c r="E16" s="199" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="200" t="str">
+      <c r="F16" s="199" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="200" t="str">
+      <c r="G16" s="199" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="200" t="str">
+      <c r="H16" s="199" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="200" t="str">
+      <c r="I16" s="199" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="200" t="str">
+      <c r="J16" s="199" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="200" t="str">
+      <c r="K16" s="199" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="200" t="str">
+      <c r="L16" s="199" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="200" t="str">
+      <c r="M16" s="199" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -7014,47 +7019,47 @@
       <c r="B17" s="97" t="s">
         <v>257</v>
       </c>
-      <c r="C17" s="200">
+      <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>124056</v>
       </c>
-      <c r="D17" s="200">
+      <c r="D17" s="199">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>69868</v>
       </c>
-      <c r="E17" s="200" t="str">
+      <c r="E17" s="199" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="200" t="str">
+      <c r="F17" s="199" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="200" t="str">
+      <c r="G17" s="199" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="200" t="str">
+      <c r="H17" s="199" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="200" t="str">
+      <c r="I17" s="199" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="200" t="str">
+      <c r="J17" s="199" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="200" t="str">
+      <c r="K17" s="199" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="200" t="str">
+      <c r="L17" s="199" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="200" t="str">
+      <c r="M17" s="199" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -7065,47 +7070,47 @@
       <c r="B18" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="153" t="str">
+      <c r="C18" s="152" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v/>
       </c>
-      <c r="D18" s="153" t="str">
+      <c r="D18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E18" s="153" t="str">
+      <c r="E18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="153" t="str">
+      <c r="F18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="153" t="str">
+      <c r="G18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="153" t="str">
+      <c r="H18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="153" t="str">
+      <c r="I18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="153" t="str">
+      <c r="J18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="153" t="str">
+      <c r="K18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="153" t="str">
+      <c r="L18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="153" t="str">
+      <c r="M18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -7116,47 +7121,47 @@
       <c r="B19" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="200" t="str">
+      <c r="C19" s="199" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v/>
       </c>
-      <c r="D19" s="200" t="str">
+      <c r="D19" s="199" t="str">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v/>
       </c>
-      <c r="E19" s="200" t="str">
+      <c r="E19" s="199" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="200" t="str">
+      <c r="F19" s="199" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="200" t="str">
+      <c r="G19" s="199" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="200" t="str">
+      <c r="H19" s="199" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="200" t="str">
+      <c r="I19" s="199" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="200" t="str">
+      <c r="J19" s="199" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="200" t="str">
+      <c r="K19" s="199" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="200" t="str">
+      <c r="L19" s="199" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="200" t="str">
+      <c r="M19" s="199" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -7167,47 +7172,47 @@
       <c r="B20" s="97" t="s">
         <v>235</v>
       </c>
-      <c r="C20" s="153">
+      <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="153">
+      <c r="D20" s="152">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="153" t="str">
+      <c r="E20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="153" t="str">
+      <c r="F20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="153" t="str">
+      <c r="G20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="153" t="str">
+      <c r="H20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="153" t="str">
+      <c r="I20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="153" t="str">
+      <c r="J20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="153" t="str">
+      <c r="K20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="153" t="str">
+      <c r="L20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="153" t="str">
+      <c r="M20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -7218,47 +7223,47 @@
       <c r="B21" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="200" t="str">
+      <c r="C21" s="199" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v/>
       </c>
-      <c r="D21" s="200" t="str">
+      <c r="D21" s="199" t="str">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v/>
       </c>
-      <c r="E21" s="200" t="str">
+      <c r="E21" s="199" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="200" t="str">
+      <c r="F21" s="199" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="200" t="str">
+      <c r="G21" s="199" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="200" t="str">
+      <c r="H21" s="199" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="200" t="str">
+      <c r="I21" s="199" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="200" t="str">
+      <c r="J21" s="199" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="200" t="str">
+      <c r="K21" s="199" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="200" t="str">
+      <c r="L21" s="199" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="200" t="str">
+      <c r="M21" s="199" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -7269,47 +7274,47 @@
       <c r="B22" s="98" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="162">
+      <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>993813</v>
       </c>
-      <c r="D22" s="162">
+      <c r="D22" s="161">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>1117525</v>
       </c>
-      <c r="E22" s="162" t="str">
+      <c r="E22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="162" t="str">
+      <c r="F22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="162" t="str">
+      <c r="G22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="162" t="str">
+      <c r="H22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="162" t="str">
+      <c r="I22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="162" t="str">
+      <c r="J22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="162" t="str">
+      <c r="K22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="162" t="str">
+      <c r="L22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="162" t="str">
+      <c r="M22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -7320,47 +7325,47 @@
       <c r="B23" s="100" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="154">
+      <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>5.4281366277653474E-2</v>
       </c>
-      <c r="D23" s="154">
+      <c r="D23" s="153">
         <f t="shared" si="9"/>
         <v>6.3237437657109222E-2</v>
       </c>
-      <c r="E23" s="154" t="str">
+      <c r="E23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="154" t="str">
+      <c r="F23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="154" t="str">
+      <c r="G23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="154" t="str">
+      <c r="H23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="154" t="str">
+      <c r="I23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="154" t="str">
+      <c r="J23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="154" t="str">
+      <c r="K23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="154" t="str">
+      <c r="L23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="154" t="str">
+      <c r="M23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -7371,7 +7376,7 @@
       <c r="B24" s="101" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="155">
+      <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>745359.75</v>
       </c>
@@ -7419,50 +7424,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="235" t="s">
+      <c r="B25" s="234" t="s">
         <v>128</v>
       </c>
-      <c r="C25" s="234">
+      <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>-0.11070177400952999</v>
       </c>
-      <c r="D25" s="234" t="str">
+      <c r="D25" s="233" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="234" t="str">
+      <c r="E25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="234" t="str">
+      <c r="F25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="234" t="str">
+      <c r="G25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="234" t="str">
+      <c r="H25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="234" t="str">
+      <c r="I25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="234" t="str">
+      <c r="J25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="234" t="str">
+      <c r="K25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="234" t="str">
+      <c r="L25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="234" t="str">
+      <c r="M25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -7579,43 +7584,43 @@
         <f>Fin_Analysis!C28</f>
         <v>0</v>
       </c>
-      <c r="D28" s="200" t="str">
+      <c r="D28" s="199" t="str">
         <f>IF(Inputs!D34="","",Inputs!D34)</f>
         <v/>
       </c>
-      <c r="E28" s="200" t="str">
+      <c r="E28" s="199" t="str">
         <f>IF(Inputs!E34="","",Inputs!E34)</f>
         <v/>
       </c>
-      <c r="F28" s="200" t="str">
+      <c r="F28" s="199" t="str">
         <f>IF(Inputs!F34="","",Inputs!F34)</f>
         <v/>
       </c>
-      <c r="G28" s="200" t="str">
+      <c r="G28" s="199" t="str">
         <f>IF(Inputs!G34="","",Inputs!G34)</f>
         <v/>
       </c>
-      <c r="H28" s="200" t="str">
+      <c r="H28" s="199" t="str">
         <f>IF(Inputs!H34="","",Inputs!H34)</f>
         <v/>
       </c>
-      <c r="I28" s="200" t="str">
+      <c r="I28" s="199" t="str">
         <f>IF(Inputs!I34="","",Inputs!I34)</f>
         <v/>
       </c>
-      <c r="J28" s="200" t="str">
+      <c r="J28" s="199" t="str">
         <f>IF(Inputs!J34="","",Inputs!J34)</f>
         <v/>
       </c>
-      <c r="K28" s="200" t="str">
+      <c r="K28" s="199" t="str">
         <f>IF(Inputs!K34="","",Inputs!K34)</f>
         <v/>
       </c>
-      <c r="L28" s="200" t="str">
+      <c r="L28" s="199" t="str">
         <f>IF(Inputs!L34="","",Inputs!L34)</f>
         <v/>
       </c>
-      <c r="M28" s="200" t="str">
+      <c r="M28" s="199" t="str">
         <f>IF(Inputs!M34="","",Inputs!M34)</f>
         <v/>
       </c>
@@ -7630,43 +7635,43 @@
         <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
-      <c r="D29" s="200" t="str">
+      <c r="D29" s="199" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E29" s="200" t="str">
+      <c r="E29" s="199" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F29" s="200" t="str">
+      <c r="F29" s="199" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G29" s="200" t="str">
+      <c r="G29" s="199" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H29" s="200" t="str">
+      <c r="H29" s="199" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I29" s="200" t="str">
+      <c r="I29" s="199" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J29" s="200" t="str">
+      <c r="J29" s="199" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K29" s="200" t="str">
+      <c r="K29" s="199" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L29" s="200" t="str">
+      <c r="L29" s="199" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M29" s="200" t="str">
+      <c r="M29" s="199" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -7681,43 +7686,43 @@
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D30" s="200" t="str">
+      <c r="D30" s="199" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E30" s="200" t="str">
+      <c r="E30" s="199" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F30" s="200" t="str">
+      <c r="F30" s="199" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G30" s="200" t="str">
+      <c r="G30" s="199" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H30" s="200" t="str">
+      <c r="H30" s="199" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I30" s="200" t="str">
+      <c r="I30" s="199" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J30" s="200" t="str">
+      <c r="J30" s="199" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K30" s="200" t="str">
+      <c r="K30" s="199" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L30" s="200" t="str">
+      <c r="L30" s="199" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M30" s="200" t="str">
+      <c r="M30" s="199" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -7732,43 +7737,43 @@
         <f>Fin_Analysis!I28</f>
         <v>0</v>
       </c>
-      <c r="D31" s="200" t="str">
+      <c r="D31" s="199" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E31" s="200" t="str">
+      <c r="E31" s="199" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F31" s="200" t="str">
+      <c r="F31" s="199" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G31" s="200" t="str">
+      <c r="G31" s="199" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H31" s="200" t="str">
+      <c r="H31" s="199" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I31" s="200" t="str">
+      <c r="I31" s="199" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J31" s="200" t="str">
+      <c r="J31" s="199" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K31" s="200" t="str">
+      <c r="K31" s="199" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L31" s="200" t="str">
+      <c r="L31" s="199" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M31" s="200" t="str">
+      <c r="M31" s="199" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -7783,43 +7788,43 @@
         <f>Fin_Analysis!I48</f>
         <v>0</v>
       </c>
-      <c r="D32" s="200" t="str">
+      <c r="D32" s="199" t="str">
         <f>IF(Inputs!D38="","",Inputs!D38)</f>
         <v/>
       </c>
-      <c r="E32" s="200" t="str">
+      <c r="E32" s="199" t="str">
         <f>IF(Inputs!E38="","",Inputs!E38)</f>
         <v/>
       </c>
-      <c r="F32" s="200" t="str">
+      <c r="F32" s="199" t="str">
         <f>IF(Inputs!F38="","",Inputs!F38)</f>
         <v/>
       </c>
-      <c r="G32" s="200" t="str">
+      <c r="G32" s="199" t="str">
         <f>IF(Inputs!G38="","",Inputs!G38)</f>
         <v/>
       </c>
-      <c r="H32" s="200" t="str">
+      <c r="H32" s="199" t="str">
         <f>IF(Inputs!H38="","",Inputs!H38)</f>
         <v/>
       </c>
-      <c r="I32" s="200" t="str">
+      <c r="I32" s="199" t="str">
         <f>IF(Inputs!I38="","",Inputs!I38)</f>
         <v/>
       </c>
-      <c r="J32" s="200" t="str">
+      <c r="J32" s="199" t="str">
         <f>IF(Inputs!J38="","",Inputs!J38)</f>
         <v/>
       </c>
-      <c r="K32" s="200" t="str">
+      <c r="K32" s="199" t="str">
         <f>IF(Inputs!K38="","",Inputs!K38)</f>
         <v/>
       </c>
-      <c r="L32" s="200" t="str">
+      <c r="L32" s="199" t="str">
         <f>IF(Inputs!L38="","",Inputs!L38)</f>
         <v/>
       </c>
-      <c r="M32" s="200" t="str">
+      <c r="M32" s="199" t="str">
         <f>IF(Inputs!M38="","",Inputs!M38)</f>
         <v/>
       </c>
@@ -7834,43 +7839,43 @@
         <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
-      <c r="D33" s="200" t="str">
+      <c r="D33" s="199" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E33" s="200" t="str">
+      <c r="E33" s="199" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F33" s="200" t="str">
+      <c r="F33" s="199" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G33" s="200" t="str">
+      <c r="G33" s="199" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H33" s="200" t="str">
+      <c r="H33" s="199" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I33" s="200" t="str">
+      <c r="I33" s="199" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J33" s="200" t="str">
+      <c r="J33" s="199" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K33" s="200" t="str">
+      <c r="K33" s="199" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L33" s="200" t="str">
+      <c r="L33" s="199" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M33" s="200" t="str">
+      <c r="M33" s="199" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7885,43 +7890,43 @@
         <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
-      <c r="D34" s="200" t="str">
+      <c r="D34" s="199" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E34" s="200" t="str">
+      <c r="E34" s="199" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F34" s="200" t="str">
+      <c r="F34" s="199" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G34" s="200" t="str">
+      <c r="G34" s="199" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H34" s="200" t="str">
+      <c r="H34" s="199" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I34" s="200" t="str">
+      <c r="I34" s="199" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J34" s="200" t="str">
+      <c r="J34" s="199" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K34" s="200" t="str">
+      <c r="K34" s="199" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L34" s="200" t="str">
+      <c r="L34" s="199" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M34" s="200" t="str">
+      <c r="M34" s="199" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -7987,43 +7992,43 @@
         <f>Fin_Analysis!D3</f>
         <v>0</v>
       </c>
-      <c r="D36" s="200" t="str">
+      <c r="D36" s="199" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E36" s="200" t="str">
+      <c r="E36" s="199" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F36" s="200" t="str">
+      <c r="F36" s="199" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G36" s="200" t="str">
+      <c r="G36" s="199" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H36" s="200" t="str">
+      <c r="H36" s="199" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I36" s="200" t="str">
+      <c r="I36" s="199" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J36" s="200" t="str">
+      <c r="J36" s="199" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K36" s="200" t="str">
+      <c r="K36" s="199" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L36" s="200" t="str">
+      <c r="L36" s="199" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M36" s="200" t="str">
+      <c r="M36" s="199" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -8038,43 +8043,43 @@
         <f>Fin_Analysis!D4</f>
         <v>0</v>
       </c>
-      <c r="D37" s="200" t="str">
+      <c r="D37" s="199" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E37" s="200" t="str">
+      <c r="E37" s="199" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F37" s="200" t="str">
+      <c r="F37" s="199" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G37" s="200" t="str">
+      <c r="G37" s="199" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H37" s="200" t="str">
+      <c r="H37" s="199" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I37" s="200" t="str">
+      <c r="I37" s="199" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J37" s="200" t="str">
+      <c r="J37" s="199" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K37" s="200" t="str">
+      <c r="K37" s="199" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L37" s="200" t="str">
+      <c r="L37" s="199" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M37" s="200" t="str">
+      <c r="M37" s="199" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -8089,43 +8094,43 @@
         <f>Fin_Analysis!C63</f>
         <v>0</v>
       </c>
-      <c r="D38" s="200" t="str">
+      <c r="D38" s="199" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E38" s="200" t="str">
+      <c r="E38" s="199" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F38" s="200" t="str">
+      <c r="F38" s="199" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G38" s="200" t="str">
+      <c r="G38" s="199" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H38" s="200" t="str">
+      <c r="H38" s="199" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I38" s="200" t="str">
+      <c r="I38" s="199" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J38" s="200" t="str">
+      <c r="J38" s="199" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K38" s="200" t="str">
+      <c r="K38" s="199" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L38" s="200" t="str">
+      <c r="L38" s="199" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M38" s="200" t="str">
+      <c r="M38" s="199" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -8187,47 +8192,47 @@
       <c r="B40" s="98" t="s">
         <v>157</v>
       </c>
-      <c r="C40" s="156" t="e">
+      <c r="C40" s="155" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D40" s="156" t="e">
+      <c r="D40" s="155" t="e">
         <f>IF(D6="","",D14/MAX(D39,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="156" t="str">
+      <c r="E40" s="155" t="str">
         <f>IF(E6="","",E14/MAX(E39,0))</f>
         <v/>
       </c>
-      <c r="F40" s="156" t="str">
+      <c r="F40" s="155" t="str">
         <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
         <v/>
       </c>
-      <c r="G40" s="156" t="str">
+      <c r="G40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H40" s="156" t="str">
+      <c r="H40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -8256,47 +8261,47 @@
       <c r="B42" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="C42" s="157">
+      <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
         <v>0.60531106380837341</v>
       </c>
-      <c r="D42" s="157">
+      <c r="D42" s="156">
         <f t="shared" si="34"/>
         <v>0.60671422644339779</v>
       </c>
-      <c r="E42" s="157" t="str">
+      <c r="E42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F42" s="157" t="str">
+      <c r="F42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G42" s="157" t="str">
+      <c r="G42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H42" s="157" t="str">
+      <c r="H42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I42" s="157" t="str">
+      <c r="I42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J42" s="157" t="str">
+      <c r="J42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K42" s="157" t="str">
+      <c r="K42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L42" s="157" t="str">
+      <c r="L42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M42" s="157" t="str">
+      <c r="M42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -8307,47 +8312,47 @@
       <c r="B43" s="94" t="s">
         <v>234</v>
       </c>
-      <c r="C43" s="154">
+      <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.31327931266495485</v>
       </c>
-      <c r="D43" s="154">
+      <c r="D43" s="153">
         <f t="shared" si="35"/>
         <v>0.3036976917842476</v>
       </c>
-      <c r="E43" s="154" t="str">
+      <c r="E43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F43" s="154" t="str">
+      <c r="F43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G43" s="154" t="str">
+      <c r="G43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H43" s="154" t="str">
+      <c r="H43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I43" s="154" t="str">
+      <c r="I43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J43" s="154" t="str">
+      <c r="J43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K43" s="154" t="str">
+      <c r="K43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L43" s="154" t="str">
+      <c r="L43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M43" s="154" t="str">
+      <c r="M43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -8358,47 +8363,47 @@
       <c r="B44" s="94" t="s">
         <v>108</v>
       </c>
-      <c r="C44" s="154">
+      <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D44" s="154">
+      <c r="D44" s="153">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E44" s="154" t="str">
+      <c r="E44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F44" s="154" t="str">
+      <c r="F44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G44" s="154" t="str">
+      <c r="G44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H44" s="154" t="str">
+      <c r="H44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I44" s="154" t="str">
+      <c r="I44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J44" s="154" t="str">
+      <c r="J44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K44" s="154" t="str">
+      <c r="K44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L44" s="154" t="str">
+      <c r="L44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M44" s="154" t="str">
+      <c r="M44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -8409,47 +8414,47 @@
       <c r="B45" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="C45" s="154">
+      <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>9.0344684898005026E-3</v>
       </c>
-      <c r="D45" s="154">
+      <c r="D45" s="153">
         <f t="shared" si="37"/>
         <v>5.2714982295422553E-3</v>
       </c>
-      <c r="E45" s="154" t="str">
+      <c r="E45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F45" s="154" t="str">
+      <c r="F45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G45" s="154" t="str">
+      <c r="G45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H45" s="154" t="str">
+      <c r="H45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I45" s="154" t="str">
+      <c r="I45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J45" s="154" t="str">
+      <c r="J45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K45" s="154" t="str">
+      <c r="K45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L45" s="154" t="str">
+      <c r="L45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M45" s="154" t="str">
+      <c r="M45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -8460,47 +8465,47 @@
       <c r="B46" s="94" t="s">
         <v>129</v>
       </c>
-      <c r="C46" s="154">
+      <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D46" s="154">
+      <c r="D46" s="153">
         <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
         <v>0</v>
       </c>
-      <c r="E46" s="154" t="str">
+      <c r="E46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F46" s="154" t="str">
+      <c r="F46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G46" s="154" t="str">
+      <c r="G46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H46" s="154" t="str">
+      <c r="H46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I46" s="154" t="str">
+      <c r="I46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J46" s="154" t="str">
+      <c r="J46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K46" s="154" t="str">
+      <c r="K46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L46" s="154" t="str">
+      <c r="L46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M46" s="154" t="str">
+      <c r="M46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -8511,47 +8516,47 @@
       <c r="B47" s="94" t="s">
         <v>236</v>
       </c>
-      <c r="C47" s="154">
+      <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
-      <c r="D47" s="154">
+      <c r="D47" s="153">
         <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
         <v>0</v>
       </c>
-      <c r="E47" s="154" t="str">
+      <c r="E47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F47" s="154" t="str">
+      <c r="F47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G47" s="154" t="str">
+      <c r="G47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H47" s="154" t="str">
+      <c r="H47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I47" s="154" t="str">
+      <c r="I47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J47" s="154" t="str">
+      <c r="J47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K47" s="154" t="str">
+      <c r="K47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L47" s="154" t="str">
+      <c r="L47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M47" s="154" t="str">
+      <c r="M47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -8562,47 +8567,47 @@
       <c r="B48" s="94" t="s">
         <v>123</v>
       </c>
-      <c r="C48" s="154">
+      <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
         <v>7.2375155036871308E-2</v>
       </c>
-      <c r="D48" s="154">
+      <c r="D48" s="153">
         <f t="shared" si="40"/>
         <v>8.4316583542812282E-2</v>
       </c>
-      <c r="E48" s="154" t="str">
+      <c r="E48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F48" s="154" t="str">
+      <c r="F48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G48" s="154" t="str">
+      <c r="G48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H48" s="154" t="str">
+      <c r="H48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I48" s="154" t="str">
+      <c r="I48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J48" s="154" t="str">
+      <c r="J48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K48" s="154" t="str">
+      <c r="K48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L48" s="154" t="str">
+      <c r="L48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M48" s="154" t="str">
+      <c r="M48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -8631,47 +8636,47 @@
       <c r="B50" s="95" t="s">
         <v>146</v>
       </c>
-      <c r="C50" s="157">
+      <c r="C50" s="156">
         <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="157" t="str">
+      <c r="D50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="E50" s="157" t="str">
+      <c r="E50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F50" s="157" t="str">
+      <c r="F50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G50" s="157" t="str">
+      <c r="G50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H50" s="157" t="str">
+      <c r="H50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="157" t="str">
+      <c r="I50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="157" t="str">
+      <c r="J50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="157" t="str">
+      <c r="K50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="157" t="str">
+      <c r="L50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M50" s="157" t="str">
+      <c r="M50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8682,47 +8687,47 @@
       <c r="B51" s="94" t="s">
         <v>147</v>
       </c>
-      <c r="C51" s="154">
+      <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
         <v>0</v>
       </c>
-      <c r="D51" s="154" t="str">
+      <c r="D51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E51" s="154" t="str">
+      <c r="E51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F51" s="154" t="str">
+      <c r="F51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G51" s="154" t="str">
+      <c r="G51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H51" s="154" t="str">
+      <c r="H51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I51" s="154" t="str">
+      <c r="I51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J51" s="154" t="str">
+      <c r="J51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K51" s="154" t="str">
+      <c r="K51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L51" s="154" t="str">
+      <c r="L51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M51" s="154" t="str">
+      <c r="M51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -8750,47 +8755,47 @@
       <c r="B53" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="157" t="e">
+      <c r="C53" s="156" t="e">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="157" t="str">
+      <c r="D53" s="156" t="str">
         <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
         <v/>
       </c>
-      <c r="E53" s="157" t="str">
+      <c r="E53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F53" s="157" t="str">
+      <c r="F53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G53" s="157" t="str">
+      <c r="G53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H53" s="157" t="str">
+      <c r="H53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I53" s="157" t="str">
+      <c r="I53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J53" s="157" t="str">
+      <c r="J53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K53" s="157" t="str">
+      <c r="K53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L53" s="157" t="str">
+      <c r="L53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M53" s="157" t="str">
+      <c r="M53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -8800,47 +8805,47 @@
       <c r="B54" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="C54" s="158" t="str">
+      <c r="C54" s="157" t="str">
         <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
         <v>-</v>
       </c>
-      <c r="D54" s="158" t="str">
+      <c r="D54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E54" s="158" t="str">
+      <c r="E54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F54" s="158" t="str">
+      <c r="F54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G54" s="158" t="str">
+      <c r="G54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H54" s="158" t="str">
+      <c r="H54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I54" s="158" t="str">
+      <c r="I54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J54" s="158" t="str">
+      <c r="J54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K54" s="158" t="str">
+      <c r="K54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L54" s="158" t="str">
+      <c r="L54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M54" s="158" t="str">
+      <c r="M54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8850,47 +8855,47 @@
       <c r="B55" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="C55" s="154">
+      <c r="C55" s="153">
         <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>0.12482831277111489</v>
       </c>
-      <c r="D55" s="154">
+      <c r="D55" s="153">
         <f t="shared" si="45"/>
         <v>6.2520301559249231E-2</v>
       </c>
-      <c r="E55" s="154" t="str">
+      <c r="E55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="154" t="str">
+      <c r="F55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="154" t="str">
+      <c r="G55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="154" t="str">
+      <c r="H55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="154" t="str">
+      <c r="I55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="154" t="str">
+      <c r="J55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="154" t="str">
+      <c r="K55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="154" t="str">
+      <c r="L55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M55" s="154" t="str">
+      <c r="M55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8900,47 +8905,47 @@
       <c r="B56" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="159" t="e">
+      <c r="C56" s="158" t="e">
         <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D56" s="159" t="str">
+      <c r="D56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E56" s="159" t="str">
+      <c r="E56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F56" s="159" t="str">
+      <c r="F56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G56" s="159" t="str">
+      <c r="G56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H56" s="159" t="str">
+      <c r="H56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I56" s="159" t="str">
+      <c r="I56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="159" t="str">
+      <c r="J56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="159" t="str">
+      <c r="K56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="159" t="str">
+      <c r="L56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="159" t="str">
+      <c r="M56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -10238,8 +10243,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H103" sqref="H103"/>
+    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10288,7 +10293,7 @@
       <c r="H3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="205">
+      <c r="I3" s="204">
         <f>Inputs!C83</f>
         <v>0</v>
       </c>
@@ -10385,7 +10390,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="204">
+      <c r="D9" s="203">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
@@ -10432,7 +10437,7 @@
         <f>Inputs!C48</f>
         <v>0</v>
       </c>
-      <c r="D11" s="199">
+      <c r="D11" s="198">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -10460,7 +10465,7 @@
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -10488,7 +10493,7 @@
         <f>Inputs!C50</f>
         <v>0</v>
       </c>
-      <c r="D13" s="199">
+      <c r="D13" s="198">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -10516,7 +10521,7 @@
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="199">
+      <c r="D14" s="198">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -10529,7 +10534,7 @@
       <c r="H14" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="I14" s="206">
+      <c r="I14" s="205">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
@@ -10544,7 +10549,7 @@
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="199">
+      <c r="D15" s="198">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -10571,7 +10576,7 @@
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="199">
+      <c r="D16" s="198">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -10593,7 +10598,7 @@
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10615,7 +10620,7 @@
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="199">
+      <c r="D18" s="198">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10636,7 +10641,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="199">
+      <c r="D19" s="198">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10661,7 +10666,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="199">
+      <c r="D20" s="198">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10688,7 +10693,7 @@
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="199">
+      <c r="D21" s="198">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10709,7 +10714,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="199">
+      <c r="D22" s="198">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -10874,7 +10879,7 @@
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="207">
+      <c r="I28" s="206">
         <f>Inputs!C77</f>
         <v>0</v>
       </c>
@@ -10903,7 +10908,7 @@
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="199">
+      <c r="D30" s="198">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -10929,7 +10934,7 @@
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="199">
+      <c r="D31" s="198">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -10956,7 +10961,7 @@
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="199">
+      <c r="D32" s="198">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -10983,7 +10988,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="199">
+      <c r="D33" s="198">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -10999,7 +11004,7 @@
       <c r="H33" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="I33" s="206">
+      <c r="I33" s="205">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
@@ -11013,7 +11018,7 @@
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="199">
+      <c r="D34" s="198">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -11040,7 +11045,7 @@
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="199">
+      <c r="D35" s="198">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -11066,7 +11071,7 @@
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="199">
+      <c r="D36" s="198">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -11093,7 +11098,7 @@
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="199">
+      <c r="D37" s="198">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -11120,7 +11125,7 @@
         <f>Inputs!C68</f>
         <v>0</v>
       </c>
-      <c r="D38" s="199">
+      <c r="D38" s="198">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -11141,7 +11146,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="199">
+      <c r="D39" s="198">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -11162,7 +11167,7 @@
         <f>Inputs!C70</f>
         <v>0</v>
       </c>
-      <c r="D40" s="199">
+      <c r="D40" s="198">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -11183,7 +11188,7 @@
         <f>Inputs!C71</f>
         <v>0</v>
       </c>
-      <c r="D41" s="199">
+      <c r="D41" s="198">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -11204,7 +11209,7 @@
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="199">
+      <c r="D42" s="198">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -11350,7 +11355,7 @@
       <c r="H48" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="I48" s="208">
+      <c r="I48" s="207">
         <f>Inputs!C82</f>
         <v>0</v>
       </c>
@@ -11459,11 +11464,11 @@
         <v>89</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="283">
+      <c r="D56" s="284">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="281"/>
+      <c r="E56" s="282"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11474,11 +11479,11 @@
         <v>90</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="282">
+      <c r="D57" s="283">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="281"/>
+      <c r="E57" s="282"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11490,11 +11495,11 @@
         <v>92</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="282">
+      <c r="D58" s="283">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="281"/>
+      <c r="E58" s="282"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11590,8 +11595,8 @@
       <c r="B64" s="121" t="s">
         <v>151</v>
       </c>
-      <c r="C64" s="209"/>
-      <c r="D64" s="209"/>
+      <c r="C64" s="208"/>
+      <c r="D64" s="208"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>0</v>
@@ -11671,8 +11676,8 @@
       <c r="B69" s="121" t="s">
         <v>152</v>
       </c>
-      <c r="C69" s="209"/>
-      <c r="D69" s="209"/>
+      <c r="C69" s="208"/>
+      <c r="D69" s="208"/>
       <c r="E69" s="126">
         <f>I49-E64</f>
         <v>0</v>
@@ -11708,19 +11713,19 @@
       <c r="B72" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="C72" s="270">
+      <c r="C72" s="271">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="270"/>
-      <c r="E72" s="284" t="s">
+      <c r="D72" s="271"/>
+      <c r="E72" s="285" t="s">
         <v>206</v>
       </c>
-      <c r="F72" s="284"/>
-      <c r="H72" s="284" t="s">
+      <c r="F72" s="285"/>
+      <c r="H72" s="285" t="s">
         <v>205</v>
       </c>
-      <c r="I72" s="284"/>
+      <c r="I72" s="285"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11730,18 +11735,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000USD)</v>
       </c>
-      <c r="C73" s="271" t="s">
+      <c r="C73" s="272" t="s">
         <v>100</v>
       </c>
-      <c r="D73" s="271"/>
-      <c r="E73" s="285" t="s">
+      <c r="D73" s="272"/>
+      <c r="E73" s="286" t="s">
         <v>101</v>
       </c>
-      <c r="F73" s="271"/>
-      <c r="H73" s="285" t="s">
+      <c r="F73" s="272"/>
+      <c r="H73" s="286" t="s">
         <v>101</v>
       </c>
-      <c r="I73" s="271"/>
+      <c r="I73" s="272"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11752,17 +11757,17 @@
         <f>Data!C6</f>
         <v>13731411</v>
       </c>
-      <c r="D74" s="210"/>
-      <c r="E74" s="239">
+      <c r="D74" s="209"/>
+      <c r="E74" s="238">
         <f>Inputs!E91</f>
         <v>13731411</v>
       </c>
-      <c r="F74" s="210"/>
-      <c r="H74" s="239">
+      <c r="F74" s="209"/>
+      <c r="H74" s="238">
         <f>Inputs!F91</f>
         <v>13731411</v>
       </c>
-      <c r="I74" s="210"/>
+      <c r="I74" s="209"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11773,23 +11778,23 @@
         <f>Data!C8</f>
         <v>8311775</v>
       </c>
-      <c r="D75" s="160">
+      <c r="D75" s="159">
         <f>C75/$C$74</f>
         <v>0.60531106380837341</v>
       </c>
-      <c r="E75" s="239">
+      <c r="E75" s="238">
         <f>Inputs!E92</f>
         <v>8311775.0000000009</v>
       </c>
-      <c r="F75" s="161">
+      <c r="F75" s="160">
         <f>E75/E74</f>
         <v>0.60531106380837341</v>
       </c>
-      <c r="H75" s="239">
+      <c r="H75" s="238">
         <f>Inputs!F92</f>
         <v>8311775.0000000009</v>
       </c>
-      <c r="I75" s="161">
+      <c r="I75" s="160">
         <f>H75/$H$74</f>
         <v>0.60531106380837341</v>
       </c>
@@ -11799,21 +11804,21 @@
       <c r="B76" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="C76" s="162">
+      <c r="C76" s="161">
         <f>C74-C75</f>
         <v>5419636</v>
       </c>
-      <c r="D76" s="211"/>
-      <c r="E76" s="163">
+      <c r="D76" s="210"/>
+      <c r="E76" s="162">
         <f>E74-E75</f>
         <v>5419635.9999999991</v>
       </c>
-      <c r="F76" s="211"/>
-      <c r="H76" s="163">
+      <c r="F76" s="210"/>
+      <c r="H76" s="162">
         <f>H74-H75</f>
         <v>5419635.9999999991</v>
       </c>
-      <c r="I76" s="211"/>
+      <c r="I76" s="210"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11824,23 +11829,23 @@
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>4301767</v>
       </c>
-      <c r="D77" s="160">
+      <c r="D77" s="159">
         <f>C77/$C$74</f>
         <v>0.31327931266495485</v>
       </c>
-      <c r="E77" s="239">
+      <c r="E77" s="238">
         <f>Inputs!E93</f>
         <v>4301767</v>
       </c>
-      <c r="F77" s="161">
+      <c r="F77" s="160">
         <f>E77/E74</f>
         <v>0.31327931266495485</v>
       </c>
-      <c r="H77" s="239">
+      <c r="H77" s="238">
         <f>Inputs!F93</f>
         <v>4301767</v>
       </c>
-      <c r="I77" s="161">
+      <c r="I77" s="160">
         <f>H77/$H$74</f>
         <v>0.31327931266495485</v>
       </c>
@@ -11854,54 +11859,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="160">
+      <c r="D78" s="159">
         <f>C78/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E78" s="181">
+      <c r="E78" s="180">
         <f>E74*F78</f>
         <v>0</v>
       </c>
-      <c r="F78" s="161">
+      <c r="F78" s="160">
         <f>I78</f>
         <v>0</v>
       </c>
-      <c r="H78" s="239">
+      <c r="H78" s="238">
         <f>Inputs!F97</f>
         <v>0</v>
       </c>
-      <c r="I78" s="161">
+      <c r="I78" s="160">
         <f>H78/$H$74</f>
         <v>0</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="257" t="s">
+      <c r="B79" s="256" t="s">
         <v>232</v>
       </c>
-      <c r="C79" s="258">
+      <c r="C79" s="257">
         <f>C76-C77-C78</f>
         <v>1117869</v>
       </c>
-      <c r="D79" s="259">
+      <c r="D79" s="258">
         <f>C79/C74</f>
         <v>8.1409623526671804E-2</v>
       </c>
-      <c r="E79" s="260">
+      <c r="E79" s="259">
         <f>E76-E77-E78</f>
         <v>1117868.9999999991</v>
       </c>
-      <c r="F79" s="259">
+      <c r="F79" s="258">
         <f>E79/E74</f>
         <v>8.1409623526671734E-2</v>
       </c>
-      <c r="G79" s="261"/>
-      <c r="H79" s="260">
+      <c r="G79" s="260"/>
+      <c r="H79" s="259">
         <f>H76-H77-H78</f>
         <v>1117868.9999999991</v>
       </c>
-      <c r="I79" s="259">
+      <c r="I79" s="258">
         <f>H79/H74</f>
         <v>8.1409623526671734E-2</v>
       </c>
@@ -11915,27 +11920,27 @@
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="160">
+      <c r="D80" s="159">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="181">
+      <c r="E80" s="180">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="161">
+      <c r="F80" s="160">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="239">
+      <c r="H80" s="238">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="161">
+      <c r="I80" s="160">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="182" t="s">
+      <c r="K80" s="181" t="s">
         <v>131</v>
       </c>
     </row>
@@ -11947,23 +11952,23 @@
         <f>MAX(Data!C17,0)</f>
         <v>124056</v>
       </c>
-      <c r="D81" s="160">
+      <c r="D81" s="159">
         <f>C81/$C$74</f>
         <v>9.0344684898005026E-3</v>
       </c>
-      <c r="E81" s="181">
+      <c r="E81" s="180">
         <f>E74*F81</f>
         <v>124056.00000000001</v>
       </c>
-      <c r="F81" s="161">
+      <c r="F81" s="160">
         <f>I81</f>
         <v>9.0344684898005026E-3</v>
       </c>
-      <c r="H81" s="239">
+      <c r="H81" s="238">
         <f>Inputs!F94</f>
         <v>124056.00000000001</v>
       </c>
-      <c r="I81" s="161">
+      <c r="I81" s="160">
         <f>H81/$H$74</f>
         <v>9.0344684898005026E-3</v>
       </c>
@@ -11977,23 +11982,23 @@
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="160">
+      <c r="D82" s="159">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="239">
+      <c r="E82" s="238">
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="161">
+      <c r="F82" s="160">
         <f>E82/E74</f>
         <v>0</v>
       </c>
-      <c r="H82" s="239">
+      <c r="H82" s="238">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="161">
+      <c r="I82" s="160">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
@@ -12003,27 +12008,27 @@
       <c r="B83" s="105" t="s">
         <v>125</v>
       </c>
-      <c r="C83" s="164">
+      <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
         <v>993813</v>
       </c>
-      <c r="D83" s="165">
+      <c r="D83" s="164">
         <f>C83/$C$74</f>
         <v>7.2375155036871308E-2</v>
       </c>
-      <c r="E83" s="166">
+      <c r="E83" s="165">
         <f>E79-E81-E82-E80</f>
         <v>993812.99999999907</v>
       </c>
-      <c r="F83" s="165">
+      <c r="F83" s="164">
         <f>E83/E74</f>
         <v>7.2375155036871239E-2</v>
       </c>
-      <c r="H83" s="166">
+      <c r="H83" s="165">
         <f>H79-H81-H82-H80</f>
         <v>993812.99999999907</v>
       </c>
-      <c r="I83" s="165">
+      <c r="I83" s="164">
         <f>H83/$H$74</f>
         <v>7.2375155036871239E-2</v>
       </c>
@@ -12033,49 +12038,49 @@
       <c r="B84" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C84" s="212"/>
-      <c r="D84" s="160">
+      <c r="C84" s="211"/>
+      <c r="D84" s="159">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="213"/>
-      <c r="F84" s="180">
+      <c r="E84" s="212"/>
+      <c r="F84" s="179">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="213"/>
-      <c r="I84" s="203">
+      <c r="H84" s="212"/>
+      <c r="I84" s="202">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="264" t="s">
+      <c r="B85" s="263" t="s">
         <v>164</v>
       </c>
-      <c r="C85" s="258">
+      <c r="C85" s="257">
         <f>C83*(1-I84)</f>
         <v>745359.75</v>
       </c>
-      <c r="D85" s="259">
+      <c r="D85" s="258">
         <f>C85/$C$74</f>
         <v>5.4281366277653474E-2</v>
       </c>
-      <c r="E85" s="265">
+      <c r="E85" s="264">
         <f>E83*(1-F84)</f>
         <v>745359.7499999993</v>
       </c>
-      <c r="F85" s="259">
+      <c r="F85" s="258">
         <f>E85/E74</f>
         <v>5.4281366277653426E-2</v>
       </c>
-      <c r="G85" s="261"/>
-      <c r="H85" s="265">
+      <c r="G85" s="260"/>
+      <c r="H85" s="264">
         <f>H83*(1-I84)</f>
         <v>745359.7499999993</v>
       </c>
-      <c r="I85" s="259">
+      <c r="I85" s="258">
         <f>H85/$H$74</f>
         <v>5.4281366277653426E-2</v>
       </c>
@@ -12085,69 +12090,69 @@
       <c r="B86" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="C86" s="168">
+      <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
         <v>1.2695448544930885</v>
       </c>
-      <c r="D86" s="210"/>
-      <c r="E86" s="169">
+      <c r="D86" s="209"/>
+      <c r="E86" s="168">
         <f>E85*Data!C4/Common_Shares</f>
         <v>1.2695448544930872</v>
       </c>
-      <c r="F86" s="210"/>
-      <c r="H86" s="169">
+      <c r="F86" s="209"/>
+      <c r="H86" s="168">
         <f>H85*Data!C4/Common_Shares</f>
         <v>1.2695448544930872</v>
       </c>
-      <c r="I86" s="210"/>
+      <c r="I86" s="209"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>208</v>
       </c>
-      <c r="C87" s="262">
+      <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.6821620076813197E-2</v>
-      </c>
-      <c r="D87" s="210"/>
-      <c r="E87" s="263">
+        <v>8.7663818566199217E-2</v>
+      </c>
+      <c r="D87" s="209"/>
+      <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.68216200768131E-2</v>
-      </c>
-      <c r="F87" s="210"/>
-      <c r="H87" s="263">
+        <v>8.766381856619912E-2</v>
+      </c>
+      <c r="F87" s="209"/>
+      <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.68216200768131E-2</v>
-      </c>
-      <c r="I87" s="210"/>
+        <v>8.766381856619912E-2</v>
+      </c>
+      <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="C88" s="170">
+      <c r="C88" s="169">
         <f>Inputs!C44</f>
         <v>0.24840000000000001</v>
       </c>
-      <c r="D88" s="167">
+      <c r="D88" s="166">
         <f>C88/C86</f>
         <v>0.19566067250076222</v>
       </c>
-      <c r="E88" s="171">
+      <c r="E88" s="170">
         <f>Inputs!E98</f>
         <v>0.24840000000000001</v>
       </c>
-      <c r="F88" s="167">
+      <c r="F88" s="166">
         <f>E88/E86</f>
         <v>0.19566067250076241</v>
       </c>
-      <c r="H88" s="171">
+      <c r="H88" s="170">
         <f>Inputs!F98</f>
         <v>0.24840000000000001</v>
       </c>
-      <c r="I88" s="167">
+      <c r="I88" s="166">
         <f>H88/H86</f>
         <v>0.19566067250076241</v>
       </c>
@@ -12157,21 +12162,21 @@
       <c r="B89" s="87" t="s">
         <v>221</v>
       </c>
-      <c r="C89" s="262">
+      <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.6987576571834948E-2</v>
-      </c>
-      <c r="D89" s="210"/>
-      <c r="E89" s="262">
+        <v>1.7152361694647341E-2</v>
+      </c>
+      <c r="D89" s="209"/>
+      <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.6987576571834948E-2</v>
-      </c>
-      <c r="F89" s="210"/>
-      <c r="H89" s="262">
+        <v>1.7152361694647341E-2</v>
+      </c>
+      <c r="F89" s="209"/>
+      <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.6987576571834948E-2</v>
-      </c>
-      <c r="I89" s="210"/>
+        <v>1.7152361694647341E-2</v>
+      </c>
+      <c r="I89" s="209"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12193,22 +12198,22 @@
       <c r="B92" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C92" s="199" t="str">
+      <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E92" s="284" t="s">
+      <c r="E92" s="285" t="s">
         <v>206</v>
       </c>
-      <c r="F92" s="284"/>
+      <c r="F92" s="285"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="284" t="s">
+      <c r="H92" s="285" t="s">
         <v>205</v>
       </c>
-      <c r="I92" s="284"/>
+      <c r="I92" s="285"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12218,9 +12223,9 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>6.4500000000000002E-2</v>
-      </c>
-      <c r="D93" s="240">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="D93" s="239">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
@@ -12228,15 +12233,15 @@
         <v>209</v>
       </c>
       <c r="F93" s="144">
-        <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>232.2746310959767</v>
+        <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
+        <v>227.86298062953955</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
-        <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>232.2746310959767</v>
+        <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
+        <v>227.86298062953955</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12244,24 +12249,27 @@
       <c r="B94" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C94" s="183">
+      <c r="C94" s="182">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="145"/>
+      <c r="D94" s="270">
+        <f>Inputs!D87</f>
+        <v>0</v>
+      </c>
       <c r="E94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="F94" s="144">
-        <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>32.60560124859839</v>
+        <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
+        <v>31.888490800300151</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
-        <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>32.60560124859839</v>
+        <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
+        <v>31.888490800300151</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12282,14 +12290,14 @@
       <c r="D96" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E96" s="184" t="str">
+      <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="228" t="s">
+      <c r="F96" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H96" s="184" t="str">
+      <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
@@ -12304,21 +12312,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>67800120.296784461</v>
-      </c>
-      <c r="D97" s="214"/>
+        <v>66512375.565814644</v>
+      </c>
+      <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>115.48154278091233</v>
-      </c>
-      <c r="F97" s="214"/>
+        <v>113.28817280473194</v>
+      </c>
+      <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>115.48154278091233</v>
+        <v>113.28817280473194</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>169.93132749871157</v>
+        <v>165.53420619769258</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12330,14 +12338,14 @@
         <f>E53*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D98" s="214"/>
-      <c r="E98" s="214"/>
-      <c r="F98" s="214"/>
+      <c r="D98" s="213"/>
+      <c r="E98" s="213"/>
+      <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I98" s="216"/>
+      <c r="I98" s="215"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -12348,17 +12356,17 @@
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="215"/>
-      <c r="E99" s="146">
+      <c r="D99" s="214"/>
+      <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="215"/>
-      <c r="H99" s="146">
+      <c r="F99" s="214"/>
+      <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="217"/>
+      <c r="I99" s="216"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -12367,27 +12375,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>67800120.296784461</v>
+        <v>66512375.565814644</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>98.159311363775487</v>
+        <v>96.294946884022153</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>115.48154278091233</v>
+        <v>113.28817280473194</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>115.48154278091233</v>
+        <v>113.28817280473194</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>115.48154278091233</v>
+        <v>113.28817280473194</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>169.93132749871157</v>
+        <v>165.53420619769258</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12406,14 +12414,14 @@
       <c r="D102" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E102" s="184" t="str">
+      <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="228" t="s">
+      <c r="F102" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H102" s="184" t="str">
+      <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
@@ -12428,27 +12436,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>9517456.454770999</v>
+        <v>9308134.5222323947</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>13.779134424033591</v>
+        <v>13.476083387230362</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>16.210746381215991</v>
+        <v>15.85421574968278</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>16.210746381215991</v>
+        <v>15.85421574968278</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>16.210746381215991</v>
+        <v>15.85421574968278</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>23.854146610520413</v>
+        <v>23.165834120515317</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12467,14 +12475,14 @@
       <c r="D105" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E105" s="185" t="str">
+      <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="228" t="s">
+      <c r="F105" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H105" s="185" t="str">
+      <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
@@ -12489,27 +12497,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>38658788.375777736</v>
+        <v>37910255.044023514</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>55.969222893904536</v>
+        <v>54.885515135626257</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>65.846144581064166</v>
+        <v>64.571194277207354</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>65.846144581064166</v>
+        <v>64.571194277207354</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>65.846144581064166</v>
+        <v>64.571194277207354</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>96.892737054615992</v>
+        <v>94.350020159103948</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0669.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0669.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE4F0827-F307-43DB-9B4F-40DC3386F5C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{42D888C6-17D9-4DDD-9B84-7931D71201FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3574,7 +3574,7 @@
   <dimension ref="A2:M98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91:F98"/>
+      <selection activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -4157,11 +4157,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.7152361694647341E-2</v>
+        <v>1.7590343869307346E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.6441132526149482E-2</v>
+        <v>1.6860953604195168E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4581,7 +4581,9 @@
       <c r="C87" s="236" t="s">
         <v>251</v>
       </c>
-      <c r="D87" s="269"/>
+      <c r="D87" s="269">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
@@ -4893,7 +4895,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>112.7</v>
+        <v>109.9</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>266</v>
@@ -4934,7 +4936,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>66167.054694999999</v>
+        <v>64523.152714999997</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4983,7 +4985,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7820900281270342</v>
+        <v>7.782523314158122</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5029,10 +5031,10 @@
         <v>254</v>
       </c>
       <c r="C12" s="174">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="D12" s="172">
-        <v>6.6000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5079,7 +5081,7 @@
         <v>255</v>
       </c>
       <c r="C17" s="175">
-        <v>7.1999999999999995E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5166,7 +5168,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>11.407214702207529</v>
+        <v>11.123186331914894</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5198,7 +5200,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.7152361694647341E-2</v>
+        <v>1.7590343869307346E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5228,20 +5230,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>96.294946884022153</v>
+        <v>97.295355116564522</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>190.36433712734646</v>
+        <v>175.2714169591633</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>113.28817280473194</v>
+        <v>114.4651236665465</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>165.53420619769258</v>
+        <v>152.4099277905768</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12113,17 +12115,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.7663818566199217E-2</v>
+        <v>8.9902296892283365E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.766381856619912E-2</v>
+        <v>8.9902296892283268E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.766381856619912E-2</v>
+        <v>8.9902296892283268E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12164,17 +12166,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.7152361694647341E-2</v>
+        <v>1.7590343869307346E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.7152361694647341E-2</v>
+        <v>1.7590343869307346E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.7152361694647341E-2</v>
+        <v>1.7590343869307346E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12223,7 +12225,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>6.6000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12234,14 +12236,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>227.86298062953955</v>
+        <v>230.2302492047846</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>227.86298062953955</v>
+        <v>230.2302492047846</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12255,21 +12257,21 @@
       </c>
       <c r="D94" s="270">
         <f>Inputs!D87</f>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>31.888490800300151</v>
+        <v>31.958984594597091</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>31.888490800300151</v>
+        <v>31.958984594597091</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12312,21 +12314,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>66512375.565814644</v>
+        <v>67203372.655850232</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>113.28817280473194</v>
+        <v>114.4651236665465</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>113.28817280473194</v>
+        <v>114.4651236665465</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>165.53420619769258</v>
+        <v>152.4099277905768</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12375,27 +12377,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>66512375.565814644</v>
+        <v>67203372.655850232</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>96.294946884022153</v>
+        <v>97.295355116564522</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>113.28817280473194</v>
+        <v>114.4651236665465</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>113.28817280473194</v>
+        <v>114.4651236665465</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>113.28817280473194</v>
+        <v>114.4651236665465</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>165.53420619769258</v>
+        <v>152.4099277905768</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12436,27 +12438,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>9308134.5222323947</v>
+        <v>9328711.4044814706</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>13.476083387230362</v>
+        <v>13.505874080561602</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>15.85421574968278</v>
+        <v>15.889263624190122</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>15.85421574968278</v>
+        <v>15.889263624190122</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>15.85421574968278</v>
+        <v>15.889263624190122</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>23.165834120515317</v>
+        <v>21.156501159802737</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12497,27 +12499,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>37910255.044023514</v>
+        <v>38266042.030165851</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>54.885515135626257</v>
+        <v>55.40061459856306</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>64.571194277207354</v>
+        <v>65.177193645368305</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>64.571194277207354</v>
+        <v>65.177193645368305</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>64.571194277207354</v>
+        <v>65.177193645368305</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>94.350020159103948</v>
+        <v>86.783214475189766</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0669.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0669.HK_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42D888C6-17D9-4DDD-9B84-7931D71201FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E822715-2EDB-9245-8AFF-A7B8C6229531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -27,6 +27,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
     </ext>
@@ -965,19 +976,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="13">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="180" formatCode="0.00\x"/>
-    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
-    <numFmt numFmtId="187" formatCode="&quot;g = &quot;0.00%"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="166" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="168" formatCode="0.00\x"/>
+    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="172" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="173" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="174" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="175" formatCode="&quot;g = &quot;0.00%"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1514,7 +1525,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="287">
@@ -1570,8 +1581,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1594,14 +1605,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1631,7 +1642,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1733,7 +1744,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1761,7 +1772,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1814,10 +1825,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1853,7 +1864,7 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1883,16 +1894,16 @@
     <xf numFmtId="10" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1913,7 +1924,7 @@
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1935,10 +1946,10 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1947,10 +1958,10 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1967,7 +1978,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1979,13 +1990,13 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2023,7 +2034,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2067,19 +2078,19 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -2104,7 +2115,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2116,10 +2127,10 @@
     <xf numFmtId="3" fontId="6" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2150,19 +2161,19 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="187" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2171,7 +2182,7 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2185,7 +2196,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2198,14 +2209,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="21">
     <dxf>
@@ -2401,7 +2412,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2463,7 +2474,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2675,10 +2686,10 @@
                   <c:v>9.0344684898005026E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>9.5756364731927404E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.2375155036871239E-2</c:v>
+                  <c:v>6.2799518563678491E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2735,7 +2746,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2765,7 +2776,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3573,24 +3584,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F86" sqref="F86"/>
+    <sheetView showGridLines="0" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" customWidth="1"/>
     <col min="3" max="13" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B4" s="141" t="s">
         <v>194</v>
       </c>
@@ -3598,7 +3609,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B5" s="141" t="s">
         <v>195</v>
       </c>
@@ -3606,7 +3617,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B6" s="141" t="s">
         <v>163</v>
       </c>
@@ -3614,7 +3625,7 @@
         <v>45625</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B7" s="140" t="s">
         <v>3</v>
       </c>
@@ -3622,7 +3633,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B8" s="140" t="s">
         <v>215</v>
       </c>
@@ -3631,7 +3642,7 @@
       </c>
       <c r="E8" s="267"/>
     </row>
-    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B9" s="140" t="s">
         <v>216</v>
       </c>
@@ -3639,7 +3650,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B10" s="140" t="s">
         <v>217</v>
       </c>
@@ -3647,7 +3658,7 @@
         <v>587107850</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B11" s="140" t="s">
         <v>218</v>
       </c>
@@ -3655,7 +3666,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B12" s="218" t="s">
         <v>9</v>
       </c>
@@ -3663,7 +3674,7 @@
         <v>45291</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B13" s="218" t="s">
         <v>10</v>
       </c>
@@ -3671,7 +3682,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B14" s="218" t="s">
         <v>219</v>
       </c>
@@ -3679,7 +3690,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B15" s="218" t="s">
         <v>256</v>
       </c>
@@ -3687,7 +3698,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B16" s="222" t="s">
         <v>96</v>
       </c>
@@ -3696,7 +3707,7 @@
       </c>
       <c r="D16" s="24"/>
     </row>
-    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B17" s="240" t="s">
         <v>224</v>
       </c>
@@ -3705,7 +3716,7 @@
       </c>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B18" s="240" t="s">
         <v>238</v>
       </c>
@@ -3714,7 +3725,7 @@
       </c>
       <c r="D18" s="24"/>
     </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B19" s="240" t="s">
         <v>239</v>
       </c>
@@ -3723,7 +3734,7 @@
       </c>
       <c r="D19" s="24"/>
     </row>
-    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B20" s="241" t="s">
         <v>228</v>
       </c>
@@ -3732,7 +3743,7 @@
       </c>
       <c r="D20" s="24"/>
     </row>
-    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B21" s="224" t="s">
         <v>231</v>
       </c>
@@ -3741,7 +3752,7 @@
       </c>
       <c r="D21" s="24"/>
     </row>
-    <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:13" ht="84" x14ac:dyDescent="0.15">
       <c r="B22" s="226" t="s">
         <v>230</v>
       </c>
@@ -3750,7 +3761,7 @@
       </c>
       <c r="D22" s="24"/>
     </row>
-    <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B24" s="115" t="s">
         <v>133</v>
       </c>
@@ -3799,7 +3810,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B25" s="94" t="s">
         <v>11</v>
       </c>
@@ -3819,7 +3830,7 @@
       <c r="L25" s="149"/>
       <c r="M25" s="149"/>
     </row>
-    <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B26" s="97" t="s">
         <v>105</v>
       </c>
@@ -3839,7 +3850,7 @@
       <c r="L26" s="150"/>
       <c r="M26" s="150"/>
     </row>
-    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B27" s="97" t="s">
         <v>103</v>
       </c>
@@ -3861,7 +3872,7 @@
       <c r="L27" s="150"/>
       <c r="M27" s="150"/>
     </row>
-    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B28" s="97" t="s">
         <v>106</v>
       </c>
@@ -3881,7 +3892,7 @@
       <c r="L28" s="150"/>
       <c r="M28" s="150"/>
     </row>
-    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B29" s="97" t="s">
         <v>257</v>
       </c>
@@ -3901,7 +3912,7 @@
       <c r="L29" s="150"/>
       <c r="M29" s="150"/>
     </row>
-    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B30" s="99" t="s">
         <v>110</v>
       </c>
@@ -3921,12 +3932,18 @@
       <c r="L30" s="150"/>
       <c r="M30" s="150"/>
     </row>
-    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B31" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="150"/>
-      <c r="D31" s="150"/>
+      <c r="C31" s="150">
+        <f>1862982-2265630</f>
+        <v>-402648</v>
+      </c>
+      <c r="D31" s="150">
+        <f>1816473-1375529</f>
+        <v>440944</v>
+      </c>
       <c r="E31" s="150"/>
       <c r="F31" s="150"/>
       <c r="G31" s="150"/>
@@ -3937,12 +3954,18 @@
       <c r="L31" s="150"/>
       <c r="M31" s="150"/>
     </row>
-    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B32" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="150"/>
-      <c r="D32" s="150"/>
+      <c r="C32" s="150">
+        <f>198268+269041+166178</f>
+        <v>633487</v>
+      </c>
+      <c r="D32" s="150">
+        <f>132434+240428+139998</f>
+        <v>512860</v>
+      </c>
       <c r="E32" s="150"/>
       <c r="F32" s="150"/>
       <c r="G32" s="150"/>
@@ -3953,12 +3976,17 @@
       <c r="L32" s="150"/>
       <c r="M32" s="150"/>
     </row>
-    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B33" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="150"/>
-      <c r="D33" s="150"/>
+      <c r="C33" s="150">
+        <v>502000</v>
+      </c>
+      <c r="D33" s="150">
+        <f>C33*1.137</f>
+        <v>570774</v>
+      </c>
       <c r="E33" s="150"/>
       <c r="F33" s="150"/>
       <c r="G33" s="150"/>
@@ -3969,7 +3997,7 @@
       <c r="L33" s="150"/>
       <c r="M33" s="150"/>
     </row>
-    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B34" s="94" t="s">
         <v>14</v>
       </c>
@@ -3985,7 +4013,7 @@
       <c r="L34" s="150"/>
       <c r="M34" s="150"/>
     </row>
-    <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B35" s="94" t="s">
         <v>116</v>
       </c>
@@ -4001,7 +4029,7 @@
       <c r="L35" s="150"/>
       <c r="M35" s="150"/>
     </row>
-    <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B36" s="94" t="s">
         <v>148</v>
       </c>
@@ -4017,7 +4045,7 @@
       <c r="L36" s="150"/>
       <c r="M36" s="150"/>
     </row>
-    <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B37" s="94" t="s">
         <v>15</v>
       </c>
@@ -4033,7 +4061,7 @@
       <c r="L37" s="150"/>
       <c r="M37" s="150"/>
     </row>
-    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B38" s="94" t="s">
         <v>115</v>
       </c>
@@ -4049,7 +4077,7 @@
       <c r="L38" s="150"/>
       <c r="M38" s="150"/>
     </row>
-    <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B39" s="94" t="s">
         <v>16</v>
       </c>
@@ -4065,7 +4093,7 @@
       <c r="L39" s="150"/>
       <c r="M39" s="150"/>
     </row>
-    <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B40" s="94" t="s">
         <v>17</v>
       </c>
@@ -4081,7 +4109,7 @@
       <c r="L40" s="150"/>
       <c r="M40" s="150"/>
     </row>
-    <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B41" s="94" t="s">
         <v>137</v>
       </c>
@@ -4097,7 +4125,7 @@
       <c r="L41" s="150"/>
       <c r="M41" s="150"/>
     </row>
-    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B42" s="94" t="s">
         <v>138</v>
       </c>
@@ -4113,7 +4141,7 @@
       <c r="L42" s="150"/>
       <c r="M42" s="150"/>
     </row>
-    <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B43" s="94" t="s">
         <v>136</v>
       </c>
@@ -4129,7 +4157,7 @@
       <c r="L43" s="150"/>
       <c r="M43" s="150"/>
     </row>
-    <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B44" s="74" t="s">
         <v>207</v>
       </c>
@@ -4151,7 +4179,7 @@
       <c r="L44" s="250"/>
       <c r="M44" s="250"/>
     </row>
-    <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B45" s="74" t="s">
         <v>253</v>
       </c>
@@ -4200,7 +4228,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B47" s="10" t="s">
         <v>249</v>
       </c>
@@ -4214,7 +4242,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B48" s="3" t="s">
         <v>37</v>
       </c>
@@ -4224,7 +4252,7 @@
       </c>
       <c r="E48" s="112"/>
     </row>
-    <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B49" s="1" t="s">
         <v>135</v>
       </c>
@@ -4234,7 +4262,7 @@
       </c>
       <c r="E49" s="112"/>
     </row>
-    <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B50" s="3" t="s">
         <v>116</v>
       </c>
@@ -4245,7 +4273,7 @@
       </c>
       <c r="E50" s="112"/>
     </row>
-    <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B51" s="3" t="s">
         <v>41</v>
       </c>
@@ -4255,7 +4283,7 @@
       </c>
       <c r="E51" s="112"/>
     </row>
-    <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B52" s="3" t="s">
         <v>43</v>
       </c>
@@ -4265,7 +4293,7 @@
       </c>
       <c r="E52" s="112"/>
     </row>
-    <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B53" s="1" t="s">
         <v>158</v>
       </c>
@@ -4276,7 +4304,7 @@
       </c>
       <c r="E53" s="112"/>
     </row>
-    <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B54" s="3" t="s">
         <v>117</v>
       </c>
@@ -4286,7 +4314,7 @@
       </c>
       <c r="E54" s="112"/>
     </row>
-    <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B55" s="3" t="s">
         <v>46</v>
       </c>
@@ -4297,7 +4325,7 @@
       </c>
       <c r="E55" s="112"/>
     </row>
-    <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B56" s="1" t="s">
         <v>47</v>
       </c>
@@ -4310,7 +4338,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B57" s="3" t="s">
         <v>119</v>
       </c>
@@ -4322,7 +4350,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B58" s="3" t="s">
         <v>49</v>
       </c>
@@ -4333,7 +4361,7 @@
       </c>
       <c r="E58" s="112"/>
     </row>
-    <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B59" s="35" t="s">
         <v>50</v>
       </c>
@@ -4344,7 +4372,7 @@
       </c>
       <c r="E59" s="112"/>
     </row>
-    <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B60" s="3" t="s">
         <v>60</v>
       </c>
@@ -4355,7 +4383,7 @@
       </c>
       <c r="E60" s="112"/>
     </row>
-    <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B61" s="3" t="s">
         <v>62</v>
       </c>
@@ -4366,7 +4394,7 @@
       </c>
       <c r="E61" s="112"/>
     </row>
-    <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B62" s="3" t="s">
         <v>64</v>
       </c>
@@ -4377,7 +4405,7 @@
       </c>
       <c r="E62" s="112"/>
     </row>
-    <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B63" s="1" t="s">
         <v>159</v>
       </c>
@@ -4388,7 +4416,7 @@
       </c>
       <c r="E63" s="112"/>
     </row>
-    <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B64" s="3" t="s">
         <v>67</v>
       </c>
@@ -4398,7 +4426,7 @@
       </c>
       <c r="E64" s="112"/>
     </row>
-    <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B65" s="3" t="s">
         <v>69</v>
       </c>
@@ -4410,7 +4438,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B66" s="3" t="s">
         <v>71</v>
       </c>
@@ -4422,7 +4450,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B67" s="1" t="s">
         <v>48</v>
       </c>
@@ -4435,7 +4463,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B68" s="3" t="s">
         <v>118</v>
       </c>
@@ -4446,7 +4474,7 @@
       </c>
       <c r="E68" s="112"/>
     </row>
-    <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B69" s="3" t="s">
         <v>72</v>
       </c>
@@ -4457,7 +4485,7 @@
       </c>
       <c r="E69" s="112"/>
     </row>
-    <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B70" s="3" t="s">
         <v>73</v>
       </c>
@@ -4467,7 +4495,7 @@
       </c>
       <c r="E70" s="112"/>
     </row>
-    <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B71" s="3" t="s">
         <v>74</v>
       </c>
@@ -4478,7 +4506,7 @@
       </c>
       <c r="E71" s="112"/>
     </row>
-    <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B72" s="246" t="s">
         <v>75</v>
       </c>
@@ -4488,85 +4516,85 @@
       </c>
       <c r="E72" s="249"/>
     </row>
-    <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B73" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C73" s="59"/>
     </row>
-    <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B74" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C74" s="59"/>
     </row>
-    <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B75" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C75" s="59"/>
     </row>
-    <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B76" s="86" t="s">
         <v>42</v>
       </c>
       <c r="C76" s="120"/>
     </row>
-    <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B77" s="80" t="s">
         <v>15</v>
       </c>
       <c r="C77" s="83"/>
     </row>
-    <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:5" ht="15" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B78" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C78" s="59"/>
     </row>
-    <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B79" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C79" s="59"/>
     </row>
-    <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B80" s="3" t="s">
         <v>65</v>
       </c>
       <c r="C80" s="59"/>
     </row>
-    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B81" s="86" t="s">
         <v>66</v>
       </c>
       <c r="C81" s="120"/>
     </row>
-    <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B82" s="80" t="s">
         <v>84</v>
       </c>
       <c r="C82" s="83"/>
     </row>
-    <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B83" s="73" t="s">
         <v>220</v>
       </c>
       <c r="C83" s="59"/>
     </row>
-    <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B84" s="20" t="s">
         <v>90</v>
       </c>
       <c r="C84" s="59"/>
     </row>
-    <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B85" s="20" t="s">
         <v>92</v>
       </c>
       <c r="C85" s="59"/>
     </row>
-    <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B86" s="10" t="s">
         <v>250</v>
       </c>
@@ -4574,7 +4602,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B87" s="10" t="s">
         <v>248</v>
       </c>
@@ -4585,7 +4613,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B89" s="106" t="s">
         <v>127</v>
       </c>
@@ -4602,7 +4630,7 @@
       </c>
       <c r="H89" s="31"/>
     </row>
-    <row r="90" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B90" s="12" t="str">
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000USD)</v>
@@ -4618,7 +4646,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B91" s="3" t="s">
         <v>126</v>
       </c>
@@ -4636,7 +4664,7 @@
         <v>13731411</v>
       </c>
     </row>
-    <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B92" s="104" t="s">
         <v>105</v>
       </c>
@@ -4657,7 +4685,7 @@
         <v>8311775.0000000009</v>
       </c>
     </row>
-    <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B93" s="104" t="s">
         <v>247</v>
       </c>
@@ -4678,7 +4706,7 @@
         <v>4301767</v>
       </c>
     </row>
-    <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B94" s="104" t="s">
         <v>257</v>
       </c>
@@ -4696,28 +4724,28 @@
         <v>124056.00000000001</v>
       </c>
     </row>
-    <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B95" s="28" t="s">
         <v>246</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
-        <v>0</v>
+        <v>131487</v>
       </c>
       <c r="D95" s="159">
         <f>C95/C91</f>
-        <v>0</v>
+        <v>9.5756364731927404E-3</v>
       </c>
       <c r="E95" s="252">
         <f>E91*D95</f>
-        <v>0</v>
+        <v>131487</v>
       </c>
       <c r="F95" s="252">
         <f>F91*D95</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+        <v>131487</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B96" s="28" t="s">
         <v>109</v>
       </c>
@@ -4735,7 +4763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:7" ht="14" x14ac:dyDescent="0.15">
       <c r="B97" s="73" t="s">
         <v>172</v>
       </c>
@@ -4753,7 +4781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:7" ht="14" x14ac:dyDescent="0.15">
       <c r="B98" s="86" t="s">
         <v>207</v>
       </c>
@@ -4841,23 +4869,23 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.6640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="87"/>
       <c r="C1" s="87"/>
       <c r="D1" s="87"/>
@@ -4866,7 +4894,7 @@
       <c r="G1" s="87"/>
       <c r="H1" s="87"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -4881,7 +4909,7 @@
       <c r="G2" s="86"/>
       <c r="H2" s="86"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>194</v>
       </c>
@@ -4901,7 +4929,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="35" t="s">
         <v>195</v>
       </c>
@@ -4921,7 +4949,7 @@
       <c r="H4" s="283"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
         <v>163</v>
       </c>
@@ -4942,7 +4970,7 @@
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="87" t="s">
         <v>3</v>
       </c>
@@ -4968,7 +4996,7 @@
       <c r="H6" s="276"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="86" t="s">
         <v>192</v>
       </c>
@@ -4992,8 +5020,8 @@
         <v>USD/HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="139" t="s">
         <v>190</v>
       </c>
@@ -5001,7 +5029,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>175</v>
       </c>
@@ -5012,7 +5040,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="122" t="s">
         <v>179</v>
       </c>
@@ -5026,7 +5054,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B12" s="87" t="s">
         <v>254</v>
       </c>
@@ -5038,8 +5066,8 @@
       </c>
       <c r="F12" s="110"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>176</v>
       </c>
@@ -5050,7 +5078,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>186</v>
       </c>
@@ -5061,7 +5089,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="122" t="s">
         <v>187</v>
       </c>
@@ -5076,7 +5104,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B17" s="87" t="s">
         <v>255</v>
       </c>
@@ -5085,8 +5113,8 @@
       </c>
       <c r="D17" s="176"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="142" t="s">
         <v>183</v>
       </c>
@@ -5101,7 +5129,7 @@
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="137" t="s">
         <v>169</v>
       </c>
@@ -5116,7 +5144,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="137" t="s">
         <v>244</v>
       </c>
@@ -5127,7 +5155,7 @@
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="137" t="s">
         <v>191</v>
       </c>
@@ -5139,7 +5167,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="137" t="s">
         <v>171</v>
       </c>
@@ -5155,7 +5183,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="137" t="s">
         <v>170</v>
       </c>
@@ -5168,32 +5196,32 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>11.123186331914894</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>12.819243740858255</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="137" t="s">
         <v>243</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
-        <v>0</v>
+        <v>9.5756364731927404E-3</v>
       </c>
       <c r="F25" s="140" t="s">
         <v>174</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
-        <v>0.19566067250076241</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>0.22549490554616261</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="138" t="s">
         <v>173</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
-        <v>7.2375155036871239E-2</v>
+        <v>6.2799518563678491E-2</v>
       </c>
       <c r="F26" s="141" t="s">
         <v>193</v>
@@ -5203,8 +5231,8 @@
         <v>1.7590343869307346E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="90" t="s">
         <v>6</v>
@@ -5224,45 +5252,45 @@
       </c>
       <c r="H28" s="273"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="87" t="s">
         <v>168</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>97.295355116564522</v>
+        <v>79.915392056326354</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>175.2714169591633</v>
+        <v>143.96251481664731</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>114.4651236665465</v>
+        <v>94.018108301560417</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>152.4099277905768</v>
+        <v>125.18479549273681</v>
       </c>
       <c r="H29" s="274"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
         <v>222</v>
       </c>
       <c r="C31"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
         <v>223</v>
       </c>
       <c r="C32" s="224"/>
     </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
         <v>224</v>
@@ -5272,7 +5300,7 @@
         <v>unclear</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
         <v>225</v>
@@ -5283,14 +5311,14 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
         <v>226</v>
       </c>
       <c r="C35" s="224"/>
     </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
         <v>238</v>
@@ -5300,7 +5328,7 @@
         <v>unclear</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
         <v>239</v>
@@ -5310,14 +5338,14 @@
         <v>unclear</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
         <v>227</v>
       </c>
       <c r="C38" s="224"/>
     </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
         <v>228</v>
@@ -5327,7 +5355,7 @@
         <v>unclear</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
         <v>231</v>
@@ -5337,19 +5365,19 @@
         <v>unclear</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
     </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
         <v>229</v>
       </c>
       <c r="C42"/>
     </row>
-    <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:3" ht="70" x14ac:dyDescent="0.15">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
         <v>230</v>
@@ -5359,886 +5387,886 @@
         <v>Unclear</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="G28:H28"/>
@@ -6313,7 +6341,7 @@
       <selection pane="topRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -6321,7 +6349,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -6329,7 +6357,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>8</v>
@@ -6354,7 +6382,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="103" t="s">
         <v>9</v>
@@ -6383,7 +6411,7 @@
       <c r="L3" s="87"/>
       <c r="M3" s="87"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="B4" s="103" t="s">
         <v>10</v>
@@ -6405,7 +6433,7 @@
       </c>
       <c r="J4" s="87"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
         <v>133</v>
@@ -6455,7 +6483,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="94" t="s">
         <v>11</v>
@@ -6506,7 +6534,7 @@
       </c>
       <c r="N6" s="87"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="96" t="s">
         <v>12</v>
@@ -6557,7 +6585,7 @@
       </c>
       <c r="N7" s="87"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
         <v>105</v>
@@ -6608,7 +6636,7 @@
       </c>
       <c r="N8" s="87"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
         <v>102</v>
@@ -6659,7 +6687,7 @@
       </c>
       <c r="N9" s="87"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
         <v>103</v>
@@ -6710,7 +6738,7 @@
       </c>
       <c r="N10" s="87"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
         <v>106</v>
@@ -6761,7 +6789,7 @@
       </c>
       <c r="N11" s="87"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
         <v>240</v>
@@ -6812,7 +6840,7 @@
       </c>
       <c r="N12" s="87"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
         <v>241</v>
@@ -6863,7 +6891,7 @@
       </c>
       <c r="N13" s="87"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
         <v>233</v>
@@ -6914,7 +6942,7 @@
       </c>
       <c r="N14" s="87"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
         <v>242</v>
@@ -6965,18 +6993,18 @@
       </c>
       <c r="N15" s="87"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="199" t="str">
+      <c r="C16" s="199">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
-        <v/>
-      </c>
-      <c r="D16" s="199" t="str">
+        <v>-402648</v>
+      </c>
+      <c r="D16" s="199">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
-        <v/>
+        <v>440944</v>
       </c>
       <c r="E16" s="199" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
@@ -7016,7 +7044,7 @@
       </c>
       <c r="N16" s="87"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
         <v>257</v>
@@ -7067,18 +7095,18 @@
       </c>
       <c r="N17" s="87"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="152" t="str">
+      <c r="C18" s="152">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
-        <v/>
-      </c>
-      <c r="D18" s="152" t="str">
+        <v>4.6134151836253391E-2</v>
+      </c>
+      <c r="D18" s="152">
         <f t="shared" si="6"/>
-        <v/>
+        <v>3.8694975983326288E-2</v>
       </c>
       <c r="E18" s="152" t="str">
         <f t="shared" si="6"/>
@@ -7118,18 +7146,18 @@
       </c>
       <c r="N18" s="87"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="199" t="str">
+      <c r="C19" s="199">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
-        <v/>
-      </c>
-      <c r="D19" s="199" t="str">
+        <v>633487</v>
+      </c>
+      <c r="D19" s="199">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
-        <v/>
+        <v>512860</v>
       </c>
       <c r="E19" s="199" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
@@ -7169,18 +7197,18 @@
       </c>
       <c r="N19" s="87"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
         <v>235</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
-        <v>0</v>
+        <v>3.6558515363060651E-2</v>
       </c>
       <c r="D20" s="152">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4.3064552162202313E-2</v>
       </c>
       <c r="E20" s="152" t="str">
         <f t="shared" si="7"/>
@@ -7220,18 +7248,18 @@
       </c>
       <c r="N20" s="87"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="199" t="str">
+      <c r="C21" s="199">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
-        <v/>
-      </c>
-      <c r="D21" s="199" t="str">
+        <v>502000</v>
+      </c>
+      <c r="D21" s="199">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
-        <v/>
+        <v>570774</v>
       </c>
       <c r="E21" s="199" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
@@ -7271,18 +7299,18 @@
       </c>
       <c r="N21" s="87"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
         <v>111</v>
       </c>
       <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
-        <v>993813</v>
+        <v>862326</v>
       </c>
       <c r="D22" s="161">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
-        <v>1117525</v>
+        <v>618667</v>
       </c>
       <c r="E22" s="161" t="str">
         <f t="shared" si="8"/>
@@ -7322,18 +7350,18 @@
       </c>
       <c r="N22" s="87"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
         <v>112</v>
       </c>
       <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
-        <v>5.4281366277653474E-2</v>
+        <v>4.7099638922758924E-2</v>
       </c>
       <c r="D23" s="153">
         <f t="shared" si="9"/>
-        <v>6.3237437657109222E-2</v>
+        <v>3.5008537476128754E-2</v>
       </c>
       <c r="E23" s="153" t="str">
         <f t="shared" si="9"/>
@@ -7373,18 +7401,18 @@
       </c>
       <c r="N23" s="87"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
         <v>113</v>
       </c>
       <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
-        <v>745359.75</v>
+        <v>646744.5</v>
       </c>
       <c r="D24" s="77">
         <f>IF(D6="","",D22*(1-Fin_Analysis!$I$84))</f>
-        <v>838143.75</v>
+        <v>464000.25</v>
       </c>
       <c r="E24" s="77" t="str">
         <f>IF(E6="","",E22*(1-Fin_Analysis!$I$84))</f>
@@ -7424,14 +7452,14 @@
       </c>
       <c r="N24" s="87"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
         <v>128</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
-        <v>-0.11070177400952999</v>
+        <v>0.39384515417825744</v>
       </c>
       <c r="D25" s="233" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
@@ -7475,7 +7503,7 @@
       </c>
       <c r="N25" s="87"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
         <v>134</v>
@@ -7526,7 +7554,7 @@
       </c>
       <c r="N26" s="87"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="94" t="s">
         <v>13</v>
@@ -7577,7 +7605,7 @@
       </c>
       <c r="N27" s="87"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
         <v>14</v>
@@ -7628,7 +7656,7 @@
       </c>
       <c r="N28" s="87"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
         <v>116</v>
@@ -7679,7 +7707,7 @@
       </c>
       <c r="N29" s="87"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
         <v>148</v>
@@ -7730,7 +7758,7 @@
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
         <v>15</v>
@@ -7781,7 +7809,7 @@
       </c>
       <c r="N31" s="87"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
         <v>115</v>
@@ -7832,7 +7860,7 @@
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
         <v>16</v>
@@ -7883,7 +7911,7 @@
       </c>
       <c r="N33" s="87"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
         <v>17</v>
@@ -7934,7 +7962,7 @@
       </c>
       <c r="N34" s="87"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
         <v>18</v>
@@ -7985,7 +8013,7 @@
       </c>
       <c r="N35" s="87"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
         <v>137</v>
@@ -8036,7 +8064,7 @@
       </c>
       <c r="N36" s="87"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
         <v>138</v>
@@ -8087,7 +8115,7 @@
       </c>
       <c r="N37" s="87"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
         <v>136</v>
@@ -8138,7 +8166,7 @@
       </c>
       <c r="N38" s="87"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
         <v>140</v>
@@ -8189,7 +8217,7 @@
       </c>
       <c r="N39" s="87"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
         <v>157</v>
@@ -8240,7 +8268,7 @@
       </c>
       <c r="N40" s="87"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
         <v>252</v>
@@ -8258,7 +8286,7 @@
       <c r="M41" s="54"/>
       <c r="N41" s="87"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
         <v>97</v>
@@ -8309,7 +8337,7 @@
       </c>
       <c r="N42" s="87"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
         <v>234</v>
@@ -8360,7 +8388,7 @@
       </c>
       <c r="N43" s="87"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
         <v>108</v>
@@ -8371,7 +8399,7 @@
       </c>
       <c r="D44" s="153">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>3.326895739576459E-2</v>
       </c>
       <c r="E44" s="153" t="str">
         <f t="shared" si="36"/>
@@ -8411,7 +8439,7 @@
       </c>
       <c r="N44" s="87"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
         <v>121</v>
@@ -8462,7 +8490,7 @@
       </c>
       <c r="N45" s="87"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
         <v>129</v>
@@ -8513,18 +8541,18 @@
       </c>
       <c r="N46" s="87"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
         <v>236</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
-        <v>0</v>
+        <v>9.5756364731927404E-3</v>
       </c>
       <c r="D47" s="153">
         <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
-        <v>0</v>
+        <v>4.369576178876026E-3</v>
       </c>
       <c r="E47" s="153" t="str">
         <f t="shared" si="39"/>
@@ -8564,18 +8592,18 @@
       </c>
       <c r="N47" s="87"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
         <v>123</v>
       </c>
       <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
-        <v>7.2375155036871308E-2</v>
+        <v>6.2799518563678561E-2</v>
       </c>
       <c r="D48" s="153">
         <f t="shared" si="40"/>
-        <v>8.4316583542812282E-2</v>
+        <v>4.6678049968171674E-2</v>
       </c>
       <c r="E48" s="153" t="str">
         <f t="shared" si="40"/>
@@ -8615,7 +8643,7 @@
       </c>
       <c r="N48" s="87"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
         <v>149</v>
@@ -8633,7 +8661,7 @@
       <c r="M49" s="36"/>
       <c r="N49" s="87"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="4"/>
       <c r="B50" s="95" t="s">
         <v>146</v>
@@ -8684,7 +8712,7 @@
       </c>
       <c r="N50" s="87"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
         <v>147</v>
@@ -8735,7 +8763,7 @@
       </c>
       <c r="N51" s="87"/>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
         <v>124</v>
@@ -8752,7 +8780,7 @@
       <c r="L52" s="36"/>
       <c r="M52" s="36"/>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
         <v>19</v>
@@ -8802,7 +8830,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4"/>
       <c r="B54" s="94" t="s">
         <v>120</v>
@@ -8852,18 +8880,18 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
         <v>122</v>
       </c>
       <c r="C55" s="153">
         <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>0.12482831277111489</v>
+        <v>0.1438620660863757</v>
       </c>
       <c r="D55" s="153">
         <f t="shared" si="45"/>
-        <v>6.2520301559249231E-2</v>
+        <v>0.11293312880758147</v>
       </c>
       <c r="E55" s="153" t="str">
         <f t="shared" si="45"/>
@@ -8902,7 +8930,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4"/>
       <c r="B56" s="98" t="s">
         <v>20</v>
@@ -8952,1260 +8980,1260 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" s="4"/>
     </row>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10246,10 +10274,10 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
@@ -10257,11 +10285,11 @@
     <col min="7" max="7" width="2" style="1" customWidth="1"/>
     <col min="8" max="9" width="18.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
         <v>21</v>
@@ -10277,7 +10305,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>22</v>
       </c>
@@ -10301,7 +10329,7 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>24</v>
       </c>
@@ -10317,7 +10345,7 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
@@ -10332,7 +10360,7 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="20" t="s">
         <v>26</v>
       </c>
@@ -10357,7 +10385,7 @@
       <c r="J6" s="87"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B7" s="19" t="s">
         <v>28</v>
       </c>
@@ -10380,13 +10408,13 @@
       <c r="J7" s="87"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="87"/>
       <c r="D8" s="87"/>
       <c r="E8" s="87"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
         <v>31</v>
@@ -10406,7 +10434,7 @@
       <c r="I9" s="86"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="22" t="s">
         <v>32</v>
       </c>
@@ -10431,7 +10459,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
         <v>37</v>
       </c>
@@ -10459,7 +10487,7 @@
       <c r="J11" s="87"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>135</v>
       </c>
@@ -10487,7 +10515,7 @@
       <c r="J12" s="87"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
         <v>116</v>
       </c>
@@ -10515,7 +10543,7 @@
       <c r="J13" s="87"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B14" s="3" t="s">
         <v>41</v>
       </c>
@@ -10543,7 +10571,7 @@
       <c r="J14" s="87"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">
         <v>43</v>
       </c>
@@ -10570,7 +10598,7 @@
       </c>
       <c r="J15" s="87"/>
     </row>
-    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>158</v>
       </c>
@@ -10592,7 +10620,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="87"/>
     </row>
-    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B17" s="3" t="s">
         <v>117</v>
       </c>
@@ -10614,7 +10642,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="87"/>
     </row>
-    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B18" s="3" t="s">
         <v>46</v>
       </c>
@@ -10635,7 +10663,7 @@
       <c r="H18" s="87"/>
       <c r="I18" s="87"/>
     </row>
-    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>47</v>
       </c>
@@ -10660,7 +10688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
         <v>119</v>
       </c>
@@ -10687,7 +10715,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
         <v>49</v>
       </c>
@@ -10708,7 +10736,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
         <v>50</v>
       </c>
@@ -10734,7 +10762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="87"/>
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
@@ -10743,7 +10771,7 @@
       </c>
       <c r="G23" s="87"/>
     </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="23" t="s">
         <v>52</v>
       </c>
@@ -10765,7 +10793,7 @@
       </c>
       <c r="G24" s="87"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="23" t="s">
         <v>54</v>
       </c>
@@ -10794,7 +10822,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="23" t="s">
         <v>56</v>
       </c>
@@ -10827,7 +10855,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="23" t="s">
         <v>58</v>
       </c>
@@ -10860,7 +10888,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="78" t="s">
         <v>14</v>
       </c>
@@ -10890,7 +10918,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="87"/>
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
@@ -10902,7 +10930,7 @@
       <c r="I29" s="87"/>
       <c r="J29" s="87"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="3" t="s">
         <v>60</v>
       </c>
@@ -10928,7 +10956,7 @@
       </c>
       <c r="J30" s="87"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="3" t="s">
         <v>62</v>
       </c>
@@ -10955,7 +10983,7 @@
       </c>
       <c r="J31" s="87"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="3" t="s">
         <v>64</v>
       </c>
@@ -10982,7 +11010,7 @@
       </c>
       <c r="J32" s="87"/>
     </row>
-    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
         <v>159</v>
       </c>
@@ -11012,7 +11040,7 @@
       </c>
       <c r="J33" s="87"/>
     </row>
-    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B34" s="3" t="s">
         <v>67</v>
       </c>
@@ -11039,7 +11067,7 @@
       </c>
       <c r="J34" s="87"/>
     </row>
-    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B35" s="3" t="s">
         <v>69</v>
       </c>
@@ -11065,7 +11093,7 @@
       </c>
       <c r="J35" s="87"/>
     </row>
-    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B36" s="3" t="s">
         <v>71</v>
       </c>
@@ -11092,7 +11120,7 @@
       <c r="H36" s="87"/>
       <c r="I36" s="87"/>
     </row>
-    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
         <v>48</v>
       </c>
@@ -11119,7 +11147,7 @@
       <c r="H37" s="87"/>
       <c r="I37" s="87"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="3" t="s">
         <v>118</v>
       </c>
@@ -11140,7 +11168,7 @@
       <c r="H38" s="87"/>
       <c r="I38" s="87"/>
     </row>
-    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B39" s="3" t="s">
         <v>72</v>
       </c>
@@ -11161,7 +11189,7 @@
       <c r="H39" s="87"/>
       <c r="I39" s="87"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="3" t="s">
         <v>73</v>
       </c>
@@ -11182,7 +11210,7 @@
       <c r="H40" s="87"/>
       <c r="I40" s="87"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="3" t="s">
         <v>74</v>
       </c>
@@ -11203,7 +11231,7 @@
       <c r="H41" s="87"/>
       <c r="I41" s="87"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="3" t="s">
         <v>75</v>
       </c>
@@ -11229,7 +11257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="87"/>
       <c r="D43" s="87"/>
       <c r="E43" s="87"/>
@@ -11238,7 +11266,7 @@
       <c r="H43" s="87"/>
       <c r="I43" s="87"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="23" t="s">
         <v>76</v>
       </c>
@@ -11257,7 +11285,7 @@
       <c r="F44" s="72"/>
       <c r="G44" s="87"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="23" t="s">
         <v>78</v>
       </c>
@@ -11276,7 +11304,7 @@
       <c r="F45" s="72"/>
       <c r="G45" s="87"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="23" t="s">
         <v>79</v>
       </c>
@@ -11306,7 +11334,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="23" t="s">
         <v>81</v>
       </c>
@@ -11336,7 +11364,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B48" s="80" t="s">
         <v>83</v>
       </c>
@@ -11363,7 +11391,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B49" s="3" t="s">
         <v>13</v>
       </c>
@@ -11390,20 +11418,20 @@
       </c>
       <c r="J49" s="87"/>
     </row>
-    <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="87"/>
       <c r="D50" s="87"/>
       <c r="E50" s="87"/>
       <c r="I50" s="87"/>
     </row>
-    <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B51" s="10" t="s">
         <v>86</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B52" s="44" t="s">
         <v>87</v>
       </c>
@@ -11420,7 +11448,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
         <v>88</v>
       </c>
@@ -11441,7 +11469,7 @@
       <c r="I53" s="41"/>
       <c r="K53" s="33"/>
     </row>
-    <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="87"/>
       <c r="D54" s="87"/>
       <c r="E54" s="87"/>
@@ -11450,7 +11478,7 @@
       <c r="I54" s="87"/>
       <c r="K54" s="33"/>
     </row>
-    <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B55" s="25" t="s">
         <v>150</v>
       </c>
@@ -11461,7 +11489,7 @@
       <c r="I55" s="87"/>
       <c r="K55" s="33"/>
     </row>
-    <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B56" s="20" t="s">
         <v>89</v>
       </c>
@@ -11476,7 +11504,7 @@
       <c r="I56" s="56"/>
       <c r="K56" s="33"/>
     </row>
-    <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B57" s="20" t="s">
         <v>90</v>
       </c>
@@ -11492,7 +11520,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="20" t="s">
         <v>92</v>
       </c>
@@ -11507,7 +11535,7 @@
       <c r="I58" s="87"/>
       <c r="K58" s="33"/>
     </row>
-    <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C59" s="87"/>
       <c r="D59" s="87"/>
       <c r="E59" s="87"/>
@@ -11516,7 +11544,7 @@
       <c r="I59" s="87"/>
       <c r="K59" s="33"/>
     </row>
-    <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B60" s="25" t="s">
         <v>153</v>
       </c>
@@ -11530,7 +11558,7 @@
       <c r="I60" s="87"/>
       <c r="K60" s="33"/>
     </row>
-    <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="19" t="s">
         <v>94</v>
       </c>
@@ -11551,7 +11579,7 @@
       <c r="I61" s="87"/>
       <c r="K61" s="33"/>
     </row>
-    <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B62" s="35" t="s">
         <v>139</v>
       </c>
@@ -11572,7 +11600,7 @@
       <c r="I62" s="87"/>
       <c r="K62" s="33"/>
     </row>
-    <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B63" s="19" t="s">
         <v>141</v>
       </c>
@@ -11593,7 +11621,7 @@
       <c r="I63" s="87"/>
       <c r="K63" s="33"/>
     </row>
-    <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:11" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B64" s="121" t="s">
         <v>151</v>
       </c>
@@ -11608,7 +11636,7 @@
       <c r="I64" s="87"/>
       <c r="K64" s="33"/>
     </row>
-    <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:11" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B65" s="3" t="s">
         <v>142</v>
       </c>
@@ -11629,7 +11657,7 @@
       <c r="I65" s="87"/>
       <c r="K65" s="33"/>
     </row>
-    <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B66" s="3"/>
       <c r="C66" s="68"/>
       <c r="D66" s="29"/>
@@ -11639,7 +11667,7 @@
       <c r="I66" s="87"/>
       <c r="K66" s="33"/>
     </row>
-    <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B67" s="25" t="s">
         <v>154</v>
       </c>
@@ -11653,7 +11681,7 @@
       <c r="I67" s="87"/>
       <c r="K67" s="33"/>
     </row>
-    <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B68" s="19" t="s">
         <v>140</v>
       </c>
@@ -11674,7 +11702,7 @@
       <c r="I68" s="87"/>
       <c r="K68" s="33"/>
     </row>
-    <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:11" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B69" s="121" t="s">
         <v>152</v>
       </c>
@@ -11689,7 +11717,7 @@
       <c r="I69" s="87"/>
       <c r="K69" s="33"/>
     </row>
-    <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:11" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B70" s="19" t="s">
         <v>143</v>
       </c>
@@ -11710,7 +11738,7 @@
       <c r="I70" s="87"/>
       <c r="K70" s="33"/>
     </row>
-    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
         <v>127</v>
@@ -11732,7 +11760,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000USD)</v>
@@ -11751,7 +11779,7 @@
       <c r="I73" s="272"/>
       <c r="K73" s="24"/>
     </row>
-    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="3" t="s">
         <v>126</v>
       </c>
@@ -11772,7 +11800,7 @@
       <c r="I74" s="209"/>
       <c r="K74" s="24"/>
     </row>
-    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="104" t="s">
         <v>105</v>
       </c>
@@ -11802,7 +11830,7 @@
       </c>
       <c r="K75" s="24"/>
     </row>
-    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="35" t="s">
         <v>95</v>
       </c>
@@ -11823,7 +11851,7 @@
       <c r="I76" s="210"/>
       <c r="K76" s="24"/>
     </row>
-    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="104" t="s">
         <v>247</v>
       </c>
@@ -11853,7 +11881,7 @@
       </c>
       <c r="K77" s="24"/>
     </row>
-    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="73" t="s">
         <v>172</v>
       </c>
@@ -11883,7 +11911,7 @@
       </c>
       <c r="K78" s="24"/>
     </row>
-    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="256" t="s">
         <v>232</v>
       </c>
@@ -11914,7 +11942,7 @@
       </c>
       <c r="K79" s="24"/>
     </row>
-    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="28" t="s">
         <v>109</v>
       </c>
@@ -11946,7 +11974,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="104" t="s">
         <v>257</v>
       </c>
@@ -11976,67 +12004,67 @@
       </c>
       <c r="K81" s="24"/>
     </row>
-    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="28" t="s">
         <v>246</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
-        <v>0</v>
+        <v>131487</v>
       </c>
       <c r="D82" s="159">
         <f>C82/$C$74</f>
-        <v>0</v>
+        <v>9.5756364731927404E-3</v>
       </c>
       <c r="E82" s="238">
         <f>Inputs!E95</f>
-        <v>0</v>
+        <v>131487</v>
       </c>
       <c r="F82" s="160">
         <f>E82/E74</f>
-        <v>0</v>
+        <v>9.5756364731927404E-3</v>
       </c>
       <c r="H82" s="238">
         <f>Inputs!F95</f>
-        <v>0</v>
+        <v>131487</v>
       </c>
       <c r="I82" s="160">
         <f>H82/$H$74</f>
-        <v>0</v>
+        <v>9.5756364731927404E-3</v>
       </c>
       <c r="K82" s="24"/>
     </row>
-    <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B83" s="105" t="s">
         <v>125</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
-        <v>993813</v>
+        <v>862326</v>
       </c>
       <c r="D83" s="164">
         <f>C83/$C$74</f>
-        <v>7.2375155036871308E-2</v>
+        <v>6.2799518563678561E-2</v>
       </c>
       <c r="E83" s="165">
         <f>E79-E81-E82-E80</f>
-        <v>993812.99999999907</v>
+        <v>862325.99999999907</v>
       </c>
       <c r="F83" s="164">
         <f>E83/E74</f>
-        <v>7.2375155036871239E-2</v>
+        <v>6.2799518563678491E-2</v>
       </c>
       <c r="H83" s="165">
         <f>H79-H81-H82-H80</f>
-        <v>993812.99999999907</v>
+        <v>862325.99999999907</v>
       </c>
       <c r="I83" s="164">
         <f>H83/$H$74</f>
-        <v>7.2375155036871239E-2</v>
+        <v>6.2799518563678491E-2</v>
       </c>
       <c r="K83" s="24"/>
     </row>
-    <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B84" s="28" t="s">
         <v>96</v>
       </c>
@@ -12057,80 +12085,80 @@
       </c>
       <c r="K84" s="24"/>
     </row>
-    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="263" t="s">
         <v>164</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
-        <v>745359.75</v>
+        <v>646744.5</v>
       </c>
       <c r="D85" s="258">
         <f>C85/$C$74</f>
-        <v>5.4281366277653474E-2</v>
+        <v>4.7099638922758924E-2</v>
       </c>
       <c r="E85" s="264">
         <f>E83*(1-F84)</f>
-        <v>745359.7499999993</v>
+        <v>646744.4999999993</v>
       </c>
       <c r="F85" s="258">
         <f>E85/E74</f>
-        <v>5.4281366277653426E-2</v>
+        <v>4.7099638922758869E-2</v>
       </c>
       <c r="G85" s="260"/>
       <c r="H85" s="264">
         <f>H83*(1-I84)</f>
-        <v>745359.7499999993</v>
+        <v>646744.4999999993</v>
       </c>
       <c r="I85" s="258">
         <f>H85/$H$74</f>
-        <v>5.4281366277653426E-2</v>
+        <v>4.7099638922758869E-2</v>
       </c>
       <c r="K85" s="24"/>
     </row>
-    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="87" t="s">
         <v>160</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
-        <v>1.2695448544930885</v>
+        <v>1.1015769930516173</v>
       </c>
       <c r="D86" s="209"/>
       <c r="E86" s="168">
         <f>E85*Data!C4/Common_Shares</f>
-        <v>1.2695448544930872</v>
+        <v>1.1015769930516162</v>
       </c>
       <c r="F86" s="209"/>
       <c r="H86" s="168">
         <f>H85*Data!C4/Common_Shares</f>
-        <v>1.2695448544930872</v>
+        <v>1.1015769930516162</v>
       </c>
       <c r="I86" s="209"/>
       <c r="K86" s="24"/>
     </row>
-    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="87" t="s">
         <v>208</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.9902296892283365E-2</v>
+        <v>7.8007721844990094E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.9902296892283268E-2</v>
+        <v>7.8007721844990011E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.9902296892283268E-2</v>
+        <v>7.8007721844990011E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
-    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="86" t="s">
         <v>207</v>
       </c>
@@ -12140,7 +12168,7 @@
       </c>
       <c r="D88" s="166">
         <f>C88/C86</f>
-        <v>0.19566067250076222</v>
+        <v>0.22549490554616239</v>
       </c>
       <c r="E88" s="170">
         <f>Inputs!E98</f>
@@ -12148,7 +12176,7 @@
       </c>
       <c r="F88" s="166">
         <f>E88/E86</f>
-        <v>0.19566067250076241</v>
+        <v>0.22549490554616261</v>
       </c>
       <c r="H88" s="170">
         <f>Inputs!F98</f>
@@ -12156,11 +12184,11 @@
       </c>
       <c r="I88" s="166">
         <f>H88/H86</f>
-        <v>0.19566067250076241</v>
+        <v>0.22549490554616261</v>
       </c>
       <c r="K88" s="24"/>
     </row>
-    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B89" s="87" t="s">
         <v>221</v>
       </c>
@@ -12181,11 +12209,11 @@
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
     </row>
-    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="28"/>
       <c r="C90" s="88"/>
     </row>
-    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="5"/>
       <c r="B91" s="106" t="str">
         <f xml:space="preserve"> "Valuation Drivers in "&amp;Dashboard!H3</f>
@@ -12196,7 +12224,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B92" s="10" t="s">
         <v>155</v>
       </c>
@@ -12218,7 +12246,7 @@
       <c r="I92" s="285"/>
       <c r="K92" s="24"/>
     </row>
-    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B93" s="1" t="str">
         <f>C92&amp;" Discount Rate"</f>
         <v>HK Discount Rate</v>
@@ -12236,18 +12264,18 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>230.2302492047846</v>
+        <v>189.10399788749692</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>230.2302492047846</v>
+        <v>189.10399788749692</v>
       </c>
       <c r="K93" s="24"/>
     </row>
-    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B94" s="1" t="s">
         <v>211</v>
       </c>
@@ -12275,11 +12303,11 @@
       </c>
       <c r="K94" s="24"/>
     </row>
-    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E95" s="24"/>
       <c r="K95" s="24"/>
     </row>
-    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="5"/>
       <c r="B96" s="106" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
@@ -12308,31 +12336,31 @@
       </c>
       <c r="K96" s="24"/>
     </row>
-    <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B97" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>67203372.655850232</v>
+        <v>55198769.425996281</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>114.4651236665465</v>
+        <v>94.018108301560417</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>114.4651236665465</v>
+        <v>94.018108301560417</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>152.4099277905768</v>
+        <v>125.18479549273681</v>
       </c>
       <c r="K97" s="24"/>
     </row>
-    <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B98" s="28" t="s">
         <v>144</v>
       </c>
@@ -12350,7 +12378,7 @@
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
     </row>
-    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B99" s="105" t="s">
         <v>145</v>
       </c>
@@ -12371,41 +12399,41 @@
       <c r="I99" s="216"/>
       <c r="K99" s="24"/>
     </row>
-    <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B100" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>67203372.655850232</v>
+        <v>55198769.425996281</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>97.295355116564522</v>
+        <v>79.915392056326354</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>114.4651236665465</v>
+        <v>94.018108301560417</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>114.4651236665465</v>
+        <v>94.018108301560417</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>114.4651236665465</v>
+        <v>94.018108301560417</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>152.4099277905768</v>
+        <v>125.18479549273681</v>
       </c>
       <c r="K100" s="24"/>
     </row>
-    <row r="101" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E101" s="24"/>
       <c r="K101" s="24"/>
     </row>
-    <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B102" s="10" t="s">
         <v>162</v>
       </c>
@@ -12432,7 +12460,7 @@
       </c>
       <c r="K102" s="24"/>
     </row>
-    <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B103" s="1" t="s">
         <v>161</v>
       </c>
@@ -12462,11 +12490,11 @@
       </c>
       <c r="K103" s="24"/>
     </row>
-    <row r="104" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E104" s="24"/>
       <c r="K104" s="24"/>
     </row>
-    <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B105" s="10" t="s">
         <v>197</v>
       </c>
@@ -12493,40 +12521,40 @@
       </c>
       <c r="K105" s="24"/>
     </row>
-    <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B106" s="1" t="s">
         <v>198</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>38266042.030165851</v>
+        <v>32263740.41523888</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>55.40061459856306</v>
+        <v>46.710633068443975</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>65.177193645368305</v>
+        <v>54.953685962875269</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>65.177193645368305</v>
+        <v>54.953685962875269</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>65.177193645368305</v>
+        <v>54.953685962875269</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>86.783214475189766</v>
+        <v>73.17064832626977</v>
       </c>
       <c r="K106" s="24"/>
     </row>
-    <row r="107" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K107" s="24"/>
     </row>
-    <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B108" s="10" t="s">
         <v>165</v>
       </c>

--- a/financial_models/opportunities/0669.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0669.HK_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E822715-2EDB-9245-8AFF-A7B8C6229531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E806990-487E-4AC1-B772-1CEFAE12D15D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -27,17 +27,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
     </ext>
@@ -976,19 +965,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="13">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="166" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="168" formatCode="0.00\x"/>
-    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="172" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="173" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="174" formatCode="0&quot; Years&quot;"/>
-    <numFmt numFmtId="175" formatCode="&quot;g = &quot;0.00%"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="180" formatCode="0.00\x"/>
+    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="187" formatCode="&quot;g = &quot;0.00%"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1525,7 +1514,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="287">
@@ -1581,8 +1570,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1605,14 +1594,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1642,7 +1631,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1744,7 +1733,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1772,7 +1761,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1825,10 +1814,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1864,7 +1853,7 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1894,16 +1883,16 @@
     <xf numFmtId="10" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1924,7 +1913,7 @@
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1946,10 +1935,10 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1958,10 +1947,10 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1978,7 +1967,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1990,13 +1979,13 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2034,7 +2023,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2078,19 +2067,19 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -2115,7 +2104,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2127,10 +2116,10 @@
     <xf numFmtId="3" fontId="6" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2161,19 +2150,19 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="175" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2182,7 +2171,7 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2196,7 +2185,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2209,14 +2198,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="21">
     <dxf>
@@ -2412,7 +2401,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2474,7 +2463,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2746,7 +2735,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2776,7 +2765,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3588,20 +3577,20 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" customWidth="1"/>
     <col min="3" max="13" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
         <v>194</v>
       </c>
@@ -3609,7 +3598,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
         <v>195</v>
       </c>
@@ -3617,7 +3606,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
         <v>163</v>
       </c>
@@ -3625,7 +3614,7 @@
         <v>45625</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B7" s="140" t="s">
         <v>3</v>
       </c>
@@ -3633,7 +3622,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
         <v>215</v>
       </c>
@@ -3642,7 +3631,7 @@
       </c>
       <c r="E8" s="267"/>
     </row>
-    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
         <v>216</v>
       </c>
@@ -3650,7 +3639,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
         <v>217</v>
       </c>
@@ -3658,7 +3647,7 @@
         <v>587107850</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
         <v>218</v>
       </c>
@@ -3666,7 +3655,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="218" t="s">
         <v>9</v>
       </c>
@@ -3674,7 +3663,7 @@
         <v>45291</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="218" t="s">
         <v>10</v>
       </c>
@@ -3682,7 +3671,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
         <v>219</v>
       </c>
@@ -3690,7 +3679,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
         <v>256</v>
       </c>
@@ -3698,7 +3687,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="222" t="s">
         <v>96</v>
       </c>
@@ -3707,7 +3696,7 @@
       </c>
       <c r="D16" s="24"/>
     </row>
-    <row r="17" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
         <v>224</v>
       </c>
@@ -3716,7 +3705,7 @@
       </c>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
         <v>238</v>
       </c>
@@ -3725,7 +3714,7 @@
       </c>
       <c r="D18" s="24"/>
     </row>
-    <row r="19" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
         <v>239</v>
       </c>
@@ -3734,7 +3723,7 @@
       </c>
       <c r="D19" s="24"/>
     </row>
-    <row r="20" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
         <v>228</v>
       </c>
@@ -3743,7 +3732,7 @@
       </c>
       <c r="D20" s="24"/>
     </row>
-    <row r="21" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
         <v>231</v>
       </c>
@@ -3752,7 +3741,7 @@
       </c>
       <c r="D21" s="24"/>
     </row>
-    <row r="22" spans="2:13" ht="84" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
         <v>230</v>
       </c>
@@ -3761,7 +3750,7 @@
       </c>
       <c r="D22" s="24"/>
     </row>
-    <row r="24" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
         <v>133</v>
       </c>
@@ -3810,7 +3799,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B25" s="94" t="s">
         <v>11</v>
       </c>
@@ -3830,7 +3819,7 @@
       <c r="L25" s="149"/>
       <c r="M25" s="149"/>
     </row>
-    <row r="26" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>105</v>
       </c>
@@ -3850,7 +3839,7 @@
       <c r="L26" s="150"/>
       <c r="M26" s="150"/>
     </row>
-    <row r="27" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>103</v>
       </c>
@@ -3872,7 +3861,7 @@
       <c r="L27" s="150"/>
       <c r="M27" s="150"/>
     </row>
-    <row r="28" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>106</v>
       </c>
@@ -3892,7 +3881,7 @@
       <c r="L28" s="150"/>
       <c r="M28" s="150"/>
     </row>
-    <row r="29" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
         <v>257</v>
       </c>
@@ -3912,7 +3901,7 @@
       <c r="L29" s="150"/>
       <c r="M29" s="150"/>
     </row>
-    <row r="30" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>110</v>
       </c>
@@ -3932,7 +3921,7 @@
       <c r="L30" s="150"/>
       <c r="M30" s="150"/>
     </row>
-    <row r="31" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>109</v>
       </c>
@@ -3954,7 +3943,7 @@
       <c r="L31" s="150"/>
       <c r="M31" s="150"/>
     </row>
-    <row r="32" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>104</v>
       </c>
@@ -3976,7 +3965,7 @@
       <c r="L32" s="150"/>
       <c r="M32" s="150"/>
     </row>
-    <row r="33" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>107</v>
       </c>
@@ -3997,7 +3986,7 @@
       <c r="L33" s="150"/>
       <c r="M33" s="150"/>
     </row>
-    <row r="34" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
         <v>14</v>
       </c>
@@ -4013,7 +4002,7 @@
       <c r="L34" s="150"/>
       <c r="M34" s="150"/>
     </row>
-    <row r="35" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>116</v>
       </c>
@@ -4029,7 +4018,7 @@
       <c r="L35" s="150"/>
       <c r="M35" s="150"/>
     </row>
-    <row r="36" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>148</v>
       </c>
@@ -4045,7 +4034,7 @@
       <c r="L36" s="150"/>
       <c r="M36" s="150"/>
     </row>
-    <row r="37" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
         <v>15</v>
       </c>
@@ -4061,7 +4050,7 @@
       <c r="L37" s="150"/>
       <c r="M37" s="150"/>
     </row>
-    <row r="38" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
         <v>115</v>
       </c>
@@ -4077,7 +4066,7 @@
       <c r="L38" s="150"/>
       <c r="M38" s="150"/>
     </row>
-    <row r="39" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>16</v>
       </c>
@@ -4093,7 +4082,7 @@
       <c r="L39" s="150"/>
       <c r="M39" s="150"/>
     </row>
-    <row r="40" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>17</v>
       </c>
@@ -4109,7 +4098,7 @@
       <c r="L40" s="150"/>
       <c r="M40" s="150"/>
     </row>
-    <row r="41" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
         <v>137</v>
       </c>
@@ -4125,7 +4114,7 @@
       <c r="L41" s="150"/>
       <c r="M41" s="150"/>
     </row>
-    <row r="42" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>138</v>
       </c>
@@ -4141,7 +4130,7 @@
       <c r="L42" s="150"/>
       <c r="M42" s="150"/>
     </row>
-    <row r="43" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>136</v>
       </c>
@@ -4157,7 +4146,7 @@
       <c r="L43" s="150"/>
       <c r="M43" s="150"/>
     </row>
-    <row r="44" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>207</v>
       </c>
@@ -4179,17 +4168,17 @@
       <c r="L44" s="250"/>
       <c r="M44" s="250"/>
     </row>
-    <row r="45" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
         <v>253</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.7590343869307346E-2</v>
+        <v>1.7383822598903299E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.6860953604195168E-2</v>
+        <v>1.6662995816420594E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4228,7 +4217,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
         <v>249</v>
       </c>
@@ -4242,7 +4231,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
         <v>37</v>
       </c>
@@ -4252,7 +4241,7 @@
       </c>
       <c r="E48" s="112"/>
     </row>
-    <row r="49" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
         <v>135</v>
       </c>
@@ -4262,7 +4251,7 @@
       </c>
       <c r="E49" s="112"/>
     </row>
-    <row r="50" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
         <v>116</v>
       </c>
@@ -4273,7 +4262,7 @@
       </c>
       <c r="E50" s="112"/>
     </row>
-    <row r="51" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
         <v>41</v>
       </c>
@@ -4283,7 +4272,7 @@
       </c>
       <c r="E51" s="112"/>
     </row>
-    <row r="52" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
         <v>43</v>
       </c>
@@ -4293,7 +4282,7 @@
       </c>
       <c r="E52" s="112"/>
     </row>
-    <row r="53" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
         <v>158</v>
       </c>
@@ -4304,7 +4293,7 @@
       </c>
       <c r="E53" s="112"/>
     </row>
-    <row r="54" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
         <v>117</v>
       </c>
@@ -4314,7 +4303,7 @@
       </c>
       <c r="E54" s="112"/>
     </row>
-    <row r="55" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
         <v>46</v>
       </c>
@@ -4325,7 +4314,7 @@
       </c>
       <c r="E55" s="112"/>
     </row>
-    <row r="56" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
         <v>47</v>
       </c>
@@ -4338,7 +4327,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
         <v>119</v>
       </c>
@@ -4350,7 +4339,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
         <v>49</v>
       </c>
@@ -4361,7 +4350,7 @@
       </c>
       <c r="E58" s="112"/>
     </row>
-    <row r="59" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
         <v>50</v>
       </c>
@@ -4372,7 +4361,7 @@
       </c>
       <c r="E59" s="112"/>
     </row>
-    <row r="60" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
         <v>60</v>
       </c>
@@ -4383,7 +4372,7 @@
       </c>
       <c r="E60" s="112"/>
     </row>
-    <row r="61" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
         <v>62</v>
       </c>
@@ -4394,7 +4383,7 @@
       </c>
       <c r="E61" s="112"/>
     </row>
-    <row r="62" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
         <v>64</v>
       </c>
@@ -4405,7 +4394,7 @@
       </c>
       <c r="E62" s="112"/>
     </row>
-    <row r="63" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
         <v>159</v>
       </c>
@@ -4416,7 +4405,7 @@
       </c>
       <c r="E63" s="112"/>
     </row>
-    <row r="64" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
         <v>67</v>
       </c>
@@ -4426,7 +4415,7 @@
       </c>
       <c r="E64" s="112"/>
     </row>
-    <row r="65" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
         <v>69</v>
       </c>
@@ -4438,7 +4427,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="66" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
         <v>71</v>
       </c>
@@ -4450,7 +4439,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
         <v>48</v>
       </c>
@@ -4463,7 +4452,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="68" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
         <v>118</v>
       </c>
@@ -4474,7 +4463,7 @@
       </c>
       <c r="E68" s="112"/>
     </row>
-    <row r="69" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
         <v>72</v>
       </c>
@@ -4485,7 +4474,7 @@
       </c>
       <c r="E69" s="112"/>
     </row>
-    <row r="70" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
         <v>73</v>
       </c>
@@ -4495,7 +4484,7 @@
       </c>
       <c r="E70" s="112"/>
     </row>
-    <row r="71" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
         <v>74</v>
       </c>
@@ -4506,7 +4495,7 @@
       </c>
       <c r="E71" s="112"/>
     </row>
-    <row r="72" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="246" t="s">
         <v>75</v>
       </c>
@@ -4516,85 +4505,85 @@
       </c>
       <c r="E72" s="249"/>
     </row>
-    <row r="73" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C73" s="59"/>
     </row>
-    <row r="74" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C74" s="59"/>
     </row>
-    <row r="75" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C75" s="59"/>
     </row>
-    <row r="76" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
         <v>42</v>
       </c>
       <c r="C76" s="120"/>
     </row>
-    <row r="77" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
         <v>15</v>
       </c>
       <c r="C77" s="83"/>
     </row>
-    <row r="78" spans="2:5" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C78" s="59"/>
     </row>
-    <row r="79" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C79" s="59"/>
     </row>
-    <row r="80" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
         <v>65</v>
       </c>
       <c r="C80" s="59"/>
     </row>
-    <row r="81" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
         <v>66</v>
       </c>
       <c r="C81" s="120"/>
     </row>
-    <row r="82" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
         <v>84</v>
       </c>
       <c r="C82" s="83"/>
     </row>
-    <row r="83" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
         <v>220</v>
       </c>
       <c r="C83" s="59"/>
     </row>
-    <row r="84" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
         <v>90</v>
       </c>
       <c r="C84" s="59"/>
     </row>
-    <row r="85" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
         <v>92</v>
       </c>
       <c r="C85" s="59"/>
     </row>
-    <row r="86" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
         <v>250</v>
       </c>
@@ -4602,7 +4591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
         <v>248</v>
       </c>
@@ -4613,7 +4602,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="89" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
         <v>127</v>
       </c>
@@ -4630,7 +4619,7 @@
       </c>
       <c r="H89" s="31"/>
     </row>
-    <row r="90" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B90" s="12" t="str">
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000USD)</v>
@@ -4646,7 +4635,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="91" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
         <v>126</v>
       </c>
@@ -4664,7 +4653,7 @@
         <v>13731411</v>
       </c>
     </row>
-    <row r="92" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
         <v>105</v>
       </c>
@@ -4685,7 +4674,7 @@
         <v>8311775.0000000009</v>
       </c>
     </row>
-    <row r="93" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
         <v>247</v>
       </c>
@@ -4706,7 +4695,7 @@
         <v>4301767</v>
       </c>
     </row>
-    <row r="94" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
         <v>257</v>
       </c>
@@ -4724,7 +4713,7 @@
         <v>124056.00000000001</v>
       </c>
     </row>
-    <row r="95" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
         <v>246</v>
       </c>
@@ -4745,7 +4734,7 @@
         <v>131487</v>
       </c>
     </row>
-    <row r="96" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
         <v>109</v>
       </c>
@@ -4763,7 +4752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
         <v>172</v>
       </c>
@@ -4781,7 +4770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
         <v>207</v>
       </c>
@@ -4873,19 +4862,19 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.6640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="87"/>
       <c r="C1" s="87"/>
       <c r="D1" s="87"/>
@@ -4894,7 +4883,7 @@
       <c r="G1" s="87"/>
       <c r="H1" s="87"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -4909,7 +4898,7 @@
       <c r="G2" s="86"/>
       <c r="H2" s="86"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>194</v>
       </c>
@@ -4923,13 +4912,13 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>109.9</v>
+        <v>111.2</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
         <v>195</v>
       </c>
@@ -4949,7 +4938,7 @@
       <c r="H4" s="283"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>163</v>
       </c>
@@ -4964,13 +4953,13 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>64523.152714999997</v>
+        <v>65286.392919999998</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="87" t="s">
         <v>3</v>
       </c>
@@ -4996,7 +4985,7 @@
       <c r="H6" s="276"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
         <v>192</v>
       </c>
@@ -5013,15 +5002,15 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.782523314158122</v>
+        <v>7.7821299235026045</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
         <v>USD/HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
         <v>190</v>
       </c>
@@ -5029,7 +5018,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
         <v>175</v>
       </c>
@@ -5040,7 +5029,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
         <v>179</v>
       </c>
@@ -5054,7 +5043,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
         <v>254</v>
       </c>
@@ -5066,8 +5055,8 @@
       </c>
       <c r="F12" s="110"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
         <v>176</v>
       </c>
@@ -5078,7 +5067,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
         <v>186</v>
       </c>
@@ -5089,7 +5078,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
         <v>187</v>
       </c>
@@ -5104,7 +5093,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
         <v>255</v>
       </c>
@@ -5113,8 +5102,8 @@
       </c>
       <c r="D17" s="176"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
         <v>183</v>
       </c>
@@ -5129,7 +5118,7 @@
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
         <v>169</v>
       </c>
@@ -5144,7 +5133,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
         <v>244</v>
       </c>
@@ -5155,7 +5144,7 @@
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
         <v>191</v>
       </c>
@@ -5167,7 +5156,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
         <v>171</v>
       </c>
@@ -5183,7 +5172,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
         <v>170</v>
       </c>
@@ -5196,10 +5185,10 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.819243740858255</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>12.971537431611186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
         <v>243</v>
       </c>
@@ -5215,7 +5204,7 @@
         <v>0.22549490554616261</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
         <v>173</v>
       </c>
@@ -5228,11 +5217,11 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.7590343869307346E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1.7383822598903299E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="90" t="s">
         <v>6</v>
@@ -5252,45 +5241,45 @@
       </c>
       <c r="H28" s="273"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
         <v>168</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>79.915392056326354</v>
+        <v>79.57247188032386</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>143.96251481664731</v>
+        <v>143.34476584929081</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>94.018108301560417</v>
+        <v>93.614672800381015</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>125.18479549273681</v>
+        <v>124.64762247764419</v>
       </c>
       <c r="H29" s="274"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
         <v>222</v>
       </c>
       <c r="C31"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
         <v>223</v>
       </c>
       <c r="C32" s="224"/>
     </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
         <v>224</v>
@@ -5300,7 +5289,7 @@
         <v>unclear</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
         <v>225</v>
@@ -5311,14 +5300,14 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
         <v>226</v>
       </c>
       <c r="C35" s="224"/>
     </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
         <v>238</v>
@@ -5328,7 +5317,7 @@
         <v>unclear</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
         <v>239</v>
@@ -5338,14 +5327,14 @@
         <v>unclear</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
         <v>227</v>
       </c>
       <c r="C38" s="224"/>
     </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
         <v>228</v>
@@ -5355,7 +5344,7 @@
         <v>unclear</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
         <v>231</v>
@@ -5365,19 +5354,19 @@
         <v>unclear</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
     </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
         <v>229</v>
       </c>
       <c r="C42"/>
     </row>
-    <row r="43" spans="1:3" ht="70" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
         <v>230</v>
@@ -5387,886 +5376,886 @@
         <v>Unclear</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="G28:H28"/>
@@ -6341,7 +6330,7 @@
       <selection pane="topRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -6349,7 +6338,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -6357,7 +6346,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>8</v>
@@ -6382,7 +6371,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="103" t="s">
         <v>9</v>
@@ -6411,7 +6400,7 @@
       <c r="L3" s="87"/>
       <c r="M3" s="87"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="B4" s="103" t="s">
         <v>10</v>
@@ -6433,7 +6422,7 @@
       </c>
       <c r="J4" s="87"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
         <v>133</v>
@@ -6483,7 +6472,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="94" t="s">
         <v>11</v>
@@ -6534,7 +6523,7 @@
       </c>
       <c r="N6" s="87"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="96" t="s">
         <v>12</v>
@@ -6585,7 +6574,7 @@
       </c>
       <c r="N7" s="87"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
         <v>105</v>
@@ -6636,7 +6625,7 @@
       </c>
       <c r="N8" s="87"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
         <v>102</v>
@@ -6687,7 +6676,7 @@
       </c>
       <c r="N9" s="87"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
         <v>103</v>
@@ -6738,7 +6727,7 @@
       </c>
       <c r="N10" s="87"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
         <v>106</v>
@@ -6789,7 +6778,7 @@
       </c>
       <c r="N11" s="87"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
         <v>240</v>
@@ -6840,7 +6829,7 @@
       </c>
       <c r="N12" s="87"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
         <v>241</v>
@@ -6891,7 +6880,7 @@
       </c>
       <c r="N13" s="87"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
         <v>233</v>
@@ -6942,7 +6931,7 @@
       </c>
       <c r="N14" s="87"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
         <v>242</v>
@@ -6993,7 +6982,7 @@
       </c>
       <c r="N15" s="87"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
         <v>109</v>
@@ -7044,7 +7033,7 @@
       </c>
       <c r="N16" s="87"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
         <v>257</v>
@@ -7095,7 +7084,7 @@
       </c>
       <c r="N17" s="87"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
         <v>98</v>
@@ -7146,7 +7135,7 @@
       </c>
       <c r="N18" s="87"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
         <v>104</v>
@@ -7197,7 +7186,7 @@
       </c>
       <c r="N19" s="87"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
         <v>235</v>
@@ -7248,7 +7237,7 @@
       </c>
       <c r="N20" s="87"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
         <v>107</v>
@@ -7299,7 +7288,7 @@
       </c>
       <c r="N21" s="87"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
         <v>111</v>
@@ -7350,7 +7339,7 @@
       </c>
       <c r="N22" s="87"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
         <v>112</v>
@@ -7401,7 +7390,7 @@
       </c>
       <c r="N23" s="87"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
         <v>113</v>
@@ -7452,7 +7441,7 @@
       </c>
       <c r="N24" s="87"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
         <v>128</v>
@@ -7503,7 +7492,7 @@
       </c>
       <c r="N25" s="87"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
         <v>134</v>
@@ -7554,7 +7543,7 @@
       </c>
       <c r="N26" s="87"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="94" t="s">
         <v>13</v>
@@ -7605,7 +7594,7 @@
       </c>
       <c r="N27" s="87"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
         <v>14</v>
@@ -7656,7 +7645,7 @@
       </c>
       <c r="N28" s="87"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
         <v>116</v>
@@ -7707,7 +7696,7 @@
       </c>
       <c r="N29" s="87"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
         <v>148</v>
@@ -7758,7 +7747,7 @@
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
         <v>15</v>
@@ -7809,7 +7798,7 @@
       </c>
       <c r="N31" s="87"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
         <v>115</v>
@@ -7860,7 +7849,7 @@
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
         <v>16</v>
@@ -7911,7 +7900,7 @@
       </c>
       <c r="N33" s="87"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
         <v>17</v>
@@ -7962,7 +7951,7 @@
       </c>
       <c r="N34" s="87"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
         <v>18</v>
@@ -8013,7 +8002,7 @@
       </c>
       <c r="N35" s="87"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
         <v>137</v>
@@ -8064,7 +8053,7 @@
       </c>
       <c r="N36" s="87"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
         <v>138</v>
@@ -8115,7 +8104,7 @@
       </c>
       <c r="N37" s="87"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
         <v>136</v>
@@ -8166,7 +8155,7 @@
       </c>
       <c r="N38" s="87"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
         <v>140</v>
@@ -8217,7 +8206,7 @@
       </c>
       <c r="N39" s="87"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
         <v>157</v>
@@ -8268,7 +8257,7 @@
       </c>
       <c r="N40" s="87"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
         <v>252</v>
@@ -8286,7 +8275,7 @@
       <c r="M41" s="54"/>
       <c r="N41" s="87"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
         <v>97</v>
@@ -8337,7 +8326,7 @@
       </c>
       <c r="N42" s="87"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
         <v>234</v>
@@ -8388,7 +8377,7 @@
       </c>
       <c r="N43" s="87"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
         <v>108</v>
@@ -8439,7 +8428,7 @@
       </c>
       <c r="N44" s="87"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
         <v>121</v>
@@ -8490,7 +8479,7 @@
       </c>
       <c r="N45" s="87"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
         <v>129</v>
@@ -8541,7 +8530,7 @@
       </c>
       <c r="N46" s="87"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
         <v>236</v>
@@ -8592,7 +8581,7 @@
       </c>
       <c r="N47" s="87"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
         <v>123</v>
@@ -8643,7 +8632,7 @@
       </c>
       <c r="N48" s="87"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
         <v>149</v>
@@ -8661,7 +8650,7 @@
       <c r="M49" s="36"/>
       <c r="N49" s="87"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="95" t="s">
         <v>146</v>
@@ -8712,7 +8701,7 @@
       </c>
       <c r="N50" s="87"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
         <v>147</v>
@@ -8763,7 +8752,7 @@
       </c>
       <c r="N51" s="87"/>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
         <v>124</v>
@@ -8780,7 +8769,7 @@
       <c r="L52" s="36"/>
       <c r="M52" s="36"/>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
         <v>19</v>
@@ -8830,7 +8819,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="94" t="s">
         <v>120</v>
@@ -8880,7 +8869,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
         <v>122</v>
@@ -8930,7 +8919,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="98" t="s">
         <v>20</v>
@@ -8980,1260 +8969,1260 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A246" s="4"/>
     </row>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10277,7 +10266,7 @@
       <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
@@ -10285,11 +10274,11 @@
     <col min="7" max="7" width="2" style="1" customWidth="1"/>
     <col min="8" max="9" width="18.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
         <v>21</v>
@@ -10305,7 +10294,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>22</v>
       </c>
@@ -10329,7 +10318,7 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
         <v>24</v>
       </c>
@@ -10345,7 +10334,7 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
@@ -10360,7 +10349,7 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="20" t="s">
         <v>26</v>
       </c>
@@ -10385,7 +10374,7 @@
       <c r="J6" s="87"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
         <v>28</v>
       </c>
@@ -10408,13 +10397,13 @@
       <c r="J7" s="87"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C8" s="87"/>
       <c r="D8" s="87"/>
       <c r="E8" s="87"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
         <v>31</v>
@@ -10434,7 +10423,7 @@
       <c r="I9" s="86"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
         <v>32</v>
       </c>
@@ -10459,7 +10448,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
         <v>37</v>
       </c>
@@ -10487,7 +10476,7 @@
       <c r="J11" s="87"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
         <v>135</v>
       </c>
@@ -10515,7 +10504,7 @@
       <c r="J12" s="87"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
         <v>116</v>
       </c>
@@ -10543,7 +10532,7 @@
       <c r="J13" s="87"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
         <v>41</v>
       </c>
@@ -10571,7 +10560,7 @@
       <c r="J14" s="87"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
         <v>43</v>
       </c>
@@ -10598,7 +10587,7 @@
       </c>
       <c r="J15" s="87"/>
     </row>
-    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
         <v>158</v>
       </c>
@@ -10620,7 +10609,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="87"/>
     </row>
-    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
         <v>117</v>
       </c>
@@ -10642,7 +10631,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="87"/>
     </row>
-    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
         <v>46</v>
       </c>
@@ -10663,7 +10652,7 @@
       <c r="H18" s="87"/>
       <c r="I18" s="87"/>
     </row>
-    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
         <v>47</v>
       </c>
@@ -10688,7 +10677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
         <v>119</v>
       </c>
@@ -10715,7 +10704,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
         <v>49</v>
       </c>
@@ -10736,7 +10725,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
         <v>50</v>
       </c>
@@ -10762,7 +10751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C23" s="87"/>
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
@@ -10771,7 +10760,7 @@
       </c>
       <c r="G23" s="87"/>
     </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
         <v>52</v>
       </c>
@@ -10793,7 +10782,7 @@
       </c>
       <c r="G24" s="87"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
         <v>54</v>
       </c>
@@ -10822,7 +10811,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
         <v>56</v>
       </c>
@@ -10855,7 +10844,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
         <v>58</v>
       </c>
@@ -10888,7 +10877,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="78" t="s">
         <v>14</v>
       </c>
@@ -10918,7 +10907,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" s="87"/>
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
@@ -10930,7 +10919,7 @@
       <c r="I29" s="87"/>
       <c r="J29" s="87"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
         <v>60</v>
       </c>
@@ -10956,7 +10945,7 @@
       </c>
       <c r="J30" s="87"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
         <v>62</v>
       </c>
@@ -10983,7 +10972,7 @@
       </c>
       <c r="J31" s="87"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
         <v>64</v>
       </c>
@@ -11010,7 +10999,7 @@
       </c>
       <c r="J32" s="87"/>
     </row>
-    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
         <v>159</v>
       </c>
@@ -11040,7 +11029,7 @@
       </c>
       <c r="J33" s="87"/>
     </row>
-    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
         <v>67</v>
       </c>
@@ -11067,7 +11056,7 @@
       </c>
       <c r="J34" s="87"/>
     </row>
-    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
         <v>69</v>
       </c>
@@ -11093,7 +11082,7 @@
       </c>
       <c r="J35" s="87"/>
     </row>
-    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
         <v>71</v>
       </c>
@@ -11120,7 +11109,7 @@
       <c r="H36" s="87"/>
       <c r="I36" s="87"/>
     </row>
-    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
         <v>48</v>
       </c>
@@ -11147,7 +11136,7 @@
       <c r="H37" s="87"/>
       <c r="I37" s="87"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
         <v>118</v>
       </c>
@@ -11168,7 +11157,7 @@
       <c r="H38" s="87"/>
       <c r="I38" s="87"/>
     </row>
-    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
         <v>72</v>
       </c>
@@ -11189,7 +11178,7 @@
       <c r="H39" s="87"/>
       <c r="I39" s="87"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
         <v>73</v>
       </c>
@@ -11210,7 +11199,7 @@
       <c r="H40" s="87"/>
       <c r="I40" s="87"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
         <v>74</v>
       </c>
@@ -11231,7 +11220,7 @@
       <c r="H41" s="87"/>
       <c r="I41" s="87"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
         <v>75</v>
       </c>
@@ -11257,7 +11246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C43" s="87"/>
       <c r="D43" s="87"/>
       <c r="E43" s="87"/>
@@ -11266,7 +11255,7 @@
       <c r="H43" s="87"/>
       <c r="I43" s="87"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
         <v>76</v>
       </c>
@@ -11285,7 +11274,7 @@
       <c r="F44" s="72"/>
       <c r="G44" s="87"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
         <v>78</v>
       </c>
@@ -11304,7 +11293,7 @@
       <c r="F45" s="72"/>
       <c r="G45" s="87"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
         <v>79</v>
       </c>
@@ -11334,7 +11323,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
         <v>81</v>
       </c>
@@ -11364,7 +11353,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
         <v>83</v>
       </c>
@@ -11391,7 +11380,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
         <v>13</v>
       </c>
@@ -11418,20 +11407,20 @@
       </c>
       <c r="J49" s="87"/>
     </row>
-    <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C50" s="87"/>
       <c r="D50" s="87"/>
       <c r="E50" s="87"/>
       <c r="I50" s="87"/>
     </row>
-    <row r="51" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>86</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
         <v>87</v>
       </c>
@@ -11448,7 +11437,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
         <v>88</v>
       </c>
@@ -11469,7 +11458,7 @@
       <c r="I53" s="41"/>
       <c r="K53" s="33"/>
     </row>
-    <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C54" s="87"/>
       <c r="D54" s="87"/>
       <c r="E54" s="87"/>
@@ -11478,7 +11467,7 @@
       <c r="I54" s="87"/>
       <c r="K54" s="33"/>
     </row>
-    <row r="55" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
         <v>150</v>
       </c>
@@ -11489,7 +11478,7 @@
       <c r="I55" s="87"/>
       <c r="K55" s="33"/>
     </row>
-    <row r="56" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
         <v>89</v>
       </c>
@@ -11504,7 +11493,7 @@
       <c r="I56" s="56"/>
       <c r="K56" s="33"/>
     </row>
-    <row r="57" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
         <v>90</v>
       </c>
@@ -11520,7 +11509,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
         <v>92</v>
       </c>
@@ -11535,7 +11524,7 @@
       <c r="I58" s="87"/>
       <c r="K58" s="33"/>
     </row>
-    <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C59" s="87"/>
       <c r="D59" s="87"/>
       <c r="E59" s="87"/>
@@ -11544,7 +11533,7 @@
       <c r="I59" s="87"/>
       <c r="K59" s="33"/>
     </row>
-    <row r="60" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
         <v>153</v>
       </c>
@@ -11558,7 +11547,7 @@
       <c r="I60" s="87"/>
       <c r="K60" s="33"/>
     </row>
-    <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
         <v>94</v>
       </c>
@@ -11579,7 +11568,7 @@
       <c r="I61" s="87"/>
       <c r="K61" s="33"/>
     </row>
-    <row r="62" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
         <v>139</v>
       </c>
@@ -11600,7 +11589,7 @@
       <c r="I62" s="87"/>
       <c r="K62" s="33"/>
     </row>
-    <row r="63" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
         <v>141</v>
       </c>
@@ -11621,7 +11610,7 @@
       <c r="I63" s="87"/>
       <c r="K63" s="33"/>
     </row>
-    <row r="64" spans="2:11" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
         <v>151</v>
       </c>
@@ -11636,7 +11625,7 @@
       <c r="I64" s="87"/>
       <c r="K64" s="33"/>
     </row>
-    <row r="65" spans="1:11" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
         <v>142</v>
       </c>
@@ -11657,7 +11646,7 @@
       <c r="I65" s="87"/>
       <c r="K65" s="33"/>
     </row>
-    <row r="66" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3"/>
       <c r="C66" s="68"/>
       <c r="D66" s="29"/>
@@ -11667,7 +11656,7 @@
       <c r="I66" s="87"/>
       <c r="K66" s="33"/>
     </row>
-    <row r="67" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
         <v>154</v>
       </c>
@@ -11681,7 +11670,7 @@
       <c r="I67" s="87"/>
       <c r="K67" s="33"/>
     </row>
-    <row r="68" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
         <v>140</v>
       </c>
@@ -11702,7 +11691,7 @@
       <c r="I68" s="87"/>
       <c r="K68" s="33"/>
     </row>
-    <row r="69" spans="1:11" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
         <v>152</v>
       </c>
@@ -11717,7 +11706,7 @@
       <c r="I69" s="87"/>
       <c r="K69" s="33"/>
     </row>
-    <row r="70" spans="1:11" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
         <v>143</v>
       </c>
@@ -11738,7 +11727,7 @@
       <c r="I70" s="87"/>
       <c r="K70" s="33"/>
     </row>
-    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
         <v>127</v>
@@ -11760,7 +11749,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000USD)</v>
@@ -11779,7 +11768,7 @@
       <c r="I73" s="272"/>
       <c r="K73" s="24"/>
     </row>
-    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
         <v>126</v>
       </c>
@@ -11800,7 +11789,7 @@
       <c r="I74" s="209"/>
       <c r="K74" s="24"/>
     </row>
-    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
         <v>105</v>
       </c>
@@ -11830,7 +11819,7 @@
       </c>
       <c r="K75" s="24"/>
     </row>
-    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
         <v>95</v>
       </c>
@@ -11851,7 +11840,7 @@
       <c r="I76" s="210"/>
       <c r="K76" s="24"/>
     </row>
-    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
         <v>247</v>
       </c>
@@ -11881,7 +11870,7 @@
       </c>
       <c r="K77" s="24"/>
     </row>
-    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
         <v>172</v>
       </c>
@@ -11911,7 +11900,7 @@
       </c>
       <c r="K78" s="24"/>
     </row>
-    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
         <v>232</v>
       </c>
@@ -11942,7 +11931,7 @@
       </c>
       <c r="K79" s="24"/>
     </row>
-    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
         <v>109</v>
       </c>
@@ -11974,7 +11963,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
         <v>257</v>
       </c>
@@ -12004,7 +11993,7 @@
       </c>
       <c r="K81" s="24"/>
     </row>
-    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
         <v>246</v>
       </c>
@@ -12034,7 +12023,7 @@
       </c>
       <c r="K82" s="24"/>
     </row>
-    <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
         <v>125</v>
       </c>
@@ -12064,7 +12053,7 @@
       </c>
       <c r="K83" s="24"/>
     </row>
-    <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
         <v>96</v>
       </c>
@@ -12085,7 +12074,7 @@
       </c>
       <c r="K84" s="24"/>
     </row>
-    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
         <v>164</v>
       </c>
@@ -12116,7 +12105,7 @@
       </c>
       <c r="K85" s="24"/>
     </row>
-    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
         <v>160</v>
       </c>
@@ -12137,28 +12126,28 @@
       <c r="I86" s="209"/>
       <c r="K86" s="24"/>
     </row>
-    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>208</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.8007721844990094E-2</v>
+        <v>7.7091864034793262E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.8007721844990011E-2</v>
+        <v>7.7091864034793192E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.8007721844990011E-2</v>
+        <v>7.7091864034793192E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
-    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>207</v>
       </c>
@@ -12188,32 +12177,32 @@
       </c>
       <c r="K88" s="24"/>
     </row>
-    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
         <v>221</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.7590343869307346E-2</v>
+        <v>1.7383822598903299E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.7590343869307346E-2</v>
+        <v>1.7383822598903299E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.7590343869307346E-2</v>
+        <v>1.7383822598903299E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
     </row>
-    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="28"/>
       <c r="C90" s="88"/>
     </row>
-    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="5"/>
       <c r="B91" s="106" t="str">
         <f xml:space="preserve"> "Valuation Drivers in "&amp;Dashboard!H3</f>
@@ -12224,7 +12213,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
         <v>155</v>
       </c>
@@ -12246,7 +12235,7 @@
       <c r="I92" s="285"/>
       <c r="K92" s="24"/>
     </row>
-    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B93" s="1" t="str">
         <f>C92&amp;" Discount Rate"</f>
         <v>HK Discount Rate</v>
@@ -12264,18 +12253,18 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>189.10399788749692</v>
+        <v>188.29254499250706</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>189.10399788749692</v>
+        <v>188.29254499250706</v>
       </c>
       <c r="K93" s="24"/>
     </row>
-    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
         <v>211</v>
       </c>
@@ -12292,22 +12281,22 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>31.958984594597091</v>
+        <v>31.924953347484184</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>31.958984594597091</v>
+        <v>31.924953347484184</v>
       </c>
       <c r="K94" s="24"/>
     </row>
-    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E95" s="24"/>
       <c r="K95" s="24"/>
     </row>
-    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="5"/>
       <c r="B96" s="106" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
@@ -12336,31 +12325,31 @@
       </c>
       <c r="K96" s="24"/>
     </row>
-    <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>55198769.425996281</v>
+        <v>54961909.276285179</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>94.018108301560417</v>
+        <v>93.614672800381015</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>94.018108301560417</v>
+        <v>93.614672800381015</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>125.18479549273681</v>
+        <v>124.64762247764419</v>
       </c>
       <c r="K97" s="24"/>
     </row>
-    <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
         <v>144</v>
       </c>
@@ -12378,7 +12367,7 @@
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
     </row>
-    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
         <v>145</v>
       </c>
@@ -12399,41 +12388,41 @@
       <c r="I99" s="216"/>
       <c r="K99" s="24"/>
     </row>
-    <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>55198769.425996281</v>
+        <v>54961909.276285179</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>79.915392056326354</v>
+        <v>79.57247188032386</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>94.018108301560417</v>
+        <v>93.614672800381015</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>94.018108301560417</v>
+        <v>93.614672800381015</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>94.018108301560417</v>
+        <v>93.614672800381015</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>125.18479549273681</v>
+        <v>124.64762247764419</v>
       </c>
       <c r="K100" s="24"/>
     </row>
-    <row r="101" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E101" s="24"/>
       <c r="K101" s="24"/>
     </row>
-    <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
         <v>162</v>
       </c>
@@ -12460,41 +12449,41 @@
       </c>
       <c r="K102" s="24"/>
     </row>
-    <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
         <v>161</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>9328711.4044814706</v>
+        <v>9318777.8071823698</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>13.505874080561602</v>
+        <v>13.491492467874538</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>15.889263624190122</v>
+        <v>15.872344079852398</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>15.889263624190122</v>
+        <v>15.872344079852398</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>15.889263624190122</v>
+        <v>15.872344079852398</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>21.156501159802737</v>
+        <v>21.133972843332526</v>
       </c>
       <c r="K103" s="24"/>
     </row>
-    <row r="104" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E104" s="24"/>
       <c r="K104" s="24"/>
     </row>
-    <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
         <v>197</v>
       </c>
@@ -12521,40 +12510,40 @@
       </c>
       <c r="K105" s="24"/>
     </row>
-    <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
         <v>198</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>32263740.41523888</v>
+        <v>32140343.541733772</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>46.710633068443975</v>
+        <v>46.531982174099198</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>54.953685962875269</v>
+        <v>54.743508440116706</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>54.953685962875269</v>
+        <v>54.743508440116706</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>54.953685962875269</v>
+        <v>54.743508440116706</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>73.17064832626977</v>
+        <v>72.89079766048836</v>
       </c>
       <c r="K106" s="24"/>
     </row>
-    <row r="107" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="K107" s="24"/>
     </row>
-    <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
         <v>165</v>
       </c>

--- a/financial_models/opportunities/0669.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0669.HK_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E806990-487E-4AC1-B772-1CEFAE12D15D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{71FC3902-DFF9-4EA3-B584-30787FF48331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="269">
   <si>
     <t>Company Info:</t>
   </si>
@@ -938,6 +938,14 @@
   </si>
   <si>
     <t>Normalized PE Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>LT AR or Prepayments</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prepayments or Contract Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -3573,8 +3581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3595,7 +3603,7 @@
         <v>194</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3603,7 +3611,7 @@
         <v>195</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3627,7 +3635,7 @@
         <v>215</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E8" s="267"/>
     </row>
@@ -3636,7 +3644,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3652,7 +3660,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -4174,11 +4182,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.7383822598903299E-2</v>
+        <v>1.7771012961590303E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.6662995816420594E-2</v>
+        <v>1.7034131184197467E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4295,7 +4303,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>117</v>
+        <v>262</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4407,7 +4415,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>67</v>
+        <v>261</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4858,8 +4866,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4912,10 +4920,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>111.2</v>
+        <v>108.7</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4953,7 +4961,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>65286.392919999998</v>
+        <v>63818.623294999998</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5002,7 +5010,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7821299235026045</v>
+        <v>7.7766067186991377</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5048,10 +5056,10 @@
         <v>254</v>
       </c>
       <c r="C12" s="174">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>8.5999999999999993E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5098,7 +5106,7 @@
         <v>255</v>
       </c>
       <c r="C17" s="175">
-        <v>9.1999999999999998E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5185,7 +5193,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.971537431611186</v>
+        <v>12.688916835159597</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5217,7 +5225,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.7383822598903299E-2</v>
+        <v>1.7771012961590303E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5247,20 +5255,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>79.57247188032386</v>
+        <v>95.746984488069685</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>143.34476584929081</v>
+        <v>181.27836069747067</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>93.614672800381015</v>
+        <v>112.64351116243492</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>124.64762247764419</v>
+        <v>157.63335712823539</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10263,7 +10271,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -12132,17 +12140,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.7091864034793262E-2</v>
+        <v>7.8808933259701938E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.7091864034793192E-2</v>
+        <v>7.8808933259701855E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.7091864034793192E-2</v>
+        <v>7.8808933259701855E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12183,17 +12191,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.7383822598903299E-2</v>
+        <v>1.7771012961590303E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.7383822598903299E-2</v>
+        <v>1.7771012961590303E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.7383822598903299E-2</v>
+        <v>1.7771012961590303E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12242,7 +12250,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.5999999999999993E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12253,14 +12261,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>188.29254499250706</v>
+        <v>226.56633580179988</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>188.29254499250706</v>
+        <v>226.56633580179988</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12281,14 +12289,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>31.924953347484184</v>
+        <v>38.18210199566694</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>31.924953347484184</v>
+        <v>38.18210199566694</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12331,21 +12339,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>54961909.276285179</v>
+        <v>66133889.655028164</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>93.614672800381015</v>
+        <v>112.64351116243492</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>93.614672800381015</v>
+        <v>112.64351116243492</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>124.64762247764419</v>
+        <v>157.63335712823539</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12394,27 +12402,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>54961909.276285179</v>
+        <v>66133889.655028164</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>79.57247188032386</v>
+        <v>95.746984488069685</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>93.614672800381015</v>
+        <v>112.64351116243492</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>93.614672800381015</v>
+        <v>112.64351116243492</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>93.614672800381015</v>
+        <v>112.64351116243492</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>124.64762247764419</v>
+        <v>157.63335712823539</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12455,27 +12463,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>9318777.8071823698</v>
+        <v>11145216.747414105</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>13.491492467874538</v>
+        <v>16.135764894477205</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>15.872344079852398</v>
+        <v>18.983252817032007</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>15.872344079852398</v>
+        <v>18.983252817032007</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>15.872344079852398</v>
+        <v>18.983252817032007</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>21.133972843332526</v>
+        <v>26.565168644713815</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12516,27 +12524,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>32140343.541733772</v>
+        <v>38639553.201221131</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>46.531982174099198</v>
+        <v>55.941374691273445</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>54.743508440116706</v>
+        <v>65.813381989733458</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>54.743508440116706</v>
+        <v>65.813381989733458</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>54.743508440116706</v>
+        <v>65.813381989733458</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>72.89079766048836</v>
+        <v>92.099262886474605</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0669.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0669.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71FC3902-DFF9-4EA3-B584-30787FF48331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DC4E1DF-A9F9-4EF1-9352-F63EAB1E7900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="270">
   <si>
     <t>Company Info:</t>
   </si>
@@ -946,6 +946,10 @@
   </si>
   <si>
     <t>Prepayments or Contract Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ΔWC/Δsales</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -3581,7 +3585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3603,7 +3607,7 @@
         <v>194</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3611,7 +3615,7 @@
         <v>195</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3635,7 +3639,7 @@
         <v>215</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E8" s="267"/>
     </row>
@@ -3644,7 +3648,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3660,7 +3664,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -4182,11 +4186,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.7771012961590303E-2</v>
+        <v>1.7754846600925224E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.7034131184197467E-2</v>
+        <v>1.701863516779507E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4920,10 +4924,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>108.7</v>
+        <v>108.8</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4961,7 +4965,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>63818.623294999998</v>
+        <v>63877.334080000001</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5010,7 +5014,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7766067186991377</v>
+        <v>7.7766799926757813</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5031,7 +5035,7 @@
         <v>175</v>
       </c>
       <c r="C10" s="172">
-        <v>4.2099999999999999E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
         <v>182</v>
@@ -5042,7 +5046,7 @@
         <v>179</v>
       </c>
       <c r="C11" s="173">
-        <v>5.3099999999999994E-2</v>
+        <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
         <v>189</v>
@@ -5069,7 +5073,7 @@
         <v>176</v>
       </c>
       <c r="C14" s="172">
-        <v>2.1309999999999999E-2</v>
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
         <v>181</v>
@@ -5193,7 +5197,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.688916835159597</v>
+        <v>12.70047050332791</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5225,7 +5229,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.7771012961590303E-2</v>
+        <v>1.7754846600925224E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5255,20 +5259,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>95.746984488069685</v>
+        <v>95.716076005587396</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>181.27836069747067</v>
+        <v>181.21984147552345</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>112.64351116243492</v>
+        <v>112.60714824186752</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>157.63335712823539</v>
+        <v>157.58247084828128</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -5303,8 +5307,8 @@
         <v>225</v>
       </c>
       <c r="C34" s="225" t="e">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6330,12 +6334,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N930"/>
+  <dimension ref="A1:N931"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="B19" sqref="B19"/>
+      <selection pane="topRight" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -8761,118 +8765,119 @@
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
+      <c r="A52" s="4"/>
+      <c r="B52" s="94" t="s">
+        <v>263</v>
+      </c>
+      <c r="C52" s="153">
+        <f>IF(D6="","",C16/(C6-D6))</f>
+        <v>-0.8432524806594428</v>
+      </c>
+      <c r="D52" s="153" t="str">
+        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
+        <v/>
+      </c>
+      <c r="E52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="16"/>
+      <c r="B53" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="36"/>
-      <c r="M52" s="36"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="36"/>
+    </row>
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="4"/>
+      <c r="B54" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="156" t="e">
+      <c r="C54" s="156" t="e">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="156" t="str">
-        <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
-        <v/>
-      </c>
-      <c r="E53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C54" s="157" t="str">
-        <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-</v>
-      </c>
-      <c r="D54" s="157" t="str">
+      <c r="D54" s="156" t="str">
+        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
+        <v/>
+      </c>
+      <c r="E54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E54" s="157" t="str">
+      <c r="F54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F54" s="157" t="str">
+      <c r="G54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8880,107 +8885,154 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C55" s="153">
-        <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>0.1438620660863757</v>
-      </c>
-      <c r="D55" s="153">
+        <v>120</v>
+      </c>
+      <c r="C55" s="157" t="str">
+        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>-</v>
+      </c>
+      <c r="D55" s="157" t="str">
         <f t="shared" si="45"/>
-        <v>0.11293312880758147</v>
-      </c>
-      <c r="E55" s="153" t="str">
+        <v/>
+      </c>
+      <c r="E55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="153" t="str">
+      <c r="F55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="153" t="str">
+      <c r="G55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="153" t="str">
+      <c r="H55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
+      <c r="B56" s="94" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" s="153">
+        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>0.1438620660863757</v>
+      </c>
+      <c r="D56" s="153">
+        <f t="shared" si="46"/>
+        <v>0.11293312880758147</v>
+      </c>
+      <c r="E56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="F56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="G56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="H56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="4"/>
+      <c r="B57" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="158" t="e">
-        <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
+      <c r="C57" s="158" t="e">
+        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="G56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="4"/>
-    </row>
+      <c r="D57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="E57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
@@ -9548,7 +9600,9 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A248" s="4"/>
+    </row>
     <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10231,6 +10285,7 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -12140,17 +12195,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.8808933259701938E-2</v>
+        <v>7.8737240461916005E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.8808933259701855E-2</v>
+        <v>7.8737240461915922E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.8808933259701855E-2</v>
+        <v>7.8737240461915922E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12191,17 +12246,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.7771012961590303E-2</v>
+        <v>1.7754846600925224E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.7771012961590303E-2</v>
+        <v>1.7754846600925224E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.7771012961590303E-2</v>
+        <v>1.7754846600925224E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12261,14 +12316,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>226.56633580179988</v>
+        <v>226.49319698015816</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>226.56633580179988</v>
+        <v>226.49319698015816</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12289,14 +12344,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>38.18210199566694</v>
+        <v>38.179429390230553</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>38.18210199566694</v>
+        <v>38.179429390230553</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12339,21 +12394,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>66133889.655028164</v>
+        <v>66112540.698914126</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>112.64351116243492</v>
+        <v>112.60714824186752</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>112.64351116243492</v>
+        <v>112.60714824186752</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>157.63335712823539</v>
+        <v>157.58247084828128</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12402,27 +12457,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>66133889.655028164</v>
+        <v>66112540.698914126</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>95.746984488069685</v>
+        <v>95.716076005587396</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>112.64351116243492</v>
+        <v>112.60714824186752</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>112.64351116243492</v>
+        <v>112.60714824186752</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>112.64351116243492</v>
+        <v>112.60714824186752</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>157.63335712823539</v>
+        <v>157.58247084828128</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12463,27 +12518,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>11145216.747414105</v>
+        <v>11144436.623604467</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>16.135764894477205</v>
+        <v>16.134635450818443</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>18.983252817032007</v>
+        <v>18.981924059786405</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>18.983252817032007</v>
+        <v>18.981924059786405</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>18.983252817032007</v>
+        <v>18.981924059786405</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>26.565168644713815</v>
+        <v>26.563309181498656</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12524,27 +12579,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>38639553.201221131</v>
+        <v>38628488.661259294</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>55.941374691273445</v>
+        <v>55.925355728202916</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>65.813381989733458</v>
+        <v>65.794536150826957</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>65.813381989733458</v>
+        <v>65.794536150826957</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>65.813381989733458</v>
+        <v>65.794536150826957</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>92.099262886474605</v>
+        <v>92.072890014889964</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0669.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0669.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DC4E1DF-A9F9-4EF1-9352-F63EAB1E7900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC423C1B-9EC7-458E-B611-8515FCB0EFE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4186,11 +4186,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.7754846600925224E-2</v>
+        <v>1.7704643510002047E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.701863516779507E-2</v>
+        <v>1.6970513767034973E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4924,7 +4924,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>108.8</v>
+        <v>109.1</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>269</v>
@@ -4965,7 +4965,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>63877.334080000001</v>
+        <v>64053.466435000002</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5014,7 +5014,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7766799926757813</v>
+        <v>7.7760732968648272</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5197,7 +5197,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.70047050332791</v>
+        <v>12.736483816732695</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5229,7 +5229,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.7754846600925224E-2</v>
+        <v>1.7704643510002047E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5259,20 +5259,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>95.716076005587396</v>
+        <v>95.609885409447315</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>181.21984147552345</v>
+        <v>181.01879015998924</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>112.60714824186752</v>
+        <v>112.48221812876155</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>157.58247084828128</v>
+        <v>157.40764361738195</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10325,8 +10325,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -12195,17 +12195,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.8737240461916005E-2</v>
+        <v>7.8514605317225789E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.8737240461915922E-2</v>
+        <v>7.8514605317225705E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.8737240461915922E-2</v>
+        <v>7.8514605317225705E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12246,17 +12246,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.7754846600925224E-2</v>
+        <v>1.7704643510002047E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.7754846600925224E-2</v>
+        <v>1.7704643510002047E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.7754846600925224E-2</v>
+        <v>1.7704643510002047E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12316,14 +12316,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>226.49319698015816</v>
+        <v>226.24191789922727</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>226.49319698015816</v>
+        <v>226.24191789922727</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12344,14 +12344,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>38.179429390230553</v>
+        <v>38.167036055359368</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>38.179429390230553</v>
+        <v>38.167036055359368</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12394,21 +12394,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>66112540.698914126</v>
+        <v>66039193.248808213</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>112.60714824186752</v>
+        <v>112.48221812876155</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>112.60714824186752</v>
+        <v>112.48221812876155</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>157.58247084828128</v>
+        <v>157.40764361738195</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12417,7 +12417,7 @@
         <v>144</v>
       </c>
       <c r="C98" s="91">
-        <f>E53*Exchange_Rate</f>
+        <f>-E53*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="D98" s="213"/>
@@ -12456,28 +12456,28 @@
         <v>114</v>
       </c>
       <c r="C100" s="91">
-        <f>C97-C98+$C$99</f>
-        <v>66112540.698914126</v>
+        <f>C97+C98+$C$99</f>
+        <v>66039193.248808213</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>95.716076005587396</v>
+        <v>95.609885409447315</v>
       </c>
       <c r="E100" s="109">
-        <f>MAX(E97-H98+E99,0)</f>
-        <v>112.60714824186752</v>
+        <f>MAX(E97+H98+E99,0)</f>
+        <v>112.48221812876155</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>112.60714824186752</v>
+        <v>112.48221812876155</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>112.60714824186752</v>
+        <v>112.48221812876155</v>
       </c>
       <c r="I100" s="109">
-        <f>MAX(I97-H98+H99,0)</f>
-        <v>157.58247084828128</v>
+        <f>MAX(I97+H98+H99,0)</f>
+        <v>157.40764361738195</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12518,27 +12518,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>11144436.623604467</v>
+        <v>11140819.054216113</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>16.134635450818443</v>
+        <v>16.129398024713339</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>18.981924059786405</v>
+        <v>18.975762382015692</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>18.981924059786405</v>
+        <v>18.975762382015692</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>18.981924059786405</v>
+        <v>18.975762382015692</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>26.563309181498656</v>
+        <v>26.554686528116168</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12579,27 +12579,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>38628488.661259294</v>
+        <v>38590006.151512168</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>55.925355728202916</v>
+        <v>55.869641717080327</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>65.794536150826957</v>
+        <v>65.728990255388624</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>65.794536150826957</v>
+        <v>65.728990255388624</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>65.794536150826957</v>
+        <v>65.728990255388624</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>92.072890014889964</v>
+        <v>91.981165072749064</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0669.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0669.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC423C1B-9EC7-458E-B611-8515FCB0EFE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8AB5FA0-0582-4672-B1EF-EDDFB26911D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4186,11 +4186,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.7704643510002047E-2</v>
+        <v>1.8167986822262869E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.6970513767034973E-2</v>
+        <v>1.7414644373513647E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4924,7 +4924,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>109.1</v>
+        <v>106.3</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>269</v>
@@ -4965,7 +4965,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>64053.466435000002</v>
+        <v>62409.564455</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5014,7 +5014,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7760732968648272</v>
+        <v>7.7747866312662763</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5197,7 +5197,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.736483816732695</v>
+        <v>12.411661663572069</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5229,7 +5229,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.7704643510002047E-2</v>
+        <v>1.8167986822262869E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5259,20 +5259,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>95.609885409447315</v>
+        <v>96.508169965479965</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>181.01879015998924</v>
+        <v>182.71951789181398</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>112.48221812876155</v>
+        <v>113.53902348879996</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>157.40764361738195</v>
+        <v>158.88653729722955</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12195,17 +12195,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.8514605317225789E-2</v>
+        <v>8.0569389265176081E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.8514605317225705E-2</v>
+        <v>8.0569389265175997E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.8514605317225705E-2</v>
+        <v>8.0569389265175997E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12246,17 +12246,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.7704643510002047E-2</v>
+        <v>1.8167986822262869E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.7704643510002047E-2</v>
+        <v>1.8167986822262869E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.7704643510002047E-2</v>
+        <v>1.8167986822262869E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12316,14 +12316,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>226.24191789922727</v>
+        <v>228.36753095592906</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>226.24191789922727</v>
+        <v>228.36753095592906</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12344,14 +12344,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>38.167036055359368</v>
+        <v>38.24766947366863</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>38.167036055359368</v>
+        <v>38.24766947366863</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12394,21 +12394,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>66039193.248808213</v>
+        <v>66659651.97160884</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>112.48221812876155</v>
+        <v>113.53902348879996</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>112.48221812876155</v>
+        <v>113.53902348879996</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>157.40764361738195</v>
+        <v>158.88653729722955</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12457,27 +12457,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>66039193.248808213</v>
+        <v>66659651.97160884</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>95.609885409447315</v>
+        <v>96.508169965479965</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>112.48221812876155</v>
+        <v>113.53902348879996</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>112.48221812876155</v>
+        <v>113.53902348879996</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>112.48221812876155</v>
+        <v>113.53902348879996</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>157.40764361738195</v>
+        <v>158.88653729722955</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12518,27 +12518,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>11140819.054216113</v>
+        <v>11164355.655848039</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>16.129398024713339</v>
+        <v>16.163473725433636</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>18.975762382015692</v>
+        <v>19.015851441686632</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>18.975762382015692</v>
+        <v>19.015851441686632</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>18.975762382015692</v>
+        <v>19.015851441686632</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>26.554686528116168</v>
+        <v>26.610787168045011</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12579,27 +12579,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>38590006.151512168</v>
+        <v>38912003.813728437</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>55.869641717080327</v>
+        <v>56.335821845456799</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>65.728990255388624</v>
+        <v>66.277437465243295</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>65.728990255388624</v>
+        <v>66.277437465243295</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>65.728990255388624</v>
+        <v>66.277437465243295</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>91.981165072749064</v>
+        <v>92.748662232637287</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0669.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0669.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8AB5FA0-0582-4672-B1EF-EDDFB26911D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{84CC9ABC-5144-43EC-82EE-C97FC9311100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4186,11 +4186,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.8167986822262869E-2</v>
+        <v>1.7981477162025496E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.7414644373513647E-2</v>
+        <v>1.7235868406917352E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4924,7 +4924,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>106.3</v>
+        <v>107.4</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>269</v>
@@ -4965,7 +4965,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>62409.564455</v>
+        <v>63055.383090000003</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5014,7 +5014,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7747866312662763</v>
+        <v>7.7746000289916992</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5060,10 +5060,10 @@
         <v>254</v>
       </c>
       <c r="C12" s="174">
-        <v>7.0000000000000007E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>7.5250000000000011E-2</v>
+        <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5110,7 +5110,7 @@
         <v>255</v>
       </c>
       <c r="C17" s="175">
-        <v>8.0500000000000002E-2</v>
+        <v>8.6249999999999993E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5197,7 +5197,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.411661663572069</v>
+        <v>12.540399407362264</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5229,7 +5229,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.8167986822262869E-2</v>
+        <v>1.7981477162025496E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5259,20 +5259,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>96.508169965479965</v>
+        <v>87.613577929377328</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>182.71951789181398</v>
+        <v>161.7947702186338</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>113.53902348879996</v>
+        <v>103.07479756397333</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>158.88653729722955</v>
+        <v>140.69110453794244</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12195,17 +12195,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.0569389265176081E-2</v>
+        <v>7.9742276742231777E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.0569389265175997E-2</v>
+        <v>7.9742276742231694E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.0569389265175997E-2</v>
+        <v>7.9742276742231694E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12246,17 +12246,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.8167986822262869E-2</v>
+        <v>1.7981477162025496E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.8167986822262869E-2</v>
+        <v>1.7981477162025496E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.8167986822262869E-2</v>
+        <v>1.7981477162025496E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12305,7 +12305,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>7.5250000000000011E-2</v>
+        <v>8.0625000000000002E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12316,14 +12316,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>228.36753095592906</v>
+        <v>207.32023493040518</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>228.36753095592906</v>
+        <v>207.32023493040518</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12344,14 +12344,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>38.24766947366863</v>
+        <v>34.823889374089653</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>38.24766947366863</v>
+        <v>34.823889374089653</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12394,21 +12394,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>66659651.97160884</v>
+        <v>60516022.786969617</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>113.53902348879996</v>
+        <v>103.07479756397333</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>113.53902348879996</v>
+        <v>103.07479756397333</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>158.88653729722955</v>
+        <v>140.69110453794244</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12457,27 +12457,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>66659651.97160884</v>
+        <v>60516022.786969617</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>96.508169965479965</v>
+        <v>87.613577929377328</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>113.53902348879996</v>
+        <v>103.07479756397333</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>113.53902348879996</v>
+        <v>103.07479756397333</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>113.53902348879996</v>
+        <v>103.07479756397333</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>158.88653729722955</v>
+        <v>140.69110453794244</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12518,27 +12518,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>11164355.655848039</v>
+        <v>10164966.693196869</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>16.163473725433636</v>
+        <v>14.716583484988897</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>19.015851441686632</v>
+        <v>17.313627629398702</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>19.015851441686632</v>
+        <v>17.313627629398702</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>19.015851441686632</v>
+        <v>17.313627629398702</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>26.610787168045011</v>
+        <v>23.632094870008526</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12579,27 +12579,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>38912003.813728437</v>
+        <v>35340494.740083247</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>56.335821845456799</v>
+        <v>51.165080707183115</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>66.277437465243295</v>
+        <v>60.194212596686015</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>66.277437465243295</v>
+        <v>60.194212596686015</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>66.277437465243295</v>
+        <v>60.194212596686015</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>92.748662232637287</v>
+        <v>82.161599703975483</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0669.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0669.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84CC9ABC-5144-43EC-82EE-C97FC9311100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CD5D7C2-D011-41F9-AAC6-3FA9C85D2477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,6 +26,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -4186,11 +4197,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.7981477162025496E-2</v>
+        <v>1.8134195515807246E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.7235868406917352E-2</v>
+        <v>1.7382254236367575E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4924,7 +4935,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>107.4</v>
+        <v>106.5</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>269</v>
@@ -4965,7 +4976,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>63055.383090000003</v>
+        <v>62526.986024999998</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5014,7 +5025,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7746000289916992</v>
+        <v>7.7749268213907881</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5197,7 +5208,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.540399407362264</v>
+        <v>12.434789585763692</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5229,7 +5240,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.7981477162025496E-2</v>
+        <v>1.8134195515807246E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5259,20 +5270,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>87.613577929377328</v>
+        <v>87.892391212605773</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>161.7947702186338</v>
+        <v>162.30965081317146</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>103.07479756397333</v>
+        <v>103.40281319130091</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>140.69110453794244</v>
+        <v>141.13882679406214</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12195,17 +12206,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.9742276742231777E-2</v>
+        <v>8.0419535296751485E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.9742276742231694E-2</v>
+        <v>8.0419535296751402E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.9742276742231694E-2</v>
+        <v>8.0419535296751402E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12246,17 +12257,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.7981477162025496E-2</v>
+        <v>1.8134195515807246E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.7981477162025496E-2</v>
+        <v>1.8134195515807246E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.7981477162025496E-2</v>
+        <v>1.8134195515807246E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12316,14 +12327,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>207.32023493040518</v>
+        <v>207.97999152004283</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>207.32023493040518</v>
+        <v>207.97999152004283</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12344,14 +12355,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>34.823889374089653</v>
+        <v>34.851483607027888</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>34.823889374089653</v>
+        <v>34.851483607027888</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12394,21 +12405,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>60516022.786969617</v>
+        <v>60708603.336696312</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>103.07479756397333</v>
+        <v>103.40281319130091</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>103.07479756397333</v>
+        <v>103.40281319130091</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>140.69110453794244</v>
+        <v>141.13882679406214</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12457,27 +12468,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>60516022.786969617</v>
+        <v>60708603.336696312</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>87.613577929377328</v>
+        <v>87.892391212605773</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>103.07479756397333</v>
+        <v>103.40281319130091</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>103.07479756397333</v>
+        <v>103.40281319130091</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>103.07479756397333</v>
+        <v>103.40281319130091</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>140.69110453794244</v>
+        <v>141.13882679406214</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12518,27 +12529,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>10164966.693196869</v>
+        <v>10173021.349462522</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>14.716583484988897</v>
+        <v>14.728244814037394</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>17.313627629398702</v>
+        <v>17.327346840043994</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>17.313627629398702</v>
+        <v>17.327346840043994</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>17.313627629398702</v>
+        <v>17.327346840043994</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>23.632094870008526</v>
+        <v>23.650820794722343</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12579,27 +12590,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>35340494.740083247</v>
+        <v>35440812.343079418</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>51.165080707183115</v>
+        <v>51.310318013321584</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>60.194212596686015</v>
+        <v>60.365080015672447</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>60.194212596686015</v>
+        <v>60.365080015672447</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>60.194212596686015</v>
+        <v>60.365080015672447</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>82.161599703975483</v>
+        <v>82.394823794392238</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0669.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0669.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CD5D7C2-D011-41F9-AAC6-3FA9C85D2477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9469C7E3-FF41-4542-B23B-6BF1A6D1A66E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="273">
   <si>
     <t>Company Info:</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Total Liabilities / Total Assets</t>
-  </si>
-  <si>
     <t>Current Ratio</t>
   </si>
   <si>
@@ -126,15 +123,9 @@
     <t>Discount</t>
   </si>
   <si>
-    <t>Orderly Liquidation Values =</t>
-  </si>
-  <si>
     <t>Book Current Ratio</t>
   </si>
   <si>
-    <t>Orderly Liquidation Value per Shares =</t>
-  </si>
-  <si>
     <t>Book Quick Ratio</t>
   </si>
   <si>
@@ -449,10 +440,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Solvency Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Pre-tax Profit =</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -549,10 +536,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Profibility Qaulity Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>2. Total Debt + PS + Options</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -917,10 +900,6 @@
     <t>Profit</t>
   </si>
   <si>
-    <t>Cost Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -961,6 +940,42 @@
   </si>
   <si>
     <t>ΔWC/Δsales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minority interests</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profibility Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Op_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common_Equity / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-tax ROE</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1540,7 +1555,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="287">
+  <cellXfs count="291">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2180,6 +2195,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3596,7 +3621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3610,28 +3635,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C6" s="189">
         <v>45625</v>
@@ -3647,24 +3672,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C10" s="193">
         <v>587107850</v>
@@ -3672,10 +3697,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3696,7 +3721,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3704,15 +3729,15 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="222" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C16" s="223">
         <v>0.25</v>
@@ -3721,61 +3746,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3844,7 +3869,7 @@
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C26" s="150">
         <v>8311775</v>
@@ -3864,7 +3889,7 @@
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C27" s="150">
         <f>2347219+1406210</f>
@@ -3886,7 +3911,7 @@
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C28" s="150">
         <v>548338</v>
@@ -3906,7 +3931,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C29" s="150">
         <v>124056</v>
@@ -3926,7 +3951,7 @@
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C30" s="150">
         <v>0</v>
@@ -3946,7 +3971,7 @@
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C31" s="150">
         <f>1862982-2265630</f>
@@ -3968,7 +3993,7 @@
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C32" s="150">
         <f>198268+269041+166178</f>
@@ -3990,7 +4015,7 @@
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C33" s="150">
         <v>502000</v>
@@ -4027,7 +4052,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150"/>
@@ -4043,7 +4068,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -4075,7 +4100,7 @@
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150"/>
@@ -4123,7 +4148,7 @@
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C41" s="217"/>
       <c r="D41" s="150"/>
@@ -4139,7 +4164,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>138</v>
+        <v>258</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150"/>
@@ -4155,7 +4180,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150"/>
@@ -4171,7 +4196,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C44" s="250">
         <f>0.1261+0.1223</f>
@@ -4193,15 +4218,15 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.8134195515807246E-2</v>
+        <v>1.8150717575747266E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.7382254236367575E-2</v>
+        <v>1.7398091202839871E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4242,21 +4267,21 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C47" s="194" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="60">
@@ -4266,7 +4291,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -4276,7 +4301,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
@@ -4287,7 +4312,7 @@
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
@@ -4297,7 +4322,7 @@
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
@@ -4307,7 +4332,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4318,7 +4343,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4328,7 +4353,7 @@
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
@@ -4339,7 +4364,7 @@
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
@@ -4347,24 +4372,24 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
       <c r="E57" s="221" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
@@ -4375,7 +4400,7 @@
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C59" s="120"/>
       <c r="D59" s="195">
@@ -4386,7 +4411,7 @@
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
@@ -4397,7 +4422,7 @@
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
@@ -4408,7 +4433,7 @@
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
@@ -4419,7 +4444,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4430,7 +4455,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4440,31 +4465,31 @@
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C65" s="59"/>
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
       <c r="E65" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
       <c r="E66" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
@@ -4472,12 +4497,12 @@
         <v>0.1</v>
       </c>
       <c r="E67" s="221" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
@@ -4488,7 +4513,7 @@
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
@@ -4499,7 +4524,7 @@
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C70" s="59"/>
       <c r="D70" s="60">
@@ -4509,7 +4534,7 @@
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C71" s="59"/>
       <c r="D71" s="60">
@@ -4520,7 +4545,7 @@
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="246" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C72" s="247"/>
       <c r="D72" s="248">
@@ -4530,25 +4555,25 @@
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C73" s="59"/>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C74" s="59"/>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C76" s="120"/>
     </row>
@@ -4560,55 +4585,55 @@
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C79" s="59"/>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C80" s="59"/>
     </row>
     <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C81" s="120"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C82" s="83"/>
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C83" s="59"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4616,10 +4641,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4627,18 +4652,18 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="C89" s="271">
+        <v>123</v>
+      </c>
+      <c r="C89" s="275">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="271"/>
+      <c r="D89" s="275"/>
       <c r="E89" s="89" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4647,20 +4672,20 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000USD)</v>
       </c>
-      <c r="C90" s="272" t="s">
-        <v>100</v>
-      </c>
-      <c r="D90" s="272"/>
+      <c r="C90" s="276" t="s">
+        <v>97</v>
+      </c>
+      <c r="D90" s="276"/>
       <c r="E90" s="235" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F90" s="255" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4678,7 +4703,7 @@
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
@@ -4699,7 +4724,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4720,7 +4745,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4738,7 +4763,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4759,7 +4784,7 @@
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
@@ -4777,7 +4802,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4795,7 +4820,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4923,62 +4948,62 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C3" s="277" t="str">
+        <v>189</v>
+      </c>
+      <c r="C3" s="281" t="str">
         <f>Inputs!C4</f>
         <v>0669.HK</v>
       </c>
-      <c r="D3" s="278"/>
+      <c r="D3" s="282"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>106.5</v>
+        <v>106.4</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="C4" s="279" t="str">
+        <v>190</v>
+      </c>
+      <c r="C4" s="283" t="str">
         <f>Inputs!C5</f>
         <v>創科實業</v>
       </c>
-      <c r="D4" s="280"/>
+      <c r="D4" s="284"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="283">
+      <c r="G4" s="287">
         <f>Inputs!C10</f>
         <v>587107850</v>
       </c>
-      <c r="H4" s="283"/>
+      <c r="H4" s="287"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="281">
+        <v>158</v>
+      </c>
+      <c r="C5" s="285">
         <f>Inputs!C6</f>
         <v>45625</v>
       </c>
-      <c r="D5" s="282"/>
+      <c r="D5" s="286"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="275">
+        <v>96</v>
+      </c>
+      <c r="G5" s="279">
         <f>G3*G4/1000000</f>
-        <v>62526.986024999998</v>
-      </c>
-      <c r="H5" s="275"/>
+        <v>62468.275240000003</v>
+      </c>
+      <c r="H5" s="279"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5001,16 +5026,16 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="276" t="str">
+      <c r="G6" s="280" t="str">
         <f>Inputs!C11</f>
         <v>USD</v>
       </c>
-      <c r="H6" s="276"/>
+      <c r="H6" s="280"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5025,7 +5050,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7749268213907881</v>
+        <v>7.7747035026550293</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5035,40 +5060,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5081,29 +5106,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5113,12 +5138,12 @@
         <v>HK</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5128,29 +5153,29 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>0.60531106380837341</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -5158,7 +5183,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
@@ -5169,26 +5194,26 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>0</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G23" s="177" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5197,30 +5222,30 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>9.0344684898005026E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.434789585763692</v>
+        <v>12.42347056556407</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>9.5756364731927404E-3</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5229,18 +5254,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>6.2799518563678491E-2</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.8134195515807246E-2</v>
+        <v>1.8150717575747266E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5250,62 +5275,62 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>237</v>
-      </c>
-      <c r="G28" s="273" t="s">
-        <v>258</v>
-      </c>
-      <c r="H28" s="273"/>
+        <v>232</v>
+      </c>
+      <c r="G28" s="277" t="s">
+        <v>252</v>
+      </c>
+      <c r="H28" s="277"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>87.892391212605773</v>
+        <v>87.919672619638533</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>162.30965081317146</v>
+        <v>162.36003100636097</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>103.40281319130091</v>
-      </c>
-      <c r="G29" s="274">
+        <v>103.43490896428062</v>
+      </c>
+      <c r="G29" s="278">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>141.13882679406214</v>
-      </c>
-      <c r="H29" s="274"/>
+        <v>141.18263565770519</v>
+      </c>
+      <c r="H29" s="278"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5315,25 +5340,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C34" s="225" t="e">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5343,7 +5368,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5353,14 +5378,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5370,7 +5395,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5385,14 +5410,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6345,12 +6370,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N931"/>
+  <dimension ref="A1:N932"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D52" sqref="D52"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6377,16 +6402,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" s="119" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2" s="148" t="s">
+        <v>198</v>
+      </c>
+      <c r="H2" s="147" t="s">
         <v>199</v>
-      </c>
-      <c r="F2" s="119" t="s">
-        <v>202</v>
-      </c>
-      <c r="G2" s="148" t="s">
-        <v>203</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>204</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6404,7 +6429,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6437,7 +6462,7 @@
         <v>USD</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6448,7 +6473,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6600,7 +6625,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
@@ -6651,7 +6676,7 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -6702,7 +6727,7 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
@@ -6753,7 +6778,7 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C11" s="199">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
@@ -6804,7 +6829,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6855,7 +6880,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6906,7 +6931,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6957,7 +6982,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7008,7 +7033,7 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C16" s="199">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
@@ -7059,7 +7084,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7110,7 +7135,7 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C18" s="152">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -7161,7 +7186,7 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C19" s="199">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
@@ -7212,7 +7237,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7263,7 +7288,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C21" s="199">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
@@ -7314,7 +7339,7 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
@@ -7365,7 +7390,7 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -7416,7 +7441,7 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -7467,7 +7492,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7518,7 +7543,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7671,7 +7696,7 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
@@ -7722,7 +7747,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7824,7 +7849,7 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
@@ -8028,7 +8053,7 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8079,7 +8104,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8130,7 +8155,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8181,7 +8206,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8232,7 +8257,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C40" s="155" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8283,7 +8308,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8301,7 +8326,7 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
@@ -8352,7 +8377,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8403,7 +8428,7 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -8454,7 +8479,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -8505,7 +8530,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8556,7 +8581,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8607,7 +8632,7 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8658,7 +8683,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>149</v>
+        <v>260</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8675,50 +8700,50 @@
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="95" t="s">
-        <v>146</v>
-      </c>
-      <c r="C50" s="156">
-        <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D50" s="156" t="str">
+      <c r="B50" s="271" t="s">
+        <v>262</v>
+      </c>
+      <c r="C50" s="272" t="e">
+        <f>IF(C6="","",C6/C39)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D50" s="272" t="e">
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="E50" s="156" t="str">
+      <c r="F50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F50" s="156" t="str">
+      <c r="G50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G50" s="156" t="str">
+      <c r="H50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H50" s="156" t="str">
+      <c r="I50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="156" t="str">
+      <c r="J50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="156" t="str">
+      <c r="K50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="156" t="str">
+      <c r="L50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="156" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="156" t="str">
+      <c r="M50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8727,10 +8752,10 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
+        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
       <c r="D51" s="153" t="str">
@@ -8778,167 +8803,168 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>263</v>
+        <v>143</v>
       </c>
       <c r="C52" s="153">
+        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="E52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="4"/>
+      <c r="B53" s="94" t="s">
+        <v>257</v>
+      </c>
+      <c r="C53" s="153">
         <f>IF(D6="","",C16/(C6-D6))</f>
         <v>-0.8432524806594428</v>
       </c>
-      <c r="D52" s="153" t="str">
-        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
-        <v/>
-      </c>
-      <c r="E52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="16"/>
-      <c r="B53" s="102" t="s">
-        <v>124</v>
-      </c>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="36"/>
-      <c r="L53" s="36"/>
-      <c r="M53" s="36"/>
+      <c r="D53" s="153" t="str">
+        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
+        <v/>
+      </c>
+      <c r="E53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="F53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="G53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="H53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="I53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="J53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="K53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="L53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="M53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="N53" s="87"/>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="95" t="s">
-        <v>19</v>
-      </c>
-      <c r="C54" s="156" t="e">
-        <f>IF(C36="","",(C27-C36)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D54" s="156" t="str">
-        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
-        <v/>
-      </c>
-      <c r="E54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="F54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="G54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
+      <c r="A54" s="16"/>
+      <c r="B54" s="102" t="s">
+        <v>261</v>
+      </c>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C55" s="157" t="str">
-        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-</v>
-      </c>
-      <c r="D55" s="157" t="str">
+      <c r="B55" s="95" t="s">
+        <v>263</v>
+      </c>
+      <c r="C55" s="156" t="e">
+        <f>IF(C36="","",(C36-C37)/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D55" s="156" t="str">
+        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
+        <v/>
+      </c>
+      <c r="E55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E55" s="157" t="str">
+      <c r="F55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="157" t="str">
+      <c r="G55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="157" t="str">
+      <c r="H55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="157" t="str">
+      <c r="I55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="157" t="str">
+      <c r="J55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="157" t="str">
+      <c r="K55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="157" t="str">
+      <c r="L55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="157" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="157" t="str">
+      <c r="M55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8946,112 +8972,302 @@
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C56" s="153">
-        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>0.1438620660863757</v>
-      </c>
-      <c r="D56" s="153">
+        <v>117</v>
+      </c>
+      <c r="C56" s="157" t="str">
+        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>-</v>
+      </c>
+      <c r="D56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>0.11293312880758147</v>
-      </c>
-      <c r="E56" s="153" t="str">
+        <v/>
+      </c>
+      <c r="E56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F56" s="153" t="str">
+      <c r="F56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G56" s="153" t="str">
+      <c r="G56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H56" s="153" t="str">
+      <c r="H56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I56" s="153" t="str">
+      <c r="I56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="153" t="str">
+      <c r="J56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="153" t="str">
+      <c r="K56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="153" t="str">
+      <c r="L56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="153" t="str">
+      <c r="M56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
-      <c r="B57" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="C57" s="158" t="e">
-        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
+      <c r="B57" s="94" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" s="153">
+        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>0.1438620660863757</v>
+      </c>
+      <c r="D57" s="153">
+        <f t="shared" si="47"/>
+        <v>0.11293312880758147</v>
+      </c>
+      <c r="E57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="4"/>
+      <c r="B58" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="158" t="e">
+        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="E57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="F57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="G57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="H57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="D58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="4"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="102" t="s">
+        <v>264</v>
+      </c>
+      <c r="C59" s="273" t="str">
+        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="D59" s="273" t="str">
+        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="E59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="F59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="G59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="H59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
+      <c r="B60" s="271" t="s">
+        <v>265</v>
+      </c>
+      <c r="C60" s="274" t="e">
+        <f>IF(C14="","",C14/(C36-C37))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D60" s="274" t="e">
+        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="F60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="G60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="H60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="I60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
+      <c r="B61" s="271" t="s">
+        <v>266</v>
+      </c>
+      <c r="C61" s="274" t="e">
+        <f>IF(C22="","",C22/(C36-C37))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D61" s="274" t="e">
+        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="F61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="G61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="H61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="I61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="J61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="K61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="L61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="M61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -9614,7 +9830,9 @@
     <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A248" s="4"/>
     </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A249" s="4"/>
+    </row>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10297,6 +10515,7 @@
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10336,8 +10555,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I100" sqref="I100"/>
+    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10355,7 +10574,7 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
@@ -10370,7 +10589,7 @@
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="116">
@@ -10384,7 +10603,7 @@
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
       <c r="H3" s="47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" s="204">
         <f>Inputs!C83</f>
@@ -10394,7 +10613,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="65">
@@ -10412,10 +10631,10 @@
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="I5" s="63" t="e">
         <f>C28/I28</f>
@@ -10424,12 +10643,13 @@
       <c r="K5" s="24"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="20" t="s">
-        <v>26</v>
+      <c r="B6" s="20" t="str">
+        <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
+        <v>Adj. Net Asset in USD</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
-        <f>(E49-I49-E53)*Exchange_Rate</f>
+        <f>(E49-I49-E53)</f>
         <v>0</v>
       </c>
       <c r="E6" s="56" t="e">
@@ -10439,7 +10659,7 @@
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I6" s="63" t="e">
         <f>(C24+C25)/I28</f>
@@ -10449,8 +10669,9 @@
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="19" t="s">
-        <v>28</v>
+      <c r="B7" s="19" t="str">
+        <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
+        <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="66">
@@ -10462,7 +10683,7 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I7" s="63" t="e">
         <f>C24/I28</f>
@@ -10480,7 +10701,7 @@
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="203">
@@ -10499,32 +10720,32 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="74" t="s">
+        <v>191</v>
+      </c>
+      <c r="E10" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="111" t="s">
         <v>32</v>
-      </c>
-      <c r="C10" s="74" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="74" t="s">
-        <v>196</v>
-      </c>
-      <c r="E10" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>35</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
@@ -10541,7 +10762,7 @@
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -10552,7 +10773,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10569,7 +10790,7 @@
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -10580,7 +10801,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10597,7 +10818,7 @@
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -10608,7 +10829,7 @@
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
@@ -10625,7 +10846,7 @@
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I14" s="205">
         <f>Inputs!C76</f>
@@ -10636,7 +10857,7 @@
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
@@ -10653,7 +10874,7 @@
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
@@ -10663,7 +10884,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10685,7 +10906,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10707,7 +10928,7 @@
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
@@ -10728,7 +10949,7 @@
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
@@ -10753,7 +10974,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10780,7 +11001,7 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
@@ -10801,7 +11022,7 @@
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
@@ -10818,7 +11039,7 @@
       <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10830,13 +11051,13 @@
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="111" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G23" s="87"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10858,7 +11079,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10878,7 +11099,7 @@
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I25" s="63" t="e">
         <f>E28/I28</f>
@@ -10887,7 +11108,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10907,7 +11128,7 @@
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I26" s="63" t="e">
         <f>E24/($I$28-I22)</f>
@@ -10920,7 +11141,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10940,7 +11161,7 @@
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I27" s="63" t="e">
         <f>(E25+E24)/$I$28</f>
@@ -10986,7 +11207,7 @@
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="112" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
@@ -10995,7 +11216,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
@@ -11011,7 +11232,7 @@
       <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -11021,7 +11242,7 @@
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
@@ -11038,7 +11259,7 @@
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -11048,7 +11269,7 @@
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
@@ -11065,7 +11286,7 @@
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -11075,7 +11296,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11095,7 +11316,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I33" s="205">
         <f>Inputs!C81</f>
@@ -11105,7 +11326,7 @@
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
@@ -11122,7 +11343,7 @@
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
@@ -11132,7 +11353,7 @@
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
@@ -11158,7 +11379,7 @@
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
@@ -11185,7 +11406,7 @@
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
@@ -11212,7 +11433,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11233,7 +11454,7 @@
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
@@ -11254,7 +11475,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
@@ -11275,7 +11496,7 @@
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
@@ -11296,7 +11517,7 @@
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
@@ -11313,7 +11534,7 @@
       <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -11331,7 +11552,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -11350,7 +11571,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -11369,7 +11590,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -11386,7 +11607,7 @@
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I46" s="63" t="e">
         <f>(E44+E24)/E64</f>
@@ -11399,7 +11620,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -11416,7 +11637,7 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I47" s="63" t="e">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -11429,7 +11650,7 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
@@ -11446,7 +11667,7 @@
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I48" s="207">
         <f>Inputs!C82</f>
@@ -11473,7 +11694,7 @@
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
@@ -11489,14 +11710,14 @@
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
@@ -11513,7 +11734,7 @@
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
@@ -11543,7 +11764,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11554,14 +11775,14 @@
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="284">
+      <c r="D56" s="288">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="282"/>
+      <c r="E56" s="286"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11569,30 +11790,30 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="283">
+      <c r="D57" s="287">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="282"/>
+      <c r="E57" s="286"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="283">
+      <c r="D58" s="287">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="282"/>
+      <c r="E58" s="286"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11609,11 +11830,11 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="9"/>
@@ -11623,7 +11844,7 @@
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11644,7 +11865,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11665,7 +11886,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11686,7 +11907,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11701,7 +11922,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11732,11 +11953,11 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="87"/>
@@ -11746,7 +11967,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11767,7 +11988,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11782,7 +12003,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11804,21 +12025,21 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="C72" s="271">
+        <v>123</v>
+      </c>
+      <c r="C72" s="275">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="271"/>
-      <c r="E72" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="F72" s="285"/>
-      <c r="H72" s="285" t="s">
-        <v>205</v>
-      </c>
-      <c r="I72" s="285"/>
+      <c r="D72" s="275"/>
+      <c r="E72" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="F72" s="289"/>
+      <c r="H72" s="289" t="s">
+        <v>200</v>
+      </c>
+      <c r="I72" s="289"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11828,23 +12049,23 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000USD)</v>
       </c>
-      <c r="C73" s="272" t="s">
-        <v>100</v>
-      </c>
-      <c r="D73" s="272"/>
-      <c r="E73" s="286" t="s">
-        <v>101</v>
-      </c>
-      <c r="F73" s="272"/>
-      <c r="H73" s="286" t="s">
-        <v>101</v>
-      </c>
-      <c r="I73" s="272"/>
+      <c r="C73" s="276" t="s">
+        <v>97</v>
+      </c>
+      <c r="D73" s="276"/>
+      <c r="E73" s="290" t="s">
+        <v>98</v>
+      </c>
+      <c r="F73" s="276"/>
+      <c r="H73" s="290" t="s">
+        <v>98</v>
+      </c>
+      <c r="I73" s="276"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11865,7 +12086,7 @@
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
@@ -11895,7 +12116,7 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C76" s="161">
         <f>C74-C75</f>
@@ -11916,7 +12137,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11946,7 +12167,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11976,7 +12197,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -12007,7 +12228,7 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
@@ -12034,12 +12255,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12069,7 +12290,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12099,7 +12320,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -12129,7 +12350,7 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C84" s="211"/>
       <c r="D84" s="159">
@@ -12150,7 +12371,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12181,7 +12402,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12202,28 +12423,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.0419535296751485E-2</v>
+        <v>8.0492805510550783E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.0419535296751402E-2</v>
+        <v>8.04928055105507E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.0419535296751402E-2</v>
+        <v>8.04928055105507E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12253,21 +12474,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.8134195515807246E-2</v>
+        <v>1.8150717575747266E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.8134195515807246E-2</v>
+        <v>1.8150717575747266E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.8134195515807246E-2</v>
+        <v>1.8150717575747266E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12284,29 +12505,29 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E92" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="F92" s="285"/>
+        <v>151</v>
+      </c>
+      <c r="E92" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="F92" s="289"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="285" t="s">
-        <v>205</v>
-      </c>
-      <c r="I92" s="285"/>
+      <c r="H92" s="289" t="s">
+        <v>200</v>
+      </c>
+      <c r="I92" s="289"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12323,24 +12544,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>207.97999152004283</v>
+        <v>208.04454758371395</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>207.97999152004283</v>
+        <v>208.04454758371395</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12351,18 +12572,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>34.851483607027888</v>
+        <v>34.853310392023339</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>34.851483607027888</v>
+        <v>34.853310392023339</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12381,51 +12602,51 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>60708603.336696312</v>
+        <v>60727447.016964525</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>103.40281319130091</v>
+        <v>103.43490896428062</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>103.40281319130091</v>
+        <v>103.43490896428062</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>141.13882679406214</v>
+        <v>141.18263565770519</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
@@ -12443,7 +12664,7 @@
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -12464,31 +12685,31 @@
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>60708603.336696312</v>
+        <v>60727447.016964525</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>87.892391212605773</v>
+        <v>87.919672619638533</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>103.40281319130091</v>
+        <v>103.43490896428062</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>103.40281319130091</v>
+        <v>103.43490896428062</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>103.40281319130091</v>
+        <v>103.43490896428062</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>141.13882679406214</v>
+        <v>141.18263565770519</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12498,58 +12719,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>10173021.349462522</v>
+        <v>10173554.581360742</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>14.728244814037394</v>
+        <v>14.729016813787503</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>17.327346840043994</v>
+        <v>17.328255075044122</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>17.327346840043994</v>
+        <v>17.328255075044122</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>17.327346840043994</v>
+        <v>17.328255075044122</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>23.650820794722343</v>
+        <v>23.652060482680682</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12559,58 +12780,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>35440812.343079418</v>
+        <v>35450500.799162634</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>51.310318013321584</v>
+        <v>51.324344716713014</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>60.365080015672447</v>
+        <v>60.381582019662375</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>60.365080015672447</v>
+        <v>60.381582019662375</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>60.365080015672447</v>
+        <v>60.381582019662375</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>82.394823794392238</v>
+        <v>82.417348070192929</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12619,7 +12840,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>
@@ -12628,6 +12849,7 @@
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/0669.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0669.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9469C7E3-FF41-4542-B23B-6BF1A6D1A66E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{90F158E1-C817-4A58-8DFC-502820330EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="271">
   <si>
     <t>Company Info:</t>
   </si>
@@ -524,14 +524,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>ST AR / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST Inventory / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST Inventory</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -598,21 +590,9 @@
     <t>Value Range</t>
   </si>
   <si>
-    <t>COGS</t>
-  </si>
-  <si>
-    <t>Interest</t>
-  </si>
-  <si>
-    <t>ΔWC</t>
-  </si>
-  <si>
     <t>- Non-controling Interests</t>
   </si>
   <si>
-    <t xml:space="preserve">Pre-tax Profit </t>
-  </si>
-  <si>
     <t>Normalized Payout Ratio</t>
   </si>
   <si>
@@ -640,9 +620,6 @@
     <t>https://fred.stlouisfed.org/series/DGS10</t>
   </si>
   <si>
-    <t>Normalized Cost Structure</t>
-  </si>
-  <si>
     <t>Price Indicators</t>
   </si>
   <si>
@@ -664,9 +641,6 @@
     <t>Market Yields</t>
   </si>
   <si>
-    <t>Non-controlling Interests</t>
-  </si>
-  <si>
     <t>Watchlist &amp; Comp_Group:</t>
   </si>
   <si>
@@ -866,14 +840,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>CAPX-D&amp;A</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPEX+R&amp;D</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>unclear</t>
   </si>
   <si>
@@ -959,10 +925,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales/Op_Assets</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Common_Equity / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -976,6 +938,42 @@
   </si>
   <si>
     <t>Pre-tax ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Total_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_AR / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_Inventory / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT Margin</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interest Expense</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized ΔWC</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized CAPX-D&amp;A</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE &amp; Cost Structure</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1291,7 +1289,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1549,13 +1547,129 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="291">
+  <cellXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2205,6 +2319,30 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2444,981 +2582,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Normalized Cost Structure</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Dashboard!$B$20:$B$26</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>COGS</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>OPEX+R&amp;D</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Non-controlling Interests</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ΔWC</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Interest</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CAPX-D&amp;A</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Pre-tax Profit </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Dashboard!$C$20:$C$26</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.60531106380837341</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.31327931266495485</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.0344684898005026E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.5756364731927404E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.2799518563678491E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0A50-CA42-B693-027654020280}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent5"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1003300</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{773B95BE-F378-2977-0A32-CF810A38528E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3621,7 +2784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3635,28 +2798,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C6" s="189">
         <v>45625</v>
@@ -3672,24 +2835,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C10" s="193">
         <v>587107850</v>
@@ -3697,10 +2860,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3721,7 +2884,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3729,10 +2892,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3746,55 +2909,55 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3931,7 +3094,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C29" s="150">
         <v>124056</v>
@@ -4068,7 +3231,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -4164,7 +3327,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150"/>
@@ -4196,7 +3359,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C44" s="250">
         <f>0.1261+0.1223</f>
@@ -4218,15 +3381,15 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.8150717575747266E-2</v>
+        <v>1.8202460356414825E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.7398091202839871E-2</v>
+        <v>1.744768844952645E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4267,13 +3430,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>32</v>
@@ -4332,7 +3495,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4343,7 +3506,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4444,7 +3607,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4455,7 +3618,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4615,7 +3778,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C83" s="59"/>
     </row>
@@ -4633,7 +3796,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4641,10 +3804,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4654,16 +3817,16 @@
       <c r="B89" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="C89" s="275">
+      <c r="C89" s="283">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="275"/>
+      <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4672,10 +3835,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000USD)</v>
       </c>
-      <c r="C90" s="276" t="s">
+      <c r="C90" s="284" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="276"/>
+      <c r="D90" s="284"/>
       <c r="E90" s="235" t="s">
         <v>98</v>
       </c>
@@ -4724,7 +3887,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4745,7 +3908,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4763,7 +3926,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4802,7 +3965,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4820,7 +3983,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4906,8 +4069,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4948,62 +4111,62 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C3" s="281" t="str">
+        <v>181</v>
+      </c>
+      <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
         <v>0669.HK</v>
       </c>
-      <c r="D3" s="282"/>
+      <c r="D3" s="290"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>106.4</v>
+        <v>106.1</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" s="283" t="str">
+        <v>182</v>
+      </c>
+      <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
         <v>創科實業</v>
       </c>
-      <c r="D4" s="284"/>
+      <c r="D4" s="292"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="287">
+      <c r="G4" s="295">
         <f>Inputs!C10</f>
         <v>587107850</v>
       </c>
-      <c r="H4" s="287"/>
+      <c r="H4" s="295"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" s="285">
+        <v>156</v>
+      </c>
+      <c r="C5" s="293">
         <f>Inputs!C6</f>
         <v>45625</v>
       </c>
-      <c r="D5" s="286"/>
+      <c r="D5" s="294"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="279">
+      <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>62468.275240000003</v>
-      </c>
-      <c r="H5" s="279"/>
+        <v>62292.142885000001</v>
+      </c>
+      <c r="H5" s="287"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5026,16 +4189,16 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="280" t="str">
+      <c r="G6" s="288" t="str">
         <f>Inputs!C11</f>
         <v>USD</v>
       </c>
-      <c r="H6" s="280"/>
+      <c r="H6" s="288"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5050,7 +4213,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7747035026550293</v>
+        <v>7.7748834292093916</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5060,40 +4223,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5106,29 +4269,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5138,12 +4301,12 @@
         <v>HK</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5151,9 +4314,9 @@
       <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>178</v>
+        <v>264</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>48</v>
@@ -5161,59 +4324,59 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="137" t="s">
-        <v>164</v>
-      </c>
-      <c r="C20" s="171">
-        <f>Fin_Analysis!I75</f>
-        <v>0.60531106380837341</v>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="275" t="s">
+        <v>254</v>
+      </c>
+      <c r="C20" s="276" t="e">
+        <f>C23*C22*(1/C21)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="137" t="s">
-        <v>239</v>
-      </c>
-      <c r="C21" s="171">
-        <f>Fin_Analysis!I77</f>
-        <v>0.31327931266495485</v>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="277" t="s">
+        <v>252</v>
+      </c>
+      <c r="C21" s="278" t="e">
+        <f>Data!C55</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="137" t="s">
-        <v>186</v>
-      </c>
-      <c r="C22" s="171">
-        <f>Fin_Analysis!I78</f>
-        <v>0</v>
+      <c r="B22" s="279" t="s">
+        <v>259</v>
+      </c>
+      <c r="C22" s="280" t="e">
+        <f>Data!C50</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="137" t="s">
-        <v>166</v>
-      </c>
-      <c r="C23" s="171">
-        <f>Fin_Analysis!I80</f>
-        <v>0</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="281" t="s">
+        <v>260</v>
+      </c>
+      <c r="C23" s="282">
+        <f>Data!C13</f>
+        <v>8.1409623526671804E-2</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G23" s="177" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5222,30 +4385,30 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>165</v>
+        <v>261</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>9.0344684898005026E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.42347056556407</v>
+        <v>12.388155289496058</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="C25" s="171">
-        <f>Fin_Analysis!I82</f>
-        <v>9.5756364731927404E-3</v>
+        <f>Fin_Analysis!I80</f>
+        <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5254,18 +4417,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>168</v>
+        <v>263</v>
       </c>
       <c r="C26" s="171">
-        <f>Fin_Analysis!I83</f>
-        <v>6.2799518563678491E-2</v>
+        <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
+        <v>9.5756364731927404E-3</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.8150717575747266E-2</v>
+        <v>1.8202460356414825E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5275,62 +4438,62 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>232</v>
-      </c>
-      <c r="G28" s="277" t="s">
-        <v>252</v>
-      </c>
-      <c r="H28" s="277"/>
+        <v>224</v>
+      </c>
+      <c r="G28" s="285" t="s">
+        <v>242</v>
+      </c>
+      <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>87.919672619638533</v>
+        <v>88.015106199015648</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>162.36003100636097</v>
+        <v>162.53626686399147</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>103.43490896428062</v>
-      </c>
-      <c r="G29" s="278">
+        <v>103.54718376354782</v>
+      </c>
+      <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>141.18263565770519</v>
-      </c>
-      <c r="H29" s="278"/>
+        <v>141.33588422955782</v>
+      </c>
+      <c r="H29" s="286"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5340,7 +4503,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C34" s="225" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
@@ -5351,14 +4514,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5368,7 +4531,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5378,14 +4541,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5395,7 +4558,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5410,14 +4573,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6361,7 +5524,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="99" orientation="landscape" r:id="rId6"/>
-  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -6375,7 +5537,7 @@
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+      <selection pane="topRight" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6402,16 +5564,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F2" s="119" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="G2" s="148" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="H2" s="147" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6429,7 +5591,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6462,7 +5624,7 @@
         <v>USD</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6829,7 +5991,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6880,7 +6042,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6931,7 +6093,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6982,7 +6144,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7084,7 +6246,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7237,7 +6399,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7747,7 +6909,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -8257,7 +7419,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C40" s="155" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8308,7 +7470,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8377,7 +7539,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8581,7 +7743,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8683,7 +7845,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8701,14 +7863,14 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="271" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C50" s="272" t="e">
-        <f>IF(C6="","",C6/C39)</f>
+        <f>IF(C6="","",C6/C27)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D50" s="272" t="e">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
         <v>#VALUE!</v>
       </c>
       <c r="E50" s="272" t="str">
@@ -8752,7 +7914,7 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>142</v>
+        <v>257</v>
       </c>
       <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
@@ -8803,7 +7965,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>143</v>
+        <v>258</v>
       </c>
       <c r="C52" s="153">
         <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
@@ -8854,7 +8016,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="94" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C53" s="153">
         <f>IF(D6="","",C16/(C6-D6))</f>
@@ -8905,7 +8067,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="16"/>
       <c r="B54" s="102" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C54" s="36"/>
       <c r="D54" s="36"/>
@@ -8922,7 +8084,7 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="95" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C55" s="156" t="e">
         <f>IF(C36="","",(C36-C37)/C27)</f>
@@ -9122,7 +8284,7 @@
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="16"/>
       <c r="B59" s="102" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C59" s="273" t="str">
         <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
@@ -9172,7 +8334,7 @@
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
       <c r="B60" s="271" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C60" s="274" t="e">
         <f>IF(C14="","",C14/(C36-C37))</f>
@@ -9222,7 +8384,7 @@
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
       <c r="B61" s="271" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C61" s="274" t="e">
         <f>IF(C22="","",C22/(C36-C37))</f>
@@ -10726,7 +9888,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>31</v>
@@ -10884,7 +10046,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -11296,7 +10458,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11764,7 +10926,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11778,11 +10940,11 @@
         <v>86</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="288">
+      <c r="D56" s="296">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="286"/>
+      <c r="E56" s="294"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11793,11 +10955,11 @@
         <v>87</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="287">
+      <c r="D57" s="295">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="286"/>
+      <c r="E57" s="294"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11809,11 +10971,11 @@
         <v>89</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="287">
+      <c r="D58" s="295">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="286"/>
+      <c r="E58" s="294"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11830,7 +10992,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11907,7 +11069,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11953,7 +11115,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -11988,7 +11150,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -12027,19 +11189,19 @@
       <c r="B72" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="C72" s="275">
+      <c r="C72" s="283">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="275"/>
-      <c r="E72" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="F72" s="289"/>
-      <c r="H72" s="289" t="s">
-        <v>200</v>
-      </c>
-      <c r="I72" s="289"/>
+      <c r="D72" s="283"/>
+      <c r="E72" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="F72" s="297"/>
+      <c r="H72" s="297" t="s">
+        <v>192</v>
+      </c>
+      <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -12049,18 +11211,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000USD)</v>
       </c>
-      <c r="C73" s="276" t="s">
+      <c r="C73" s="284" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="276"/>
-      <c r="E73" s="290" t="s">
+      <c r="D73" s="284"/>
+      <c r="E73" s="298" t="s">
         <v>98</v>
       </c>
-      <c r="F73" s="276"/>
-      <c r="H73" s="290" t="s">
+      <c r="F73" s="284"/>
+      <c r="H73" s="298" t="s">
         <v>98</v>
       </c>
-      <c r="I73" s="276"/>
+      <c r="I73" s="284"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12137,7 +11299,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -12167,7 +11329,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -12197,7 +11359,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -12260,7 +11422,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12290,7 +11452,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12371,7 +11533,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12402,7 +11564,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12423,28 +11585,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.0492805510550783E-2</v>
+        <v>8.0722268701935232E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.04928055105507E-2</v>
+        <v>8.0722268701935149E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.04928055105507E-2</v>
+        <v>8.0722268701935149E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12474,21 +11636,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.8150717575747266E-2</v>
+        <v>1.8202460356414825E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.8150717575747266E-2</v>
+        <v>1.8202460356414825E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.8150717575747266E-2</v>
+        <v>1.8202460356414825E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12510,24 +11672,24 @@
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="E92" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="F92" s="289"/>
+        <v>149</v>
+      </c>
+      <c r="E92" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="F92" s="297"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="289" t="s">
-        <v>200</v>
-      </c>
-      <c r="I92" s="289"/>
+      <c r="H92" s="297" t="s">
+        <v>192</v>
+      </c>
+      <c r="I92" s="297"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12544,24 +11706,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>208.04454758371395</v>
+        <v>208.27037230819514</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>208.04454758371395</v>
+        <v>208.27037230819514</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12572,18 +11734,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>34.853310392023339</v>
+        <v>34.862974380081198</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>34.853310392023339</v>
+        <v>34.862974380081198</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12602,14 +11764,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -12626,21 +11788,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>60727447.016964525</v>
+        <v>60793364.432971463</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>103.43490896428062</v>
+        <v>103.54718376354782</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>103.43490896428062</v>
+        <v>103.54718376354782</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>141.18263565770519</v>
+        <v>141.33588422955782</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12689,27 +11851,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>60727447.016964525</v>
+        <v>60793364.432971463</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>87.919672619638533</v>
+        <v>88.015106199015648</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>103.43490896428062</v>
+        <v>103.54718376354782</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>103.43490896428062</v>
+        <v>103.54718376354782</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>103.43490896428062</v>
+        <v>103.54718376354782</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>141.18263565770519</v>
+        <v>141.33588422955782</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12719,21 +11881,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -12746,31 +11908,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>10173554.581360742</v>
+        <v>10176375.464337839</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>14.729016813787503</v>
+        <v>14.733100817315188</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>17.328255075044122</v>
+        <v>17.333059785076692</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>17.328255075044122</v>
+        <v>17.333059785076692</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>17.328255075044122</v>
+        <v>17.333059785076692</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>23.652060482680682</v>
+        <v>23.658618632465519</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12780,21 +11942,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -12807,31 +11969,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>35450500.799162634</v>
+        <v>35484869.948654659</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>51.324344716713014</v>
+        <v>51.374103508165419</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>60.381582019662375</v>
+        <v>60.44012177431226</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>60.381582019662375</v>
+        <v>60.44012177431226</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>60.381582019662375</v>
+        <v>60.44012177431226</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>82.417348070192929</v>
+        <v>82.497251431011676</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12840,7 +12002,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/0669.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0669.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90F158E1-C817-4A58-8DFC-502820330EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E60C3E3-6A6B-43F3-A302-111ECDB1672B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="272">
   <si>
     <t>Company Info:</t>
   </si>
@@ -404,10 +404,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Noncurrent Liabilities</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST AR</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -909,10 +905,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Minority interests</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Profibility Analysis</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -974,6 +966,18 @@
   </si>
   <si>
     <t>ROE &amp; Cost Structure</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_2</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -2393,7 +2397,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2490,12 +2494,28 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2784,7 +2804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2798,28 +2818,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C6" s="189">
         <v>45625</v>
@@ -2835,24 +2855,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C10" s="193">
         <v>587107850</v>
@@ -2860,10 +2880,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2884,7 +2904,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -2892,10 +2912,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2909,61 +2929,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3094,7 +3114,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C29" s="150">
         <v>124056</v>
@@ -3197,9 +3217,9 @@
       <c r="L33" s="150"/>
       <c r="M33" s="150"/>
     </row>
-    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B34" s="94" t="s">
-        <v>14</v>
+    <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="97" t="s">
+        <v>265</v>
       </c>
       <c r="C34" s="217"/>
       <c r="D34" s="150"/>
@@ -3215,7 +3235,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150"/>
@@ -3231,7 +3251,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -3246,10 +3266,11 @@
       <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="217"/>
+      <c r="B37" s="94" t="str">
+        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
+        <v>Total Liabilities</v>
+      </c>
+      <c r="C37" s="150"/>
       <c r="D37" s="150"/>
       <c r="E37" s="150"/>
       <c r="F37" s="150"/>
@@ -3261,9 +3282,9 @@
       <c r="L37" s="150"/>
       <c r="M37" s="150"/>
     </row>
-    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>112</v>
+        <v>264</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150"/>
@@ -3310,10 +3331,11 @@
       <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C41" s="217"/>
+      <c r="B41" s="94" t="str">
+        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
+        <v>Total Equity</v>
+      </c>
+      <c r="C41" s="150"/>
       <c r="D41" s="150"/>
       <c r="E41" s="150"/>
       <c r="F41" s="150"/>
@@ -3327,9 +3349,9 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>248</v>
-      </c>
-      <c r="C42" s="217"/>
+        <v>133</v>
+      </c>
+      <c r="C42" s="150"/>
       <c r="D42" s="150"/>
       <c r="E42" s="150"/>
       <c r="F42" s="150"/>
@@ -3343,7 +3365,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150"/>
@@ -3359,7 +3381,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C44" s="250">
         <f>0.1261+0.1223</f>
@@ -3381,15 +3403,15 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.8202460356414825E-2</v>
+        <v>1.8149814756293046E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.744768844952645E-2</v>
+        <v>1.7397225819135966E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3430,13 +3452,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>32</v>
@@ -3454,7 +3476,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -3464,7 +3486,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
@@ -3495,7 +3517,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -3506,7 +3528,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -3540,7 +3562,7 @@
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
@@ -3607,7 +3629,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -3618,7 +3640,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -3665,7 +3687,7 @@
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
@@ -3778,7 +3800,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C83" s="59"/>
     </row>
@@ -3796,7 +3818,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -3804,10 +3826,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -3815,7 +3837,7 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C89" s="283">
         <f>C24</f>
@@ -3823,10 +3845,10 @@
       </c>
       <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3848,7 +3870,7 @@
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -3887,7 +3909,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -3908,7 +3930,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -3926,7 +3948,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -3965,7 +3987,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -3983,7 +4005,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4006,28 +4028,33 @@
     <mergeCell ref="C90:D90"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C16 C25:M33 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="20" priority="11">
+  <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
+    <cfRule type="containsBlanks" dxfId="22" priority="14">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="containsBlanks" dxfId="21" priority="3">
+      <formula>LEN(TRIM(C37))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41:C42">
+    <cfRule type="containsBlanks" dxfId="20" priority="1">
+      <formula>LEN(TRIM(C41))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="4">
+    <cfRule type="containsBlanks" dxfId="19" priority="7">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="3">
+    <cfRule type="containsBlanks" dxfId="18" priority="6">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34:M43">
-    <cfRule type="containsBlanks" dxfId="17" priority="17">
-      <formula>LEN(TRIM(D34))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="16" priority="1">
+    <cfRule type="containsBlanks" dxfId="17" priority="4">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4069,8 +4096,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4111,7 +4138,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
@@ -4123,15 +4150,15 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>106.1</v>
+        <v>106.4</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
@@ -4151,7 +4178,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C5" s="293">
         <f>Inputs!C6</f>
@@ -4164,7 +4191,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>62292.142885000001</v>
+        <v>62468.275240000003</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4198,7 +4225,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -4213,7 +4240,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7748834292093916</v>
+        <v>7.7743167877197266</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4223,40 +4250,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -4269,29 +4296,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -4301,12 +4328,12 @@
         <v>HK</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -4316,7 +4343,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>48</v>
@@ -4324,21 +4351,21 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="275" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C20" s="276" t="e">
         <f>C23*C22*(1/C21)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -4346,10 +4373,10 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="277" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C21" s="278" t="e">
-        <f>Data!C55</f>
+        <f>Data!C53</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F21" s="87"/>
@@ -4357,58 +4384,58 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="279" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C22" s="280" t="e">
-        <f>Data!C50</f>
+        <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="281" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C23" s="282">
         <f>Data!C13</f>
         <v>8.1409623526671804E-2</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G23" s="177" t="e">
-        <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
+        <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>9.0344684898005026E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.388155289496058</v>
+        <v>12.42408854161871</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -4417,18 +4444,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>9.5756364731927404E-3</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.8202460356414825E-2</v>
+        <v>1.8149814756293046E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4438,40 +4465,40 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>159</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>88.015106199015648</v>
+        <v>87.913670660066813</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>162.53626686399147</v>
+        <v>162.34894727147974</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>103.54718376354782</v>
+        <v>103.42784783537273</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>141.33588422955782</v>
+        <v>141.17299762737369</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4479,21 +4506,21 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -4503,25 +4530,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C34" s="225" t="e">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -4531,7 +4558,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -4541,14 +4568,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -4558,7 +4585,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -4573,14 +4600,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -5480,27 +5507,27 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
-    <cfRule type="containsBlanks" dxfId="15" priority="5">
+    <cfRule type="containsBlanks" dxfId="16" priority="5">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsBlanks" dxfId="14" priority="3">
+    <cfRule type="containsBlanks" dxfId="15" priority="3">
       <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="containsBlanks" dxfId="13" priority="2">
+    <cfRule type="containsBlanks" dxfId="14" priority="2">
       <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="12" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="41" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="containsBlanks" dxfId="11" priority="1">
+    <cfRule type="containsBlanks" dxfId="12" priority="1">
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5532,12 +5559,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N932"/>
+  <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C60" sqref="C60"/>
+      <selection pane="topRight" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5564,16 +5591,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>188</v>
+      </c>
+      <c r="G2" s="148" t="s">
         <v>189</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>190</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>191</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -5591,7 +5618,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -5624,7 +5651,7 @@
         <v>USD</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -5635,7 +5662,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -5991,7 +6018,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6042,7 +6069,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6093,7 +6120,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6144,7 +6171,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6246,7 +6273,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -6399,7 +6426,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -6654,7 +6681,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -6705,7 +6732,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6759,15 +6786,15 @@
         <v>13</v>
       </c>
       <c r="C27" s="65">
-        <f>IF(C36="","",C36+C31+C32)</f>
+        <f>IF(C34="","",C34+C30)</f>
         <v>0</v>
       </c>
       <c r="D27" s="65" t="str">
-        <f t="shared" ref="D27:M27" si="20">IF(D36="","",D36+D31+D32)</f>
+        <f>IF(D34="","",D34+D30)</f>
         <v/>
       </c>
       <c r="E27" s="65" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="E27:M27" si="20">IF(E34="","",E34+E30)</f>
         <v/>
       </c>
       <c r="F27" s="65" t="str">
@@ -6807,50 +6834,50 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="C28" s="65">
-        <f>Fin_Analysis!C28</f>
+        <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
       <c r="D28" s="199" t="str">
-        <f>IF(Inputs!D34="","",Inputs!D34)</f>
+        <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
       <c r="E28" s="199" t="str">
-        <f>IF(Inputs!E34="","",Inputs!E34)</f>
+        <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
       <c r="F28" s="199" t="str">
-        <f>IF(Inputs!F34="","",Inputs!F34)</f>
+        <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
       <c r="G28" s="199" t="str">
-        <f>IF(Inputs!G34="","",Inputs!G34)</f>
+        <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
       <c r="H28" s="199" t="str">
-        <f>IF(Inputs!H34="","",Inputs!H34)</f>
+        <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
       <c r="I28" s="199" t="str">
-        <f>IF(Inputs!I34="","",Inputs!I34)</f>
+        <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
       <c r="J28" s="199" t="str">
-        <f>IF(Inputs!J34="","",Inputs!J34)</f>
+        <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
       <c r="K28" s="199" t="str">
-        <f>IF(Inputs!K34="","",Inputs!K34)</f>
+        <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
       <c r="L28" s="199" t="str">
-        <f>IF(Inputs!L34="","",Inputs!L34)</f>
+        <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
       <c r="M28" s="199" t="str">
-        <f>IF(Inputs!M34="","",Inputs!M34)</f>
+        <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
       <c r="N28" s="87"/>
@@ -6858,50 +6885,50 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="C29" s="65">
-        <f>Fin_Analysis!C13</f>
+        <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
       <c r="D29" s="199" t="str">
-        <f>IF(Inputs!D35="","",Inputs!D35)</f>
+        <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
       <c r="E29" s="199" t="str">
-        <f>IF(Inputs!E35="","",Inputs!E35)</f>
+        <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
       <c r="F29" s="199" t="str">
-        <f>IF(Inputs!F35="","",Inputs!F35)</f>
+        <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
       <c r="G29" s="199" t="str">
-        <f>IF(Inputs!G35="","",Inputs!G35)</f>
+        <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
       <c r="H29" s="199" t="str">
-        <f>IF(Inputs!H35="","",Inputs!H35)</f>
+        <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
       <c r="I29" s="199" t="str">
-        <f>IF(Inputs!I35="","",Inputs!I35)</f>
+        <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
       <c r="J29" s="199" t="str">
-        <f>IF(Inputs!J35="","",Inputs!J35)</f>
+        <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
       <c r="K29" s="199" t="str">
-        <f>IF(Inputs!K35="","",Inputs!K35)</f>
+        <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
       <c r="L29" s="199" t="str">
-        <f>IF(Inputs!L35="","",Inputs!L35)</f>
+        <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
       <c r="M29" s="199" t="str">
-        <f>IF(Inputs!M35="","",Inputs!M35)</f>
+        <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
       <c r="N29" s="87"/>
@@ -6909,101 +6936,101 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>142</v>
+        <v>263</v>
       </c>
       <c r="C30" s="65">
-        <f>Fin_Analysis!C18</f>
+        <f>Inputs!C37</f>
         <v>0</v>
       </c>
       <c r="D30" s="199" t="str">
-        <f>IF(Inputs!D36="","",Inputs!D36)</f>
+        <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
       <c r="E30" s="199" t="str">
-        <f>IF(Inputs!E36="","",Inputs!E36)</f>
+        <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
       <c r="F30" s="199" t="str">
-        <f>IF(Inputs!F36="","",Inputs!F36)</f>
+        <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
       <c r="G30" s="199" t="str">
-        <f>IF(Inputs!G36="","",Inputs!G36)</f>
+        <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
       <c r="H30" s="199" t="str">
-        <f>IF(Inputs!H36="","",Inputs!H36)</f>
+        <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
       <c r="I30" s="199" t="str">
-        <f>IF(Inputs!I36="","",Inputs!I36)</f>
+        <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
       <c r="J30" s="199" t="str">
-        <f>IF(Inputs!J36="","",Inputs!J36)</f>
+        <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
       <c r="K30" s="199" t="str">
-        <f>IF(Inputs!K36="","",Inputs!K36)</f>
+        <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
       <c r="L30" s="199" t="str">
-        <f>IF(Inputs!L36="","",Inputs!L36)</f>
+        <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
       <c r="M30" s="199" t="str">
-        <f>IF(Inputs!M36="","",Inputs!M36)</f>
+        <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C31" s="65">
-        <f>Fin_Analysis!I28</f>
+        <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
       <c r="D31" s="199" t="str">
-        <f>IF(Inputs!D37="","",Inputs!D37)</f>
+        <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
       <c r="E31" s="199" t="str">
-        <f>IF(Inputs!E37="","",Inputs!E37)</f>
+        <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
       <c r="F31" s="199" t="str">
-        <f>IF(Inputs!F37="","",Inputs!F37)</f>
+        <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
       <c r="G31" s="199" t="str">
-        <f>IF(Inputs!G37="","",Inputs!G37)</f>
+        <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
       <c r="H31" s="199" t="str">
-        <f>IF(Inputs!H37="","",Inputs!H37)</f>
+        <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
       <c r="I31" s="199" t="str">
-        <f>IF(Inputs!I37="","",Inputs!I37)</f>
+        <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
       <c r="J31" s="199" t="str">
-        <f>IF(Inputs!J37="","",Inputs!J37)</f>
+        <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
       <c r="K31" s="199" t="str">
-        <f>IF(Inputs!K37="","",Inputs!K37)</f>
+        <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
       <c r="L31" s="199" t="str">
-        <f>IF(Inputs!L37="","",Inputs!L37)</f>
+        <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
       <c r="M31" s="199" t="str">
-        <f>IF(Inputs!M37="","",Inputs!M37)</f>
+        <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
       <c r="N31" s="87"/>
@@ -7011,101 +7038,101 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="C32" s="65">
-        <f>Fin_Analysis!I48</f>
+        <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
       <c r="D32" s="199" t="str">
-        <f>IF(Inputs!D38="","",Inputs!D38)</f>
+        <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
       <c r="E32" s="199" t="str">
-        <f>IF(Inputs!E38="","",Inputs!E38)</f>
+        <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
       <c r="F32" s="199" t="str">
-        <f>IF(Inputs!F38="","",Inputs!F38)</f>
+        <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
       <c r="G32" s="199" t="str">
-        <f>IF(Inputs!G38="","",Inputs!G38)</f>
+        <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
       <c r="H32" s="199" t="str">
-        <f>IF(Inputs!H38="","",Inputs!H38)</f>
+        <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
       <c r="I32" s="199" t="str">
-        <f>IF(Inputs!I38="","",Inputs!I38)</f>
+        <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
       <c r="J32" s="199" t="str">
-        <f>IF(Inputs!J38="","",Inputs!J38)</f>
+        <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
       <c r="K32" s="199" t="str">
-        <f>IF(Inputs!K38="","",Inputs!K38)</f>
+        <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
       <c r="L32" s="199" t="str">
-        <f>IF(Inputs!L38="","",Inputs!L38)</f>
+        <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
       <c r="M32" s="199" t="str">
-        <f>IF(Inputs!M38="","",Inputs!M38)</f>
+        <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="65">
-        <f>Fin_Analysis!I15</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="199" t="str">
-        <f>IF(Inputs!D39="","",Inputs!D39)</f>
-        <v/>
-      </c>
-      <c r="E33" s="199" t="str">
-        <f>IF(Inputs!E39="","",Inputs!E39)</f>
-        <v/>
-      </c>
-      <c r="F33" s="199" t="str">
-        <f>IF(Inputs!F39="","",Inputs!F39)</f>
-        <v/>
-      </c>
-      <c r="G33" s="199" t="str">
-        <f>IF(Inputs!G39="","",Inputs!G39)</f>
-        <v/>
-      </c>
-      <c r="H33" s="199" t="str">
-        <f>IF(Inputs!H39="","",Inputs!H39)</f>
-        <v/>
-      </c>
-      <c r="I33" s="199" t="str">
-        <f>IF(Inputs!I39="","",Inputs!I39)</f>
-        <v/>
-      </c>
-      <c r="J33" s="199" t="str">
-        <f>IF(Inputs!J39="","",Inputs!J39)</f>
-        <v/>
-      </c>
-      <c r="K33" s="199" t="str">
-        <f>IF(Inputs!K39="","",Inputs!K39)</f>
-        <v/>
-      </c>
-      <c r="L33" s="199" t="str">
-        <f>IF(Inputs!L39="","",Inputs!L39)</f>
-        <v/>
-      </c>
-      <c r="M33" s="199" t="str">
-        <f>IF(Inputs!M39="","",Inputs!M39)</f>
+        <v>18</v>
+      </c>
+      <c r="C33" s="77">
+        <f t="shared" ref="C33" si="21">IF(OR(C31="",C32=""),"",C31+C32)</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="77" t="str">
+        <f t="shared" ref="D33" si="22">IF(OR(D31="",D32=""),"",D31+D32)</f>
+        <v/>
+      </c>
+      <c r="E33" s="77" t="str">
+        <f t="shared" ref="E33" si="23">IF(OR(E31="",E32=""),"",E31+E32)</f>
+        <v/>
+      </c>
+      <c r="F33" s="77" t="str">
+        <f t="shared" ref="F33" si="24">IF(OR(F31="",F32=""),"",F31+F32)</f>
+        <v/>
+      </c>
+      <c r="G33" s="77" t="str">
+        <f t="shared" ref="G33" si="25">IF(OR(G31="",G32=""),"",G31+G32)</f>
+        <v/>
+      </c>
+      <c r="H33" s="77" t="str">
+        <f t="shared" ref="H33" si="26">IF(OR(H31="",H32=""),"",H31+H32)</f>
+        <v/>
+      </c>
+      <c r="I33" s="77" t="str">
+        <f t="shared" ref="I33" si="27">IF(OR(I31="",I32=""),"",I31+I32)</f>
+        <v/>
+      </c>
+      <c r="J33" s="77" t="str">
+        <f t="shared" ref="J33" si="28">IF(OR(J31="",J32=""),"",J31+J32)</f>
+        <v/>
+      </c>
+      <c r="K33" s="77" t="str">
+        <f t="shared" ref="K33" si="29">IF(OR(K31="",K32=""),"",K31+K32)</f>
+        <v/>
+      </c>
+      <c r="L33" s="77" t="str">
+        <f t="shared" ref="L33" si="30">IF(OR(L31="",L32=""),"",L31+L32)</f>
+        <v/>
+      </c>
+      <c r="M33" s="77" t="str">
+        <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
       <c r="N33" s="87"/>
@@ -7113,50 +7140,50 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="C34" s="65">
-        <f>Fin_Analysis!I34</f>
+        <f>Inputs!C41</f>
         <v>0</v>
       </c>
       <c r="D34" s="199" t="str">
-        <f>IF(Inputs!D40="","",Inputs!D40)</f>
+        <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
       <c r="E34" s="199" t="str">
-        <f>IF(Inputs!E40="","",Inputs!E40)</f>
+        <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
       <c r="F34" s="199" t="str">
-        <f>IF(Inputs!F40="","",Inputs!F40)</f>
+        <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
       <c r="G34" s="199" t="str">
-        <f>IF(Inputs!G40="","",Inputs!G40)</f>
+        <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
       <c r="H34" s="199" t="str">
-        <f>IF(Inputs!H40="","",Inputs!H40)</f>
+        <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
       <c r="I34" s="199" t="str">
-        <f>IF(Inputs!I40="","",Inputs!I40)</f>
+        <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
       <c r="J34" s="199" t="str">
-        <f>IF(Inputs!J40="","",Inputs!J40)</f>
+        <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
       <c r="K34" s="199" t="str">
-        <f>IF(Inputs!K40="","",Inputs!K40)</f>
+        <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
       <c r="L34" s="199" t="str">
-        <f>IF(Inputs!L40="","",Inputs!L40)</f>
+        <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
       <c r="M34" s="199" t="str">
-        <f>IF(Inputs!M40="","",Inputs!M40)</f>
+        <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
       <c r="N34" s="87"/>
@@ -7164,50 +7191,50 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="77">
-        <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="77" t="str">
-        <f t="shared" ref="D35" si="22">IF(OR(D33="",D34=""),"",D33+D34)</f>
-        <v/>
-      </c>
-      <c r="E35" s="77" t="str">
-        <f t="shared" ref="E35" si="23">IF(OR(E33="",E34=""),"",E33+E34)</f>
-        <v/>
-      </c>
-      <c r="F35" s="77" t="str">
-        <f t="shared" ref="F35" si="24">IF(OR(F33="",F34=""),"",F33+F34)</f>
-        <v/>
-      </c>
-      <c r="G35" s="77" t="str">
-        <f t="shared" ref="G35" si="25">IF(OR(G33="",G34=""),"",G33+G34)</f>
-        <v/>
-      </c>
-      <c r="H35" s="77" t="str">
-        <f t="shared" ref="H35" si="26">IF(OR(H33="",H34=""),"",H33+H34)</f>
-        <v/>
-      </c>
-      <c r="I35" s="77" t="str">
-        <f t="shared" ref="I35" si="27">IF(OR(I33="",I34=""),"",I33+I34)</f>
-        <v/>
-      </c>
-      <c r="J35" s="77" t="str">
-        <f t="shared" ref="J35" si="28">IF(OR(J33="",J34=""),"",J33+J34)</f>
-        <v/>
-      </c>
-      <c r="K35" s="77" t="str">
-        <f t="shared" ref="K35" si="29">IF(OR(K33="",K34=""),"",K33+K34)</f>
-        <v/>
-      </c>
-      <c r="L35" s="77" t="str">
-        <f t="shared" ref="L35" si="30">IF(OR(L33="",L34=""),"",L33+L34)</f>
-        <v/>
-      </c>
-      <c r="M35" s="77" t="str">
-        <f t="shared" ref="M35" si="31">IF(OR(M33="",M34=""),"",M33+M34)</f>
+        <v>133</v>
+      </c>
+      <c r="C35" s="65">
+        <f>Inputs!C42</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="199" t="str">
+        <f>IF(Inputs!D42="","",Inputs!D42)</f>
+        <v/>
+      </c>
+      <c r="E35" s="199" t="str">
+        <f>IF(Inputs!E42="","",Inputs!E42)</f>
+        <v/>
+      </c>
+      <c r="F35" s="199" t="str">
+        <f>IF(Inputs!F42="","",Inputs!F42)</f>
+        <v/>
+      </c>
+      <c r="G35" s="199" t="str">
+        <f>IF(Inputs!G42="","",Inputs!G42)</f>
+        <v/>
+      </c>
+      <c r="H35" s="199" t="str">
+        <f>IF(Inputs!H42="","",Inputs!H42)</f>
+        <v/>
+      </c>
+      <c r="I35" s="199" t="str">
+        <f>IF(Inputs!I42="","",Inputs!I42)</f>
+        <v/>
+      </c>
+      <c r="J35" s="199" t="str">
+        <f>IF(Inputs!J42="","",Inputs!J42)</f>
+        <v/>
+      </c>
+      <c r="K35" s="199" t="str">
+        <f>IF(Inputs!K42="","",Inputs!K42)</f>
+        <v/>
+      </c>
+      <c r="L35" s="199" t="str">
+        <f>IF(Inputs!L42="","",Inputs!L42)</f>
+        <v/>
+      </c>
+      <c r="M35" s="199" t="str">
+        <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
       <c r="N35" s="87"/>
@@ -7215,50 +7242,50 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C36" s="65">
-        <f>Fin_Analysis!D3</f>
+        <f>Inputs!C40</f>
         <v>0</v>
       </c>
       <c r="D36" s="199" t="str">
-        <f>IF(Inputs!D41="","",Inputs!D41)</f>
+        <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
       <c r="E36" s="199" t="str">
-        <f>IF(Inputs!E41="","",Inputs!E41)</f>
+        <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
       <c r="F36" s="199" t="str">
-        <f>IF(Inputs!F41="","",Inputs!F41)</f>
+        <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
       <c r="G36" s="199" t="str">
-        <f>IF(Inputs!G41="","",Inputs!G41)</f>
+        <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
       <c r="H36" s="199" t="str">
-        <f>IF(Inputs!H41="","",Inputs!H41)</f>
+        <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
       <c r="I36" s="199" t="str">
-        <f>IF(Inputs!I41="","",Inputs!I41)</f>
+        <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
       <c r="J36" s="199" t="str">
-        <f>IF(Inputs!J41="","",Inputs!J41)</f>
+        <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
       <c r="K36" s="199" t="str">
-        <f>IF(Inputs!K41="","",Inputs!K41)</f>
+        <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
       <c r="L36" s="199" t="str">
-        <f>IF(Inputs!L41="","",Inputs!L41)</f>
+        <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
       <c r="M36" s="199" t="str">
-        <f>IF(Inputs!M41="","",Inputs!M41)</f>
+        <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
       <c r="N36" s="87"/>
@@ -7266,272 +7293,272 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C37" s="65">
-        <f>Fin_Analysis!D4</f>
-        <v>0</v>
-      </c>
-      <c r="D37" s="199" t="str">
-        <f>IF(Inputs!D42="","",Inputs!D42)</f>
-        <v/>
-      </c>
-      <c r="E37" s="199" t="str">
-        <f>IF(Inputs!E42="","",Inputs!E42)</f>
-        <v/>
-      </c>
-      <c r="F37" s="199" t="str">
-        <f>IF(Inputs!F42="","",Inputs!F42)</f>
-        <v/>
-      </c>
-      <c r="G37" s="199" t="str">
-        <f>IF(Inputs!G42="","",Inputs!G42)</f>
-        <v/>
-      </c>
-      <c r="H37" s="199" t="str">
-        <f>IF(Inputs!H42="","",Inputs!H42)</f>
-        <v/>
-      </c>
-      <c r="I37" s="199" t="str">
-        <f>IF(Inputs!I42="","",Inputs!I42)</f>
-        <v/>
-      </c>
-      <c r="J37" s="199" t="str">
-        <f>IF(Inputs!J42="","",Inputs!J42)</f>
-        <v/>
-      </c>
-      <c r="K37" s="199" t="str">
-        <f>IF(Inputs!K42="","",Inputs!K42)</f>
-        <v/>
-      </c>
-      <c r="L37" s="199" t="str">
-        <f>IF(Inputs!L42="","",Inputs!L42)</f>
-        <v/>
-      </c>
-      <c r="M37" s="199" t="str">
-        <f>IF(Inputs!M42="","",Inputs!M42)</f>
+        <f>Fin_Analysis!C68</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="65" t="str">
+        <f t="shared" ref="D37:M37" si="32">IF(D36="","",D27-D36)</f>
+        <v/>
+      </c>
+      <c r="E37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="F37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="G37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="H37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="I37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="J37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="K37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="L37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="M37" s="65" t="str">
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N37" s="87"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="94" t="s">
-        <v>132</v>
-      </c>
-      <c r="C38" s="65">
-        <f>Fin_Analysis!C63</f>
-        <v>0</v>
-      </c>
-      <c r="D38" s="199" t="str">
-        <f>IF(Inputs!D43="","",Inputs!D43)</f>
-        <v/>
-      </c>
-      <c r="E38" s="199" t="str">
-        <f>IF(Inputs!E43="","",Inputs!E43)</f>
-        <v/>
-      </c>
-      <c r="F38" s="199" t="str">
-        <f>IF(Inputs!F43="","",Inputs!F43)</f>
-        <v/>
-      </c>
-      <c r="G38" s="199" t="str">
-        <f>IF(Inputs!G43="","",Inputs!G43)</f>
-        <v/>
-      </c>
-      <c r="H38" s="199" t="str">
-        <f>IF(Inputs!H43="","",Inputs!H43)</f>
-        <v/>
-      </c>
-      <c r="I38" s="199" t="str">
-        <f>IF(Inputs!I43="","",Inputs!I43)</f>
-        <v/>
-      </c>
-      <c r="J38" s="199" t="str">
-        <f>IF(Inputs!J43="","",Inputs!J43)</f>
-        <v/>
-      </c>
-      <c r="K38" s="199" t="str">
-        <f>IF(Inputs!K43="","",Inputs!K43)</f>
-        <v/>
-      </c>
-      <c r="L38" s="199" t="str">
-        <f>IF(Inputs!L43="","",Inputs!L43)</f>
-        <v/>
-      </c>
-      <c r="M38" s="199" t="str">
-        <f>IF(Inputs!M43="","",Inputs!M43)</f>
+      <c r="B38" s="98" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="155" t="e">
+        <f>IF(C6="","",C14/MAX(C37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D38" s="155" t="e">
+        <f>IF(D6="","",D14/MAX(D37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E38" s="155" t="str">
+        <f>IF(E6="","",E14/MAX(E37,0))</f>
+        <v/>
+      </c>
+      <c r="F38" s="155" t="str">
+        <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
+        <v/>
+      </c>
+      <c r="G38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="H38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="I38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="J38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="K38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="L38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="M38" s="155" t="str">
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="N38" s="87"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="4"/>
-      <c r="B39" s="94" t="s">
-        <v>136</v>
-      </c>
-      <c r="C39" s="65">
-        <f>Fin_Analysis!C68</f>
-        <v>0</v>
-      </c>
-      <c r="D39" s="65" t="str">
-        <f>IF(D38="","",D27-D38)</f>
-        <v/>
-      </c>
-      <c r="E39" s="65" t="str">
-        <f t="shared" ref="E39:M39" si="32">IF(E38="","",E27-E38)</f>
-        <v/>
-      </c>
-      <c r="F39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="G39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="H39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="I39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="J39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="K39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="L39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="M39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
+      <c r="A39" s="16"/>
+      <c r="B39" s="55" t="s">
+        <v>247</v>
+      </c>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
       <c r="N39" s="87"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="98" t="s">
-        <v>150</v>
-      </c>
-      <c r="C40" s="155" t="e">
-        <f>IF(C6="","",C14/MAX(C39,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D40" s="155" t="e">
-        <f>IF(D6="","",D14/MAX(D39,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E40" s="155" t="str">
-        <f>IF(E6="","",E14/MAX(E39,0))</f>
-        <v/>
-      </c>
-      <c r="F40" s="155" t="str">
-        <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
-        <v/>
-      </c>
-      <c r="G40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="H40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="I40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="J40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="K40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="L40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="M40" s="155" t="str">
-        <f t="shared" si="33"/>
+      <c r="B40" s="95" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="156">
+        <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
+        <v>0.60531106380837341</v>
+      </c>
+      <c r="D40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.60671422644339779</v>
+      </c>
+      <c r="E40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="F40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="G40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="H40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="I40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="J40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="K40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="L40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="M40" s="156" t="str">
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="N40" s="87"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="16"/>
-      <c r="B41" s="55" t="s">
-        <v>249</v>
-      </c>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="94" t="s">
+        <v>220</v>
+      </c>
+      <c r="C41" s="153">
+        <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
+        <v>0.31327931266495485</v>
+      </c>
+      <c r="D41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.3036976917842476</v>
+      </c>
+      <c r="E41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="F41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="H41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="I41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="J41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="K41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="L41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="M41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
       <c r="N41" s="87"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" s="156">
-        <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
-        <v>0.60531106380837341</v>
-      </c>
-      <c r="D42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.60671422644339779</v>
-      </c>
-      <c r="E42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="F42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="G42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="H42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="I42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="J42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="K42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="L42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="M42" s="156" t="str">
-        <f t="shared" si="34"/>
+      <c r="B42" s="94" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="153">
+        <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="153">
+        <f t="shared" si="36"/>
+        <v>3.326895739576459E-2</v>
+      </c>
+      <c r="E42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="F42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="G42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="H42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="I42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="J42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="K42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="L42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="M42" s="153" t="str">
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="N42" s="87"/>
@@ -7539,50 +7566,50 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>221</v>
+        <v>117</v>
       </c>
       <c r="C43" s="153">
-        <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
-        <v>0.31327931266495485</v>
+        <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
+        <v>9.0344684898005026E-3</v>
       </c>
       <c r="D43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.3036976917842476</v>
+        <f t="shared" si="37"/>
+        <v>5.2714982295422553E-3</v>
       </c>
       <c r="E43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="F43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="G43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="H43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="J43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="K43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="L43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="M43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="N43" s="87"/>
@@ -7590,50 +7617,50 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C44" s="153">
-        <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
+        <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>0</v>
       </c>
       <c r="D44" s="153">
-        <f t="shared" si="36"/>
-        <v>3.326895739576459E-2</v>
+        <f t="shared" si="38"/>
+        <v>0</v>
       </c>
       <c r="E44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="F44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="G44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="H44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="I44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="J44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="K44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="L44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="M44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N44" s="87"/>
@@ -7641,50 +7668,50 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>118</v>
+        <v>222</v>
       </c>
       <c r="C45" s="153">
-        <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
-        <v>9.0344684898005026E-3</v>
+        <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
+        <v>9.5756364731927404E-3</v>
       </c>
       <c r="D45" s="153">
-        <f t="shared" si="37"/>
-        <v>5.2714982295422553E-3</v>
+        <f t="shared" si="39"/>
+        <v>4.369576178876026E-3</v>
       </c>
       <c r="E45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="F45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="G45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="H45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="J45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="K45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="L45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="M45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="N45" s="87"/>
@@ -7692,221 +7719,221 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C46" s="153">
-        <f>IF(C6="","",MAX(C12,0)/C6)</f>
-        <v>0</v>
+        <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
+        <v>6.2799518563678561E-2</v>
       </c>
       <c r="D46" s="153">
-        <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
-        <v>0</v>
+        <f t="shared" si="40"/>
+        <v>4.6678049968171674E-2</v>
       </c>
       <c r="E46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="F46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="G46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="H46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="J46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="K46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="L46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="M46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="N46" s="87"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="4"/>
-      <c r="B47" s="94" t="s">
-        <v>223</v>
-      </c>
-      <c r="C47" s="153">
-        <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
-        <v>9.5756364731927404E-3</v>
-      </c>
-      <c r="D47" s="153">
-        <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
-        <v>4.369576178876026E-3</v>
-      </c>
-      <c r="E47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="F47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="G47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="H47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="I47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="J47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="K47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="L47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="M47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
+      <c r="A47" s="16"/>
+      <c r="B47" s="102" t="s">
+        <v>248</v>
+      </c>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
       <c r="N47" s="87"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C48" s="153">
-        <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
-        <v>6.2799518563678561E-2</v>
-      </c>
-      <c r="D48" s="153">
-        <f t="shared" si="40"/>
-        <v>4.6678049968171674E-2</v>
-      </c>
-      <c r="E48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="F48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="G48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="H48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="I48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="J48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="K48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="L48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="M48" s="153" t="str">
-        <f t="shared" si="40"/>
+      <c r="B48" s="271" t="s">
+        <v>254</v>
+      </c>
+      <c r="C48" s="272" t="e">
+        <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="F48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="G48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="H48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="I48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="J48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="K48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="L48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="M48" s="272" t="str">
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="N48" s="87"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="16"/>
-      <c r="B49" s="102" t="s">
-        <v>250</v>
-      </c>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="36"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="94" t="s">
+        <v>255</v>
+      </c>
+      <c r="C49" s="153">
+        <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="F49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="G49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="H49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="I49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="J49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="K49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="L49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="M49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
       <c r="N49" s="87"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="271" t="s">
+      <c r="B50" s="94" t="s">
         <v>256</v>
       </c>
-      <c r="C50" s="272" t="e">
-        <f>IF(C6="","",C6/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D50" s="272" t="e">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="F50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="G50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="H50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="I50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="J50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="K50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="L50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="272" t="str">
-        <f t="shared" si="41"/>
+      <c r="C50" s="153">
+        <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="E50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M50" s="153" t="str">
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="N50" s="87"/>
@@ -7914,522 +7941,426 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
-        <v>0</v>
+        <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
+        <v>-0.8432524806594428</v>
       </c>
       <c r="D51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="E51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="F51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="G51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="H51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="I51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="J51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="K51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="L51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="M51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="4"/>
-      <c r="B52" s="94" t="s">
-        <v>258</v>
-      </c>
-      <c r="C52" s="153">
-        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="E52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="102" t="s">
+        <v>249</v>
+      </c>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="94" t="s">
-        <v>247</v>
-      </c>
-      <c r="C53" s="153">
-        <f>IF(D6="","",C16/(C6-D6))</f>
-        <v>-0.8432524806594428</v>
-      </c>
-      <c r="D53" s="153" t="str">
-        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
-        <v/>
-      </c>
-      <c r="E53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="F53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="G53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="N53" s="87"/>
+      <c r="B53" s="95" t="s">
+        <v>250</v>
+      </c>
+      <c r="C53" s="156" t="e">
+        <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="E53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="F53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="G53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="H53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="I53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="J53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="K53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="L53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="M53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="16"/>
-      <c r="B54" s="102" t="s">
-        <v>251</v>
-      </c>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="36"/>
-      <c r="L54" s="36"/>
-      <c r="M54" s="36"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="94" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="157" t="str">
+        <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
+        <v>-</v>
+      </c>
+      <c r="D54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="F54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="G54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="H54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="95" t="s">
-        <v>252</v>
-      </c>
-      <c r="C55" s="156" t="e">
-        <f>IF(C36="","",(C36-C37)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D55" s="156" t="str">
-        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
-        <v/>
-      </c>
-      <c r="E55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="F55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="G55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="H55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="I55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="J55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="K55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="L55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="156" t="str">
-        <f t="shared" si="45"/>
+      <c r="B55" s="94" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="153">
+        <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>0.1438620660863757</v>
+      </c>
+      <c r="D55" s="153">
+        <f t="shared" si="47"/>
+        <v>0.11293312880758147</v>
+      </c>
+      <c r="E55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M55" s="153" t="str">
+        <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C56" s="157" t="str">
-        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-</v>
-      </c>
-      <c r="D56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="G56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
+      <c r="B56" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/C30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/D30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/E30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/F30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/G30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/H30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/I30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/J30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/K30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/L30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/M30)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="4"/>
-      <c r="B57" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C57" s="153">
-        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>0.1438620660863757</v>
-      </c>
-      <c r="D57" s="153">
-        <f t="shared" si="47"/>
-        <v>0.11293312880758147</v>
-      </c>
-      <c r="E57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="F57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="G57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="H57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="153" t="str">
-        <f t="shared" si="47"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="102" t="s">
+        <v>251</v>
+      </c>
+      <c r="C57" s="273" t="str">
+        <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="D57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M57" s="273" t="str">
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="C58" s="158" t="e">
-        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
+      <c r="B58" s="271" t="s">
+        <v>252</v>
+      </c>
+      <c r="C58" s="274" t="e">
+        <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="E58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="F58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="G58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="H58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="I58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="J58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="K58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="L58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="M58" s="158" t="str">
-        <f t="shared" si="48"/>
+      <c r="D58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="F58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="G58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="H58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M58" s="274" t="str">
+        <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="16"/>
-      <c r="B59" s="102" t="s">
+      <c r="A59" s="4"/>
+      <c r="B59" s="271" t="s">
         <v>253</v>
       </c>
-      <c r="C59" s="273" t="str">
-        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="D59" s="273" t="str">
-        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="E59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="F59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="G59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="H59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="I59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="J59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="K59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="L59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="M59" s="273" t="str">
-        <f t="shared" si="49"/>
+      <c r="C59" s="274" t="e">
+        <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="F59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="G59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="H59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="I59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M59" s="274" t="str">
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
-      <c r="B60" s="271" t="s">
-        <v>254</v>
-      </c>
-      <c r="C60" s="274" t="e">
-        <f>IF(C14="","",C14/(C36-C37))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D60" s="274" t="e">
-        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="F60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="G60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="H60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="I60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="J60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="K60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="L60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="M60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
-      <c r="B61" s="271" t="s">
-        <v>255</v>
-      </c>
-      <c r="C61" s="274" t="e">
-        <f>IF(C22="","",C22/(C36-C37))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D61" s="274" t="e">
-        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="F61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="G61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="H61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="I61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="J61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="K61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="L61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="M61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -8989,12 +8920,8 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A248" s="4"/>
-    </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A249" s="4"/>
-    </row>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9676,27 +9603,30 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C6:M23 C27:M40">
-    <cfRule type="containsBlanks" dxfId="10" priority="4">
+  <conditionalFormatting sqref="C6:M23">
+    <cfRule type="containsBlanks" dxfId="11" priority="5">
       <formula>LEN(TRIM(C6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:M25">
-    <cfRule type="containsBlanks" dxfId="9" priority="3">
+    <cfRule type="containsBlanks" dxfId="10" priority="4">
       <formula>LEN(TRIM(C25))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C27:M38">
+    <cfRule type="containsBlanks" dxfId="9" priority="1">
+      <formula>LEN(TRIM(C27))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D24:M24">
-    <cfRule type="containsBlanks" dxfId="8" priority="2">
+    <cfRule type="containsBlanks" dxfId="8" priority="3">
       <formula>LEN(TRIM(D24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsBlanks" dxfId="7" priority="1">
+    <cfRule type="containsBlanks" dxfId="7" priority="2">
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9888,7 +9818,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>31</v>
@@ -9935,7 +9865,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -9963,7 +9893,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10046,7 +9976,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10068,7 +9998,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10136,7 +10066,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10458,7 +10388,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -10595,7 +10525,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -10926,7 +10856,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -10992,7 +10922,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11027,7 +10957,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11048,7 +10978,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11069,7 +10999,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11084,7 +11014,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11115,7 +11045,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -11129,7 +11059,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11150,7 +11080,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11165,7 +11095,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11187,7 +11117,7 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C72" s="283">
         <f>Data!C5</f>
@@ -11195,11 +11125,11 @@
       </c>
       <c r="D72" s="283"/>
       <c r="E72" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F72" s="297"/>
       <c r="H72" s="297" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
@@ -11227,7 +11157,7 @@
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11299,7 +11229,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11329,7 +11259,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11359,7 +11289,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -11417,12 +11347,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11452,7 +11382,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -11482,7 +11412,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -11533,7 +11463,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -11564,7 +11494,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -11585,28 +11515,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.0722268701935232E-2</v>
+        <v>8.0488801786156056E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.0722268701935149E-2</v>
+        <v>8.0488801786155972E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.0722268701935149E-2</v>
+        <v>8.0488801786155972E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -11636,21 +11566,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.8202460356414825E-2</v>
+        <v>1.8149814756293046E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.8202460356414825E-2</v>
+        <v>1.8149814756293046E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.8202460356414825E-2</v>
+        <v>1.8149814756293046E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -11667,27 +11597,27 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E92" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F92" s="297"/>
       <c r="G92" s="87"/>
       <c r="H92" s="297" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I92" s="297"/>
       <c r="K92" s="24"/>
@@ -11706,24 +11636,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>208.27037230819514</v>
+        <v>208.03034513133321</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>208.27037230819514</v>
+        <v>208.03034513133321</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -11734,18 +11664,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>34.862974380081198</v>
+        <v>34.851422264553932</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>34.862974380081198</v>
+        <v>34.851422264553932</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11764,14 +11694,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -11784,31 +11714,31 @@
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>60793364.432971463</v>
+        <v>60723301.372752838</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>103.54718376354782</v>
+        <v>103.42784783537273</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>103.54718376354782</v>
+        <v>103.42784783537273</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>141.33588422955782</v>
+        <v>141.17299762737369</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
@@ -11826,7 +11756,7 @@
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -11851,27 +11781,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>60793364.432971463</v>
+        <v>60723301.372752838</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>88.015106199015648</v>
+        <v>87.913670660066813</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>103.54718376354782</v>
+        <v>103.42784783537273</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>103.54718376354782</v>
+        <v>103.42784783537273</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>103.54718376354782</v>
+        <v>103.42784783537273</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>141.33588422955782</v>
+        <v>141.17299762737369</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11881,21 +11811,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -11908,31 +11838,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>10176375.464337839</v>
+        <v>10173003.443817409</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>14.733100817315188</v>
+        <v>14.728218890694098</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>17.333059785076692</v>
+        <v>17.327316341993058</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>17.333059785076692</v>
+        <v>17.327316341993058</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>17.333059785076692</v>
+        <v>17.327316341993058</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>23.658618632465519</v>
+        <v>23.650779166656374</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11942,21 +11872,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -11969,31 +11899,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>35484869.948654659</v>
+        <v>35448152.408285126</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>51.374103508165419</v>
+        <v>51.320944775380454</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>60.44012177431226</v>
+        <v>60.377582088682892</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>60.44012177431226</v>
+        <v>60.377582088682892</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>60.44012177431226</v>
+        <v>60.377582088682892</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>82.497251431011676</v>
+        <v>82.411888397015034</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12002,7 +11932,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/0669.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0669.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E60C3E3-6A6B-43F3-A302-111ECDB1672B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6BADF6B-1A04-4E66-8EAD-BE2DC3D23600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="274">
   <si>
     <t>Company Info:</t>
   </si>
@@ -745,10 +745,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Common Equity =</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>D/P Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -945,10 +941,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales Turnover</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>EBIT Margin</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -978,6 +970,22 @@
   </si>
   <si>
     <t>PlaceHolder_1</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t># In general, the higher the accounts receivable, the higher the inventory, and the lower the fixed assets, the lower the asset turnover ratio.</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_3</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_4</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1908,7 +1916,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2144,12 +2151,8 @@
     <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2348,6 +2351,11 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2587,8 +2595,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FFB6D7A8"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
@@ -2804,7 +2812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2822,162 +2830,162 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="140" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="188" t="s">
-        <v>266</v>
+      <c r="C4" s="187" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="140" t="s">
         <v>181</v>
       </c>
-      <c r="C5" s="191" t="s">
-        <v>267</v>
+      <c r="C5" s="190" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="140" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="189">
+      <c r="C6" s="188">
         <v>45625</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="140" t="s">
+      <c r="B7" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="190">
+      <c r="C7" s="189">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="140" t="s">
+      <c r="B8" s="139" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="191" t="s">
-        <v>268</v>
-      </c>
-      <c r="E8" s="267"/>
+      <c r="C8" s="190" t="s">
+        <v>270</v>
+      </c>
+      <c r="E8" s="264"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="139" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="192" t="s">
-        <v>269</v>
+      <c r="C9" s="191" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="140" t="s">
+      <c r="B10" s="139" t="s">
         <v>203</v>
       </c>
-      <c r="C10" s="193">
+      <c r="C10" s="192">
         <v>587107850</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="140" t="s">
+      <c r="B11" s="139" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="192" t="s">
-        <v>270</v>
+      <c r="C11" s="191" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="218" t="s">
+      <c r="B12" s="215" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="219">
+      <c r="C12" s="216">
         <v>45291</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="218" t="s">
+      <c r="B13" s="215" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="220">
+      <c r="C13" s="217">
         <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="218" t="s">
+      <c r="B14" s="215" t="s">
         <v>205</v>
       </c>
-      <c r="C14" s="219">
+      <c r="C14" s="216">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="218" t="s">
-        <v>239</v>
-      </c>
-      <c r="C15" s="176" t="s">
+      <c r="B15" s="215" t="s">
+        <v>238</v>
+      </c>
+      <c r="C15" s="175" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="222" t="s">
+      <c r="B16" s="219" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="223">
+      <c r="C16" s="220">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="240" t="s">
-        <v>210</v>
-      </c>
-      <c r="C17" s="242" t="s">
-        <v>229</v>
+      <c r="B17" s="237" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="239" t="s">
+        <v>228</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="240" t="s">
+      <c r="B18" s="237" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="239" t="s">
+        <v>228</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="237" t="s">
         <v>224</v>
       </c>
-      <c r="C18" s="242" t="s">
-        <v>229</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="240" t="s">
-        <v>225</v>
-      </c>
-      <c r="C19" s="242" t="s">
-        <v>229</v>
+      <c r="C19" s="239" t="s">
+        <v>228</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="241" t="s">
-        <v>214</v>
-      </c>
-      <c r="C20" s="242" t="s">
-        <v>229</v>
+      <c r="B20" s="238" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="239" t="s">
+        <v>228</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="224" t="s">
-        <v>217</v>
-      </c>
-      <c r="C21" s="242" t="s">
-        <v>229</v>
+      <c r="B21" s="221" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="239" t="s">
+        <v>228</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="226" t="s">
-        <v>216</v>
-      </c>
-      <c r="C22" s="243" t="s">
-        <v>242</v>
+      <c r="B22" s="223" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" s="240" t="s">
+        <v>241</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3034,430 +3042,434 @@
       <c r="B25" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="149">
+      <c r="C25" s="148">
         <v>13731411</v>
       </c>
-      <c r="D25" s="149">
+      <c r="D25" s="148">
         <v>13253917</v>
       </c>
-      <c r="E25" s="149"/>
-      <c r="F25" s="149"/>
-      <c r="G25" s="149"/>
-      <c r="H25" s="149"/>
-      <c r="I25" s="149"/>
-      <c r="J25" s="149"/>
-      <c r="K25" s="149"/>
-      <c r="L25" s="149"/>
-      <c r="M25" s="149"/>
+      <c r="E25" s="148"/>
+      <c r="F25" s="148"/>
+      <c r="G25" s="148"/>
+      <c r="H25" s="148"/>
+      <c r="I25" s="148"/>
+      <c r="J25" s="148"/>
+      <c r="K25" s="148"/>
+      <c r="L25" s="148"/>
+      <c r="M25" s="148"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="150">
+      <c r="C26" s="149">
         <v>8311775</v>
       </c>
-      <c r="D26" s="150">
+      <c r="D26" s="149">
         <v>8041340</v>
       </c>
-      <c r="E26" s="150"/>
-      <c r="F26" s="150"/>
-      <c r="G26" s="150"/>
-      <c r="H26" s="150"/>
-      <c r="I26" s="150"/>
-      <c r="J26" s="150"/>
-      <c r="K26" s="150"/>
-      <c r="L26" s="150"/>
-      <c r="M26" s="150"/>
+      <c r="E26" s="149"/>
+      <c r="F26" s="149"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="149"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="149"/>
+      <c r="K26" s="149"/>
+      <c r="L26" s="149"/>
+      <c r="M26" s="149"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="150">
+      <c r="C27" s="149">
         <f>2347219+1406210</f>
         <v>3753429</v>
       </c>
-      <c r="D27" s="150">
+      <c r="D27" s="149">
         <f>2191001+1349840</f>
         <v>3540841</v>
       </c>
-      <c r="E27" s="150"/>
-      <c r="F27" s="150"/>
-      <c r="G27" s="150"/>
-      <c r="H27" s="150"/>
-      <c r="I27" s="150"/>
-      <c r="J27" s="150"/>
-      <c r="K27" s="150"/>
-      <c r="L27" s="150"/>
-      <c r="M27" s="150"/>
+      <c r="E27" s="149"/>
+      <c r="F27" s="149"/>
+      <c r="G27" s="149"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="149"/>
+      <c r="K27" s="149"/>
+      <c r="L27" s="149"/>
+      <c r="M27" s="149"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="150">
+      <c r="C28" s="149">
         <v>548338</v>
       </c>
-      <c r="D28" s="150">
+      <c r="D28" s="149">
         <v>484343</v>
       </c>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="150"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="150"/>
-      <c r="J28" s="150"/>
-      <c r="K28" s="150"/>
-      <c r="L28" s="150"/>
-      <c r="M28" s="150"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="149"/>
+      <c r="G28" s="149"/>
+      <c r="H28" s="149"/>
+      <c r="I28" s="149"/>
+      <c r="J28" s="149"/>
+      <c r="K28" s="149"/>
+      <c r="L28" s="149"/>
+      <c r="M28" s="149"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>240</v>
-      </c>
-      <c r="C29" s="150">
+        <v>239</v>
+      </c>
+      <c r="C29" s="149">
         <v>124056</v>
       </c>
-      <c r="D29" s="150">
+      <c r="D29" s="149">
         <v>69868</v>
       </c>
-      <c r="E29" s="150"/>
-      <c r="F29" s="150"/>
-      <c r="G29" s="150"/>
-      <c r="H29" s="150"/>
-      <c r="I29" s="150"/>
-      <c r="J29" s="150"/>
-      <c r="K29" s="150"/>
-      <c r="L29" s="150"/>
-      <c r="M29" s="150"/>
+      <c r="E29" s="149"/>
+      <c r="F29" s="149"/>
+      <c r="G29" s="149"/>
+      <c r="H29" s="149"/>
+      <c r="I29" s="149"/>
+      <c r="J29" s="149"/>
+      <c r="K29" s="149"/>
+      <c r="L29" s="149"/>
+      <c r="M29" s="149"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="150">
-        <v>0</v>
-      </c>
-      <c r="D30" s="150">
-        <v>0</v>
-      </c>
-      <c r="E30" s="150"/>
-      <c r="F30" s="150"/>
-      <c r="G30" s="150"/>
-      <c r="H30" s="150"/>
-      <c r="I30" s="150"/>
-      <c r="J30" s="150"/>
-      <c r="K30" s="150"/>
-      <c r="L30" s="150"/>
-      <c r="M30" s="150"/>
+      <c r="C30" s="149">
+        <v>0</v>
+      </c>
+      <c r="D30" s="149">
+        <v>0</v>
+      </c>
+      <c r="E30" s="149"/>
+      <c r="F30" s="149"/>
+      <c r="G30" s="149"/>
+      <c r="H30" s="149"/>
+      <c r="I30" s="149"/>
+      <c r="J30" s="149"/>
+      <c r="K30" s="149"/>
+      <c r="L30" s="149"/>
+      <c r="M30" s="149"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="150">
+      <c r="C31" s="149">
         <f>1862982-2265630</f>
         <v>-402648</v>
       </c>
-      <c r="D31" s="150">
+      <c r="D31" s="149">
         <f>1816473-1375529</f>
         <v>440944</v>
       </c>
-      <c r="E31" s="150"/>
-      <c r="F31" s="150"/>
-      <c r="G31" s="150"/>
-      <c r="H31" s="150"/>
-      <c r="I31" s="150"/>
-      <c r="J31" s="150"/>
-      <c r="K31" s="150"/>
-      <c r="L31" s="150"/>
-      <c r="M31" s="150"/>
+      <c r="E31" s="149"/>
+      <c r="F31" s="149"/>
+      <c r="G31" s="149"/>
+      <c r="H31" s="149"/>
+      <c r="I31" s="149"/>
+      <c r="J31" s="149"/>
+      <c r="K31" s="149"/>
+      <c r="L31" s="149"/>
+      <c r="M31" s="149"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="150">
+      <c r="C32" s="149">
         <f>198268+269041+166178</f>
         <v>633487</v>
       </c>
-      <c r="D32" s="150">
+      <c r="D32" s="149">
         <f>132434+240428+139998</f>
         <v>512860</v>
       </c>
-      <c r="E32" s="150"/>
-      <c r="F32" s="150"/>
-      <c r="G32" s="150"/>
-      <c r="H32" s="150"/>
-      <c r="I32" s="150"/>
-      <c r="J32" s="150"/>
-      <c r="K32" s="150"/>
-      <c r="L32" s="150"/>
-      <c r="M32" s="150"/>
+      <c r="E32" s="149"/>
+      <c r="F32" s="149"/>
+      <c r="G32" s="149"/>
+      <c r="H32" s="149"/>
+      <c r="I32" s="149"/>
+      <c r="J32" s="149"/>
+      <c r="K32" s="149"/>
+      <c r="L32" s="149"/>
+      <c r="M32" s="149"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="150">
+      <c r="C33" s="149">
         <v>502000</v>
       </c>
-      <c r="D33" s="150">
+      <c r="D33" s="149">
         <f>C33*1.137</f>
         <v>570774</v>
       </c>
-      <c r="E33" s="150"/>
-      <c r="F33" s="150"/>
-      <c r="G33" s="150"/>
-      <c r="H33" s="150"/>
-      <c r="I33" s="150"/>
-      <c r="J33" s="150"/>
-      <c r="K33" s="150"/>
-      <c r="L33" s="150"/>
-      <c r="M33" s="150"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="149"/>
+      <c r="G33" s="149"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="149"/>
+      <c r="K33" s="149"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="149"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B34" s="97" t="s">
-        <v>265</v>
-      </c>
-      <c r="C34" s="217"/>
-      <c r="D34" s="150"/>
-      <c r="E34" s="150"/>
-      <c r="F34" s="150"/>
-      <c r="G34" s="150"/>
-      <c r="H34" s="150"/>
-      <c r="I34" s="150"/>
-      <c r="J34" s="150"/>
-      <c r="K34" s="150"/>
-      <c r="L34" s="150"/>
-      <c r="M34" s="150"/>
+        <v>263</v>
+      </c>
+      <c r="C34" s="214"/>
+      <c r="D34" s="149"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="149"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="149"/>
+      <c r="M34" s="149"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="217"/>
-      <c r="D35" s="150"/>
-      <c r="E35" s="150"/>
-      <c r="F35" s="150"/>
-      <c r="G35" s="150"/>
-      <c r="H35" s="150"/>
-      <c r="I35" s="150"/>
-      <c r="J35" s="150"/>
-      <c r="K35" s="150"/>
-      <c r="L35" s="150"/>
-      <c r="M35" s="150"/>
+      <c r="C35" s="214"/>
+      <c r="D35" s="149"/>
+      <c r="E35" s="149"/>
+      <c r="F35" s="149"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="149"/>
+      <c r="K35" s="149"/>
+      <c r="L35" s="149"/>
+      <c r="M35" s="149"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>141</v>
       </c>
-      <c r="C36" s="217"/>
-      <c r="D36" s="150"/>
-      <c r="E36" s="150"/>
-      <c r="F36" s="150"/>
-      <c r="G36" s="150"/>
-      <c r="H36" s="150"/>
-      <c r="I36" s="150"/>
-      <c r="J36" s="150"/>
-      <c r="K36" s="150"/>
-      <c r="L36" s="150"/>
-      <c r="M36" s="150"/>
+      <c r="C36" s="214"/>
+      <c r="D36" s="149"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="149"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="149"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="149"/>
+      <c r="K36" s="149"/>
+      <c r="L36" s="149"/>
+      <c r="M36" s="149"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="str">
-        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
-        <v>Total Liabilities</v>
-      </c>
-      <c r="C37" s="150"/>
-      <c r="D37" s="150"/>
-      <c r="E37" s="150"/>
-      <c r="F37" s="150"/>
-      <c r="G37" s="150"/>
-      <c r="H37" s="150"/>
-      <c r="I37" s="150"/>
-      <c r="J37" s="150"/>
-      <c r="K37" s="150"/>
-      <c r="L37" s="150"/>
-      <c r="M37" s="150"/>
+      <c r="B37" s="94" t="s">
+        <v>261</v>
+      </c>
+      <c r="C37" s="149">
+        <v>0</v>
+      </c>
+      <c r="D37" s="149"/>
+      <c r="E37" s="149"/>
+      <c r="F37" s="149"/>
+      <c r="G37" s="149"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="149"/>
+      <c r="J37" s="149"/>
+      <c r="K37" s="149"/>
+      <c r="L37" s="149"/>
+      <c r="M37" s="149"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>264</v>
-      </c>
-      <c r="C38" s="217"/>
-      <c r="D38" s="150"/>
-      <c r="E38" s="150"/>
-      <c r="F38" s="150"/>
-      <c r="G38" s="150"/>
-      <c r="H38" s="150"/>
-      <c r="I38" s="150"/>
-      <c r="J38" s="150"/>
-      <c r="K38" s="150"/>
-      <c r="L38" s="150"/>
-      <c r="M38" s="150"/>
+        <v>262</v>
+      </c>
+      <c r="C38" s="214"/>
+      <c r="D38" s="149"/>
+      <c r="E38" s="149"/>
+      <c r="F38" s="149"/>
+      <c r="G38" s="149"/>
+      <c r="H38" s="149"/>
+      <c r="I38" s="149"/>
+      <c r="J38" s="149"/>
+      <c r="K38" s="149"/>
+      <c r="L38" s="149"/>
+      <c r="M38" s="149"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="217"/>
-      <c r="D39" s="150"/>
-      <c r="E39" s="150"/>
-      <c r="F39" s="150"/>
-      <c r="G39" s="150"/>
-      <c r="H39" s="150"/>
-      <c r="I39" s="150"/>
-      <c r="J39" s="150"/>
-      <c r="K39" s="150"/>
-      <c r="L39" s="150"/>
-      <c r="M39" s="150"/>
+      <c r="C39" s="214"/>
+      <c r="D39" s="149"/>
+      <c r="E39" s="149"/>
+      <c r="F39" s="149"/>
+      <c r="G39" s="149"/>
+      <c r="H39" s="149"/>
+      <c r="I39" s="149"/>
+      <c r="J39" s="149"/>
+      <c r="K39" s="149"/>
+      <c r="L39" s="149"/>
+      <c r="M39" s="149"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="217"/>
-      <c r="D40" s="150"/>
-      <c r="E40" s="150"/>
-      <c r="F40" s="150"/>
-      <c r="G40" s="150"/>
-      <c r="H40" s="150"/>
-      <c r="I40" s="150"/>
-      <c r="J40" s="150"/>
-      <c r="K40" s="150"/>
-      <c r="L40" s="150"/>
-      <c r="M40" s="150"/>
+      <c r="C40" s="214"/>
+      <c r="D40" s="149"/>
+      <c r="E40" s="149"/>
+      <c r="F40" s="149"/>
+      <c r="G40" s="149"/>
+      <c r="H40" s="149"/>
+      <c r="I40" s="149"/>
+      <c r="J40" s="149"/>
+      <c r="K40" s="149"/>
+      <c r="L40" s="149"/>
+      <c r="M40" s="149"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="str">
-        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
-        <v>Total Equity</v>
-      </c>
-      <c r="C41" s="150"/>
-      <c r="D41" s="150"/>
-      <c r="E41" s="150"/>
-      <c r="F41" s="150"/>
-      <c r="G41" s="150"/>
-      <c r="H41" s="150"/>
-      <c r="I41" s="150"/>
-      <c r="J41" s="150"/>
-      <c r="K41" s="150"/>
-      <c r="L41" s="150"/>
-      <c r="M41" s="150"/>
+      <c r="B41" s="94" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="149">
+        <v>0</v>
+      </c>
+      <c r="D41" s="149"/>
+      <c r="E41" s="149"/>
+      <c r="F41" s="149"/>
+      <c r="G41" s="149"/>
+      <c r="H41" s="149"/>
+      <c r="I41" s="149"/>
+      <c r="J41" s="149"/>
+      <c r="K41" s="149"/>
+      <c r="L41" s="149"/>
+      <c r="M41" s="149"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="C42" s="150"/>
-      <c r="D42" s="150"/>
-      <c r="E42" s="150"/>
-      <c r="F42" s="150"/>
-      <c r="G42" s="150"/>
-      <c r="H42" s="150"/>
-      <c r="I42" s="150"/>
-      <c r="J42" s="150"/>
-      <c r="K42" s="150"/>
-      <c r="L42" s="150"/>
-      <c r="M42" s="150"/>
+      <c r="C42" s="149">
+        <v>0</v>
+      </c>
+      <c r="D42" s="149"/>
+      <c r="E42" s="149"/>
+      <c r="F42" s="149"/>
+      <c r="G42" s="149"/>
+      <c r="H42" s="149"/>
+      <c r="I42" s="149"/>
+      <c r="J42" s="149"/>
+      <c r="K42" s="149"/>
+      <c r="L42" s="149"/>
+      <c r="M42" s="149"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="C43" s="217"/>
-      <c r="D43" s="150"/>
-      <c r="E43" s="150"/>
-      <c r="F43" s="150"/>
-      <c r="G43" s="150"/>
-      <c r="H43" s="150"/>
-      <c r="I43" s="150"/>
-      <c r="J43" s="150"/>
-      <c r="K43" s="150"/>
-      <c r="L43" s="150"/>
-      <c r="M43" s="150"/>
+      <c r="C43" s="214"/>
+      <c r="D43" s="149"/>
+      <c r="E43" s="149"/>
+      <c r="F43" s="149"/>
+      <c r="G43" s="149"/>
+      <c r="H43" s="149"/>
+      <c r="I43" s="149"/>
+      <c r="J43" s="149"/>
+      <c r="K43" s="149"/>
+      <c r="L43" s="149"/>
+      <c r="M43" s="149"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>193</v>
       </c>
-      <c r="C44" s="250">
+      <c r="C44" s="247">
         <f>0.1261+0.1223</f>
         <v>0.24840000000000001</v>
       </c>
-      <c r="D44" s="250">
+      <c r="D44" s="247">
         <f>0.1158+0.1223</f>
         <v>0.23810000000000001</v>
       </c>
-      <c r="E44" s="250"/>
-      <c r="F44" s="250"/>
-      <c r="G44" s="250"/>
-      <c r="H44" s="250"/>
-      <c r="I44" s="250"/>
-      <c r="J44" s="250"/>
-      <c r="K44" s="250"/>
-      <c r="L44" s="250"/>
-      <c r="M44" s="250"/>
+      <c r="E44" s="247"/>
+      <c r="F44" s="247"/>
+      <c r="G44" s="247"/>
+      <c r="H44" s="247"/>
+      <c r="I44" s="247"/>
+      <c r="J44" s="247"/>
+      <c r="K44" s="247"/>
+      <c r="L44" s="247"/>
+      <c r="M44" s="247"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>236</v>
-      </c>
-      <c r="C45" s="152">
+        <v>235</v>
+      </c>
+      <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.8149814756293046E-2</v>
-      </c>
-      <c r="D45" s="152">
+        <v>1.8675828550032535E-2</v>
+      </c>
+      <c r="D45" s="151">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.7397225819135966E-2</v>
-      </c>
-      <c r="E45" s="152" t="str">
+        <v>1.7901428251862909E-2</v>
+      </c>
+      <c r="E45" s="151" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="152" t="str">
+      <c r="F45" s="151" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="152" t="str">
+      <c r="G45" s="151" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C47" s="194" t="s">
+        <v>232</v>
+      </c>
+      <c r="C47" s="193" t="s">
         <v>30</v>
       </c>
-      <c r="D47" s="194" t="s">
+      <c r="D47" s="193" t="s">
         <v>182</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -3528,7 +3540,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -3556,7 +3568,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="221" t="s">
+      <c r="E56" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3568,7 +3580,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="221" t="s">
+      <c r="E57" s="218" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3587,8 +3599,8 @@
       <c r="B59" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C59" s="120"/>
-      <c r="D59" s="195">
+      <c r="C59" s="119"/>
+      <c r="D59" s="194">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -3640,7 +3652,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -3656,7 +3668,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="221" t="s">
+      <c r="E65" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3668,7 +3680,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="221" t="s">
+      <c r="E66" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3681,7 +3693,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="221" t="s">
+      <c r="E67" s="218" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3729,14 +3741,14 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="246" t="s">
+      <c r="B72" s="243" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="247"/>
-      <c r="D72" s="248">
-        <v>0</v>
-      </c>
-      <c r="E72" s="249"/>
+      <c r="C72" s="244"/>
+      <c r="D72" s="245">
+        <v>0</v>
+      </c>
+      <c r="E72" s="246"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -3760,7 +3772,7 @@
       <c r="B76" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="C76" s="120"/>
+      <c r="C76" s="119"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
@@ -3790,19 +3802,19 @@
       <c r="B81" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="C81" s="120"/>
-    </row>
-    <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C81" s="119"/>
+    </row>
+    <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="C82" s="83"/>
-    </row>
-    <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+        <v>266</v>
+      </c>
+      <c r="C82" s="214"/>
+    </row>
+    <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>206</v>
-      </c>
-      <c r="C83" s="59"/>
+        <v>267</v>
+      </c>
+      <c r="C83" s="214"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
@@ -3818,20 +3830,20 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C86" s="197">
+        <v>233</v>
+      </c>
+      <c r="C86" s="196">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C87" s="236" t="s">
-        <v>235</v>
-      </c>
-      <c r="D87" s="269">
+        <v>231</v>
+      </c>
+      <c r="C87" s="233" t="s">
+        <v>234</v>
+      </c>
+      <c r="D87" s="266">
         <v>0.02</v>
       </c>
     </row>
@@ -3861,10 +3873,10 @@
         <v>97</v>
       </c>
       <c r="D90" s="284"/>
-      <c r="E90" s="235" t="s">
+      <c r="E90" s="232" t="s">
         <v>98</v>
       </c>
-      <c r="F90" s="255" t="s">
+      <c r="F90" s="252" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3876,12 +3888,12 @@
         <f>C25</f>
         <v>13731411</v>
       </c>
-      <c r="D91" s="209"/>
-      <c r="E91" s="251">
+      <c r="D91" s="206"/>
+      <c r="E91" s="248">
         <f>C91</f>
         <v>13731411</v>
       </c>
-      <c r="F91" s="251">
+      <c r="F91" s="248">
         <f>C91</f>
         <v>13731411</v>
       </c>
@@ -3894,75 +3906,75 @@
         <f>C26</f>
         <v>8311775</v>
       </c>
-      <c r="D92" s="159">
+      <c r="D92" s="158">
         <f>C92/C91</f>
         <v>0.60531106380837341</v>
       </c>
-      <c r="E92" s="252">
+      <c r="E92" s="249">
         <f>E91*D92</f>
         <v>8311775.0000000009</v>
       </c>
-      <c r="F92" s="252">
+      <c r="F92" s="249">
         <f>F91*D92</f>
         <v>8311775.0000000009</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>4301767</v>
       </c>
-      <c r="D93" s="159">
+      <c r="D93" s="158">
         <f>C93/C91</f>
         <v>0.31327931266495485</v>
       </c>
-      <c r="E93" s="252">
+      <c r="E93" s="249">
         <f>E91*D93</f>
         <v>4301767</v>
       </c>
-      <c r="F93" s="252">
+      <c r="F93" s="249">
         <f>F91*D93</f>
         <v>4301767</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>124056</v>
       </c>
-      <c r="D94" s="159">
+      <c r="D94" s="158">
         <f>C94/C91</f>
         <v>9.0344684898005026E-3</v>
       </c>
-      <c r="E94" s="253"/>
-      <c r="F94" s="252">
+      <c r="E94" s="250"/>
+      <c r="F94" s="249">
         <f>F91*D94</f>
         <v>124056.00000000001</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>131487</v>
       </c>
-      <c r="D95" s="159">
+      <c r="D95" s="158">
         <f>C95/C91</f>
         <v>9.5756364731927404E-3</v>
       </c>
-      <c r="E95" s="252">
+      <c r="E95" s="249">
         <f>E91*D95</f>
         <v>131487</v>
       </c>
-      <c r="F95" s="252">
+      <c r="F95" s="249">
         <f>F91*D95</f>
         <v>131487</v>
       </c>
@@ -3975,12 +3987,12 @@
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="159">
+      <c r="D96" s="158">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="253"/>
-      <c r="F96" s="252">
+      <c r="E96" s="250"/>
+      <c r="F96" s="249">
         <f>F91*D96</f>
         <v>0</v>
       </c>
@@ -3993,12 +4005,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>0</v>
       </c>
-      <c r="D97" s="159">
+      <c r="D97" s="158">
         <f>C97/C91</f>
         <v>0</v>
       </c>
-      <c r="E97" s="253"/>
-      <c r="F97" s="252">
+      <c r="E97" s="250"/>
+      <c r="F97" s="249">
         <f>F91*D97</f>
         <v>0</v>
       </c>
@@ -4007,16 +4019,16 @@
       <c r="B98" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C98" s="237">
+      <c r="C98" s="234">
         <f>C44</f>
         <v>0.24840000000000001</v>
       </c>
-      <c r="D98" s="266"/>
-      <c r="E98" s="254">
+      <c r="D98" s="263"/>
+      <c r="E98" s="251">
         <f>F98</f>
         <v>0.24840000000000001</v>
       </c>
-      <c r="F98" s="254">
+      <c r="F98" s="251">
         <f>C98</f>
         <v>0.24840000000000001</v>
       </c>
@@ -4097,7 +4109,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4149,11 +4161,11 @@
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="132">
-        <v>106.4</v>
-      </c>
-      <c r="H3" s="134" t="s">
-        <v>271</v>
+      <c r="G3" s="131">
+        <v>103.4</v>
+      </c>
+      <c r="H3" s="133" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4191,7 +4203,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>62468.275240000003</v>
+        <v>60706.951690000002</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4201,11 +4213,11 @@
       <c r="B6" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="185">
+      <c r="C6" s="184">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="186">
+      <c r="D6" s="185">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4227,11 +4239,11 @@
       <c r="B7" s="86" t="s">
         <v>178</v>
       </c>
-      <c r="C7" s="187" t="str">
+      <c r="C7" s="186" t="str">
         <f>Inputs!C8</f>
         <v xml:space="preserve">Superior Cycl. </v>
       </c>
-      <c r="D7" s="187" t="str">
+      <c r="D7" s="186" t="str">
         <f>Inputs!C9</f>
         <v>C0006</v>
       </c>
@@ -4239,8 +4251,8 @@
       <c r="F7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="133">
-        <v>7.7743167877197266</v>
+      <c r="G7" s="132">
+        <v>7.7740767796834307</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4249,10 +4261,10 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+      <c r="B9" s="138" t="s">
         <v>177</v>
       </c>
-      <c r="F9" s="143" t="s">
+      <c r="F9" s="142" t="s">
         <v>172</v>
       </c>
     </row>
@@ -4260,7 +4272,7 @@
       <c r="B10" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C10" s="172">
+      <c r="C10" s="171">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -4268,13 +4280,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="122" t="s">
+      <c r="B11" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="C11" s="173">
+      <c r="C11" s="172">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="137" t="s">
+      <c r="D11" s="136" t="s">
         <v>176</v>
       </c>
       <c r="F11" s="110" t="s">
@@ -4283,12 +4295,12 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="C12" s="174">
+        <v>236</v>
+      </c>
+      <c r="C12" s="173">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="172">
+      <c r="D12" s="171">
         <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
@@ -4298,7 +4310,7 @@
       <c r="B14" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C14" s="172">
+      <c r="C14" s="171">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -4309,7 +4321,7 @@
       <c r="B15" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="172">
+      <c r="C15" s="171">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -4317,13 +4329,13 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="122" t="s">
+      <c r="B16" s="121" t="s">
         <v>174</v>
       </c>
-      <c r="C16" s="173">
+      <c r="C16" s="172">
         <v>0.16</v>
       </c>
-      <c r="D16" s="265" t="str">
+      <c r="D16" s="262" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
@@ -4333,49 +4345,49 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>238</v>
-      </c>
-      <c r="C17" s="175">
+        <v>237</v>
+      </c>
+      <c r="C17" s="174">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="176"/>
+      <c r="D17" s="175"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="142" t="s">
-        <v>262</v>
-      </c>
-      <c r="C19" s="135" t="s">
+      <c r="B19" s="141" t="s">
+        <v>260</v>
+      </c>
+      <c r="C19" s="134" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
-      <c r="F19" s="142" t="s">
+      <c r="F19" s="141" t="s">
         <v>198</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="275" t="s">
-        <v>252</v>
-      </c>
-      <c r="C20" s="276" t="e">
+      <c r="B20" s="272" t="s">
+        <v>251</v>
+      </c>
+      <c r="C20" s="273" t="e">
         <f>C23*C22*(1/C21)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="G20" s="172">
+      <c r="G20" s="171">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="277" t="s">
-        <v>250</v>
-      </c>
-      <c r="C21" s="278" t="e">
+      <c r="B21" s="274" t="s">
+        <v>249</v>
+      </c>
+      <c r="C21" s="275" t="e">
         <f>Data!C53</f>
         <v>#DIV/0!</v>
       </c>
@@ -4383,79 +4395,79 @@
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="279" t="s">
-        <v>257</v>
-      </c>
-      <c r="C22" s="280" t="e">
+      <c r="B22" s="276" t="s">
+        <v>264</v>
+      </c>
+      <c r="C22" s="277" t="e">
         <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F22" s="142" t="s">
+      <c r="F22" s="141" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="281" t="s">
-        <v>258</v>
-      </c>
-      <c r="C23" s="282">
+      <c r="B23" s="278" t="s">
+        <v>256</v>
+      </c>
+      <c r="C23" s="279">
         <f>Data!C13</f>
         <v>8.1409623526671804E-2</v>
       </c>
-      <c r="F23" s="140" t="s">
+      <c r="F23" s="139" t="s">
         <v>175</v>
       </c>
-      <c r="G23" s="177" t="e">
+      <c r="G23" s="176" t="e">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="137" t="s">
-        <v>259</v>
-      </c>
-      <c r="C24" s="171">
+      <c r="B24" s="136" t="s">
+        <v>257</v>
+      </c>
+      <c r="C24" s="170">
         <f>Fin_Analysis!I81</f>
         <v>9.0344684898005026E-3</v>
       </c>
-      <c r="F24" s="140" t="s">
-        <v>243</v>
-      </c>
-      <c r="G24" s="268">
+      <c r="F24" s="139" t="s">
+        <v>242</v>
+      </c>
+      <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.42408854161871</v>
+        <v>12.074158045628973</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="137" t="s">
-        <v>260</v>
-      </c>
-      <c r="C25" s="171">
+      <c r="B25" s="136" t="s">
+        <v>258</v>
+      </c>
+      <c r="C25" s="170">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="140" t="s">
+      <c r="F25" s="139" t="s">
         <v>162</v>
       </c>
-      <c r="G25" s="171">
+      <c r="G25" s="170">
         <f>Fin_Analysis!I88</f>
         <v>0.22549490554616261</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="138" t="s">
-        <v>261</v>
-      </c>
-      <c r="C26" s="171">
+      <c r="B26" s="137" t="s">
+        <v>259</v>
+      </c>
+      <c r="C26" s="170">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>9.5756364731927404E-3</v>
       </c>
-      <c r="F26" s="141" t="s">
+      <c r="F26" s="140" t="s">
         <v>179</v>
       </c>
-      <c r="G26" s="178">
+      <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.8149814756293046E-2</v>
+        <v>1.8675828550032535E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4472,10 +4484,10 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H28" s="285"/>
     </row>
@@ -4483,22 +4495,22 @@
       <c r="B29" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="C29" s="130">
+      <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>87.913670660066813</v>
-      </c>
-      <c r="D29" s="129">
+        <v>88.864034424575252</v>
+      </c>
+      <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>162.34894727147974</v>
+        <v>164.10397075684295</v>
       </c>
       <c r="E29" s="87"/>
-      <c r="F29" s="131">
+      <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>103.42784783537273</v>
+        <v>104.54592285244148</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>141.17299762737369</v>
+        <v>142.6991050059504</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4506,23 +4518,23 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="196" t="s">
-        <v>209</v>
-      </c>
-      <c r="C32" s="224"/>
+      <c r="B32" s="195" t="s">
+        <v>208</v>
+      </c>
+      <c r="C32" s="221"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="C33" s="245" t="str">
+        <v>209</v>
+      </c>
+      <c r="C33" s="242" t="str">
         <f>Inputs!C17</f>
         <v>unclear</v>
       </c>
@@ -4530,9 +4542,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="C34" s="225" t="e">
+        <v>210</v>
+      </c>
+      <c r="C34" s="222" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
@@ -4540,17 +4552,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="196" t="s">
-        <v>212</v>
-      </c>
-      <c r="C35" s="224"/>
+      <c r="B35" s="195" t="s">
+        <v>211</v>
+      </c>
+      <c r="C35" s="221"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C36" s="245" t="str">
+        <v>223</v>
+      </c>
+      <c r="C36" s="242" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -4558,26 +4570,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="C37" s="245" t="str">
+        <v>224</v>
+      </c>
+      <c r="C37" s="242" t="str">
         <f>Inputs!C19</f>
         <v>unclear</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="196" t="s">
-        <v>213</v>
-      </c>
-      <c r="C38" s="224"/>
+      <c r="B38" s="195" t="s">
+        <v>212</v>
+      </c>
+      <c r="C38" s="221"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="C39" s="245" t="str">
+        <v>213</v>
+      </c>
+      <c r="C39" s="242" t="str">
         <f>Inputs!C20</f>
         <v>unclear</v>
       </c>
@@ -4585,9 +4597,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C40" s="245" t="str">
+        <v>216</v>
+      </c>
+      <c r="C40" s="242" t="str">
         <f>Inputs!C21</f>
         <v>unclear</v>
       </c>
@@ -4600,16 +4612,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="226" t="s">
-        <v>216</v>
-      </c>
-      <c r="C43" s="244" t="str">
+      <c r="B43" s="223" t="s">
+        <v>215</v>
+      </c>
+      <c r="C43" s="241" t="str">
         <f>Inputs!C22</f>
         <v>Unclear</v>
       </c>
@@ -5561,10 +5573,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D36" sqref="D36"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5590,16 +5602,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="148" t="s">
+      <c r="E2" s="147" t="s">
         <v>185</v>
       </c>
-      <c r="F2" s="119" t="s">
+      <c r="F2" s="118" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="G2" s="147" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="147" t="s">
+      <c r="H2" s="146" t="s">
         <v>190</v>
       </c>
       <c r="I2" s="7"/>
@@ -5613,11 +5625,11 @@
       <c r="B3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="201">
+      <c r="C3" s="200">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="146" t="s">
+      <c r="E3" s="145" t="s">
         <v>186</v>
       </c>
       <c r="F3" s="85" t="str">
@@ -5642,7 +5654,7 @@
       <c r="B4" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="128">
+      <c r="C4" s="127">
         <f>Inputs!C13</f>
         <v>1000</v>
       </c>
@@ -5650,7 +5662,7 @@
         <f>Dashboard!G6</f>
         <v>USD</v>
       </c>
-      <c r="E4" s="146" t="s">
+      <c r="E4" s="145" t="s">
         <v>187</v>
       </c>
       <c r="F4" s="93" t="e">
@@ -5714,47 +5726,47 @@
       <c r="B6" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="200">
+      <c r="C6" s="199">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>13731411</v>
       </c>
-      <c r="D6" s="200">
+      <c r="D6" s="199">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>13253917</v>
       </c>
-      <c r="E6" s="200" t="str">
+      <c r="E6" s="199" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="200" t="str">
+      <c r="F6" s="199" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="200" t="str">
+      <c r="G6" s="199" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="200" t="str">
+      <c r="H6" s="199" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="200" t="str">
+      <c r="I6" s="199" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="200" t="str">
+      <c r="J6" s="199" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="200" t="str">
+      <c r="K6" s="199" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="200" t="str">
+      <c r="L6" s="199" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="200" t="str">
+      <c r="M6" s="199" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -5816,47 +5828,47 @@
       <c r="B8" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="199">
+      <c r="C8" s="198">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>8311775</v>
       </c>
-      <c r="D8" s="199">
+      <c r="D8" s="198">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>8041340</v>
       </c>
-      <c r="E8" s="199" t="str">
+      <c r="E8" s="198" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="199" t="str">
+      <c r="F8" s="198" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="199" t="str">
+      <c r="G8" s="198" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="199" t="str">
+      <c r="H8" s="198" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="199" t="str">
+      <c r="I8" s="198" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="199" t="str">
+      <c r="J8" s="198" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="199" t="str">
+      <c r="K8" s="198" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="199" t="str">
+      <c r="L8" s="198" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="199" t="str">
+      <c r="M8" s="198" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -5867,47 +5879,47 @@
       <c r="B9" s="98" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="151">
+      <c r="C9" s="150">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>5419636</v>
       </c>
-      <c r="D9" s="151">
+      <c r="D9" s="150">
         <f t="shared" si="2"/>
         <v>5212577</v>
       </c>
-      <c r="E9" s="151" t="str">
+      <c r="E9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="151" t="str">
+      <c r="F9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="151" t="str">
+      <c r="G9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="151" t="str">
+      <c r="H9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="151" t="str">
+      <c r="I9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="151" t="str">
+      <c r="J9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="151" t="str">
+      <c r="K9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="151" t="str">
+      <c r="L9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="151" t="str">
+      <c r="M9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5918,47 +5930,47 @@
       <c r="B10" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="199">
+      <c r="C10" s="198">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>3753429</v>
       </c>
-      <c r="D10" s="199">
+      <c r="D10" s="198">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>3540841</v>
       </c>
-      <c r="E10" s="199" t="str">
+      <c r="E10" s="198" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="199" t="str">
+      <c r="F10" s="198" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="199" t="str">
+      <c r="G10" s="198" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="199" t="str">
+      <c r="H10" s="198" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="199" t="str">
+      <c r="I10" s="198" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="199" t="str">
+      <c r="J10" s="198" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="199" t="str">
+      <c r="K10" s="198" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="199" t="str">
+      <c r="L10" s="198" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="199" t="str">
+      <c r="M10" s="198" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -5969,47 +5981,47 @@
       <c r="B11" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="199">
+      <c r="C11" s="198">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v>548338</v>
       </c>
-      <c r="D11" s="199">
+      <c r="D11" s="198">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v>484343</v>
       </c>
-      <c r="E11" s="199" t="str">
+      <c r="E11" s="198" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="199" t="str">
+      <c r="F11" s="198" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="199" t="str">
+      <c r="G11" s="198" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="199" t="str">
+      <c r="H11" s="198" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="199" t="str">
+      <c r="I11" s="198" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="199" t="str">
+      <c r="J11" s="198" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="199" t="str">
+      <c r="K11" s="198" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="199" t="str">
+      <c r="L11" s="198" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="199" t="str">
+      <c r="M11" s="198" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -6018,49 +6030,49 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>226</v>
-      </c>
-      <c r="C12" s="199">
+        <v>225</v>
+      </c>
+      <c r="C12" s="198">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="E12" s="199" t="str">
+      <c r="E12" s="198" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="199" t="str">
+      <c r="F12" s="198" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="199" t="str">
+      <c r="G12" s="198" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="199" t="str">
+      <c r="H12" s="198" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="199" t="str">
+      <c r="I12" s="198" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="199" t="str">
+      <c r="J12" s="198" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="199" t="str">
+      <c r="K12" s="198" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="199" t="str">
+      <c r="L12" s="198" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="199" t="str">
+      <c r="M12" s="198" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6068,50 +6080,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="228" t="s">
-        <v>227</v>
-      </c>
-      <c r="C13" s="229">
+      <c r="B13" s="225" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" s="226">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>8.1409623526671804E-2</v>
       </c>
-      <c r="D13" s="229">
+      <c r="D13" s="226">
         <f t="shared" si="3"/>
         <v>8.9588081772354541E-2</v>
       </c>
-      <c r="E13" s="229" t="str">
+      <c r="E13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="229" t="str">
+      <c r="F13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="229" t="str">
+      <c r="G13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="229" t="str">
+      <c r="H13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="229" t="str">
+      <c r="I13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="229" t="str">
+      <c r="J13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="229" t="str">
+      <c r="K13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="229" t="str">
+      <c r="L13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="229" t="str">
+      <c r="M13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6119,50 +6131,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="228" t="s">
-        <v>219</v>
-      </c>
-      <c r="C14" s="230">
+      <c r="B14" s="225" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="227">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>1117869</v>
       </c>
-      <c r="D14" s="230">
+      <c r="D14" s="227">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>1187393</v>
       </c>
-      <c r="E14" s="230" t="str">
+      <c r="E14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="230" t="str">
+      <c r="F14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="230" t="str">
+      <c r="G14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="230" t="str">
+      <c r="H14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="230" t="str">
+      <c r="I14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="230" t="str">
+      <c r="J14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="230" t="str">
+      <c r="K14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="230" t="str">
+      <c r="L14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="230" t="str">
+      <c r="M14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6170,50 +6182,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="231" t="s">
-        <v>228</v>
-      </c>
-      <c r="C15" s="232">
+      <c r="B15" s="228" t="s">
+        <v>227</v>
+      </c>
+      <c r="C15" s="229">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>-5.8551802141329788E-2</v>
       </c>
-      <c r="D15" s="232" t="str">
+      <c r="D15" s="229" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="232" t="str">
+      <c r="E15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="232" t="str">
+      <c r="F15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="232" t="str">
+      <c r="G15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="232" t="str">
+      <c r="H15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="232" t="str">
+      <c r="I15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="232" t="str">
+      <c r="J15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="232" t="str">
+      <c r="K15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="232" t="str">
+      <c r="L15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="232" t="str">
+      <c r="M15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6224,47 +6236,47 @@
       <c r="B16" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="199">
+      <c r="C16" s="198">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v>-402648</v>
       </c>
-      <c r="D16" s="199">
+      <c r="D16" s="198">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v>440944</v>
       </c>
-      <c r="E16" s="199" t="str">
+      <c r="E16" s="198" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="199" t="str">
+      <c r="F16" s="198" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="199" t="str">
+      <c r="G16" s="198" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="199" t="str">
+      <c r="H16" s="198" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="199" t="str">
+      <c r="I16" s="198" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="199" t="str">
+      <c r="J16" s="198" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="199" t="str">
+      <c r="K16" s="198" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="199" t="str">
+      <c r="L16" s="198" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="199" t="str">
+      <c r="M16" s="198" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -6273,49 +6285,49 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>240</v>
-      </c>
-      <c r="C17" s="199">
+        <v>239</v>
+      </c>
+      <c r="C17" s="198">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>124056</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>69868</v>
       </c>
-      <c r="E17" s="199" t="str">
+      <c r="E17" s="198" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="199" t="str">
+      <c r="F17" s="198" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="199" t="str">
+      <c r="G17" s="198" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="199" t="str">
+      <c r="H17" s="198" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="199" t="str">
+      <c r="I17" s="198" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="199" t="str">
+      <c r="J17" s="198" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="199" t="str">
+      <c r="K17" s="198" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="199" t="str">
+      <c r="L17" s="198" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="199" t="str">
+      <c r="M17" s="198" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -6326,47 +6338,47 @@
       <c r="B18" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="152">
+      <c r="C18" s="151">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v>4.6134151836253391E-2</v>
       </c>
-      <c r="D18" s="152">
+      <c r="D18" s="151">
         <f t="shared" si="6"/>
         <v>3.8694975983326288E-2</v>
       </c>
-      <c r="E18" s="152" t="str">
+      <c r="E18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="152" t="str">
+      <c r="F18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="152" t="str">
+      <c r="G18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="152" t="str">
+      <c r="H18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="152" t="str">
+      <c r="I18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="152" t="str">
+      <c r="J18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="152" t="str">
+      <c r="K18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="152" t="str">
+      <c r="L18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="152" t="str">
+      <c r="M18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6377,47 +6389,47 @@
       <c r="B19" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="199">
+      <c r="C19" s="198">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v>633487</v>
       </c>
-      <c r="D19" s="199">
+      <c r="D19" s="198">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v>512860</v>
       </c>
-      <c r="E19" s="199" t="str">
+      <c r="E19" s="198" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="199" t="str">
+      <c r="F19" s="198" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="199" t="str">
+      <c r="G19" s="198" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="199" t="str">
+      <c r="H19" s="198" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="199" t="str">
+      <c r="I19" s="198" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="199" t="str">
+      <c r="J19" s="198" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="199" t="str">
+      <c r="K19" s="198" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="199" t="str">
+      <c r="L19" s="198" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="199" t="str">
+      <c r="M19" s="198" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -6426,49 +6438,49 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>221</v>
-      </c>
-      <c r="C20" s="152">
+        <v>220</v>
+      </c>
+      <c r="C20" s="151">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>3.6558515363060651E-2</v>
       </c>
-      <c r="D20" s="152">
+      <c r="D20" s="151">
         <f t="shared" si="7"/>
         <v>4.3064552162202313E-2</v>
       </c>
-      <c r="E20" s="152" t="str">
+      <c r="E20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="152" t="str">
+      <c r="F20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="152" t="str">
+      <c r="G20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="152" t="str">
+      <c r="H20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="152" t="str">
+      <c r="I20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="152" t="str">
+      <c r="J20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="152" t="str">
+      <c r="K20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="152" t="str">
+      <c r="L20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="152" t="str">
+      <c r="M20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6479,47 +6491,47 @@
       <c r="B21" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="199">
+      <c r="C21" s="198">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v>502000</v>
       </c>
-      <c r="D21" s="199">
+      <c r="D21" s="198">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v>570774</v>
       </c>
-      <c r="E21" s="199" t="str">
+      <c r="E21" s="198" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="199" t="str">
+      <c r="F21" s="198" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="199" t="str">
+      <c r="G21" s="198" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="199" t="str">
+      <c r="H21" s="198" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="199" t="str">
+      <c r="I21" s="198" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="199" t="str">
+      <c r="J21" s="198" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="199" t="str">
+      <c r="K21" s="198" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="199" t="str">
+      <c r="L21" s="198" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="199" t="str">
+      <c r="M21" s="198" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -6530,47 +6542,47 @@
       <c r="B22" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="161">
+      <c r="C22" s="160">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>862326</v>
       </c>
-      <c r="D22" s="161">
+      <c r="D22" s="160">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>618667</v>
       </c>
-      <c r="E22" s="161" t="str">
+      <c r="E22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="161" t="str">
+      <c r="F22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="161" t="str">
+      <c r="G22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="161" t="str">
+      <c r="H22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="161" t="str">
+      <c r="I22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="161" t="str">
+      <c r="J22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="161" t="str">
+      <c r="K22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="161" t="str">
+      <c r="L22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="161" t="str">
+      <c r="M22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6581,47 +6593,47 @@
       <c r="B23" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="153">
+      <c r="C23" s="152">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>4.7099638922758924E-2</v>
       </c>
-      <c r="D23" s="153">
+      <c r="D23" s="152">
         <f t="shared" si="9"/>
         <v>3.5008537476128754E-2</v>
       </c>
-      <c r="E23" s="153" t="str">
+      <c r="E23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="153" t="str">
+      <c r="F23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="153" t="str">
+      <c r="G23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="153" t="str">
+      <c r="H23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="153" t="str">
+      <c r="I23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="153" t="str">
+      <c r="J23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="153" t="str">
+      <c r="K23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="153" t="str">
+      <c r="L23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="153" t="str">
+      <c r="M23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -6632,7 +6644,7 @@
       <c r="B24" s="101" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="154">
+      <c r="C24" s="153">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>646744.5</v>
       </c>
@@ -6680,50 +6692,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="234" t="s">
+      <c r="B25" s="231" t="s">
         <v>123</v>
       </c>
-      <c r="C25" s="233">
+      <c r="C25" s="230">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>0.39384515417825744</v>
       </c>
-      <c r="D25" s="233" t="str">
+      <c r="D25" s="230" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="233" t="str">
+      <c r="E25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="233" t="str">
+      <c r="F25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="233" t="str">
+      <c r="G25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="233" t="str">
+      <c r="H25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="233" t="str">
+      <c r="I25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="233" t="str">
+      <c r="J25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="233" t="str">
+      <c r="K25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="233" t="str">
+      <c r="L25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="233" t="str">
+      <c r="M25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -6840,43 +6852,43 @@
         <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
-      <c r="D28" s="199" t="str">
+      <c r="D28" s="198" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E28" s="199" t="str">
+      <c r="E28" s="198" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="199" t="str">
+      <c r="F28" s="198" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="199" t="str">
+      <c r="G28" s="198" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="199" t="str">
+      <c r="H28" s="198" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="199" t="str">
+      <c r="I28" s="198" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="199" t="str">
+      <c r="J28" s="198" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="199" t="str">
+      <c r="K28" s="198" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="199" t="str">
+      <c r="L28" s="198" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="199" t="str">
+      <c r="M28" s="198" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -6891,43 +6903,43 @@
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D29" s="199" t="str">
+      <c r="D29" s="198" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E29" s="199" t="str">
+      <c r="E29" s="198" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="199" t="str">
+      <c r="F29" s="198" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="199" t="str">
+      <c r="G29" s="198" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="199" t="str">
+      <c r="H29" s="198" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="199" t="str">
+      <c r="I29" s="198" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="199" t="str">
+      <c r="J29" s="198" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="199" t="str">
+      <c r="K29" s="198" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="199" t="str">
+      <c r="L29" s="198" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="199" t="str">
+      <c r="M29" s="198" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -6936,49 +6948,49 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
         <v>0</v>
       </c>
-      <c r="D30" s="199" t="str">
+      <c r="D30" s="198" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E30" s="199" t="str">
+      <c r="E30" s="198" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F30" s="199" t="str">
+      <c r="F30" s="198" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G30" s="199" t="str">
+      <c r="G30" s="198" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="199" t="str">
+      <c r="H30" s="198" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="199" t="str">
+      <c r="I30" s="198" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="199" t="str">
+      <c r="J30" s="198" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="199" t="str">
+      <c r="K30" s="198" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="199" t="str">
+      <c r="L30" s="198" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="199" t="str">
+      <c r="M30" s="198" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -6993,43 +7005,43 @@
         <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
-      <c r="D31" s="199" t="str">
+      <c r="D31" s="198" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E31" s="199" t="str">
+      <c r="E31" s="198" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="199" t="str">
+      <c r="F31" s="198" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="199" t="str">
+      <c r="G31" s="198" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="199" t="str">
+      <c r="H31" s="198" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="199" t="str">
+      <c r="I31" s="198" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="199" t="str">
+      <c r="J31" s="198" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="199" t="str">
+      <c r="K31" s="198" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="199" t="str">
+      <c r="L31" s="198" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="199" t="str">
+      <c r="M31" s="198" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7044,43 +7056,43 @@
         <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
-      <c r="D32" s="199" t="str">
+      <c r="D32" s="198" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E32" s="199" t="str">
+      <c r="E32" s="198" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="199" t="str">
+      <c r="F32" s="198" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="199" t="str">
+      <c r="G32" s="198" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="199" t="str">
+      <c r="H32" s="198" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="199" t="str">
+      <c r="I32" s="198" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="199" t="str">
+      <c r="J32" s="198" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="199" t="str">
+      <c r="K32" s="198" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="199" t="str">
+      <c r="L32" s="198" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="199" t="str">
+      <c r="M32" s="198" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -7146,43 +7158,43 @@
         <f>Inputs!C41</f>
         <v>0</v>
       </c>
-      <c r="D34" s="199" t="str">
+      <c r="D34" s="198" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E34" s="199" t="str">
+      <c r="E34" s="198" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F34" s="199" t="str">
+      <c r="F34" s="198" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G34" s="199" t="str">
+      <c r="G34" s="198" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="199" t="str">
+      <c r="H34" s="198" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="199" t="str">
+      <c r="I34" s="198" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="199" t="str">
+      <c r="J34" s="198" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="199" t="str">
+      <c r="K34" s="198" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="199" t="str">
+      <c r="L34" s="198" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="199" t="str">
+      <c r="M34" s="198" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -7197,43 +7209,43 @@
         <f>Inputs!C42</f>
         <v>0</v>
       </c>
-      <c r="D35" s="199" t="str">
+      <c r="D35" s="198" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E35" s="199" t="str">
+      <c r="E35" s="198" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F35" s="199" t="str">
+      <c r="F35" s="198" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G35" s="199" t="str">
+      <c r="G35" s="198" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="199" t="str">
+      <c r="H35" s="198" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="199" t="str">
+      <c r="I35" s="198" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="199" t="str">
+      <c r="J35" s="198" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="199" t="str">
+      <c r="K35" s="198" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="199" t="str">
+      <c r="L35" s="198" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="199" t="str">
+      <c r="M35" s="198" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -7248,43 +7260,43 @@
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="199" t="str">
+      <c r="D36" s="198" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E36" s="199" t="str">
+      <c r="E36" s="198" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="199" t="str">
+      <c r="F36" s="198" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="199" t="str">
+      <c r="G36" s="198" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="199" t="str">
+      <c r="H36" s="198" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="199" t="str">
+      <c r="I36" s="198" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="199" t="str">
+      <c r="J36" s="198" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="199" t="str">
+      <c r="K36" s="198" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="199" t="str">
+      <c r="L36" s="198" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="199" t="str">
+      <c r="M36" s="198" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -7346,47 +7358,47 @@
       <c r="B38" s="98" t="s">
         <v>149</v>
       </c>
-      <c r="C38" s="155" t="e">
+      <c r="C38" s="154" t="e">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D38" s="155" t="e">
+      <c r="D38" s="154" t="e">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="155" t="str">
+      <c r="E38" s="154" t="str">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v/>
       </c>
-      <c r="F38" s="155" t="str">
+      <c r="F38" s="154" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="155" t="str">
+      <c r="G38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="155" t="str">
+      <c r="H38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="155" t="str">
+      <c r="I38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="155" t="str">
+      <c r="J38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="155" t="str">
+      <c r="K38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="155" t="str">
+      <c r="L38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="155" t="str">
+      <c r="M38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -7395,7 +7407,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7415,47 +7427,47 @@
       <c r="B40" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="156">
+      <c r="C40" s="155">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.60531106380837341</v>
       </c>
-      <c r="D40" s="156">
+      <c r="D40" s="155">
         <f t="shared" si="34"/>
         <v>0.60671422644339779</v>
       </c>
-      <c r="E40" s="156" t="str">
+      <c r="E40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F40" s="156" t="str">
+      <c r="F40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G40" s="156" t="str">
+      <c r="G40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H40" s="156" t="str">
+      <c r="H40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -7464,49 +7476,49 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="94" t="s">
-        <v>220</v>
-      </c>
-      <c r="C41" s="153">
+        <v>219</v>
+      </c>
+      <c r="C41" s="152">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.31327931266495485</v>
       </c>
-      <c r="D41" s="153">
+      <c r="D41" s="152">
         <f t="shared" si="35"/>
         <v>0.3036976917842476</v>
       </c>
-      <c r="E41" s="153" t="str">
+      <c r="E41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F41" s="153" t="str">
+      <c r="F41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G41" s="153" t="str">
+      <c r="G41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H41" s="153" t="str">
+      <c r="H41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I41" s="153" t="str">
+      <c r="I41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="153" t="str">
+      <c r="J41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="153" t="str">
+      <c r="K41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="153" t="str">
+      <c r="L41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="153" t="str">
+      <c r="M41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -7517,47 +7529,47 @@
       <c r="B42" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="C42" s="153">
+      <c r="C42" s="152">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="153">
+      <c r="D42" s="152">
         <f t="shared" si="36"/>
         <v>3.326895739576459E-2</v>
       </c>
-      <c r="E42" s="153" t="str">
+      <c r="E42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F42" s="153" t="str">
+      <c r="F42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G42" s="153" t="str">
+      <c r="G42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H42" s="153" t="str">
+      <c r="H42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I42" s="153" t="str">
+      <c r="I42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="153" t="str">
+      <c r="J42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="153" t="str">
+      <c r="K42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="153" t="str">
+      <c r="L42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="153" t="str">
+      <c r="M42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -7568,47 +7580,47 @@
       <c r="B43" s="94" t="s">
         <v>117</v>
       </c>
-      <c r="C43" s="153">
+      <c r="C43" s="152">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>9.0344684898005026E-3</v>
       </c>
-      <c r="D43" s="153">
+      <c r="D43" s="152">
         <f t="shared" si="37"/>
         <v>5.2714982295422553E-3</v>
       </c>
-      <c r="E43" s="153" t="str">
+      <c r="E43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F43" s="153" t="str">
+      <c r="F43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G43" s="153" t="str">
+      <c r="G43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H43" s="153" t="str">
+      <c r="H43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I43" s="153" t="str">
+      <c r="I43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="153" t="str">
+      <c r="J43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="153" t="str">
+      <c r="K43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="153" t="str">
+      <c r="L43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="153" t="str">
+      <c r="M43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -7619,47 +7631,47 @@
       <c r="B44" s="94" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="153">
+      <c r="C44" s="152">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D44" s="153">
+      <c r="D44" s="152">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="E44" s="153" t="str">
+      <c r="E44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F44" s="153" t="str">
+      <c r="F44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G44" s="153" t="str">
+      <c r="G44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H44" s="153" t="str">
+      <c r="H44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I44" s="153" t="str">
+      <c r="I44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="153" t="str">
+      <c r="J44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="153" t="str">
+      <c r="K44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="153" t="str">
+      <c r="L44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="153" t="str">
+      <c r="M44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -7668,49 +7680,49 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>222</v>
-      </c>
-      <c r="C45" s="153">
+        <v>221</v>
+      </c>
+      <c r="C45" s="152">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>9.5756364731927404E-3</v>
       </c>
-      <c r="D45" s="153">
+      <c r="D45" s="152">
         <f t="shared" si="39"/>
         <v>4.369576178876026E-3</v>
       </c>
-      <c r="E45" s="153" t="str">
+      <c r="E45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F45" s="153" t="str">
+      <c r="F45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G45" s="153" t="str">
+      <c r="G45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H45" s="153" t="str">
+      <c r="H45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -7721,47 +7733,47 @@
       <c r="B46" s="94" t="s">
         <v>119</v>
       </c>
-      <c r="C46" s="153">
+      <c r="C46" s="152">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>6.2799518563678561E-2</v>
       </c>
-      <c r="D46" s="153">
+      <c r="D46" s="152">
         <f t="shared" si="40"/>
         <v>4.6678049968171674E-2</v>
       </c>
-      <c r="E46" s="153" t="str">
+      <c r="E46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F46" s="153" t="str">
+      <c r="F46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G46" s="153" t="str">
+      <c r="G46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H46" s="153" t="str">
+      <c r="H46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I46" s="153" t="str">
+      <c r="I46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="153" t="str">
+      <c r="J46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="153" t="str">
+      <c r="K46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="153" t="str">
+      <c r="L46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="153" t="str">
+      <c r="M46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -7770,9 +7782,11 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="102" t="s">
-        <v>248</v>
-      </c>
-      <c r="C47" s="36"/>
+        <v>247</v>
+      </c>
+      <c r="C47" s="280" t="s">
+        <v>265</v>
+      </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
       <c r="F47" s="36"/>
@@ -7787,50 +7801,50 @@
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="271" t="s">
-        <v>254</v>
-      </c>
-      <c r="C48" s="272" t="e">
+      <c r="B48" s="268" t="s">
+        <v>253</v>
+      </c>
+      <c r="C48" s="269" t="e">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D48" s="272" t="e">
+      <c r="D48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E48" s="272" t="str">
+      <c r="E48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F48" s="272" t="str">
+      <c r="F48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G48" s="272" t="str">
+      <c r="G48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H48" s="272" t="str">
+      <c r="H48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I48" s="272" t="str">
+      <c r="I48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="272" t="str">
+      <c r="J48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="272" t="str">
+      <c r="K48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="272" t="str">
+      <c r="L48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="272" t="str">
+      <c r="M48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -7839,49 +7853,49 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="94" t="s">
-        <v>255</v>
-      </c>
-      <c r="C49" s="153">
+        <v>254</v>
+      </c>
+      <c r="C49" s="152">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="153" t="str">
+      <c r="D49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E49" s="153" t="str">
+      <c r="E49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="153" t="str">
+      <c r="F49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="153" t="str">
+      <c r="G49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="153" t="str">
+      <c r="H49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="153" t="str">
+      <c r="I49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="153" t="str">
+      <c r="J49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="153" t="str">
+      <c r="K49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="153" t="str">
+      <c r="L49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="153" t="str">
+      <c r="M49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -7890,49 +7904,49 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="94" t="s">
-        <v>256</v>
-      </c>
-      <c r="C50" s="153">
+        <v>255</v>
+      </c>
+      <c r="C50" s="152">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="153" t="str">
+      <c r="D50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="E50" s="153" t="str">
+      <c r="E50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="153" t="str">
+      <c r="F50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="153" t="str">
+      <c r="G50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="153" t="str">
+      <c r="H50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="153" t="str">
+      <c r="I50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="153" t="str">
+      <c r="J50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="153" t="str">
+      <c r="K50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="153" t="str">
+      <c r="L50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="153" t="str">
+      <c r="M50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -7941,49 +7955,49 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>246</v>
-      </c>
-      <c r="C51" s="153">
+        <v>245</v>
+      </c>
+      <c r="C51" s="152">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>-0.8432524806594428</v>
       </c>
-      <c r="D51" s="153" t="str">
+      <c r="D51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E51" s="153" t="str">
+      <c r="E51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F51" s="153" t="str">
+      <c r="F51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G51" s="153" t="str">
+      <c r="G51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H51" s="153" t="str">
+      <c r="H51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="153" t="str">
+      <c r="I51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="153" t="str">
+      <c r="J51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="153" t="str">
+      <c r="K51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="153" t="str">
+      <c r="L51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="153" t="str">
+      <c r="M51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -7992,7 +8006,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8009,49 +8023,49 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
-        <v>250</v>
-      </c>
-      <c r="C53" s="156" t="e">
+        <v>249</v>
+      </c>
+      <c r="C53" s="155" t="e">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="156" t="str">
+      <c r="D53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E53" s="156" t="str">
+      <c r="E53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F53" s="156" t="str">
+      <c r="F53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G53" s="156" t="str">
+      <c r="G53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="156" t="str">
+      <c r="H53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="156" t="str">
+      <c r="I53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="156" t="str">
+      <c r="J53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="156" t="str">
+      <c r="K53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="156" t="str">
+      <c r="L53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="156" t="str">
+      <c r="M53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8061,47 +8075,47 @@
       <c r="B54" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="C54" s="157" t="str">
+      <c r="C54" s="156" t="str">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>-</v>
       </c>
-      <c r="D54" s="157" t="str">
+      <c r="D54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E54" s="157" t="str">
+      <c r="E54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F54" s="157" t="str">
+      <c r="F54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G54" s="157" t="str">
+      <c r="G54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -8111,47 +8125,47 @@
       <c r="B55" s="94" t="s">
         <v>118</v>
       </c>
-      <c r="C55" s="153">
+      <c r="C55" s="152">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>0.1438620660863757</v>
       </c>
-      <c r="D55" s="153">
+      <c r="D55" s="152">
         <f t="shared" si="47"/>
         <v>0.11293312880758147</v>
       </c>
-      <c r="E55" s="153" t="str">
+      <c r="E55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="F55" s="153" t="str">
+      <c r="F55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="G55" s="153" t="str">
+      <c r="G55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="H55" s="153" t="str">
+      <c r="H55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
@@ -8161,47 +8175,47 @@
       <c r="B56" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="158" t="e">
+      <c r="C56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/C30)</f>
         <v>#REF!</v>
       </c>
-      <c r="D56" s="158" t="e">
+      <c r="D56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/D30)</f>
         <v>#REF!</v>
       </c>
-      <c r="E56" s="158" t="e">
+      <c r="E56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/E30)</f>
         <v>#REF!</v>
       </c>
-      <c r="F56" s="158" t="e">
+      <c r="F56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G56" s="158" t="e">
+      <c r="G56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/G30)</f>
         <v>#REF!</v>
       </c>
-      <c r="H56" s="158" t="e">
+      <c r="H56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/H30)</f>
         <v>#REF!</v>
       </c>
-      <c r="I56" s="158" t="e">
+      <c r="I56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/I30)</f>
         <v>#REF!</v>
       </c>
-      <c r="J56" s="158" t="e">
+      <c r="J56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/J30)</f>
         <v>#REF!</v>
       </c>
-      <c r="K56" s="158" t="e">
+      <c r="K56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/K30)</f>
         <v>#REF!</v>
       </c>
-      <c r="L56" s="158" t="e">
+      <c r="L56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/L30)</f>
         <v>#REF!</v>
       </c>
-      <c r="M56" s="158" t="e">
+      <c r="M56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/M30)</f>
         <v>#REF!</v>
       </c>
@@ -8209,149 +8223,149 @@
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
       <c r="B57" s="102" t="s">
-        <v>251</v>
-      </c>
-      <c r="C57" s="273" t="str">
+        <v>250</v>
+      </c>
+      <c r="C57" s="270" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="273" t="str">
+      <c r="D57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="273" t="str">
+      <c r="E57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="273" t="str">
+      <c r="F57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="273" t="str">
+      <c r="G57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="273" t="str">
+      <c r="H57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="273" t="str">
+      <c r="I57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="273" t="str">
+      <c r="J57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="273" t="str">
+      <c r="K57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="273" t="str">
+      <c r="L57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="273" t="str">
+      <c r="M57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="271" t="s">
-        <v>252</v>
-      </c>
-      <c r="C58" s="274" t="e">
+      <c r="B58" s="268" t="s">
+        <v>251</v>
+      </c>
+      <c r="C58" s="271" t="e">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D58" s="274" t="e">
+      <c r="D58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E58" s="274" t="str">
+      <c r="E58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="F58" s="274" t="str">
+      <c r="F58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="G58" s="274" t="str">
+      <c r="G58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="H58" s="274" t="str">
+      <c r="H58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="I58" s="274" t="str">
+      <c r="I58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="274" t="str">
+      <c r="J58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="274" t="str">
+      <c r="K58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="274" t="str">
+      <c r="L58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="274" t="str">
+      <c r="M58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="271" t="s">
-        <v>253</v>
-      </c>
-      <c r="C59" s="274" t="e">
+      <c r="B59" s="268" t="s">
+        <v>252</v>
+      </c>
+      <c r="C59" s="271" t="e">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D59" s="274" t="e">
+      <c r="D59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E59" s="274" t="str">
+      <c r="E59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="F59" s="274" t="str">
+      <c r="F59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="G59" s="274" t="str">
+      <c r="G59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="H59" s="274" t="str">
+      <c r="H59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="I59" s="274" t="str">
+      <c r="I59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="274" t="str">
+      <c r="J59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="274" t="str">
+      <c r="K59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="274" t="str">
+      <c r="L59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="274" t="str">
+      <c r="M59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9647,8 +9661,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9684,8 +9698,8 @@
         <v>21</v>
       </c>
       <c r="C3" s="87"/>
-      <c r="D3" s="116">
-        <f>C49-I49</f>
+      <c r="D3" s="204">
+        <f>Inputs!C41</f>
         <v>0</v>
       </c>
       <c r="E3" s="67" t="str">
@@ -9697,8 +9711,8 @@
       <c r="H3" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="204">
-        <f>Inputs!C83</f>
+      <c r="I3" s="282">
+        <f>D3-D4</f>
         <v>0</v>
       </c>
       <c r="K3" s="24"/>
@@ -9708,8 +9722,8 @@
         <v>23</v>
       </c>
       <c r="C4" s="87"/>
-      <c r="D4" s="65">
-        <f>D3-I3</f>
+      <c r="D4" s="198">
+        <f>Inputs!C42</f>
         <v>0</v>
       </c>
       <c r="E4" s="37"/>
@@ -9796,11 +9810,11 @@
         <v>28</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="203">
+      <c r="D9" s="202">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="119" t="str">
+      <c r="E9" s="118" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
@@ -9843,7 +9857,7 @@
         <f>Inputs!C48</f>
         <v>0</v>
       </c>
-      <c r="D11" s="198">
+      <c r="D11" s="197">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -9871,7 +9885,7 @@
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="197">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -9899,7 +9913,7 @@
         <f>Inputs!C50</f>
         <v>0</v>
       </c>
-      <c r="D13" s="198">
+      <c r="D13" s="197">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -9927,7 +9941,7 @@
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="198">
+      <c r="D14" s="197">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -9940,7 +9954,7 @@
       <c r="H14" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="205">
+      <c r="I14" s="203">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
@@ -9955,7 +9969,7 @@
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="198">
+      <c r="D15" s="197">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -9982,7 +9996,7 @@
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="198">
+      <c r="D16" s="197">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -10004,7 +10018,7 @@
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="197">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10026,7 +10040,7 @@
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="198">
+      <c r="D18" s="197">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10047,7 +10061,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="198">
+      <c r="D19" s="197">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10055,7 +10069,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="134" t="str">
+      <c r="F19" s="133" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10072,7 +10086,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="198">
+      <c r="D20" s="197">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10080,7 +10094,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="134" t="str">
+      <c r="F20" s="133" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10099,7 +10113,7 @@
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="198">
+      <c r="D21" s="197">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10120,7 +10134,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="198">
+      <c r="D22" s="197">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -10285,7 +10299,7 @@
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="206">
+      <c r="I28" s="204">
         <f>Inputs!C77</f>
         <v>0</v>
       </c>
@@ -10314,7 +10328,7 @@
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="198">
+      <c r="D30" s="197">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -10340,7 +10354,7 @@
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="198">
+      <c r="D31" s="197">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -10367,7 +10381,7 @@
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="198">
+      <c r="D32" s="197">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -10394,7 +10408,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="198">
+      <c r="D33" s="197">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -10410,7 +10424,7 @@
       <c r="H33" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="I33" s="205">
+      <c r="I33" s="203">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
@@ -10424,7 +10438,7 @@
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="198">
+      <c r="D34" s="197">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -10451,7 +10465,7 @@
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="198">
+      <c r="D35" s="197">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -10459,7 +10473,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F35" s="134" t="str">
+      <c r="F35" s="133" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10477,7 +10491,7 @@
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198">
+      <c r="D36" s="197">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -10485,7 +10499,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="134" t="str">
+      <c r="F36" s="133" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10504,7 +10518,7 @@
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="198">
+      <c r="D37" s="197">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -10512,7 +10526,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="134" t="str">
+      <c r="F37" s="133" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10531,7 +10545,7 @@
         <f>Inputs!C68</f>
         <v>0</v>
       </c>
-      <c r="D38" s="198">
+      <c r="D38" s="197">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -10552,7 +10566,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="198">
+      <c r="D39" s="197">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -10573,7 +10587,7 @@
         <f>Inputs!C70</f>
         <v>0</v>
       </c>
-      <c r="D40" s="198">
+      <c r="D40" s="197">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -10594,7 +10608,7 @@
         <f>Inputs!C71</f>
         <v>0</v>
       </c>
-      <c r="D41" s="198">
+      <c r="D41" s="197">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -10615,7 +10629,7 @@
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="198">
+      <c r="D42" s="197">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -10761,8 +10775,8 @@
       <c r="H48" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="I48" s="207">
-        <f>Inputs!C82</f>
+      <c r="I48" s="281">
+        <f>I49-I28</f>
         <v>0</v>
       </c>
       <c r="J48" s="8"/>
@@ -10788,8 +10802,8 @@
       <c r="H49" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="I49" s="52">
-        <f>I28+I48</f>
+      <c r="I49" s="40">
+        <f>Inputs!C37</f>
         <v>0</v>
       </c>
       <c r="J49" s="87"/>
@@ -10859,7 +10873,7 @@
         <v>142</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="125"/>
+      <c r="E55" s="124"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="I55" s="87"/>
@@ -10959,7 +10973,7 @@
       <c r="B62" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="C62" s="117">
+      <c r="C62" s="116">
         <f>C11+C30</f>
         <v>0</v>
       </c>
@@ -10967,7 +10981,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E62" s="118">
+      <c r="E62" s="117">
         <f>E11+E30</f>
         <v>0</v>
       </c>
@@ -10998,11 +11012,11 @@
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="121" t="s">
+      <c r="B64" s="120" t="s">
         <v>143</v>
       </c>
-      <c r="C64" s="208"/>
-      <c r="D64" s="208"/>
+      <c r="C64" s="205"/>
+      <c r="D64" s="205"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>0</v>
@@ -11079,12 +11093,12 @@
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="121" t="s">
+      <c r="B69" s="120" t="s">
         <v>144</v>
       </c>
-      <c r="C69" s="208"/>
-      <c r="D69" s="208"/>
-      <c r="E69" s="126">
+      <c r="C69" s="205"/>
+      <c r="D69" s="205"/>
+      <c r="E69" s="125">
         <f>I49-E64</f>
         <v>0</v>
       </c>
@@ -11163,17 +11177,17 @@
         <f>Data!C6</f>
         <v>13731411</v>
       </c>
-      <c r="D74" s="209"/>
-      <c r="E74" s="238">
+      <c r="D74" s="206"/>
+      <c r="E74" s="235">
         <f>Inputs!E91</f>
         <v>13731411</v>
       </c>
-      <c r="F74" s="209"/>
-      <c r="H74" s="238">
+      <c r="F74" s="206"/>
+      <c r="H74" s="235">
         <f>Inputs!F91</f>
         <v>13731411</v>
       </c>
-      <c r="I74" s="209"/>
+      <c r="I74" s="206"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11184,23 +11198,23 @@
         <f>Data!C8</f>
         <v>8311775</v>
       </c>
-      <c r="D75" s="159">
+      <c r="D75" s="158">
         <f>C75/$C$74</f>
         <v>0.60531106380837341</v>
       </c>
-      <c r="E75" s="238">
+      <c r="E75" s="235">
         <f>Inputs!E92</f>
         <v>8311775.0000000009</v>
       </c>
-      <c r="F75" s="160">
+      <c r="F75" s="159">
         <f>E75/E74</f>
         <v>0.60531106380837341</v>
       </c>
-      <c r="H75" s="238">
+      <c r="H75" s="235">
         <f>Inputs!F92</f>
         <v>8311775.0000000009</v>
       </c>
-      <c r="I75" s="160">
+      <c r="I75" s="159">
         <f>H75/$H$74</f>
         <v>0.60531106380837341</v>
       </c>
@@ -11210,48 +11224,48 @@
       <c r="B76" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="C76" s="161">
+      <c r="C76" s="160">
         <f>C74-C75</f>
         <v>5419636</v>
       </c>
-      <c r="D76" s="210"/>
-      <c r="E76" s="162">
+      <c r="D76" s="207"/>
+      <c r="E76" s="161">
         <f>E74-E75</f>
         <v>5419635.9999999991</v>
       </c>
-      <c r="F76" s="210"/>
-      <c r="H76" s="162">
+      <c r="F76" s="207"/>
+      <c r="H76" s="161">
         <f>H74-H75</f>
         <v>5419635.9999999991</v>
       </c>
-      <c r="I76" s="210"/>
+      <c r="I76" s="207"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>4301767</v>
       </c>
-      <c r="D77" s="159">
+      <c r="D77" s="158">
         <f>C77/$C$74</f>
         <v>0.31327931266495485</v>
       </c>
-      <c r="E77" s="238">
+      <c r="E77" s="235">
         <f>Inputs!E93</f>
         <v>4301767</v>
       </c>
-      <c r="F77" s="160">
+      <c r="F77" s="159">
         <f>E77/E74</f>
         <v>0.31327931266495485</v>
       </c>
-      <c r="H77" s="238">
+      <c r="H77" s="235">
         <f>Inputs!F93</f>
         <v>4301767</v>
       </c>
-      <c r="I77" s="160">
+      <c r="I77" s="159">
         <f>H77/$H$74</f>
         <v>0.31327931266495485</v>
       </c>
@@ -11265,54 +11279,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="159">
+      <c r="D78" s="158">
         <f>C78/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E78" s="180">
+      <c r="E78" s="179">
         <f>E74*F78</f>
         <v>0</v>
       </c>
-      <c r="F78" s="160">
+      <c r="F78" s="159">
         <f>I78</f>
         <v>0</v>
       </c>
-      <c r="H78" s="238">
+      <c r="H78" s="235">
         <f>Inputs!F97</f>
         <v>0</v>
       </c>
-      <c r="I78" s="160">
+      <c r="I78" s="159">
         <f>H78/$H$74</f>
         <v>0</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="256" t="s">
-        <v>218</v>
-      </c>
-      <c r="C79" s="257">
+      <c r="B79" s="253" t="s">
+        <v>217</v>
+      </c>
+      <c r="C79" s="254">
         <f>C76-C77-C78</f>
         <v>1117869</v>
       </c>
-      <c r="D79" s="258">
+      <c r="D79" s="255">
         <f>C79/C74</f>
         <v>8.1409623526671804E-2</v>
       </c>
-      <c r="E79" s="259">
+      <c r="E79" s="256">
         <f>E76-E77-E78</f>
         <v>1117868.9999999991</v>
       </c>
-      <c r="F79" s="258">
+      <c r="F79" s="255">
         <f>E79/E74</f>
         <v>8.1409623526671734E-2</v>
       </c>
-      <c r="G79" s="260"/>
-      <c r="H79" s="259">
+      <c r="G79" s="257"/>
+      <c r="H79" s="256">
         <f>H76-H77-H78</f>
         <v>1117868.9999999991</v>
       </c>
-      <c r="I79" s="258">
+      <c r="I79" s="255">
         <f>H79/H74</f>
         <v>8.1409623526671734E-2</v>
       </c>
@@ -11326,55 +11340,55 @@
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="159">
+      <c r="D80" s="158">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="180">
+      <c r="E80" s="179">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="160">
+      <c r="F80" s="159">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="238">
+      <c r="H80" s="235">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="160">
+      <c r="I80" s="159">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="181" t="s">
+      <c r="K80" s="180" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>124056</v>
       </c>
-      <c r="D81" s="159">
+      <c r="D81" s="158">
         <f>C81/$C$74</f>
         <v>9.0344684898005026E-3</v>
       </c>
-      <c r="E81" s="180">
+      <c r="E81" s="179">
         <f>E74*F81</f>
         <v>124056.00000000001</v>
       </c>
-      <c r="F81" s="160">
+      <c r="F81" s="159">
         <f>I81</f>
         <v>9.0344684898005026E-3</v>
       </c>
-      <c r="H81" s="238">
+      <c r="H81" s="235">
         <f>Inputs!F94</f>
         <v>124056.00000000001</v>
       </c>
-      <c r="I81" s="160">
+      <c r="I81" s="159">
         <f>H81/$H$74</f>
         <v>9.0344684898005026E-3</v>
       </c>
@@ -11382,29 +11396,29 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>131487</v>
       </c>
-      <c r="D82" s="159">
+      <c r="D82" s="158">
         <f>C82/$C$74</f>
         <v>9.5756364731927404E-3</v>
       </c>
-      <c r="E82" s="238">
+      <c r="E82" s="235">
         <f>Inputs!E95</f>
         <v>131487</v>
       </c>
-      <c r="F82" s="160">
+      <c r="F82" s="159">
         <f>E82/E74</f>
         <v>9.5756364731927404E-3</v>
       </c>
-      <c r="H82" s="238">
+      <c r="H82" s="235">
         <f>Inputs!F95</f>
         <v>131487</v>
       </c>
-      <c r="I82" s="160">
+      <c r="I82" s="159">
         <f>H82/$H$74</f>
         <v>9.5756364731927404E-3</v>
       </c>
@@ -11414,27 +11428,27 @@
       <c r="B83" s="105" t="s">
         <v>120</v>
       </c>
-      <c r="C83" s="163">
+      <c r="C83" s="162">
         <f>C79-C81-C82-C80</f>
         <v>862326</v>
       </c>
-      <c r="D83" s="164">
+      <c r="D83" s="163">
         <f>C83/$C$74</f>
         <v>6.2799518563678561E-2</v>
       </c>
-      <c r="E83" s="165">
+      <c r="E83" s="164">
         <f>E79-E81-E82-E80</f>
         <v>862325.99999999907</v>
       </c>
-      <c r="F83" s="164">
+      <c r="F83" s="163">
         <f>E83/E74</f>
         <v>6.2799518563678491E-2</v>
       </c>
-      <c r="H83" s="165">
+      <c r="H83" s="164">
         <f>H79-H81-H82-H80</f>
         <v>862325.99999999907</v>
       </c>
-      <c r="I83" s="164">
+      <c r="I83" s="163">
         <f>H83/$H$74</f>
         <v>6.2799518563678491E-2</v>
       </c>
@@ -11444,49 +11458,49 @@
       <c r="B84" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="C84" s="211"/>
-      <c r="D84" s="159">
+      <c r="C84" s="208"/>
+      <c r="D84" s="158">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="212"/>
-      <c r="F84" s="179">
+      <c r="E84" s="209"/>
+      <c r="F84" s="178">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="212"/>
-      <c r="I84" s="202">
+      <c r="H84" s="209"/>
+      <c r="I84" s="201">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="263" t="s">
+      <c r="B85" s="260" t="s">
         <v>156</v>
       </c>
-      <c r="C85" s="257">
+      <c r="C85" s="254">
         <f>C83*(1-I84)</f>
         <v>646744.5</v>
       </c>
-      <c r="D85" s="258">
+      <c r="D85" s="255">
         <f>C85/$C$74</f>
         <v>4.7099638922758924E-2</v>
       </c>
-      <c r="E85" s="264">
+      <c r="E85" s="261">
         <f>E83*(1-F84)</f>
         <v>646744.4999999993</v>
       </c>
-      <c r="F85" s="258">
+      <c r="F85" s="255">
         <f>E85/E74</f>
         <v>4.7099638922758869E-2</v>
       </c>
-      <c r="G85" s="260"/>
-      <c r="H85" s="264">
+      <c r="G85" s="257"/>
+      <c r="H85" s="261">
         <f>H83*(1-I84)</f>
         <v>646744.4999999993</v>
       </c>
-      <c r="I85" s="258">
+      <c r="I85" s="255">
         <f>H85/$H$74</f>
         <v>4.7099638922758869E-2</v>
       </c>
@@ -11496,69 +11510,69 @@
       <c r="B86" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="C86" s="167">
+      <c r="C86" s="166">
         <f>C85*Data!C4/Common_Shares</f>
         <v>1.1015769930516173</v>
       </c>
-      <c r="D86" s="209"/>
-      <c r="E86" s="168">
+      <c r="D86" s="206"/>
+      <c r="E86" s="167">
         <f>E85*Data!C4/Common_Shares</f>
         <v>1.1015769930516162</v>
       </c>
-      <c r="F86" s="209"/>
-      <c r="H86" s="168">
+      <c r="F86" s="206"/>
+      <c r="H86" s="167">
         <f>H85*Data!C4/Common_Shares</f>
         <v>1.1015769930516162</v>
       </c>
-      <c r="I86" s="209"/>
+      <c r="I86" s="206"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>194</v>
       </c>
-      <c r="C87" s="261">
+      <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.0488801786156056E-2</v>
-      </c>
-      <c r="D87" s="209"/>
-      <c r="E87" s="262">
+        <v>8.2821509890871114E-2</v>
+      </c>
+      <c r="D87" s="206"/>
+      <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.0488801786155972E-2</v>
-      </c>
-      <c r="F87" s="209"/>
-      <c r="H87" s="262">
+        <v>8.2821509890871031E-2</v>
+      </c>
+      <c r="F87" s="206"/>
+      <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.0488801786155972E-2</v>
-      </c>
-      <c r="I87" s="209"/>
+        <v>8.2821509890871031E-2</v>
+      </c>
+      <c r="I87" s="206"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C88" s="169">
+      <c r="C88" s="168">
         <f>Inputs!C44</f>
         <v>0.24840000000000001</v>
       </c>
-      <c r="D88" s="166">
+      <c r="D88" s="165">
         <f>C88/C86</f>
         <v>0.22549490554616239</v>
       </c>
-      <c r="E88" s="170">
+      <c r="E88" s="169">
         <f>Inputs!E98</f>
         <v>0.24840000000000001</v>
       </c>
-      <c r="F88" s="166">
+      <c r="F88" s="165">
         <f>E88/E86</f>
         <v>0.22549490554616261</v>
       </c>
-      <c r="H88" s="170">
+      <c r="H88" s="169">
         <f>Inputs!F98</f>
         <v>0.24840000000000001</v>
       </c>
-      <c r="I88" s="166">
+      <c r="I88" s="165">
         <f>H88/H86</f>
         <v>0.22549490554616261</v>
       </c>
@@ -11566,23 +11580,23 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>207</v>
-      </c>
-      <c r="C89" s="261">
+        <v>206</v>
+      </c>
+      <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.8149814756293046E-2</v>
-      </c>
-      <c r="D89" s="209"/>
-      <c r="E89" s="261">
+        <v>1.8675828550032535E-2</v>
+      </c>
+      <c r="D89" s="206"/>
+      <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.8149814756293046E-2</v>
-      </c>
-      <c r="F89" s="209"/>
-      <c r="H89" s="261">
+        <v>1.8675828550032535E-2</v>
+      </c>
+      <c r="F89" s="206"/>
+      <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.8149814756293046E-2</v>
-      </c>
-      <c r="I89" s="209"/>
+        <v>1.8675828550032535E-2</v>
+      </c>
+      <c r="I89" s="206"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11604,7 +11618,7 @@
       <c r="B92" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C92" s="198" t="str">
+      <c r="C92" s="197" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
@@ -11627,27 +11641,27 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>HK Discount Rate</v>
       </c>
-      <c r="C93" s="136">
+      <c r="C93" s="135">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.0625000000000002E-2</v>
       </c>
-      <c r="D93" s="239">
+      <c r="D93" s="236">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="F93" s="144">
+      <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>208.03034513133321</v>
+        <v>210.2791933530786</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="I93" s="144">
+      <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>208.03034513133321</v>
+        <v>210.2791933530786</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11655,27 +11669,27 @@
       <c r="B94" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C94" s="182">
+      <c r="C94" s="181">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="270">
+      <c r="D94" s="267">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="F94" s="144">
+      <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>34.851422264553932</v>
+        <v>34.94046428243643</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="I94" s="144">
+      <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>34.851422264553932</v>
+        <v>34.94046428243643</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11689,25 +11703,25 @@
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="127" t="str">
+      <c r="C96" s="126" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="124" t="s">
+      <c r="D96" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E96" s="183" t="str">
+      <c r="E96" s="182" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H96" s="183" t="str">
+      <c r="F96" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H96" s="182" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="124" t="s">
+      <c r="I96" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K96" s="24"/>
@@ -11718,21 +11732,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>60723301.372752838</v>
-      </c>
-      <c r="D97" s="213"/>
-      <c r="E97" s="123">
+        <v>61379731.992162779</v>
+      </c>
+      <c r="D97" s="210"/>
+      <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>103.42784783537273</v>
-      </c>
-      <c r="F97" s="213"/>
-      <c r="H97" s="123">
+        <v>104.54592285244148</v>
+      </c>
+      <c r="F97" s="210"/>
+      <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>103.42784783537273</v>
-      </c>
-      <c r="I97" s="123">
+        <v>104.54592285244148</v>
+      </c>
+      <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>141.17299762737369</v>
+        <v>142.6991050059504</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11744,14 +11758,14 @@
         <f>-E53*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D98" s="213"/>
-      <c r="E98" s="213"/>
-      <c r="F98" s="213"/>
-      <c r="H98" s="123">
+      <c r="D98" s="210"/>
+      <c r="E98" s="210"/>
+      <c r="F98" s="210"/>
+      <c r="H98" s="122">
         <f>C98*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I98" s="215"/>
+      <c r="I98" s="212"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -11762,17 +11776,17 @@
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="214"/>
-      <c r="E99" s="145">
+      <c r="D99" s="211"/>
+      <c r="E99" s="144">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="214"/>
-      <c r="H99" s="145">
+      <c r="F99" s="211"/>
+      <c r="H99" s="144">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="216"/>
+      <c r="I99" s="213"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -11781,27 +11795,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>60723301.372752838</v>
+        <v>61379731.992162779</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>87.913670660066813</v>
+        <v>88.864034424575252</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>103.42784783537273</v>
+        <v>104.54592285244148</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>103.42784783537273</v>
+        <v>104.54592285244148</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>103.42784783537273</v>
+        <v>104.54592285244148</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>141.17299762737369</v>
+        <v>142.6991050059504</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11813,25 +11827,25 @@
       <c r="B102" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C102" s="127" t="str">
+      <c r="C102" s="126" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="124" t="s">
+      <c r="D102" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E102" s="183" t="str">
+      <c r="E102" s="182" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H102" s="183" t="str">
+      <c r="F102" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H102" s="182" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="124" t="s">
+      <c r="I102" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K102" s="24"/>
@@ -11842,27 +11856,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>10173003.443817409</v>
+        <v>10198994.485092197</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>14.728218890694098</v>
-      </c>
-      <c r="E103" s="123">
+        <v>14.765848067486012</v>
+      </c>
+      <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>17.327316341993058</v>
+        <v>17.371585961748249</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>17.327316341993058</v>
-      </c>
-      <c r="H103" s="123">
+        <v>17.371585961748249</v>
+      </c>
+      <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>17.327316341993058</v>
+        <v>17.371585961748249</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>23.650779166656374</v>
+        <v>23.711204623198913</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11874,25 +11888,25 @@
       <c r="B105" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C105" s="127" t="str">
+      <c r="C105" s="126" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="124" t="s">
+      <c r="D105" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E105" s="184" t="str">
+      <c r="E105" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H105" s="184" t="str">
+      <c r="F105" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H105" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="124" t="s">
+      <c r="I105" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K105" s="24"/>
@@ -11903,27 +11917,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>35448152.408285126</v>
+        <v>35789363.238627493</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>51.320944775380454</v>
-      </c>
-      <c r="E106" s="123">
+        <v>51.814941246030628</v>
+      </c>
+      <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>60.377582088682892</v>
+        <v>60.958754407094865</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>60.377582088682892</v>
-      </c>
-      <c r="H106" s="123">
+        <v>60.958754407094865</v>
+      </c>
+      <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>60.377582088682892</v>
-      </c>
-      <c r="I106" s="123">
+        <v>60.958754407094865</v>
+      </c>
+      <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>82.411888397015034</v>
+        <v>83.205154814574655</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -11934,14 +11948,13 @@
       <c r="B108" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C108" s="128" t="str">
+      <c r="C108" s="127" t="str">
         <f>Inputs!C87</f>
         <v>Profit</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/0669.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0669.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6BADF6B-1A04-4E66-8EAD-BE2DC3D23600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCCEB7C-637B-4291-84CF-32931E3F41CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -855,9 +855,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Profit</t>
-  </si>
-  <si>
     <t>Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -1006,6 +1003,9 @@
   <si>
     <t>HKD</t>
     <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Avg</t>
   </si>
 </sst>
 </file>
@@ -2812,8 +2812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91:F98"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -2834,7 +2834,7 @@
         <v>180</v>
       </c>
       <c r="C4" s="187" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2842,7 +2842,7 @@
         <v>181</v>
       </c>
       <c r="C5" s="190" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2866,7 +2866,7 @@
         <v>201</v>
       </c>
       <c r="C8" s="190" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E8" s="264"/>
     </row>
@@ -2875,7 +2875,7 @@
         <v>202</v>
       </c>
       <c r="C9" s="191" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2891,7 +2891,7 @@
         <v>204</v>
       </c>
       <c r="C11" s="191" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2920,7 +2920,7 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="215" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C15" s="175" t="s">
         <v>176</v>
@@ -2985,7 +2985,7 @@
         <v>215</v>
       </c>
       <c r="C22" s="240" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3048,8 +3048,12 @@
       <c r="D25" s="148">
         <v>13253917</v>
       </c>
-      <c r="E25" s="148"/>
-      <c r="F25" s="148"/>
+      <c r="E25" s="148">
+        <v>13203161</v>
+      </c>
+      <c r="F25" s="148">
+        <v>9811941</v>
+      </c>
       <c r="G25" s="148"/>
       <c r="H25" s="148"/>
       <c r="I25" s="148"/>
@@ -3068,8 +3072,12 @@
       <c r="D26" s="149">
         <v>8041340</v>
       </c>
-      <c r="E26" s="149"/>
-      <c r="F26" s="149"/>
+      <c r="E26" s="149">
+        <v>8081548</v>
+      </c>
+      <c r="F26" s="149">
+        <v>6058859</v>
+      </c>
       <c r="G26" s="149"/>
       <c r="H26" s="149"/>
       <c r="I26" s="149"/>
@@ -3122,7 +3130,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C29" s="149">
         <v>124056</v>
@@ -3227,7 +3235,7 @@
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B34" s="97" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C34" s="214"/>
       <c r="D34" s="149"/>
@@ -3275,14 +3283,24 @@
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C37" s="149">
-        <v>0</v>
-      </c>
-      <c r="D37" s="149"/>
-      <c r="E37" s="149"/>
-      <c r="F37" s="149"/>
+        <f>5143611+1725201</f>
+        <v>6868812</v>
+      </c>
+      <c r="D37" s="149">
+        <f>7093283+1887802</f>
+        <v>8981085</v>
+      </c>
+      <c r="E37" s="149">
+        <f>6328575+1606057</f>
+        <v>7934632</v>
+      </c>
+      <c r="F37" s="149">
+        <f>5308967+1406060</f>
+        <v>6715027</v>
+      </c>
       <c r="G37" s="149"/>
       <c r="H37" s="149"/>
       <c r="I37" s="149"/>
@@ -3293,7 +3311,7 @@
     </row>
     <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C38" s="214"/>
       <c r="D38" s="149"/>
@@ -3344,11 +3362,17 @@
         <v>132</v>
       </c>
       <c r="C41" s="149">
-        <v>0</v>
-      </c>
-      <c r="D41" s="149"/>
-      <c r="E41" s="149"/>
-      <c r="F41" s="149"/>
+        <v>6252844</v>
+      </c>
+      <c r="D41" s="149">
+        <v>5205481</v>
+      </c>
+      <c r="E41" s="149">
+        <v>4722518</v>
+      </c>
+      <c r="F41" s="149">
+        <v>3902907</v>
+      </c>
       <c r="G41" s="149"/>
       <c r="H41" s="149"/>
       <c r="I41" s="149"/>
@@ -3364,9 +3388,15 @@
       <c r="C42" s="149">
         <v>0</v>
       </c>
-      <c r="D42" s="149"/>
-      <c r="E42" s="149"/>
-      <c r="F42" s="149"/>
+      <c r="D42" s="149">
+        <v>0</v>
+      </c>
+      <c r="E42" s="149">
+        <v>0</v>
+      </c>
+      <c r="F42" s="149">
+        <v>-98</v>
+      </c>
       <c r="G42" s="149"/>
       <c r="H42" s="149"/>
       <c r="I42" s="149"/>
@@ -3415,15 +3445,15 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.8675828550032535E-2</v>
+        <v>1.8639606761195946E-2</v>
       </c>
       <c r="D45" s="151">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.7901428251862909E-2</v>
+        <v>1.7866708413207547E-2</v>
       </c>
       <c r="E45" s="151" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3540,7 +3570,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -3652,7 +3682,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -3806,13 +3836,13 @@
     </row>
     <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C82" s="214"/>
     </row>
     <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C83" s="214"/>
     </row>
@@ -3841,7 +3871,7 @@
         <v>231</v>
       </c>
       <c r="C87" s="233" t="s">
-        <v>234</v>
+        <v>273</v>
       </c>
       <c r="D87" s="266">
         <v>0.02</v>
@@ -3942,7 +3972,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4108,8 +4138,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4162,10 +4192,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="131">
-        <v>103.4</v>
+        <v>103.6</v>
       </c>
       <c r="H3" s="133" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4203,7 +4233,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>60706.951690000002</v>
+        <v>60824.37326</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4252,7 +4282,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="132">
-        <v>7.7740767796834307</v>
+        <v>7.7740066846211748</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4295,7 +4325,7 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C12" s="173">
         <v>7.4999999999999997E-2</v>
@@ -4345,7 +4375,7 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C17" s="174">
         <v>8.6249999999999993E-2</v>
@@ -4355,7 +4385,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="141" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C19" s="134" t="s">
         <v>48</v>
@@ -4370,11 +4400,11 @@
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="272" t="s">
-        <v>251</v>
-      </c>
-      <c r="C20" s="273" t="e">
+        <v>250</v>
+      </c>
+      <c r="C20" s="273">
         <f>C23*C22*(1/C21)</f>
-        <v>#DIV/0!</v>
+        <v>0.17877768900039728</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>197</v>
@@ -4385,22 +4415,22 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="274" t="s">
-        <v>249</v>
-      </c>
-      <c r="C21" s="275" t="e">
+        <v>248</v>
+      </c>
+      <c r="C21" s="275">
         <f>Data!C53</f>
-        <v>#DIV/0!</v>
+        <v>0.47652857230825135</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="276" t="s">
-        <v>264</v>
-      </c>
-      <c r="C22" s="277" t="e">
+        <v>263</v>
+      </c>
+      <c r="C22" s="277">
         <f>Data!C48</f>
-        <v>#DIV/0!</v>
+        <v>1.0464693633181665</v>
       </c>
       <c r="F22" s="141" t="s">
         <v>171</v>
@@ -4408,7 +4438,7 @@
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="278" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C23" s="279">
         <f>Data!C13</f>
@@ -4417,30 +4447,30 @@
       <c r="F23" s="139" t="s">
         <v>175</v>
       </c>
-      <c r="G23" s="176" t="e">
+      <c r="G23" s="176">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>#DIV/0!</v>
+        <v>1.2512818327488948</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="136" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C24" s="170">
         <f>Fin_Analysis!I81</f>
         <v>9.0344684898005026E-3</v>
       </c>
       <c r="F24" s="139" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.074158045628973</v>
+        <v>12.097621394867588</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="136" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C25" s="170">
         <f>Fin_Analysis!I80</f>
@@ -4456,7 +4486,7 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="137" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C26" s="170">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
@@ -4467,7 +4497,7 @@
       </c>
       <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.8675828550032535E-2</v>
+        <v>1.8639606761195946E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4487,7 +4517,7 @@
         <v>222</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H28" s="285"/>
     </row>
@@ -4497,20 +4527,20 @@
       </c>
       <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>88.864034424575252</v>
+        <v>51.780215041125601</v>
       </c>
       <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>164.10397075684295</v>
+        <v>95.621799639359892</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>104.54592285244148</v>
+        <v>60.917900048383054</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>142.6991050059504</v>
+        <v>83.149390990747733</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -5573,10 +5603,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5734,13 +5764,13 @@
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>13253917</v>
       </c>
-      <c r="E6" s="199" t="str">
+      <c r="E6" s="199">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
-        <v/>
-      </c>
-      <c r="F6" s="199" t="str">
+        <v>13203161</v>
+      </c>
+      <c r="F6" s="199">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
-        <v/>
+        <v>9811941</v>
       </c>
       <c r="G6" s="199" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
@@ -5781,13 +5811,13 @@
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
         <v>3.6026632730535413E-2</v>
       </c>
-      <c r="D7" s="92" t="str">
+      <c r="D7" s="92">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E7" s="92" t="str">
+        <v>3.844230938333526E-3</v>
+      </c>
+      <c r="E7" s="92">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0.34562172764797516</v>
       </c>
       <c r="F7" s="92" t="str">
         <f t="shared" si="1"/>
@@ -5836,13 +5866,13 @@
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>8041340</v>
       </c>
-      <c r="E8" s="198" t="str">
+      <c r="E8" s="198">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
-        <v/>
-      </c>
-      <c r="F8" s="198" t="str">
+        <v>8081548</v>
+      </c>
+      <c r="F8" s="198">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
-        <v/>
+        <v>6058859</v>
       </c>
       <c r="G8" s="198" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
@@ -5887,13 +5917,13 @@
         <f t="shared" si="2"/>
         <v>5212577</v>
       </c>
-      <c r="E9" s="150" t="str">
+      <c r="E9" s="150">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F9" s="150" t="str">
+        <v>5121613</v>
+      </c>
+      <c r="F9" s="150">
         <f t="shared" si="2"/>
-        <v/>
+        <v>3753082</v>
       </c>
       <c r="G9" s="150" t="str">
         <f t="shared" si="2"/>
@@ -6091,13 +6121,13 @@
         <f t="shared" si="3"/>
         <v>8.9588081772354541E-2</v>
       </c>
-      <c r="E13" s="226" t="str">
+      <c r="E13" s="226" t="e">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F13" s="226" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F13" s="226" t="e">
         <f t="shared" si="3"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="G13" s="226" t="str">
         <f t="shared" si="3"/>
@@ -6142,13 +6172,13 @@
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>1187393</v>
       </c>
-      <c r="E14" s="227" t="str">
+      <c r="E14" s="227" t="e">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F14" s="227" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F14" s="227" t="e">
         <f t="shared" si="4"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="G14" s="227" t="str">
         <f t="shared" si="4"/>
@@ -6189,13 +6219,13 @@
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>-5.8551802141329788E-2</v>
       </c>
-      <c r="D15" s="229" t="str">
+      <c r="D15" s="229" t="e">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
-        <v/>
-      </c>
-      <c r="E15" s="229" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E15" s="229" t="e">
         <f t="shared" si="5"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="F15" s="229" t="str">
         <f t="shared" si="5"/>
@@ -6285,7 +6315,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C17" s="198">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -6448,13 +6478,13 @@
         <f t="shared" si="7"/>
         <v>4.3064552162202313E-2</v>
       </c>
-      <c r="E20" s="151" t="str">
+      <c r="E20" s="151">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F20" s="151" t="str">
+        <v>0</v>
+      </c>
+      <c r="F20" s="151">
         <f t="shared" si="7"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="G20" s="151" t="str">
         <f t="shared" si="7"/>
@@ -6550,13 +6580,13 @@
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>618667</v>
       </c>
-      <c r="E22" s="160" t="str">
+      <c r="E22" s="160" t="e">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="F22" s="160" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F22" s="160" t="e">
         <f t="shared" si="8"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="G22" s="160" t="str">
         <f t="shared" si="8"/>
@@ -6601,13 +6631,13 @@
         <f t="shared" si="9"/>
         <v>3.5008537476128754E-2</v>
       </c>
-      <c r="E23" s="152" t="str">
+      <c r="E23" s="152" t="e">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="F23" s="152" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F23" s="152" t="e">
         <f t="shared" si="9"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="G23" s="152" t="str">
         <f t="shared" si="9"/>
@@ -6652,13 +6682,13 @@
         <f>IF(D6="","",D22*(1-Fin_Analysis!$I$84))</f>
         <v>464000.25</v>
       </c>
-      <c r="E24" s="77" t="str">
+      <c r="E24" s="77" t="e">
         <f>IF(E6="","",E22*(1-Fin_Analysis!$I$84))</f>
-        <v/>
-      </c>
-      <c r="F24" s="77" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F24" s="77" t="e">
         <f>IF(F6="","",F22*(1-Fin_Analysis!$I$84))</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="G24" s="77" t="str">
         <f>IF(G6="","",G22*(1-Fin_Analysis!$I$84))</f>
@@ -6699,13 +6729,13 @@
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>0.39384515417825744</v>
       </c>
-      <c r="D25" s="230" t="str">
+      <c r="D25" s="230" t="e">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
-        <v/>
-      </c>
-      <c r="E25" s="230" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E25" s="230" t="e">
         <f t="shared" si="10"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="F25" s="230" t="str">
         <f t="shared" si="10"/>
@@ -6799,19 +6829,19 @@
       </c>
       <c r="C27" s="65">
         <f>IF(C34="","",C34+C30)</f>
-        <v>0</v>
-      </c>
-      <c r="D27" s="65" t="str">
+        <v>13121656</v>
+      </c>
+      <c r="D27" s="65">
         <f>IF(D34="","",D34+D30)</f>
-        <v/>
-      </c>
-      <c r="E27" s="65" t="str">
+        <v>14186566</v>
+      </c>
+      <c r="E27" s="65">
         <f t="shared" ref="E27:M27" si="20">IF(E34="","",E34+E30)</f>
-        <v/>
-      </c>
-      <c r="F27" s="65" t="str">
+        <v>12657150</v>
+      </c>
+      <c r="F27" s="65">
         <f t="shared" si="20"/>
-        <v/>
+        <v>10617934</v>
       </c>
       <c r="G27" s="65" t="str">
         <f t="shared" si="20"/>
@@ -6948,23 +6978,23 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="198" t="str">
+        <v>6868812</v>
+      </c>
+      <c r="D30" s="198">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
-        <v/>
-      </c>
-      <c r="E30" s="198" t="str">
+        <v>8981085</v>
+      </c>
+      <c r="E30" s="198">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
-        <v/>
-      </c>
-      <c r="F30" s="198" t="str">
+        <v>7934632</v>
+      </c>
+      <c r="F30" s="198">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
-        <v/>
+        <v>6715027</v>
       </c>
       <c r="G30" s="198" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
@@ -7156,19 +7186,19 @@
       </c>
       <c r="C34" s="65">
         <f>Inputs!C41</f>
-        <v>0</v>
-      </c>
-      <c r="D34" s="198" t="str">
+        <v>6252844</v>
+      </c>
+      <c r="D34" s="198">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
-        <v/>
-      </c>
-      <c r="E34" s="198" t="str">
+        <v>5205481</v>
+      </c>
+      <c r="E34" s="198">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
-        <v/>
-      </c>
-      <c r="F34" s="198" t="str">
+        <v>4722518</v>
+      </c>
+      <c r="F34" s="198">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
-        <v/>
+        <v>3902907</v>
       </c>
       <c r="G34" s="198" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
@@ -7209,17 +7239,17 @@
         <f>Inputs!C42</f>
         <v>0</v>
       </c>
-      <c r="D35" s="198" t="str">
+      <c r="D35" s="198">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
-        <v/>
-      </c>
-      <c r="E35" s="198" t="str">
+        <v>0</v>
+      </c>
+      <c r="E35" s="198">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
-        <v/>
-      </c>
-      <c r="F35" s="198" t="str">
+        <v>0</v>
+      </c>
+      <c r="F35" s="198">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
-        <v/>
+        <v>-98</v>
       </c>
       <c r="G35" s="198" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
@@ -7366,9 +7396,9 @@
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="154" t="str">
+      <c r="E38" s="154" t="e">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="F38" s="154" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
@@ -7407,7 +7437,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7435,13 +7465,13 @@
         <f t="shared" si="34"/>
         <v>0.60671422644339779</v>
       </c>
-      <c r="E40" s="155" t="str">
+      <c r="E40" s="155">
         <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="F40" s="155" t="str">
+        <v>0.61209190738490582</v>
+      </c>
+      <c r="F40" s="155">
         <f t="shared" si="34"/>
-        <v/>
+        <v>0.61749851532943378</v>
       </c>
       <c r="G40" s="155" t="str">
         <f t="shared" si="34"/>
@@ -7486,13 +7516,13 @@
         <f t="shared" si="35"/>
         <v>0.3036976917842476</v>
       </c>
-      <c r="E41" s="152" t="str">
+      <c r="E41" s="152" t="e">
         <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="F41" s="152" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F41" s="152" t="e">
         <f t="shared" si="35"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="G41" s="152" t="str">
         <f t="shared" si="35"/>
@@ -7537,13 +7567,13 @@
         <f t="shared" si="36"/>
         <v>3.326895739576459E-2</v>
       </c>
-      <c r="E42" s="152" t="str">
+      <c r="E42" s="152">
         <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="F42" s="152" t="str">
+        <v>0</v>
+      </c>
+      <c r="F42" s="152">
         <f t="shared" si="36"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="G42" s="152" t="str">
         <f t="shared" si="36"/>
@@ -7588,13 +7618,13 @@
         <f t="shared" si="37"/>
         <v>5.2714982295422553E-3</v>
       </c>
-      <c r="E43" s="152" t="str">
+      <c r="E43" s="152">
         <f t="shared" si="37"/>
-        <v/>
-      </c>
-      <c r="F43" s="152" t="str">
+        <v>0</v>
+      </c>
+      <c r="F43" s="152">
         <f t="shared" si="37"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="G43" s="152" t="str">
         <f t="shared" si="37"/>
@@ -7639,13 +7669,13 @@
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="E44" s="152" t="str">
+      <c r="E44" s="152">
         <f t="shared" si="38"/>
-        <v/>
-      </c>
-      <c r="F44" s="152" t="str">
+        <v>0</v>
+      </c>
+      <c r="F44" s="152">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="G44" s="152" t="str">
         <f t="shared" si="38"/>
@@ -7690,13 +7720,13 @@
         <f t="shared" si="39"/>
         <v>4.369576178876026E-3</v>
       </c>
-      <c r="E45" s="152" t="str">
+      <c r="E45" s="152">
         <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="F45" s="152" t="str">
+        <v>0</v>
+      </c>
+      <c r="F45" s="152">
         <f t="shared" si="39"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="G45" s="152" t="str">
         <f t="shared" si="39"/>
@@ -7741,13 +7771,13 @@
         <f t="shared" si="40"/>
         <v>4.6678049968171674E-2</v>
       </c>
-      <c r="E46" s="152" t="str">
+      <c r="E46" s="152" t="e">
         <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="F46" s="152" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F46" s="152" t="e">
         <f t="shared" si="40"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="G46" s="152" t="str">
         <f t="shared" si="40"/>
@@ -7782,10 +7812,10 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="102" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C47" s="280" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
@@ -7802,23 +7832,23 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="268" t="s">
-        <v>253</v>
-      </c>
-      <c r="C48" s="269" t="e">
+        <v>252</v>
+      </c>
+      <c r="C48" s="269">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D48" s="269" t="e">
+        <v>1.0464693633181665</v>
+      </c>
+      <c r="D48" s="269">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E48" s="269" t="str">
+        <v>0.93425829760352153</v>
+      </c>
+      <c r="E48" s="269">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="F48" s="269" t="str">
+        <v>1.0431385422468724</v>
+      </c>
+      <c r="F48" s="269">
         <f t="shared" si="41"/>
-        <v/>
+        <v>0.92409135336497661</v>
       </c>
       <c r="G48" s="269" t="str">
         <f t="shared" si="41"/>
@@ -7853,7 +7883,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="94" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C49" s="152">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
@@ -7904,7 +7934,7 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="94" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C50" s="152">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
@@ -7955,19 +7985,19 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C51" s="152">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>-0.8432524806594428</v>
       </c>
-      <c r="D51" s="152" t="str">
+      <c r="D51" s="152">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="E51" s="152" t="str">
+        <v>8.6875246276302303</v>
+      </c>
+      <c r="E51" s="152" t="e">
         <f t="shared" si="44"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="F51" s="152" t="str">
         <f t="shared" si="44"/>
@@ -8006,7 +8036,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8023,23 +8053,23 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
-        <v>249</v>
-      </c>
-      <c r="C53" s="155" t="e">
+        <v>248</v>
+      </c>
+      <c r="C53" s="155">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D53" s="155" t="str">
+        <v>0.47652857230825135</v>
+      </c>
+      <c r="D53" s="155">
         <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="E53" s="155" t="str">
+        <v>0.3669303057554591</v>
+      </c>
+      <c r="E53" s="155">
         <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="F53" s="155" t="str">
+        <v>0.37311069237545574</v>
+      </c>
+      <c r="F53" s="155">
         <f t="shared" si="45"/>
-        <v/>
+        <v>0.36758610479213755</v>
       </c>
       <c r="G53" s="155" t="str">
         <f t="shared" si="45"/>
@@ -8083,13 +8113,13 @@
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E54" s="156" t="str">
+      <c r="E54" s="156" t="e">
         <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F54" s="156" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F54" s="156" t="e">
         <f t="shared" si="46"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="G54" s="156" t="str">
         <f t="shared" si="46"/>
@@ -8133,13 +8163,13 @@
         <f t="shared" si="47"/>
         <v>0.11293312880758147</v>
       </c>
-      <c r="E55" s="152" t="str">
+      <c r="E55" s="152" t="e">
         <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="F55" s="152" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F55" s="152" t="e">
         <f t="shared" si="47"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="G55" s="152" t="str">
         <f t="shared" si="47"/>
@@ -8223,7 +8253,7 @@
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
       <c r="B57" s="102" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C57" s="270" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
@@ -8273,23 +8303,23 @@
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
       <c r="B58" s="268" t="s">
-        <v>251</v>
-      </c>
-      <c r="C58" s="271" t="e">
+        <v>250</v>
+      </c>
+      <c r="C58" s="271">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D58" s="271" t="e">
+        <v>0.17877768900039726</v>
+      </c>
+      <c r="D58" s="271">
+        <f t="shared" si="49"/>
+        <v>0.22810437690580371</v>
+      </c>
+      <c r="E58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E58" s="271" t="str">
+      <c r="F58" s="271" t="e">
         <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="F58" s="271" t="str">
-        <f t="shared" si="49"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="G58" s="271" t="str">
         <f t="shared" si="49"/>
@@ -8323,23 +8353,23 @@
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
       <c r="B59" s="268" t="s">
-        <v>252</v>
-      </c>
-      <c r="C59" s="271" t="e">
+        <v>251</v>
+      </c>
+      <c r="C59" s="271">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D59" s="271" t="e">
+        <v>0.13790940570402843</v>
+      </c>
+      <c r="D59" s="271">
+        <f t="shared" si="50"/>
+        <v>0.11884915150012074</v>
+      </c>
+      <c r="E59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E59" s="271" t="str">
+      <c r="F59" s="271" t="e">
         <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="F59" s="271" t="str">
-        <f t="shared" si="50"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="G59" s="271" t="str">
         <f t="shared" si="50"/>
@@ -9661,8 +9691,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView showGridLines="0" topLeftCell="A74" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I103" sqref="I103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9700,11 +9730,11 @@
       <c r="C3" s="87"/>
       <c r="D3" s="204">
         <f>Inputs!C41</f>
-        <v>0</v>
+        <v>6252844</v>
       </c>
       <c r="E3" s="67" t="str">
         <f>IF((C49-I49)=D3,"", "Error!")</f>
-        <v/>
+        <v>Error!</v>
       </c>
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
@@ -9713,7 +9743,7 @@
       </c>
       <c r="I3" s="282">
         <f>D3-D4</f>
-        <v>0</v>
+        <v>6252844</v>
       </c>
       <c r="K3" s="24"/>
     </row>
@@ -9756,11 +9786,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="56" t="e">
+        <v>-6868812</v>
+      </c>
+      <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>#DIV/0!</v>
+        <v>2.0985100539850343</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10644,7 +10674,7 @@
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
-        <v>0</v>
+        <v>6868812</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -10745,13 +10775,13 @@
       <c r="H47" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I47" s="63" t="e">
+      <c r="I47" s="63">
         <f>(E44+E45+E24+E25)/$I$49</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J47" s="8" t="e">
+        <v>0</v>
+      </c>
+      <c r="J47" s="8" t="str">
         <f>IF(OR(I47&lt;0.5,C49&lt;I49),"Liquidity Issue!","")</f>
-        <v>#DIV/0!</v>
+        <v>Liquidity Issue!</v>
       </c>
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -10777,7 +10807,7 @@
       </c>
       <c r="I48" s="281">
         <f>I49-I28</f>
-        <v>0</v>
+        <v>6868812</v>
       </c>
       <c r="J48" s="8"/>
     </row>
@@ -10804,7 +10834,7 @@
       </c>
       <c r="I49" s="40">
         <f>Inputs!C37</f>
-        <v>0</v>
+        <v>6868812</v>
       </c>
       <c r="J49" s="87"/>
     </row>
@@ -11100,7 +11130,7 @@
       <c r="D69" s="205"/>
       <c r="E69" s="125">
         <f>I49-E64</f>
-        <v>0</v>
+        <v>6868812</v>
       </c>
       <c r="F69" s="87"/>
       <c r="G69" s="87"/>
@@ -11113,15 +11143,15 @@
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
-        <v>0</v>
+        <v>-6868812</v>
       </c>
       <c r="D70" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" s="68">
         <f>E68-E69</f>
-        <v>0</v>
+        <v>-6868812</v>
       </c>
       <c r="F70" s="87"/>
       <c r="G70" s="87"/>
@@ -11366,7 +11396,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11533,17 +11563,17 @@
       </c>
       <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2821509890871114E-2</v>
+        <v>8.266087748656531E-2</v>
       </c>
       <c r="D87" s="206"/>
       <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2821509890871031E-2</v>
+        <v>8.2660877486565226E-2</v>
       </c>
       <c r="F87" s="206"/>
       <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2821509890871031E-2</v>
+        <v>8.2660877486565226E-2</v>
       </c>
       <c r="I87" s="206"/>
       <c r="K87" s="24"/>
@@ -11584,17 +11614,17 @@
       </c>
       <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.8675828550032535E-2</v>
+        <v>1.8639606761195946E-2</v>
       </c>
       <c r="D89" s="206"/>
       <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.8675828550032535E-2</v>
+        <v>1.8639606761195946E-2</v>
       </c>
       <c r="F89" s="206"/>
       <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.8675828550032535E-2</v>
+        <v>1.8639606761195946E-2</v>
       </c>
       <c r="I89" s="206"/>
       <c r="K89" s="24"/>
@@ -11654,14 +11684,14 @@
       </c>
       <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>210.2791933530786</v>
+        <v>210.12137449643575</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>195</v>
       </c>
       <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>210.2791933530786</v>
+        <v>210.12137449643575</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11682,14 +11712,14 @@
       </c>
       <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>34.94046428243643</v>
+        <v>34.933937723007894</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>196</v>
       </c>
       <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>34.94046428243643</v>
+        <v>34.933937723007894</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11732,21 +11762,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>61379731.992162779</v>
+        <v>61333665.241717421</v>
       </c>
       <c r="D97" s="210"/>
       <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>104.54592285244148</v>
+        <v>104.46745898852727</v>
       </c>
       <c r="F97" s="210"/>
       <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>104.54592285244148</v>
+        <v>104.46745898852727</v>
       </c>
       <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>142.6991050059504</v>
+        <v>142.59200639463805</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11795,27 +11825,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>61379731.992162779</v>
+        <v>61333665.241717421</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>88.864034424575252</v>
+        <v>88.797340140248181</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>104.54592285244148</v>
+        <v>104.46745898852727</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>104.54592285244148</v>
+        <v>104.46745898852727</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>104.54592285244148</v>
+        <v>104.46745898852727</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>142.6991050059504</v>
+        <v>142.59200639463805</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11856,27 +11886,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>10198994.485092197</v>
+        <v>10197089.406124724</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>14.765848067486012</v>
+        <v>14.763089942003015</v>
       </c>
       <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>17.371585961748249</v>
+        <v>17.368341108238841</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>17.371585961748249</v>
+        <v>17.368341108238841</v>
       </c>
       <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>17.371585961748249</v>
+        <v>17.368341108238841</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>23.711204623198913</v>
+        <v>23.706775586857422</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11917,27 +11947,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>35789363.238627493</v>
+        <v>35765377.323921077</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>51.814941246030628</v>
+        <v>51.780215041125601</v>
       </c>
       <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>60.958754407094865</v>
+        <v>60.917900048383054</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>60.958754407094865</v>
+        <v>60.917900048383054</v>
       </c>
       <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>60.958754407094865</v>
+        <v>60.917900048383054</v>
       </c>
       <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>83.205154814574655</v>
+        <v>83.149390990747733</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -11950,7 +11980,7 @@
       </c>
       <c r="C108" s="127" t="str">
         <f>Inputs!C87</f>
-        <v>Profit</v>
+        <v>Avg</v>
       </c>
       <c r="K108" s="24"/>
     </row>

--- a/financial_models/opportunities/0669.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0669.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCCEB7C-637B-4291-84CF-32931E3F41CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1D5DCDE-D647-4128-B00B-1BD994E07B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="273">
   <si>
     <t>Company Info:</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Current Ratio</t>
-  </si>
-  <si>
     <t>Output</t>
   </si>
   <si>
@@ -847,10 +844,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Balance Sheet</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Years of Projection</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -962,10 +955,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>PlaceHolder_2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -986,6 +975,14 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
+    <t>Contingent Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contin. Liabilities / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
     <t>0669.HK</t>
   </si>
   <si>
@@ -1001,11 +998,11 @@
     <t>USD</t>
   </si>
   <si>
+    <t>Avg</t>
+  </si>
+  <si>
     <t>HKD</t>
     <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Avg</t>
   </si>
 </sst>
 </file>
@@ -1681,7 +1678,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="298">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1829,7 +1826,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2019,9 +2015,6 @@
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2357,6 +2350,7 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2812,8 +2806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -2826,172 +2820,172 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B4" s="139" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="185" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B5" s="139" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="188" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B6" s="139" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="186">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B7" s="138" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="187">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B8" s="138" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="140" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" s="187" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="140" t="s">
-        <v>181</v>
-      </c>
-      <c r="C5" s="190" t="s">
+      <c r="C8" s="188" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="140" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" s="188">
-        <v>45625</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="139" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="189">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="139" t="s">
+      <c r="E8" s="262"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B9" s="138" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="190" t="s">
+      <c r="C9" s="189" t="s">
         <v>269</v>
       </c>
-      <c r="E8" s="264"/>
-    </row>
-    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+    </row>
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B10" s="138" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="191" t="s">
+      <c r="C10" s="190">
+        <v>587107850</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B11" s="138" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="189" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="139" t="s">
-        <v>203</v>
-      </c>
-      <c r="C10" s="192">
-        <v>587107850</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="139" t="s">
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B12" s="213" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="214">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B13" s="213" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="215">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B14" s="213" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="191" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="215" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="216">
-        <v>45291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="215" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="217">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="215" t="s">
-        <v>205</v>
-      </c>
-      <c r="C14" s="216">
+      <c r="C14" s="214">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="215" t="s">
-        <v>237</v>
-      </c>
-      <c r="C15" s="175" t="s">
-        <v>176</v>
+      <c r="B15" s="213" t="s">
+        <v>235</v>
+      </c>
+      <c r="C15" s="173" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="219" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="220">
+      <c r="B16" s="217" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="218">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="237" t="s">
-        <v>209</v>
-      </c>
-      <c r="C17" s="239" t="s">
-        <v>228</v>
+      <c r="B17" s="235" t="s">
+        <v>208</v>
+      </c>
+      <c r="C17" s="237" t="s">
+        <v>227</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="237" t="s">
+      <c r="B18" s="235" t="s">
+        <v>222</v>
+      </c>
+      <c r="C18" s="237" t="s">
+        <v>227</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="235" t="s">
         <v>223</v>
       </c>
-      <c r="C18" s="239" t="s">
-        <v>228</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="237" t="s">
-        <v>224</v>
-      </c>
-      <c r="C19" s="239" t="s">
-        <v>228</v>
+      <c r="C19" s="237" t="s">
+        <v>227</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="238" t="s">
-        <v>213</v>
-      </c>
-      <c r="C20" s="239" t="s">
-        <v>228</v>
+      <c r="B20" s="236" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" s="237" t="s">
+        <v>227</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="221" t="s">
-        <v>216</v>
-      </c>
-      <c r="C21" s="239" t="s">
-        <v>228</v>
+      <c r="B21" s="219" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" s="237" t="s">
+        <v>227</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="223" t="s">
-        <v>215</v>
-      </c>
-      <c r="C22" s="240" t="s">
-        <v>240</v>
+      <c r="B22" s="221" t="s">
+        <v>214</v>
+      </c>
+      <c r="C22" s="238" t="s">
+        <v>238</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B24" s="115" t="s">
-        <v>128</v>
+      <c r="B24" s="114" t="s">
+        <v>127</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3039,858 +3033,859 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B25" s="94" t="s">
+      <c r="B25" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="148">
+      <c r="C25" s="147">
         <v>13731411</v>
       </c>
-      <c r="D25" s="148">
+      <c r="D25" s="147">
         <v>13253917</v>
       </c>
-      <c r="E25" s="148">
+      <c r="E25" s="147">
         <v>13203161</v>
       </c>
-      <c r="F25" s="148">
+      <c r="F25" s="147">
         <v>9811941</v>
       </c>
-      <c r="G25" s="148"/>
-      <c r="H25" s="148"/>
-      <c r="I25" s="148"/>
-      <c r="J25" s="148"/>
-      <c r="K25" s="148"/>
-      <c r="L25" s="148"/>
-      <c r="M25" s="148"/>
+      <c r="G25" s="147"/>
+      <c r="H25" s="147"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="147"/>
+      <c r="K25" s="147"/>
+      <c r="L25" s="147"/>
+      <c r="M25" s="147"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B26" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" s="149">
+      <c r="B26" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="148">
         <v>8311775</v>
       </c>
-      <c r="D26" s="149">
+      <c r="D26" s="148">
         <v>8041340</v>
       </c>
-      <c r="E26" s="149">
+      <c r="E26" s="148">
         <v>8081548</v>
       </c>
-      <c r="F26" s="149">
+      <c r="F26" s="148">
         <v>6058859</v>
       </c>
-      <c r="G26" s="149"/>
-      <c r="H26" s="149"/>
-      <c r="I26" s="149"/>
-      <c r="J26" s="149"/>
-      <c r="K26" s="149"/>
-      <c r="L26" s="149"/>
-      <c r="M26" s="149"/>
+      <c r="G26" s="148"/>
+      <c r="H26" s="148"/>
+      <c r="I26" s="148"/>
+      <c r="J26" s="148"/>
+      <c r="K26" s="148"/>
+      <c r="L26" s="148"/>
+      <c r="M26" s="148"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B27" s="97" t="s">
-        <v>100</v>
-      </c>
-      <c r="C27" s="149">
+      <c r="B27" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="148">
         <f>2347219+1406210</f>
         <v>3753429</v>
       </c>
-      <c r="D27" s="149">
+      <c r="D27" s="148">
         <f>2191001+1349840</f>
         <v>3540841</v>
       </c>
-      <c r="E27" s="149"/>
-      <c r="F27" s="149"/>
-      <c r="G27" s="149"/>
-      <c r="H27" s="149"/>
-      <c r="I27" s="149"/>
-      <c r="J27" s="149"/>
-      <c r="K27" s="149"/>
-      <c r="L27" s="149"/>
-      <c r="M27" s="149"/>
+      <c r="E27" s="148"/>
+      <c r="F27" s="148"/>
+      <c r="G27" s="148"/>
+      <c r="H27" s="148"/>
+      <c r="I27" s="148"/>
+      <c r="J27" s="148"/>
+      <c r="K27" s="148"/>
+      <c r="L27" s="148"/>
+      <c r="M27" s="148"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B28" s="97" t="s">
-        <v>103</v>
-      </c>
-      <c r="C28" s="149">
+      <c r="B28" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="148">
         <v>548338</v>
       </c>
-      <c r="D28" s="149">
+      <c r="D28" s="148">
         <v>484343</v>
       </c>
-      <c r="E28" s="149"/>
-      <c r="F28" s="149"/>
-      <c r="G28" s="149"/>
-      <c r="H28" s="149"/>
-      <c r="I28" s="149"/>
-      <c r="J28" s="149"/>
-      <c r="K28" s="149"/>
-      <c r="L28" s="149"/>
-      <c r="M28" s="149"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="148"/>
+      <c r="L28" s="148"/>
+      <c r="M28" s="148"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B29" s="97" t="s">
-        <v>238</v>
-      </c>
-      <c r="C29" s="149">
+      <c r="B29" s="96" t="s">
+        <v>236</v>
+      </c>
+      <c r="C29" s="148">
         <v>124056</v>
       </c>
-      <c r="D29" s="149">
+      <c r="D29" s="148">
         <v>69868</v>
       </c>
-      <c r="E29" s="149"/>
-      <c r="F29" s="149"/>
-      <c r="G29" s="149"/>
-      <c r="H29" s="149"/>
-      <c r="I29" s="149"/>
-      <c r="J29" s="149"/>
-      <c r="K29" s="149"/>
-      <c r="L29" s="149"/>
-      <c r="M29" s="149"/>
+      <c r="E29" s="148"/>
+      <c r="F29" s="148"/>
+      <c r="G29" s="148"/>
+      <c r="H29" s="148"/>
+      <c r="I29" s="148"/>
+      <c r="J29" s="148"/>
+      <c r="K29" s="148"/>
+      <c r="L29" s="148"/>
+      <c r="M29" s="148"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B30" s="99" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" s="149">
-        <v>0</v>
-      </c>
-      <c r="D30" s="149">
-        <v>0</v>
-      </c>
-      <c r="E30" s="149"/>
-      <c r="F30" s="149"/>
-      <c r="G30" s="149"/>
-      <c r="H30" s="149"/>
-      <c r="I30" s="149"/>
-      <c r="J30" s="149"/>
-      <c r="K30" s="149"/>
-      <c r="L30" s="149"/>
-      <c r="M30" s="149"/>
+      <c r="B30" s="98" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="148">
+        <v>0</v>
+      </c>
+      <c r="D30" s="148">
+        <v>0</v>
+      </c>
+      <c r="E30" s="148"/>
+      <c r="F30" s="148"/>
+      <c r="G30" s="148"/>
+      <c r="H30" s="148"/>
+      <c r="I30" s="148"/>
+      <c r="J30" s="148"/>
+      <c r="K30" s="148"/>
+      <c r="L30" s="148"/>
+      <c r="M30" s="148"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B31" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" s="149">
+      <c r="B31" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="148">
         <f>1862982-2265630</f>
         <v>-402648</v>
       </c>
-      <c r="D31" s="149">
+      <c r="D31" s="148">
         <f>1816473-1375529</f>
         <v>440944</v>
       </c>
-      <c r="E31" s="149"/>
-      <c r="F31" s="149"/>
-      <c r="G31" s="149"/>
-      <c r="H31" s="149"/>
-      <c r="I31" s="149"/>
-      <c r="J31" s="149"/>
-      <c r="K31" s="149"/>
-      <c r="L31" s="149"/>
-      <c r="M31" s="149"/>
+      <c r="E31" s="148"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="148"/>
+      <c r="H31" s="148"/>
+      <c r="I31" s="148"/>
+      <c r="J31" s="148"/>
+      <c r="K31" s="148"/>
+      <c r="L31" s="148"/>
+      <c r="M31" s="148"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B32" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="149">
+      <c r="B32" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="148">
         <f>198268+269041+166178</f>
         <v>633487</v>
       </c>
-      <c r="D32" s="149">
+      <c r="D32" s="148">
         <f>132434+240428+139998</f>
         <v>512860</v>
       </c>
-      <c r="E32" s="149"/>
-      <c r="F32" s="149"/>
-      <c r="G32" s="149"/>
-      <c r="H32" s="149"/>
-      <c r="I32" s="149"/>
-      <c r="J32" s="149"/>
-      <c r="K32" s="149"/>
-      <c r="L32" s="149"/>
-      <c r="M32" s="149"/>
+      <c r="E32" s="148"/>
+      <c r="F32" s="148"/>
+      <c r="G32" s="148"/>
+      <c r="H32" s="148"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="148"/>
+      <c r="K32" s="148"/>
+      <c r="L32" s="148"/>
+      <c r="M32" s="148"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B33" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="149">
+      <c r="B33" s="96" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="148">
         <v>502000</v>
       </c>
-      <c r="D33" s="149">
+      <c r="D33" s="148">
         <f>C33*1.137</f>
         <v>570774</v>
       </c>
-      <c r="E33" s="149"/>
-      <c r="F33" s="149"/>
-      <c r="G33" s="149"/>
-      <c r="H33" s="149"/>
-      <c r="I33" s="149"/>
-      <c r="J33" s="149"/>
-      <c r="K33" s="149"/>
-      <c r="L33" s="149"/>
-      <c r="M33" s="149"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="148"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="148"/>
+      <c r="K33" s="148"/>
+      <c r="L33" s="148"/>
+      <c r="M33" s="148"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="97" t="s">
-        <v>262</v>
-      </c>
-      <c r="C34" s="214"/>
-      <c r="D34" s="149"/>
-      <c r="E34" s="149"/>
-      <c r="F34" s="149"/>
-      <c r="G34" s="149"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="149"/>
-      <c r="J34" s="149"/>
-      <c r="K34" s="149"/>
-      <c r="L34" s="149"/>
-      <c r="M34" s="149"/>
+      <c r="B34" s="96" t="s">
+        <v>259</v>
+      </c>
+      <c r="C34" s="212"/>
+      <c r="D34" s="148"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="148"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="148"/>
+      <c r="I34" s="148"/>
+      <c r="J34" s="148"/>
+      <c r="K34" s="148"/>
+      <c r="L34" s="148"/>
+      <c r="M34" s="148"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B35" s="94" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="214"/>
-      <c r="D35" s="149"/>
-      <c r="E35" s="149"/>
-      <c r="F35" s="149"/>
-      <c r="G35" s="149"/>
-      <c r="H35" s="149"/>
-      <c r="I35" s="149"/>
-      <c r="J35" s="149"/>
-      <c r="K35" s="149"/>
-      <c r="L35" s="149"/>
-      <c r="M35" s="149"/>
+      <c r="B35" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="212"/>
+      <c r="D35" s="148"/>
+      <c r="E35" s="148"/>
+      <c r="F35" s="148"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="148"/>
+      <c r="I35" s="148"/>
+      <c r="J35" s="148"/>
+      <c r="K35" s="148"/>
+      <c r="L35" s="148"/>
+      <c r="M35" s="148"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B36" s="94" t="s">
-        <v>141</v>
-      </c>
-      <c r="C36" s="214"/>
-      <c r="D36" s="149"/>
-      <c r="E36" s="149"/>
-      <c r="F36" s="149"/>
-      <c r="G36" s="149"/>
-      <c r="H36" s="149"/>
-      <c r="I36" s="149"/>
-      <c r="J36" s="149"/>
-      <c r="K36" s="149"/>
-      <c r="L36" s="149"/>
-      <c r="M36" s="149"/>
+      <c r="B36" s="93" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="212"/>
+      <c r="D36" s="148"/>
+      <c r="E36" s="148"/>
+      <c r="F36" s="148"/>
+      <c r="G36" s="148"/>
+      <c r="H36" s="148"/>
+      <c r="I36" s="148"/>
+      <c r="J36" s="148"/>
+      <c r="K36" s="148"/>
+      <c r="L36" s="148"/>
+      <c r="M36" s="148"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>260</v>
-      </c>
-      <c r="C37" s="149">
+      <c r="B37" s="93" t="s">
+        <v>258</v>
+      </c>
+      <c r="C37" s="148">
         <f>5143611+1725201</f>
         <v>6868812</v>
       </c>
-      <c r="D37" s="149">
+      <c r="D37" s="148">
         <f>7093283+1887802</f>
         <v>8981085</v>
       </c>
-      <c r="E37" s="149">
+      <c r="E37" s="148">
         <f>6328575+1606057</f>
         <v>7934632</v>
       </c>
-      <c r="F37" s="149">
+      <c r="F37" s="148">
         <f>5308967+1406060</f>
         <v>6715027</v>
       </c>
-      <c r="G37" s="149"/>
-      <c r="H37" s="149"/>
-      <c r="I37" s="149"/>
-      <c r="J37" s="149"/>
-      <c r="K37" s="149"/>
-      <c r="L37" s="149"/>
-      <c r="M37" s="149"/>
-    </row>
-    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="94" t="s">
-        <v>261</v>
-      </c>
-      <c r="C38" s="214"/>
-      <c r="D38" s="149"/>
-      <c r="E38" s="149"/>
-      <c r="F38" s="149"/>
-      <c r="G38" s="149"/>
-      <c r="H38" s="149"/>
-      <c r="I38" s="149"/>
-      <c r="J38" s="149"/>
-      <c r="K38" s="149"/>
-      <c r="L38" s="149"/>
-      <c r="M38" s="149"/>
+      <c r="G37" s="148"/>
+      <c r="H37" s="148"/>
+      <c r="I37" s="148"/>
+      <c r="J37" s="148"/>
+      <c r="K37" s="148"/>
+      <c r="L37" s="148"/>
+      <c r="M37" s="148"/>
+    </row>
+    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B38" s="93" t="s">
+        <v>264</v>
+      </c>
+      <c r="C38" s="148"/>
+      <c r="D38" s="148"/>
+      <c r="E38" s="148"/>
+      <c r="F38" s="148"/>
+      <c r="G38" s="148"/>
+      <c r="H38" s="148"/>
+      <c r="I38" s="148"/>
+      <c r="J38" s="148"/>
+      <c r="K38" s="148"/>
+      <c r="L38" s="148"/>
+      <c r="M38" s="148"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B39" s="94" t="s">
+      <c r="B39" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="214"/>
-      <c r="D39" s="149"/>
-      <c r="E39" s="149"/>
-      <c r="F39" s="149"/>
-      <c r="G39" s="149"/>
-      <c r="H39" s="149"/>
-      <c r="I39" s="149"/>
-      <c r="J39" s="149"/>
-      <c r="K39" s="149"/>
-      <c r="L39" s="149"/>
-      <c r="M39" s="149"/>
+      <c r="C39" s="212"/>
+      <c r="D39" s="148"/>
+      <c r="E39" s="148"/>
+      <c r="F39" s="148"/>
+      <c r="G39" s="148"/>
+      <c r="H39" s="148"/>
+      <c r="I39" s="148"/>
+      <c r="J39" s="148"/>
+      <c r="K39" s="148"/>
+      <c r="L39" s="148"/>
+      <c r="M39" s="148"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B40" s="94" t="s">
+      <c r="B40" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="214"/>
-      <c r="D40" s="149"/>
-      <c r="E40" s="149"/>
-      <c r="F40" s="149"/>
-      <c r="G40" s="149"/>
-      <c r="H40" s="149"/>
-      <c r="I40" s="149"/>
-      <c r="J40" s="149"/>
-      <c r="K40" s="149"/>
-      <c r="L40" s="149"/>
-      <c r="M40" s="149"/>
+      <c r="C40" s="212"/>
+      <c r="D40" s="148"/>
+      <c r="E40" s="148"/>
+      <c r="F40" s="148"/>
+      <c r="G40" s="148"/>
+      <c r="H40" s="148"/>
+      <c r="I40" s="148"/>
+      <c r="J40" s="148"/>
+      <c r="K40" s="148"/>
+      <c r="L40" s="148"/>
+      <c r="M40" s="148"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
+      <c r="B41" s="93" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="148">
+        <v>6252844</v>
+      </c>
+      <c r="D41" s="148">
+        <v>5205481</v>
+      </c>
+      <c r="E41" s="148">
+        <v>4722518</v>
+      </c>
+      <c r="F41" s="148">
+        <v>3902907</v>
+      </c>
+      <c r="G41" s="148"/>
+      <c r="H41" s="148"/>
+      <c r="I41" s="148"/>
+      <c r="J41" s="148"/>
+      <c r="K41" s="148"/>
+      <c r="L41" s="148"/>
+      <c r="M41" s="148"/>
+    </row>
+    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B42" s="93" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="149">
-        <v>6252844</v>
-      </c>
-      <c r="D41" s="149">
-        <v>5205481</v>
-      </c>
-      <c r="E41" s="149">
-        <v>4722518</v>
-      </c>
-      <c r="F41" s="149">
-        <v>3902907</v>
-      </c>
-      <c r="G41" s="149"/>
-      <c r="H41" s="149"/>
-      <c r="I41" s="149"/>
-      <c r="J41" s="149"/>
-      <c r="K41" s="149"/>
-      <c r="L41" s="149"/>
-      <c r="M41" s="149"/>
-    </row>
-    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B42" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C42" s="149">
-        <v>0</v>
-      </c>
-      <c r="D42" s="149">
-        <v>0</v>
-      </c>
-      <c r="E42" s="149">
-        <v>0</v>
-      </c>
-      <c r="F42" s="149">
+      <c r="C42" s="148">
+        <v>0</v>
+      </c>
+      <c r="D42" s="148">
+        <v>0</v>
+      </c>
+      <c r="E42" s="148">
+        <v>0</v>
+      </c>
+      <c r="F42" s="148">
         <v>-98</v>
       </c>
-      <c r="G42" s="149"/>
-      <c r="H42" s="149"/>
-      <c r="I42" s="149"/>
-      <c r="J42" s="149"/>
-      <c r="K42" s="149"/>
-      <c r="L42" s="149"/>
-      <c r="M42" s="149"/>
+      <c r="G42" s="148"/>
+      <c r="H42" s="148"/>
+      <c r="I42" s="148"/>
+      <c r="J42" s="148"/>
+      <c r="K42" s="148"/>
+      <c r="L42" s="148"/>
+      <c r="M42" s="148"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B43" s="94" t="s">
-        <v>131</v>
-      </c>
-      <c r="C43" s="214"/>
-      <c r="D43" s="149"/>
-      <c r="E43" s="149"/>
-      <c r="F43" s="149"/>
-      <c r="G43" s="149"/>
-      <c r="H43" s="149"/>
-      <c r="I43" s="149"/>
-      <c r="J43" s="149"/>
-      <c r="K43" s="149"/>
-      <c r="L43" s="149"/>
-      <c r="M43" s="149"/>
+      <c r="B43" s="93" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="212"/>
+      <c r="D43" s="148"/>
+      <c r="E43" s="148"/>
+      <c r="F43" s="148"/>
+      <c r="G43" s="148"/>
+      <c r="H43" s="148"/>
+      <c r="I43" s="148"/>
+      <c r="J43" s="148"/>
+      <c r="K43" s="148"/>
+      <c r="L43" s="148"/>
+      <c r="M43" s="148"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>193</v>
-      </c>
-      <c r="C44" s="247">
+        <v>192</v>
+      </c>
+      <c r="C44" s="245">
         <f>0.1261+0.1223</f>
         <v>0.24840000000000001</v>
       </c>
-      <c r="D44" s="247">
+      <c r="D44" s="245">
         <f>0.1158+0.1223</f>
         <v>0.23810000000000001</v>
       </c>
-      <c r="E44" s="247"/>
-      <c r="F44" s="247"/>
-      <c r="G44" s="247"/>
-      <c r="H44" s="247"/>
-      <c r="I44" s="247"/>
-      <c r="J44" s="247"/>
-      <c r="K44" s="247"/>
-      <c r="L44" s="247"/>
-      <c r="M44" s="247"/>
+      <c r="E44" s="245"/>
+      <c r="F44" s="245"/>
+      <c r="G44" s="245"/>
+      <c r="H44" s="245"/>
+      <c r="I44" s="245"/>
+      <c r="J44" s="245"/>
+      <c r="K44" s="245"/>
+      <c r="L44" s="245"/>
+      <c r="M44" s="245"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>234</v>
-      </c>
-      <c r="C45" s="151">
+        <v>232</v>
+      </c>
+      <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.8639606761195946E-2</v>
-      </c>
-      <c r="D45" s="151">
+        <v>1.8601299407165175E-2</v>
+      </c>
+      <c r="D45" s="150">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.7866708413207547E-2</v>
-      </c>
-      <c r="E45" s="151" t="str">
+        <v>1.7829989488108003E-2</v>
+      </c>
+      <c r="E45" s="150" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="151" t="str">
+      <c r="F45" s="150" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="151" t="str">
+      <c r="G45" s="150" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="151" t="str">
+      <c r="H45" s="150" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="151" t="str">
+      <c r="I45" s="150" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="151" t="str">
+      <c r="J45" s="150" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="151" t="str">
+      <c r="K45" s="150" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="151" t="str">
+      <c r="L45" s="150" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="151" t="str">
+      <c r="M45" s="150" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B47" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C47" s="193" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" s="193" t="s">
-        <v>182</v>
-      </c>
-      <c r="E47" s="111" t="s">
-        <v>32</v>
+      <c r="B47" s="10" t="str">
+        <f>"Balance Sheet"&amp;IF(SUM(C48:C72)=C37+C41,"","- Error")</f>
+        <v>Balance Sheet- Error</v>
+      </c>
+      <c r="C47" s="191" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="191" t="s">
+        <v>181</v>
+      </c>
+      <c r="E47" s="110" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="60">
         <v>0.9</v>
       </c>
-      <c r="E48" s="112"/>
+      <c r="E48" s="111"/>
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
         <v>0.8</v>
       </c>
-      <c r="E49" s="112"/>
+      <c r="E49" s="111"/>
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E50" s="112"/>
+      <c r="E50" s="111"/>
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
         <v>0.6</v>
       </c>
-      <c r="E51" s="112"/>
+      <c r="E51" s="111"/>
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
         <v>0.5</v>
       </c>
-      <c r="E52" s="112"/>
+      <c r="E52" s="111"/>
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E53" s="112"/>
+      <c r="E53" s="111"/>
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
         <v>0.1</v>
       </c>
-      <c r="E54" s="112"/>
+      <c r="E54" s="111"/>
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E55" s="112"/>
+      <c r="E55" s="111"/>
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="218" t="s">
-        <v>67</v>
+      <c r="E56" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="218" t="s">
-        <v>42</v>
+      <c r="E57" s="216" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
         <f>D48</f>
         <v>0.9</v>
       </c>
-      <c r="E58" s="112"/>
+      <c r="E58" s="111"/>
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C59" s="119"/>
-      <c r="D59" s="194">
+        <v>46</v>
+      </c>
+      <c r="C59" s="118"/>
+      <c r="D59" s="192">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E59" s="112"/>
+      <c r="E59" s="111"/>
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
         <f>D49</f>
         <v>0.8</v>
       </c>
-      <c r="E60" s="112"/>
+      <c r="E60" s="111"/>
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E61" s="112"/>
+      <c r="E61" s="111"/>
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E62" s="112"/>
+      <c r="E62" s="111"/>
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
         <f>D62</f>
         <v>0.5</v>
       </c>
-      <c r="E63" s="112"/>
+      <c r="E63" s="111"/>
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
         <v>0.4</v>
       </c>
-      <c r="E64" s="112"/>
+      <c r="E64" s="111"/>
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C65" s="59"/>
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="218" t="s">
-        <v>67</v>
+      <c r="E65" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="218" t="s">
-        <v>67</v>
+      <c r="E66" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="218" t="s">
-        <v>42</v>
+      <c r="E67" s="216" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E68" s="112"/>
+      <c r="E68" s="111"/>
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E69" s="112"/>
+      <c r="E69" s="111"/>
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C70" s="59"/>
       <c r="D70" s="60">
         <v>0.05</v>
       </c>
-      <c r="E70" s="112"/>
+      <c r="E70" s="111"/>
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C71" s="59"/>
       <c r="D71" s="60">
         <f>D58</f>
         <v>0.9</v>
       </c>
-      <c r="E71" s="112"/>
+      <c r="E71" s="111"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="243" t="s">
-        <v>72</v>
-      </c>
-      <c r="C72" s="244"/>
-      <c r="D72" s="245">
-        <v>0</v>
-      </c>
-      <c r="E72" s="246"/>
+      <c r="B72" s="241" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" s="242"/>
+      <c r="D72" s="243">
+        <v>0</v>
+      </c>
+      <c r="E72" s="244"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C73" s="59"/>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C74" s="59"/>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B76" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="C76" s="119"/>
+      <c r="B76" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="C76" s="118"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="83"/>
+      <c r="C77" s="82"/>
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C79" s="59"/>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C80" s="59"/>
+    </row>
+    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B81" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="C80" s="59"/>
-    </row>
-    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B81" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="C81" s="119"/>
+      <c r="C81" s="118"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>265</v>
-      </c>
-      <c r="C82" s="214"/>
+        <v>262</v>
+      </c>
+      <c r="C82" s="212"/>
     </row>
     <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>266</v>
-      </c>
-      <c r="C83" s="214"/>
+        <v>263</v>
+      </c>
+      <c r="C83" s="212"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C86" s="196">
+        <v>231</v>
+      </c>
+      <c r="C86" s="194">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="C87" s="233" t="s">
-        <v>273</v>
-      </c>
-      <c r="D87" s="266">
+        <v>230</v>
+      </c>
+      <c r="C87" s="231" t="s">
+        <v>271</v>
+      </c>
+      <c r="D87" s="264">
         <v>0.02</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B89" s="106" t="s">
-        <v>122</v>
-      </c>
-      <c r="C89" s="283">
+      <c r="B89" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="C89" s="282">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="283"/>
-      <c r="E89" s="89" t="s">
-        <v>192</v>
-      </c>
-      <c r="F89" s="89" t="s">
+      <c r="D89" s="282"/>
+      <c r="E89" s="88" t="s">
         <v>191</v>
+      </c>
+      <c r="F89" s="88" t="s">
+        <v>190</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3899,166 +3894,166 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000USD)</v>
       </c>
-      <c r="C90" s="284" t="s">
+      <c r="C90" s="283" t="s">
+        <v>96</v>
+      </c>
+      <c r="D90" s="283"/>
+      <c r="E90" s="230" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="284"/>
-      <c r="E90" s="232" t="s">
-        <v>98</v>
-      </c>
-      <c r="F90" s="252" t="s">
-        <v>98</v>
+      <c r="F90" s="250" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
         <v>13731411</v>
       </c>
-      <c r="D91" s="206"/>
-      <c r="E91" s="248">
+      <c r="D91" s="204"/>
+      <c r="E91" s="246">
         <f>C91</f>
         <v>13731411</v>
       </c>
-      <c r="F91" s="248">
+      <c r="F91" s="246">
         <f>C91</f>
         <v>13731411</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B92" s="104" t="s">
-        <v>102</v>
+      <c r="B92" s="103" t="s">
+        <v>101</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
         <v>8311775</v>
       </c>
-      <c r="D92" s="158">
+      <c r="D92" s="156">
         <f>C92/C91</f>
         <v>0.60531106380837341</v>
       </c>
-      <c r="E92" s="249">
+      <c r="E92" s="247">
         <f>E91*D92</f>
         <v>8311775.0000000009</v>
       </c>
-      <c r="F92" s="249">
+      <c r="F92" s="247">
         <f>F91*D92</f>
         <v>8311775.0000000009</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B93" s="104" t="s">
-        <v>230</v>
+      <c r="B93" s="103" t="s">
+        <v>229</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>4301767</v>
       </c>
-      <c r="D93" s="158">
+      <c r="D93" s="156">
         <f>C93/C91</f>
         <v>0.31327931266495485</v>
       </c>
-      <c r="E93" s="249">
+      <c r="E93" s="247">
         <f>E91*D93</f>
         <v>4301767</v>
       </c>
-      <c r="F93" s="249">
+      <c r="F93" s="247">
         <f>F91*D93</f>
         <v>4301767</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B94" s="104" t="s">
-        <v>238</v>
+      <c r="B94" s="103" t="s">
+        <v>236</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>124056</v>
       </c>
-      <c r="D94" s="158">
+      <c r="D94" s="156">
         <f>C94/C91</f>
         <v>9.0344684898005026E-3</v>
       </c>
-      <c r="E94" s="250"/>
-      <c r="F94" s="249">
+      <c r="E94" s="248"/>
+      <c r="F94" s="247">
         <f>F91*D94</f>
         <v>124056.00000000001</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>131487</v>
       </c>
-      <c r="D95" s="158">
+      <c r="D95" s="156">
         <f>C95/C91</f>
         <v>9.5756364731927404E-3</v>
       </c>
-      <c r="E95" s="249">
+      <c r="E95" s="247">
         <f>E91*D95</f>
         <v>131487</v>
       </c>
-      <c r="F95" s="249">
+      <c r="F95" s="247">
         <f>F91*D95</f>
         <v>131487</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="158">
+      <c r="D96" s="156">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="250"/>
-      <c r="F96" s="249">
+      <c r="E96" s="248"/>
+      <c r="F96" s="247">
         <f>F91*D96</f>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
         <v>0</v>
       </c>
-      <c r="D97" s="158">
+      <c r="D97" s="156">
         <f>C97/C91</f>
         <v>0</v>
       </c>
-      <c r="E97" s="250"/>
-      <c r="F97" s="249">
+      <c r="E97" s="248"/>
+      <c r="F97" s="247">
         <f>F91*D97</f>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B98" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="C98" s="234">
+      <c r="B98" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="C98" s="232">
         <f>C44</f>
         <v>0.24840000000000001</v>
       </c>
-      <c r="D98" s="263"/>
-      <c r="E98" s="251">
+      <c r="D98" s="261"/>
+      <c r="E98" s="249">
         <f>F98</f>
         <v>0.24840000000000001</v>
       </c>
-      <c r="F98" s="251">
+      <c r="F98" s="249">
         <f>C98</f>
         <v>0.24840000000000001</v>
       </c>
@@ -4071,32 +4066,32 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="22" priority="14">
+    <cfRule type="containsBlanks" dxfId="22" priority="15">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="containsBlanks" dxfId="21" priority="3">
+  <conditionalFormatting sqref="C37:C38">
+    <cfRule type="containsBlanks" dxfId="21" priority="1">
       <formula>LEN(TRIM(C37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:C42">
-    <cfRule type="containsBlanks" dxfId="20" priority="1">
+    <cfRule type="containsBlanks" dxfId="20" priority="2">
       <formula>LEN(TRIM(C41))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="7">
+    <cfRule type="containsBlanks" dxfId="19" priority="8">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="6">
+    <cfRule type="containsBlanks" dxfId="18" priority="7">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="17" priority="4">
+    <cfRule type="containsBlanks" dxfId="17" priority="5">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4138,8 +4133,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4155,13 +4150,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
@@ -4172,82 +4167,82 @@
         <f>C3&amp;" : "&amp;C4</f>
         <v>0669.HK : 創科實業</v>
       </c>
-      <c r="D2" s="87"/>
+      <c r="D2" s="86"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C3" s="289" t="str">
+        <v>179</v>
+      </c>
+      <c r="C3" s="288" t="str">
         <f>Inputs!C4</f>
         <v>0669.HK</v>
       </c>
-      <c r="D3" s="290"/>
-      <c r="E3" s="87"/>
+      <c r="D3" s="289"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="131">
-        <v>103.6</v>
-      </c>
-      <c r="H3" s="133" t="s">
+      <c r="G3" s="130">
+        <v>103.8</v>
+      </c>
+      <c r="H3" s="132" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="291" t="str">
+        <v>180</v>
+      </c>
+      <c r="C4" s="290" t="str">
         <f>Inputs!C5</f>
         <v>創科實業</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="87"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="295">
+      <c r="G4" s="294">
         <f>Inputs!C10</f>
         <v>587107850</v>
       </c>
-      <c r="H4" s="295"/>
+      <c r="H4" s="294"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" s="293">
+        <v>154</v>
+      </c>
+      <c r="C5" s="292">
         <f>Inputs!C6</f>
         <v>45625</v>
       </c>
-      <c r="D5" s="294"/>
+      <c r="D5" s="293"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" s="287">
+        <v>95</v>
+      </c>
+      <c r="G5" s="286">
         <f>G3*G4/1000000</f>
-        <v>60824.37326</v>
-      </c>
-      <c r="H5" s="287"/>
+        <v>60941.794829999999</v>
+      </c>
+      <c r="H5" s="286"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="184">
+      <c r="C6" s="182">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="185">
+      <c r="D6" s="183">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4258,31 +4253,31 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="288" t="str">
+      <c r="G6" s="287" t="str">
         <f>Inputs!C11</f>
         <v>USD</v>
       </c>
-      <c r="H6" s="288"/>
+      <c r="H6" s="287"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="86" t="s">
-        <v>178</v>
-      </c>
-      <c r="C7" s="186" t="str">
+      <c r="B7" s="85" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="184" t="str">
         <f>Inputs!C8</f>
         <v xml:space="preserve">Superior Cycl. </v>
       </c>
-      <c r="D7" s="186" t="str">
+      <c r="D7" s="184" t="str">
         <f>Inputs!C9</f>
         <v>C0006</v>
       </c>
-      <c r="E7" s="87"/>
+      <c r="E7" s="86"/>
       <c r="F7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="132">
-        <v>7.7740066846211748</v>
+      <c r="G7" s="131">
+        <v>7.7730067571004229</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4291,280 +4286,280 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="138" t="s">
-        <v>177</v>
-      </c>
-      <c r="F9" s="142" t="s">
-        <v>172</v>
+      <c r="B9" s="137" t="s">
+        <v>176</v>
+      </c>
+      <c r="F9" s="141" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C10" s="171">
+        <v>162</v>
+      </c>
+      <c r="C10" s="169">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F10" s="110" t="s">
-        <v>170</v>
+      <c r="F10" s="109" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="121" t="s">
-        <v>167</v>
-      </c>
-      <c r="C11" s="172">
+      <c r="B11" s="120" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="170">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="136" t="s">
-        <v>176</v>
-      </c>
-      <c r="F11" s="110" t="s">
-        <v>165</v>
+      <c r="D11" s="135" t="s">
+        <v>175</v>
+      </c>
+      <c r="F11" s="109" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="87" t="s">
-        <v>235</v>
-      </c>
-      <c r="C12" s="173">
+      <c r="B12" s="86" t="s">
+        <v>233</v>
+      </c>
+      <c r="C12" s="171">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="171">
+      <c r="D12" s="169">
         <v>8.0625000000000002E-2</v>
       </c>
-      <c r="F12" s="110"/>
+      <c r="F12" s="109"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C14" s="171">
+        <v>163</v>
+      </c>
+      <c r="C14" s="169">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="F14" s="110" t="s">
-        <v>169</v>
+      <c r="F14" s="109" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="169">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F15" s="109" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="120" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="171">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="F15" s="110" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="121" t="s">
-        <v>174</v>
-      </c>
-      <c r="C16" s="172">
+      <c r="C16" s="170">
         <v>0.16</v>
       </c>
-      <c r="D16" s="262" t="str">
+      <c r="D16" s="260" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
-      <c r="F16" s="110" t="s">
-        <v>166</v>
+      <c r="F16" s="109" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="87" t="s">
-        <v>236</v>
-      </c>
-      <c r="C17" s="174">
+      <c r="B17" s="86" t="s">
+        <v>234</v>
+      </c>
+      <c r="C17" s="172">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="175"/>
+      <c r="D17" s="173"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="141" t="s">
-        <v>259</v>
-      </c>
-      <c r="C19" s="134" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="141" t="s">
-        <v>198</v>
-      </c>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
+      <c r="B19" s="140" t="s">
+        <v>257</v>
+      </c>
+      <c r="C19" s="133" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="140" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="272" t="s">
-        <v>250</v>
-      </c>
-      <c r="C20" s="273">
+      <c r="B20" s="270" t="s">
+        <v>248</v>
+      </c>
+      <c r="C20" s="271">
         <f>C23*C22*(1/C21)</f>
         <v>0.17877768900039728</v>
       </c>
-      <c r="F20" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="G20" s="171">
+      <c r="F20" s="86" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" s="169">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="274" t="s">
-        <v>248</v>
-      </c>
-      <c r="C21" s="275">
+      <c r="B21" s="272" t="s">
+        <v>246</v>
+      </c>
+      <c r="C21" s="273">
         <f>Data!C53</f>
         <v>0.47652857230825135</v>
       </c>
-      <c r="F21" s="87"/>
+      <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="276" t="s">
-        <v>263</v>
-      </c>
-      <c r="C22" s="277">
+      <c r="B22" s="274" t="s">
+        <v>260</v>
+      </c>
+      <c r="C22" s="275">
         <f>Data!C48</f>
         <v>1.0464693633181665</v>
       </c>
-      <c r="F22" s="141" t="s">
-        <v>171</v>
+      <c r="F22" s="140" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="278" t="s">
-        <v>255</v>
-      </c>
-      <c r="C23" s="279">
+      <c r="B23" s="276" t="s">
+        <v>253</v>
+      </c>
+      <c r="C23" s="277">
         <f>Data!C13</f>
         <v>8.1409623526671804E-2</v>
       </c>
-      <c r="F23" s="139" t="s">
-        <v>175</v>
-      </c>
-      <c r="G23" s="176">
+      <c r="F23" s="138" t="s">
+        <v>174</v>
+      </c>
+      <c r="G23" s="174">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.2512818327488948</v>
+        <v>1.2538587116598876</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="136" t="s">
-        <v>256</v>
-      </c>
-      <c r="C24" s="170">
+      <c r="B24" s="135" t="s">
+        <v>254</v>
+      </c>
+      <c r="C24" s="168">
         <f>Fin_Analysis!I81</f>
         <v>9.0344684898005026E-3</v>
       </c>
-      <c r="F24" s="139" t="s">
-        <v>241</v>
-      </c>
-      <c r="G24" s="265">
+      <c r="F24" s="138" t="s">
+        <v>239</v>
+      </c>
+      <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.097621394867588</v>
+        <v>12.122535131029744</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="136" t="s">
-        <v>257</v>
-      </c>
-      <c r="C25" s="170">
+      <c r="B25" s="135" t="s">
+        <v>255</v>
+      </c>
+      <c r="C25" s="168">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="139" t="s">
-        <v>162</v>
-      </c>
-      <c r="G25" s="170">
+      <c r="F25" s="138" t="s">
+        <v>161</v>
+      </c>
+      <c r="G25" s="168">
         <f>Fin_Analysis!I88</f>
         <v>0.22549490554616261</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="137" t="s">
-        <v>258</v>
-      </c>
-      <c r="C26" s="170">
+      <c r="B26" s="136" t="s">
+        <v>256</v>
+      </c>
+      <c r="C26" s="168">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>9.5756364731927404E-3</v>
       </c>
-      <c r="F26" s="140" t="s">
-        <v>179</v>
-      </c>
-      <c r="G26" s="177">
+      <c r="F26" s="139" t="s">
+        <v>178</v>
+      </c>
+      <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.8639606761195946E-2</v>
+        <v>1.8601299407165175E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
-      <c r="B28" s="90" t="s">
+      <c r="B28" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="89" t="s">
+      <c r="C28" s="88" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>158</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>159</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>222</v>
-      </c>
-      <c r="G28" s="285" t="s">
-        <v>239</v>
-      </c>
-      <c r="H28" s="285"/>
+        <v>221</v>
+      </c>
+      <c r="G28" s="284" t="s">
+        <v>237</v>
+      </c>
+      <c r="H28" s="284"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="87" t="s">
-        <v>160</v>
-      </c>
-      <c r="C29" s="129">
+      <c r="B29" s="86" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>51.780215041125601</v>
-      </c>
-      <c r="D29" s="128">
+        <v>51.737349398173265</v>
+      </c>
+      <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>95.621799639359892</v>
-      </c>
-      <c r="E29" s="87"/>
-      <c r="F29" s="130">
+        <v>95.542640255441839</v>
+      </c>
+      <c r="E29" s="86"/>
+      <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>60.917900048383054</v>
-      </c>
-      <c r="G29" s="286">
+        <v>60.867469880203849</v>
+      </c>
+      <c r="G29" s="285">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>83.149390990747733</v>
-      </c>
-      <c r="H29" s="286"/>
+        <v>83.080556743862473</v>
+      </c>
+      <c r="H29" s="285"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="195" t="s">
-        <v>208</v>
-      </c>
-      <c r="C32" s="221"/>
+      <c r="B32" s="193" t="s">
+        <v>207</v>
+      </c>
+      <c r="C32" s="219"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="C33" s="242" t="str">
+        <v>208</v>
+      </c>
+      <c r="C33" s="240" t="str">
         <f>Inputs!C17</f>
         <v>unclear</v>
       </c>
@@ -4572,9 +4567,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="C34" s="222" t="e">
+        <v>209</v>
+      </c>
+      <c r="C34" s="220" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
@@ -4582,17 +4577,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="195" t="s">
-        <v>211</v>
-      </c>
-      <c r="C35" s="221"/>
+      <c r="B35" s="193" t="s">
+        <v>210</v>
+      </c>
+      <c r="C35" s="219"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="C36" s="242" t="str">
+        <v>222</v>
+      </c>
+      <c r="C36" s="240" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -4600,26 +4595,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C37" s="242" t="str">
+        <v>223</v>
+      </c>
+      <c r="C37" s="240" t="str">
         <f>Inputs!C19</f>
         <v>unclear</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="195" t="s">
-        <v>212</v>
-      </c>
-      <c r="C38" s="221"/>
+      <c r="B38" s="193" t="s">
+        <v>211</v>
+      </c>
+      <c r="C38" s="219"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="C39" s="242" t="str">
+        <v>212</v>
+      </c>
+      <c r="C39" s="240" t="str">
         <f>Inputs!C20</f>
         <v>unclear</v>
       </c>
@@ -4627,9 +4622,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C40" s="242" t="str">
+        <v>215</v>
+      </c>
+      <c r="C40" s="240" t="str">
         <f>Inputs!C21</f>
         <v>unclear</v>
       </c>
@@ -4642,16 +4637,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="223" t="s">
-        <v>215</v>
-      </c>
-      <c r="C43" s="241" t="str">
+      <c r="B43" s="221" t="s">
+        <v>214</v>
+      </c>
+      <c r="C43" s="239" t="str">
         <f>Inputs!C22</f>
         <v>Unclear</v>
       </c>
@@ -5603,10 +5598,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="F40" sqref="F40"/>
+      <selection pane="topRight" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5632,59 +5627,59 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="147" t="s">
-        <v>185</v>
-      </c>
-      <c r="F2" s="118" t="s">
+      <c r="E2" s="146" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="117" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" s="146" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="147" t="s">
+      <c r="H2" s="145" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="146" t="s">
-        <v>190</v>
-      </c>
       <c r="I2" s="7"/>
-      <c r="J2" s="87"/>
+      <c r="J2" s="86"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="200">
+      <c r="C3" s="198">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="145" t="s">
-        <v>186</v>
-      </c>
-      <c r="F3" s="85" t="str">
+      <c r="E3" s="144" t="s">
+        <v>185</v>
+      </c>
+      <c r="F3" s="84" t="str">
         <f>H14</f>
         <v/>
       </c>
-      <c r="G3" s="85">
+      <c r="G3" s="84">
         <f>C14</f>
         <v>1117869</v>
       </c>
-      <c r="H3" s="85">
+      <c r="H3" s="84">
         <v>6</v>
       </c>
-      <c r="I3" s="87"/>
+      <c r="I3" s="86"/>
       <c r="J3" s="42"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="127">
+      <c r="C4" s="126">
         <f>Inputs!C13</f>
         <v>1000</v>
       </c>
@@ -5692,19 +5687,19 @@
         <f>Dashboard!G6</f>
         <v>USD</v>
       </c>
-      <c r="E4" s="145" t="s">
-        <v>187</v>
-      </c>
-      <c r="F4" s="93" t="e">
+      <c r="E4" s="144" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" s="92" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J4" s="87"/>
+      <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
-      <c r="B5" s="115" t="s">
-        <v>128</v>
+      <c r="B5" s="114" t="s">
+        <v>127</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -5753,928 +5748,928 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="199">
+      <c r="C6" s="197">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>13731411</v>
       </c>
-      <c r="D6" s="199">
+      <c r="D6" s="197">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>13253917</v>
       </c>
-      <c r="E6" s="199">
+      <c r="E6" s="197">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v>13203161</v>
       </c>
-      <c r="F6" s="199">
+      <c r="F6" s="197">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v>9811941</v>
       </c>
-      <c r="G6" s="199" t="str">
+      <c r="G6" s="197" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="199" t="str">
+      <c r="H6" s="197" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="199" t="str">
+      <c r="I6" s="197" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="199" t="str">
+      <c r="J6" s="197" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="199" t="str">
+      <c r="K6" s="197" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="199" t="str">
+      <c r="L6" s="197" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="199" t="str">
+      <c r="M6" s="197" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
-      <c r="N6" s="87"/>
+      <c r="N6" s="86"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="92">
+      <c r="C7" s="91">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
         <v>3.6026632730535413E-2</v>
       </c>
-      <c r="D7" s="92">
+      <c r="D7" s="91">
         <f t="shared" si="1"/>
         <v>3.844230938333526E-3</v>
       </c>
-      <c r="E7" s="92">
+      <c r="E7" s="91">
         <f t="shared" si="1"/>
         <v>0.34562172764797516</v>
       </c>
-      <c r="F7" s="92" t="str">
+      <c r="F7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G7" s="92" t="str">
+      <c r="G7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H7" s="92" t="str">
+      <c r="H7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I7" s="92" t="str">
+      <c r="I7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J7" s="92" t="str">
+      <c r="J7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K7" s="92" t="str">
+      <c r="K7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L7" s="92" t="str">
+      <c r="L7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M7" s="92" t="str">
+      <c r="M7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N7" s="87"/>
+      <c r="N7" s="86"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
-      <c r="B8" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="198">
+      <c r="B8" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="196">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>8311775</v>
       </c>
-      <c r="D8" s="198">
+      <c r="D8" s="196">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>8041340</v>
       </c>
-      <c r="E8" s="198">
+      <c r="E8" s="196">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v>8081548</v>
       </c>
-      <c r="F8" s="198">
+      <c r="F8" s="196">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v>6058859</v>
       </c>
-      <c r="G8" s="198" t="str">
+      <c r="G8" s="196" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="198" t="str">
+      <c r="H8" s="196" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="198" t="str">
+      <c r="I8" s="196" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="198" t="str">
+      <c r="J8" s="196" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="198" t="str">
+      <c r="K8" s="196" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="198" t="str">
+      <c r="L8" s="196" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="198" t="str">
+      <c r="M8" s="196" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
-      <c r="N8" s="87"/>
+      <c r="N8" s="86"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
-      <c r="B9" s="98" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="150">
+      <c r="B9" s="97" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="149">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>5419636</v>
       </c>
-      <c r="D9" s="150">
+      <c r="D9" s="149">
         <f t="shared" si="2"/>
         <v>5212577</v>
       </c>
-      <c r="E9" s="150">
+      <c r="E9" s="149">
         <f t="shared" si="2"/>
         <v>5121613</v>
       </c>
-      <c r="F9" s="150">
+      <c r="F9" s="149">
         <f t="shared" si="2"/>
         <v>3753082</v>
       </c>
-      <c r="G9" s="150" t="str">
+      <c r="G9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="150" t="str">
+      <c r="H9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="150" t="str">
+      <c r="I9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="150" t="str">
+      <c r="J9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="150" t="str">
+      <c r="K9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="150" t="str">
+      <c r="L9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="150" t="str">
+      <c r="M9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N9" s="87"/>
+      <c r="N9" s="86"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
-      <c r="B10" s="97" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="198">
+      <c r="B10" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="196">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>3753429</v>
       </c>
-      <c r="D10" s="198">
+      <c r="D10" s="196">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>3540841</v>
       </c>
-      <c r="E10" s="198" t="str">
+      <c r="E10" s="196" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="198" t="str">
+      <c r="F10" s="196" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="198" t="str">
+      <c r="G10" s="196" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="198" t="str">
+      <c r="H10" s="196" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="198" t="str">
+      <c r="I10" s="196" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="198" t="str">
+      <c r="J10" s="196" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="198" t="str">
+      <c r="K10" s="196" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="198" t="str">
+      <c r="L10" s="196" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="198" t="str">
+      <c r="M10" s="196" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
-      <c r="N10" s="87"/>
+      <c r="N10" s="86"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
-      <c r="B11" s="97" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="198">
+      <c r="B11" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="196">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v>548338</v>
       </c>
-      <c r="D11" s="198">
+      <c r="D11" s="196">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v>484343</v>
       </c>
-      <c r="E11" s="198" t="str">
+      <c r="E11" s="196" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="198" t="str">
+      <c r="F11" s="196" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="198" t="str">
+      <c r="G11" s="196" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="198" t="str">
+      <c r="H11" s="196" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="198" t="str">
+      <c r="I11" s="196" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="198" t="str">
+      <c r="J11" s="196" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="198" t="str">
+      <c r="K11" s="196" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="198" t="str">
+      <c r="L11" s="196" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="198" t="str">
+      <c r="M11" s="196" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
-      <c r="N11" s="87"/>
+      <c r="N11" s="86"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
-      <c r="B12" s="99" t="s">
-        <v>225</v>
-      </c>
-      <c r="C12" s="198">
+      <c r="B12" s="98" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" s="196">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="196">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="E12" s="198" t="str">
+      <c r="E12" s="196" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="198" t="str">
+      <c r="F12" s="196" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="198" t="str">
+      <c r="G12" s="196" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="198" t="str">
+      <c r="H12" s="196" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="198" t="str">
+      <c r="I12" s="196" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="198" t="str">
+      <c r="J12" s="196" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="198" t="str">
+      <c r="K12" s="196" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="198" t="str">
+      <c r="L12" s="196" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="198" t="str">
+      <c r="M12" s="196" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N12" s="87"/>
+      <c r="N12" s="86"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="225" t="s">
-        <v>226</v>
-      </c>
-      <c r="C13" s="226">
+      <c r="B13" s="223" t="s">
+        <v>225</v>
+      </c>
+      <c r="C13" s="224">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>8.1409623526671804E-2</v>
       </c>
-      <c r="D13" s="226">
+      <c r="D13" s="224">
         <f t="shared" si="3"/>
         <v>8.9588081772354541E-2</v>
       </c>
-      <c r="E13" s="226" t="e">
+      <c r="E13" s="224" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F13" s="226" t="e">
+      <c r="F13" s="224" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G13" s="226" t="str">
+      <c r="G13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="226" t="str">
+      <c r="H13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="226" t="str">
+      <c r="I13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="226" t="str">
+      <c r="J13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="226" t="str">
+      <c r="K13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="226" t="str">
+      <c r="L13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="226" t="str">
+      <c r="M13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N13" s="87"/>
+      <c r="N13" s="86"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="225" t="s">
-        <v>218</v>
-      </c>
-      <c r="C14" s="227">
+      <c r="B14" s="223" t="s">
+        <v>217</v>
+      </c>
+      <c r="C14" s="225">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>1117869</v>
       </c>
-      <c r="D14" s="227">
+      <c r="D14" s="225">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>1187393</v>
       </c>
-      <c r="E14" s="227" t="e">
+      <c r="E14" s="225" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F14" s="227" t="e">
+      <c r="F14" s="225" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G14" s="227" t="str">
+      <c r="G14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="227" t="str">
+      <c r="H14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="227" t="str">
+      <c r="I14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="227" t="str">
+      <c r="J14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="227" t="str">
+      <c r="K14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="227" t="str">
+      <c r="L14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="227" t="str">
+      <c r="M14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N14" s="87"/>
+      <c r="N14" s="86"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="228" t="s">
-        <v>227</v>
-      </c>
-      <c r="C15" s="229">
+      <c r="B15" s="226" t="s">
+        <v>226</v>
+      </c>
+      <c r="C15" s="227">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>-5.8551802141329788E-2</v>
       </c>
-      <c r="D15" s="229" t="e">
+      <c r="D15" s="227" t="e">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E15" s="229" t="e">
+      <c r="E15" s="227" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F15" s="229" t="str">
+      <c r="F15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="229" t="str">
+      <c r="G15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="229" t="str">
+      <c r="H15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="229" t="str">
+      <c r="I15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="229" t="str">
+      <c r="J15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="229" t="str">
+      <c r="K15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="229" t="str">
+      <c r="L15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="229" t="str">
+      <c r="M15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N15" s="87"/>
+      <c r="N15" s="86"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
-      <c r="B16" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="198">
+      <c r="B16" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="196">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v>-402648</v>
       </c>
-      <c r="D16" s="198">
+      <c r="D16" s="196">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v>440944</v>
       </c>
-      <c r="E16" s="198" t="str">
+      <c r="E16" s="196" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="198" t="str">
+      <c r="F16" s="196" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="198" t="str">
+      <c r="G16" s="196" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="198" t="str">
+      <c r="H16" s="196" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="198" t="str">
+      <c r="I16" s="196" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="198" t="str">
+      <c r="J16" s="196" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="198" t="str">
+      <c r="K16" s="196" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="198" t="str">
+      <c r="L16" s="196" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="198" t="str">
+      <c r="M16" s="196" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
-      <c r="N16" s="87"/>
+      <c r="N16" s="86"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
-      <c r="B17" s="97" t="s">
-        <v>238</v>
-      </c>
-      <c r="C17" s="198">
+      <c r="B17" s="96" t="s">
+        <v>236</v>
+      </c>
+      <c r="C17" s="196">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>124056</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="196">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>69868</v>
       </c>
-      <c r="E17" s="198" t="str">
+      <c r="E17" s="196" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="198" t="str">
+      <c r="F17" s="196" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="198" t="str">
+      <c r="G17" s="196" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="198" t="str">
+      <c r="H17" s="196" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="198" t="str">
+      <c r="I17" s="196" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="198" t="str">
+      <c r="J17" s="196" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="198" t="str">
+      <c r="K17" s="196" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="198" t="str">
+      <c r="L17" s="196" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="198" t="str">
+      <c r="M17" s="196" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
-      <c r="N17" s="87"/>
+      <c r="N17" s="86"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
-      <c r="B18" s="94" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="151">
+      <c r="B18" s="93" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="150">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v>4.6134151836253391E-2</v>
       </c>
-      <c r="D18" s="151">
+      <c r="D18" s="150">
         <f t="shared" si="6"/>
         <v>3.8694975983326288E-2</v>
       </c>
-      <c r="E18" s="151" t="str">
+      <c r="E18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="151" t="str">
+      <c r="F18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="151" t="str">
+      <c r="G18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="151" t="str">
+      <c r="H18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="151" t="str">
+      <c r="I18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="151" t="str">
+      <c r="J18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="151" t="str">
+      <c r="K18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="151" t="str">
+      <c r="L18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="151" t="str">
+      <c r="M18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N18" s="87"/>
+      <c r="N18" s="86"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
-      <c r="B19" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="198">
+      <c r="B19" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="196">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v>633487</v>
       </c>
-      <c r="D19" s="198">
+      <c r="D19" s="196">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v>512860</v>
       </c>
-      <c r="E19" s="198" t="str">
+      <c r="E19" s="196" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="198" t="str">
+      <c r="F19" s="196" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="198" t="str">
+      <c r="G19" s="196" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="198" t="str">
+      <c r="H19" s="196" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="198" t="str">
+      <c r="I19" s="196" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="198" t="str">
+      <c r="J19" s="196" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="198" t="str">
+      <c r="K19" s="196" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="198" t="str">
+      <c r="L19" s="196" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="198" t="str">
+      <c r="M19" s="196" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
-      <c r="N19" s="87"/>
+      <c r="N19" s="86"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
-      <c r="B20" s="97" t="s">
-        <v>220</v>
-      </c>
-      <c r="C20" s="151">
+      <c r="B20" s="96" t="s">
+        <v>219</v>
+      </c>
+      <c r="C20" s="150">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>3.6558515363060651E-2</v>
       </c>
-      <c r="D20" s="151">
+      <c r="D20" s="150">
         <f t="shared" si="7"/>
         <v>4.3064552162202313E-2</v>
       </c>
-      <c r="E20" s="151">
+      <c r="E20" s="150">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F20" s="151">
+      <c r="F20" s="150">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G20" s="151" t="str">
+      <c r="G20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="151" t="str">
+      <c r="H20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="151" t="str">
+      <c r="I20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="151" t="str">
+      <c r="J20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="151" t="str">
+      <c r="K20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="151" t="str">
+      <c r="L20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="151" t="str">
+      <c r="M20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="N20" s="87"/>
+      <c r="N20" s="86"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
-      <c r="B21" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="198">
+      <c r="B21" s="96" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="196">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v>502000</v>
       </c>
-      <c r="D21" s="198">
+      <c r="D21" s="196">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v>570774</v>
       </c>
-      <c r="E21" s="198" t="str">
+      <c r="E21" s="196" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="198" t="str">
+      <c r="F21" s="196" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="198" t="str">
+      <c r="G21" s="196" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="198" t="str">
+      <c r="H21" s="196" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="198" t="str">
+      <c r="I21" s="196" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="198" t="str">
+      <c r="J21" s="196" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="198" t="str">
+      <c r="K21" s="196" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="198" t="str">
+      <c r="L21" s="196" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="198" t="str">
+      <c r="M21" s="196" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
-      <c r="N21" s="87"/>
+      <c r="N21" s="86"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
-      <c r="B22" s="98" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="160">
+      <c r="B22" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="158">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>862326</v>
       </c>
-      <c r="D22" s="160">
+      <c r="D22" s="158">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>618667</v>
       </c>
-      <c r="E22" s="160" t="e">
+      <c r="E22" s="158" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F22" s="160" t="e">
+      <c r="F22" s="158" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G22" s="160" t="str">
+      <c r="G22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="160" t="str">
+      <c r="H22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="160" t="str">
+      <c r="I22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="160" t="str">
+      <c r="J22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="160" t="str">
+      <c r="K22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="160" t="str">
+      <c r="L22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="160" t="str">
+      <c r="M22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="N22" s="87"/>
+      <c r="N22" s="86"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
-      <c r="B23" s="100" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" s="152">
+      <c r="B23" s="99" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="151">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>4.7099638922758924E-2</v>
       </c>
-      <c r="D23" s="152">
+      <c r="D23" s="151">
         <f t="shared" si="9"/>
         <v>3.5008537476128754E-2</v>
       </c>
-      <c r="E23" s="152" t="e">
+      <c r="E23" s="151" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F23" s="152" t="e">
+      <c r="F23" s="151" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G23" s="152" t="str">
+      <c r="G23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="152" t="str">
+      <c r="H23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="152" t="str">
+      <c r="I23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="152" t="str">
+      <c r="J23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="152" t="str">
+      <c r="K23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="152" t="str">
+      <c r="L23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="152" t="str">
+      <c r="M23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="N23" s="87"/>
+      <c r="N23" s="86"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
-      <c r="B24" s="101" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" s="153">
+      <c r="B24" s="100" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="152">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>646744.5</v>
       </c>
@@ -6718,63 +6713,63 @@
         <f>IF(M6="","",M22*(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N24" s="87"/>
+      <c r="N24" s="86"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="231" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" s="230">
+      <c r="B25" s="229" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="228">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>0.39384515417825744</v>
       </c>
-      <c r="D25" s="230" t="e">
+      <c r="D25" s="228" t="e">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E25" s="230" t="e">
+      <c r="E25" s="228" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F25" s="230" t="str">
+      <c r="F25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="230" t="str">
+      <c r="G25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="230" t="str">
+      <c r="H25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="230" t="str">
+      <c r="I25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="230" t="str">
+      <c r="J25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="230" t="str">
+      <c r="K25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="230" t="str">
+      <c r="L25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="230" t="str">
+      <c r="M25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="N25" s="87"/>
+      <c r="N25" s="86"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
-      <c r="B26" s="114" t="s">
-        <v>129</v>
+      <c r="B26" s="113" t="s">
+        <v>128</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6820,11 +6815,11 @@
         <f t="shared" ref="M26" si="19">EOMONTH(EDATE(L26,-12),0)</f>
         <v>41639</v>
       </c>
-      <c r="N26" s="87"/>
+      <c r="N26" s="86"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
-      <c r="B27" s="94" t="s">
+      <c r="B27" s="93" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="65">
@@ -6871,266 +6866,266 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="N27" s="87"/>
+      <c r="N27" s="86"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
-      <c r="B28" s="94" t="s">
-        <v>112</v>
+      <c r="B28" s="93" t="s">
+        <v>111</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
-      <c r="D28" s="198" t="str">
+      <c r="D28" s="196" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E28" s="198" t="str">
+      <c r="E28" s="196" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="198" t="str">
+      <c r="F28" s="196" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="198" t="str">
+      <c r="G28" s="196" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="198" t="str">
+      <c r="H28" s="196" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="198" t="str">
+      <c r="I28" s="196" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="198" t="str">
+      <c r="J28" s="196" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="198" t="str">
+      <c r="K28" s="196" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="198" t="str">
+      <c r="L28" s="196" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="198" t="str">
+      <c r="M28" s="196" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
-      <c r="N28" s="87"/>
+      <c r="N28" s="86"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
-      <c r="B29" s="94" t="s">
-        <v>141</v>
+      <c r="B29" s="93" t="s">
+        <v>140</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D29" s="198" t="str">
+      <c r="D29" s="196" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E29" s="198" t="str">
+      <c r="E29" s="196" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="198" t="str">
+      <c r="F29" s="196" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="198" t="str">
+      <c r="G29" s="196" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="198" t="str">
+      <c r="H29" s="196" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="198" t="str">
+      <c r="I29" s="196" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="198" t="str">
+      <c r="J29" s="196" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="198" t="str">
+      <c r="K29" s="196" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="198" t="str">
+      <c r="L29" s="196" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="198" t="str">
+      <c r="M29" s="196" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
-      <c r="N29" s="87"/>
+      <c r="N29" s="86"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
-      <c r="B30" s="94" t="s">
-        <v>260</v>
+      <c r="B30" s="93" t="s">
+        <v>258</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
         <v>6868812</v>
       </c>
-      <c r="D30" s="198">
+      <c r="D30" s="196">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v>8981085</v>
       </c>
-      <c r="E30" s="198">
+      <c r="E30" s="196">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v>7934632</v>
       </c>
-      <c r="F30" s="198">
+      <c r="F30" s="196">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v>6715027</v>
       </c>
-      <c r="G30" s="198" t="str">
+      <c r="G30" s="196" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="198" t="str">
+      <c r="H30" s="196" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="198" t="str">
+      <c r="I30" s="196" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="198" t="str">
+      <c r="J30" s="196" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="198" t="str">
+      <c r="K30" s="196" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="198" t="str">
+      <c r="L30" s="196" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="198" t="str">
+      <c r="M30" s="196" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
-      <c r="N30" s="87"/>
+      <c r="N30" s="86"/>
     </row>
     <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
-      <c r="B31" s="94" t="s">
+      <c r="B31" s="93" t="s">
         <v>16</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
-      <c r="D31" s="198" t="str">
+      <c r="D31" s="196" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E31" s="198" t="str">
+      <c r="E31" s="196" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="198" t="str">
+      <c r="F31" s="196" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="198" t="str">
+      <c r="G31" s="196" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="198" t="str">
+      <c r="H31" s="196" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="198" t="str">
+      <c r="I31" s="196" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="198" t="str">
+      <c r="J31" s="196" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="198" t="str">
+      <c r="K31" s="196" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="198" t="str">
+      <c r="L31" s="196" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="198" t="str">
+      <c r="M31" s="196" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
-      <c r="N31" s="87"/>
+      <c r="N31" s="86"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
-      <c r="B32" s="94" t="s">
+      <c r="B32" s="93" t="s">
         <v>17</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
-      <c r="D32" s="198" t="str">
+      <c r="D32" s="196" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E32" s="198" t="str">
+      <c r="E32" s="196" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="198" t="str">
+      <c r="F32" s="196" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="198" t="str">
+      <c r="G32" s="196" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="198" t="str">
+      <c r="H32" s="196" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="198" t="str">
+      <c r="I32" s="196" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="198" t="str">
+      <c r="J32" s="196" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="198" t="str">
+      <c r="K32" s="196" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="198" t="str">
+      <c r="L32" s="196" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="198" t="str">
+      <c r="M32" s="196" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
-      <c r="N32" s="87"/>
+      <c r="N32" s="86"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
-      <c r="B33" s="94" t="s">
+      <c r="B33" s="93" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="77">
@@ -7177,169 +7172,169 @@
         <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
-      <c r="N33" s="87"/>
+      <c r="N33" s="86"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
-      <c r="B34" s="94" t="s">
-        <v>132</v>
+      <c r="B34" s="93" t="s">
+        <v>131</v>
       </c>
       <c r="C34" s="65">
         <f>Inputs!C41</f>
         <v>6252844</v>
       </c>
-      <c r="D34" s="198">
+      <c r="D34" s="196">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v>5205481</v>
       </c>
-      <c r="E34" s="198">
+      <c r="E34" s="196">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v>4722518</v>
       </c>
-      <c r="F34" s="198">
+      <c r="F34" s="196">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v>3902907</v>
       </c>
-      <c r="G34" s="198" t="str">
+      <c r="G34" s="196" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="198" t="str">
+      <c r="H34" s="196" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="198" t="str">
+      <c r="I34" s="196" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="198" t="str">
+      <c r="J34" s="196" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="198" t="str">
+      <c r="K34" s="196" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="198" t="str">
+      <c r="L34" s="196" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="198" t="str">
+      <c r="M34" s="196" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
-      <c r="N34" s="87"/>
+      <c r="N34" s="86"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
-      <c r="B35" s="94" t="s">
-        <v>133</v>
+      <c r="B35" s="93" t="s">
+        <v>132</v>
       </c>
       <c r="C35" s="65">
         <f>Inputs!C42</f>
         <v>0</v>
       </c>
-      <c r="D35" s="198">
+      <c r="D35" s="196">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v>0</v>
       </c>
-      <c r="E35" s="198">
+      <c r="E35" s="196">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v>0</v>
       </c>
-      <c r="F35" s="198">
+      <c r="F35" s="196">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v>-98</v>
       </c>
-      <c r="G35" s="198" t="str">
+      <c r="G35" s="196" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="198" t="str">
+      <c r="H35" s="196" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="198" t="str">
+      <c r="I35" s="196" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="198" t="str">
+      <c r="J35" s="196" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="198" t="str">
+      <c r="K35" s="196" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="198" t="str">
+      <c r="L35" s="196" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="198" t="str">
+      <c r="M35" s="196" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
-      <c r="N35" s="87"/>
+      <c r="N35" s="86"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
-      <c r="B36" s="94" t="s">
-        <v>131</v>
+      <c r="B36" s="93" t="s">
+        <v>130</v>
       </c>
       <c r="C36" s="65">
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198" t="str">
+      <c r="D36" s="196" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E36" s="198" t="str">
+      <c r="E36" s="196" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="198" t="str">
+      <c r="F36" s="196" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="198" t="str">
+      <c r="G36" s="196" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="198" t="str">
+      <c r="H36" s="196" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="198" t="str">
+      <c r="I36" s="196" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="198" t="str">
+      <c r="J36" s="196" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="198" t="str">
+      <c r="K36" s="196" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="198" t="str">
+      <c r="L36" s="196" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="198" t="str">
+      <c r="M36" s="196" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
-      <c r="N36" s="87"/>
+      <c r="N36" s="86"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
-      <c r="B37" s="94" t="s">
-        <v>135</v>
+      <c r="B37" s="93" t="s">
+        <v>134</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!C68</f>
-        <v>0</v>
+        <v>13121656</v>
       </c>
       <c r="D37" s="65" t="str">
         <f t="shared" ref="D37:M37" si="32">IF(D36="","",D27-D36)</f>
@@ -7381,63 +7376,63 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="N37" s="87"/>
+      <c r="N37" s="86"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="98" t="s">
-        <v>149</v>
-      </c>
-      <c r="C38" s="154" t="e">
+      <c r="B38" s="97" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="153">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D38" s="154" t="e">
+        <v>8.5192676899927877E-2</v>
+      </c>
+      <c r="D38" s="153" t="e">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="154" t="e">
+      <c r="E38" s="153" t="e">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F38" s="154" t="str">
+      <c r="F38" s="153" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="154" t="str">
+      <c r="G38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="154" t="str">
+      <c r="H38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="154" t="str">
+      <c r="I38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="154" t="str">
+      <c r="J38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="154" t="str">
+      <c r="K38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="154" t="str">
+      <c r="L38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="154" t="str">
+      <c r="M38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="N38" s="87"/>
+      <c r="N38" s="86"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7450,372 +7445,372 @@
       <c r="K39" s="54"/>
       <c r="L39" s="54"/>
       <c r="M39" s="54"/>
-      <c r="N39" s="87"/>
+      <c r="N39" s="86"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="C40" s="155">
+      <c r="B40" s="94" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="154">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.60531106380837341</v>
       </c>
-      <c r="D40" s="155">
+      <c r="D40" s="154">
         <f t="shared" si="34"/>
         <v>0.60671422644339779</v>
       </c>
-      <c r="E40" s="155">
+      <c r="E40" s="154">
         <f t="shared" si="34"/>
         <v>0.61209190738490582</v>
       </c>
-      <c r="F40" s="155">
+      <c r="F40" s="154">
         <f t="shared" si="34"/>
         <v>0.61749851532943378</v>
       </c>
-      <c r="G40" s="155" t="str">
+      <c r="G40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H40" s="155" t="str">
+      <c r="H40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I40" s="155" t="str">
+      <c r="I40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="155" t="str">
+      <c r="J40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="155" t="str">
+      <c r="K40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="155" t="str">
+      <c r="L40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="155" t="str">
+      <c r="M40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="N40" s="87"/>
+      <c r="N40" s="86"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
-      <c r="B41" s="94" t="s">
-        <v>219</v>
-      </c>
-      <c r="C41" s="152">
+      <c r="B41" s="93" t="s">
+        <v>218</v>
+      </c>
+      <c r="C41" s="151">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.31327931266495485</v>
       </c>
-      <c r="D41" s="152">
+      <c r="D41" s="151">
         <f t="shared" si="35"/>
         <v>0.3036976917842476</v>
       </c>
-      <c r="E41" s="152" t="e">
+      <c r="E41" s="151" t="e">
         <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F41" s="152" t="e">
+      <c r="F41" s="151" t="e">
         <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G41" s="152" t="str">
+      <c r="G41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H41" s="152" t="str">
+      <c r="H41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I41" s="152" t="str">
+      <c r="I41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="152" t="str">
+      <c r="J41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="152" t="str">
+      <c r="K41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="152" t="str">
+      <c r="L41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="152" t="str">
+      <c r="M41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="N41" s="87"/>
+      <c r="N41" s="86"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="94" t="s">
-        <v>105</v>
-      </c>
-      <c r="C42" s="152">
+      <c r="B42" s="93" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="151">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="152">
+      <c r="D42" s="151">
         <f t="shared" si="36"/>
         <v>3.326895739576459E-2</v>
       </c>
-      <c r="E42" s="152">
+      <c r="E42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="F42" s="152">
+      <c r="F42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="G42" s="152" t="str">
+      <c r="G42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H42" s="152" t="str">
+      <c r="H42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I42" s="152" t="str">
+      <c r="I42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="152" t="str">
+      <c r="J42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="152" t="str">
+      <c r="K42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="152" t="str">
+      <c r="L42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="152" t="str">
+      <c r="M42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="N42" s="87"/>
+      <c r="N42" s="86"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
-      <c r="B43" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C43" s="152">
+      <c r="B43" s="93" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" s="151">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>9.0344684898005026E-3</v>
       </c>
-      <c r="D43" s="152">
+      <c r="D43" s="151">
         <f t="shared" si="37"/>
         <v>5.2714982295422553E-3</v>
       </c>
-      <c r="E43" s="152">
+      <c r="E43" s="151">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="F43" s="152">
+      <c r="F43" s="151">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="G43" s="152" t="str">
+      <c r="G43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H43" s="152" t="str">
+      <c r="H43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I43" s="152" t="str">
+      <c r="I43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="152" t="str">
+      <c r="J43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="152" t="str">
+      <c r="K43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="152" t="str">
+      <c r="L43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="152" t="str">
+      <c r="M43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="N43" s="87"/>
+      <c r="N43" s="86"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
-      <c r="B44" s="94" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44" s="152">
+      <c r="B44" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="151">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D44" s="152">
+      <c r="D44" s="151">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="E44" s="152">
+      <c r="E44" s="151">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="F44" s="152">
+      <c r="F44" s="151">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="G44" s="152" t="str">
+      <c r="G44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H44" s="152" t="str">
+      <c r="H44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I44" s="152" t="str">
+      <c r="I44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="152" t="str">
+      <c r="J44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="152" t="str">
+      <c r="K44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="152" t="str">
+      <c r="L44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="152" t="str">
+      <c r="M44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="N44" s="87"/>
+      <c r="N44" s="86"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
-      <c r="B45" s="94" t="s">
-        <v>221</v>
-      </c>
-      <c r="C45" s="152">
+      <c r="B45" s="93" t="s">
+        <v>220</v>
+      </c>
+      <c r="C45" s="151">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>9.5756364731927404E-3</v>
       </c>
-      <c r="D45" s="152">
+      <c r="D45" s="151">
         <f t="shared" si="39"/>
         <v>4.369576178876026E-3</v>
       </c>
-      <c r="E45" s="152">
+      <c r="E45" s="151">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F45" s="152">
+      <c r="F45" s="151">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="G45" s="152" t="str">
+      <c r="G45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="N45" s="87"/>
+      <c r="N45" s="86"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
-      <c r="B46" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C46" s="152">
+      <c r="B46" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" s="151">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>6.2799518563678561E-2</v>
       </c>
-      <c r="D46" s="152">
+      <c r="D46" s="151">
         <f t="shared" si="40"/>
         <v>4.6678049968171674E-2</v>
       </c>
-      <c r="E46" s="152" t="e">
+      <c r="E46" s="151" t="e">
         <f t="shared" si="40"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F46" s="152" t="e">
+      <c r="F46" s="151" t="e">
         <f t="shared" si="40"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G46" s="152" t="str">
+      <c r="G46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H46" s="152" t="str">
+      <c r="H46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I46" s="152" t="str">
+      <c r="I46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="152" t="str">
+      <c r="J46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="152" t="str">
+      <c r="K46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="152" t="str">
+      <c r="L46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="152" t="str">
+      <c r="M46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="N46" s="87"/>
+      <c r="N46" s="86"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
-      <c r="B47" s="102" t="s">
-        <v>246</v>
-      </c>
-      <c r="C47" s="280" t="s">
-        <v>264</v>
+      <c r="B47" s="101" t="s">
+        <v>244</v>
+      </c>
+      <c r="C47" s="278" t="s">
+        <v>261</v>
       </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
@@ -7827,216 +7822,216 @@
       <c r="K47" s="36"/>
       <c r="L47" s="36"/>
       <c r="M47" s="36"/>
-      <c r="N47" s="87"/>
+      <c r="N47" s="86"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="268" t="s">
-        <v>252</v>
-      </c>
-      <c r="C48" s="269">
+      <c r="B48" s="266" t="s">
+        <v>250</v>
+      </c>
+      <c r="C48" s="267">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
         <v>1.0464693633181665</v>
       </c>
-      <c r="D48" s="269">
+      <c r="D48" s="267">
         <f t="shared" si="41"/>
         <v>0.93425829760352153</v>
       </c>
-      <c r="E48" s="269">
+      <c r="E48" s="267">
         <f t="shared" si="41"/>
         <v>1.0431385422468724</v>
       </c>
-      <c r="F48" s="269">
+      <c r="F48" s="267">
         <f t="shared" si="41"/>
         <v>0.92409135336497661</v>
       </c>
-      <c r="G48" s="269" t="str">
+      <c r="G48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H48" s="269" t="str">
+      <c r="H48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I48" s="269" t="str">
+      <c r="I48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="269" t="str">
+      <c r="J48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="269" t="str">
+      <c r="K48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="269" t="str">
+      <c r="L48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="269" t="str">
+      <c r="M48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="N48" s="87"/>
+      <c r="N48" s="86"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
-      <c r="B49" s="94" t="s">
-        <v>253</v>
-      </c>
-      <c r="C49" s="152">
+      <c r="B49" s="93" t="s">
+        <v>251</v>
+      </c>
+      <c r="C49" s="151">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="152" t="str">
+      <c r="D49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E49" s="152" t="str">
+      <c r="E49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="152" t="str">
+      <c r="F49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="152" t="str">
+      <c r="G49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="152" t="str">
+      <c r="H49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="152" t="str">
+      <c r="I49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="152" t="str">
+      <c r="J49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="152" t="str">
+      <c r="K49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="152" t="str">
+      <c r="L49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="152" t="str">
+      <c r="M49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="N49" s="87"/>
+      <c r="N49" s="86"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="94" t="s">
-        <v>254</v>
-      </c>
-      <c r="C50" s="152">
+      <c r="B50" s="93" t="s">
+        <v>252</v>
+      </c>
+      <c r="C50" s="151">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="152" t="str">
+      <c r="D50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="E50" s="152" t="str">
+      <c r="E50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="152" t="str">
+      <c r="F50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="152" t="str">
+      <c r="G50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="152" t="str">
+      <c r="H50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="152" t="str">
+      <c r="I50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="152" t="str">
+      <c r="J50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="152" t="str">
+      <c r="K50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="152" t="str">
+      <c r="L50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="152" t="str">
+      <c r="M50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="N50" s="87"/>
+      <c r="N50" s="86"/>
     </row>
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
-      <c r="B51" s="94" t="s">
-        <v>244</v>
-      </c>
-      <c r="C51" s="152">
+      <c r="B51" s="93" t="s">
+        <v>242</v>
+      </c>
+      <c r="C51" s="151">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>-0.8432524806594428</v>
       </c>
-      <c r="D51" s="152">
+      <c r="D51" s="151">
         <f t="shared" si="44"/>
         <v>8.6875246276302303</v>
       </c>
-      <c r="E51" s="152" t="e">
+      <c r="E51" s="151" t="e">
         <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F51" s="152" t="str">
+      <c r="F51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G51" s="152" t="str">
+      <c r="G51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H51" s="152" t="str">
+      <c r="H51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="152" t="str">
+      <c r="I51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="152" t="str">
+      <c r="J51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="152" t="str">
+      <c r="K51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="152" t="str">
+      <c r="L51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="152" t="str">
+      <c r="M51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="N51" s="87"/>
+      <c r="N51" s="86"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
-        <v>247</v>
+      <c r="B52" s="101" t="s">
+        <v>245</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8052,350 +8047,350 @@
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
-        <v>248</v>
-      </c>
-      <c r="C53" s="155">
+      <c r="B53" s="94" t="s">
+        <v>246</v>
+      </c>
+      <c r="C53" s="154">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
         <v>0.47652857230825135</v>
       </c>
-      <c r="D53" s="155">
+      <c r="D53" s="154">
         <f t="shared" si="45"/>
         <v>0.3669303057554591</v>
       </c>
-      <c r="E53" s="155">
+      <c r="E53" s="154">
         <f t="shared" si="45"/>
         <v>0.37311069237545574</v>
       </c>
-      <c r="F53" s="155">
+      <c r="F53" s="154">
         <f t="shared" si="45"/>
         <v>0.36758610479213755</v>
       </c>
-      <c r="G53" s="155" t="str">
+      <c r="G53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="155" t="str">
+      <c r="H53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="155" t="str">
+      <c r="I53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="155" t="str">
+      <c r="J53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="155" t="str">
+      <c r="K53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="155" t="str">
+      <c r="L53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="155" t="str">
+      <c r="M53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>116</v>
-      </c>
-      <c r="C54" s="156" t="str">
+      <c r="B54" s="93" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="155" t="str">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>-</v>
       </c>
-      <c r="D54" s="156" t="str">
+      <c r="D54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E54" s="156" t="e">
+      <c r="E54" s="155" t="e">
         <f t="shared" si="46"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F54" s="156" t="e">
+      <c r="F54" s="155" t="e">
         <f t="shared" si="46"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G54" s="156" t="str">
+      <c r="G54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="156" t="str">
+      <c r="H54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="156" t="str">
+      <c r="I54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="156" t="str">
+      <c r="J54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="156" t="str">
+      <c r="K54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="156" t="str">
+      <c r="L54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="156" t="str">
+      <c r="M54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>118</v>
-      </c>
-      <c r="C55" s="152">
+      <c r="B55" s="93" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="151">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>0.1438620660863757</v>
       </c>
-      <c r="D55" s="152">
+      <c r="D55" s="151">
         <f t="shared" si="47"/>
         <v>0.11293312880758147</v>
       </c>
-      <c r="E55" s="152" t="e">
+      <c r="E55" s="151" t="e">
         <f t="shared" si="47"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F55" s="152" t="e">
+      <c r="F55" s="151" t="e">
         <f t="shared" si="47"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G55" s="152" t="str">
+      <c r="G55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="H55" s="152" t="str">
+      <c r="H55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="I55" s="152" t="str">
+      <c r="I55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="152" t="str">
+      <c r="J55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="152" t="str">
+      <c r="K55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="152" t="str">
+      <c r="L55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="152" t="str">
+      <c r="M55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="C56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/C30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/D30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/E30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/F30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/G30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/H30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/I30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/J30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/K30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/L30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/M30)</f>
-        <v>#REF!</v>
+      <c r="B56" s="93" t="s">
+        <v>265</v>
+      </c>
+      <c r="C56" s="151">
+        <f>IF(C34="","",IF(Inputs!C38=0,0,Inputs!C38/C27))</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="151">
+        <f>IF(D34="","",IF(Inputs!D38=0,0,Inputs!D38/D27))</f>
+        <v>0</v>
+      </c>
+      <c r="E56" s="151">
+        <f>IF(E34="","",IF(Inputs!E38=0,0,Inputs!E38/E27))</f>
+        <v>0</v>
+      </c>
+      <c r="F56" s="151">
+        <f>IF(F34="","",IF(Inputs!F38=0,0,Inputs!F38/F27))</f>
+        <v>0</v>
+      </c>
+      <c r="G56" s="151" t="str">
+        <f>IF(G34="","",IF(Inputs!G38=0,0,Inputs!G38/G27))</f>
+        <v/>
+      </c>
+      <c r="H56" s="151" t="str">
+        <f>IF(H34="","",IF(Inputs!H38=0,0,Inputs!H38/H27))</f>
+        <v/>
+      </c>
+      <c r="I56" s="151" t="str">
+        <f>IF(I34="","",IF(Inputs!I38=0,0,Inputs!I38/I27))</f>
+        <v/>
+      </c>
+      <c r="J56" s="151" t="str">
+        <f>IF(J34="","",IF(Inputs!J38=0,0,Inputs!J38/J27))</f>
+        <v/>
+      </c>
+      <c r="K56" s="151" t="str">
+        <f>IF(K34="","",IF(Inputs!K38=0,0,Inputs!K38/K27))</f>
+        <v/>
+      </c>
+      <c r="L56" s="151" t="str">
+        <f>IF(L34="","",IF(Inputs!L38=0,0,Inputs!L38/L27))</f>
+        <v/>
+      </c>
+      <c r="M56" s="151" t="str">
+        <f>IF(M34="","",IF(Inputs!M38=0,0,Inputs!M38/M27))</f>
+        <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
-      <c r="B57" s="102" t="s">
-        <v>249</v>
-      </c>
-      <c r="C57" s="270" t="str">
+      <c r="B57" s="101" t="s">
+        <v>247</v>
+      </c>
+      <c r="C57" s="268" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="270" t="str">
+      <c r="D57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="270" t="str">
+      <c r="E57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="270" t="str">
+      <c r="F57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="270" t="str">
+      <c r="G57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="270" t="str">
+      <c r="H57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="270" t="str">
+      <c r="I57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="270" t="str">
+      <c r="J57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="270" t="str">
+      <c r="K57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="270" t="str">
+      <c r="L57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="270" t="str">
+      <c r="M57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="268" t="s">
-        <v>250</v>
-      </c>
-      <c r="C58" s="271">
+      <c r="B58" s="266" t="s">
+        <v>248</v>
+      </c>
+      <c r="C58" s="269">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>0.17877768900039726</v>
       </c>
-      <c r="D58" s="271">
+      <c r="D58" s="269">
         <f t="shared" si="49"/>
         <v>0.22810437690580371</v>
       </c>
-      <c r="E58" s="271" t="e">
+      <c r="E58" s="269" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F58" s="271" t="e">
+      <c r="F58" s="269" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G58" s="271" t="str">
+      <c r="G58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="H58" s="271" t="str">
+      <c r="H58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="I58" s="271" t="str">
+      <c r="I58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="271" t="str">
+      <c r="J58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="271" t="str">
+      <c r="K58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="271" t="str">
+      <c r="L58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="271" t="str">
+      <c r="M58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="268" t="s">
-        <v>251</v>
-      </c>
-      <c r="C59" s="271">
+      <c r="B59" s="266" t="s">
+        <v>249</v>
+      </c>
+      <c r="C59" s="269">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
         <v>0.13790940570402843</v>
       </c>
-      <c r="D59" s="271">
+      <c r="D59" s="269">
         <f t="shared" si="50"/>
         <v>0.11884915150012074</v>
       </c>
-      <c r="E59" s="271" t="e">
+      <c r="E59" s="269" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F59" s="271" t="e">
+      <c r="F59" s="269" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G59" s="271" t="str">
+      <c r="G59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="H59" s="271" t="str">
+      <c r="H59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="I59" s="271" t="str">
+      <c r="I59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="271" t="str">
+      <c r="J59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="271" t="str">
+      <c r="K59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="271" t="str">
+      <c r="L59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="271" t="str">
+      <c r="M59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9674,7 +9669,7 @@
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -9691,8 +9686,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A74" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I103" sqref="I103"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9710,38 +9705,38 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
-      <c r="E2" s="87"/>
+      <c r="E2" s="86"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="87"/>
+      <c r="I2" s="86"/>
       <c r="K2" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="204">
+        <v>20</v>
+      </c>
+      <c r="C3" s="86"/>
+      <c r="D3" s="202">
         <f>Inputs!C41</f>
         <v>6252844</v>
       </c>
       <c r="E3" s="67" t="str">
         <f>IF((C49-I49)=D3,"", "Error!")</f>
-        <v>Error!</v>
-      </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
+        <v/>
+      </c>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
       <c r="H3" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="282">
+        <v>21</v>
+      </c>
+      <c r="I3" s="280">
         <f>D3-D4</f>
         <v>6252844</v>
       </c>
@@ -9749,28 +9744,28 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="198">
+        <v>22</v>
+      </c>
+      <c r="C4" s="86"/>
+      <c r="D4" s="196">
         <f>Inputs!C42</f>
         <v>0</v>
       </c>
       <c r="E4" s="37"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
       <c r="H4" s="21"/>
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
       <c r="E5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="I5" s="63" t="e">
         <f>C28/I28</f>
@@ -9783,7 +9778,7 @@
         <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
         <v>Adj. Net Asset in USD</v>
       </c>
-      <c r="C6" s="87"/>
+      <c r="C6" s="86"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
         <v>-6868812</v>
@@ -9792,16 +9787,16 @@
         <f>1-D6/D3</f>
         <v>2.0985100539850343</v>
       </c>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
       <c r="H6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" s="63" t="e">
         <f>(C24+C25)/I28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J6" s="87"/>
+      <c r="J6" s="86"/>
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -9809,7 +9804,7 @@
         <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
-      <c r="C7" s="87"/>
+      <c r="C7" s="86"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
         <v>0</v>
@@ -9819,287 +9814,287 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I7" s="63" t="e">
         <f>C24/I28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J7" s="87"/>
+      <c r="J7" s="86"/>
       <c r="K7" s="33"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
       <c r="K8" s="24"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="202">
+        <v>27</v>
+      </c>
+      <c r="C9" s="85"/>
+      <c r="D9" s="200">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="118" t="str">
+      <c r="E9" s="117" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
       <c r="K9" s="24"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="D10" s="74" t="s">
+        <v>181</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>182</v>
-      </c>
-      <c r="E10" s="74" t="s">
+      <c r="F10" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="111" t="s">
+      <c r="G10" s="86"/>
+      <c r="H10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="22" t="s">
-        <v>33</v>
-      </c>
       <c r="I10" s="74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
         <v>0</v>
       </c>
-      <c r="D11" s="197">
+      <c r="D11" s="195">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
-      <c r="E11" s="88">
+      <c r="E11" s="87">
         <f t="shared" ref="E11:E22" si="0">C11*D11</f>
         <v>0</v>
       </c>
-      <c r="F11" s="112"/>
-      <c r="G11" s="87"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="86"/>
       <c r="H11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
         <v>0</v>
       </c>
-      <c r="J11" s="87"/>
+      <c r="J11" s="86"/>
       <c r="K11" s="24"/>
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="197">
+      <c r="D12" s="195">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
-      <c r="E12" s="88">
+      <c r="E12" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="112"/>
-      <c r="G12" s="87"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="86"/>
       <c r="H12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
         <v>0</v>
       </c>
-      <c r="J12" s="87"/>
+      <c r="J12" s="86"/>
       <c r="K12" s="24"/>
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
         <v>0</v>
       </c>
-      <c r="D13" s="197">
+      <c r="D13" s="195">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
-      <c r="E13" s="88">
+      <c r="E13" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F13" s="112"/>
-      <c r="G13" s="87"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="86"/>
       <c r="H13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
         <v>0</v>
       </c>
-      <c r="J13" s="87"/>
+      <c r="J13" s="86"/>
       <c r="K13" s="26"/>
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="197">
+      <c r="D14" s="195">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
-      <c r="E14" s="88">
+      <c r="E14" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="112"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="203">
+      <c r="F14" s="111"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="201">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
-      <c r="J14" s="87"/>
+      <c r="J14" s="86"/>
       <c r="K14" s="27"/>
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="197">
+      <c r="D15" s="195">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
-      <c r="E15" s="88">
+      <c r="E15" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="112"/>
-      <c r="G15" s="87"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="86"/>
       <c r="H15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="84">
+        <v>49</v>
+      </c>
+      <c r="I15" s="83">
         <f>SUM(I11:I14)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="87"/>
+      <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="197">
+      <c r="D16" s="195">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
-      <c r="E16" s="88">
+      <c r="E16" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="112"/>
+      <c r="F16" s="111"/>
       <c r="G16" s="30"/>
       <c r="H16" s="3"/>
       <c r="I16" s="40"/>
-      <c r="J16" s="87"/>
+      <c r="J16" s="86"/>
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="197">
+      <c r="D17" s="195">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
-      <c r="E17" s="88">
+      <c r="E17" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F17" s="112"/>
-      <c r="G17" s="87"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="86"/>
       <c r="H17" s="3"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="87"/>
+      <c r="J17" s="86"/>
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="197">
+      <c r="D18" s="195">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
-      <c r="E18" s="88">
+      <c r="E18" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="112"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="197">
+      <c r="D19" s="195">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
-      <c r="E19" s="88">
+      <c r="E19" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="133" t="str">
+      <c r="F19" s="132" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10110,21 +10105,21 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="197">
+      <c r="D20" s="195">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
-      <c r="E20" s="88">
+      <c r="E20" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="133" t="str">
+      <c r="F20" s="132" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10137,45 +10132,45 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="197">
+      <c r="D21" s="195">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
-      <c r="E21" s="88">
+      <c r="E21" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F21" s="112"/>
-      <c r="G21" s="87"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="86"/>
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="197">
+      <c r="D22" s="195">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
-      <c r="E22" s="88">
+      <c r="E22" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22" s="112"/>
-      <c r="G22" s="87"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="86"/>
       <c r="H22" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10183,17 +10178,17 @@
       </c>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="111" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" s="87"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="110" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="86"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10203,19 +10198,19 @@
         <f>IF(E24=0,0,E24/C24)</f>
         <v>0</v>
       </c>
-      <c r="E24" s="88">
+      <c r="E24" s="87">
         <f>SUM(E11:E14)</f>
         <v>0</v>
       </c>
-      <c r="F24" s="113" t="e">
+      <c r="F24" s="112" t="e">
         <f>E24/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="87"/>
+      <c r="G24" s="86"/>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10225,17 +10220,17 @@
         <f>IF(E25=0,0,E25/C25)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="88">
+      <c r="E25" s="87">
         <f>SUM(E15:E17)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="113" t="e">
+      <c r="F25" s="112" t="e">
         <f>E25/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G25" s="87"/>
+      <c r="G25" s="86"/>
       <c r="H25" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I25" s="63" t="e">
         <f>E28/I28</f>
@@ -10244,7 +10239,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10254,17 +10249,17 @@
         <f>IF(E26=0,0,E26/C26)</f>
         <v>0</v>
       </c>
-      <c r="E26" s="88">
+      <c r="E26" s="87">
         <f>E18+E19+E20</f>
         <v>0</v>
       </c>
-      <c r="F26" s="113" t="e">
+      <c r="F26" s="112" t="e">
         <f>E26/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="87"/>
+      <c r="G26" s="86"/>
       <c r="H26" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I26" s="63" t="e">
         <f>E24/($I$28-I22)</f>
@@ -10277,7 +10272,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10287,17 +10282,17 @@
         <f>IF(E27=0,0,E27/C27)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="88">
+      <c r="E27" s="87">
         <f>E21+E22</f>
         <v>0</v>
       </c>
-      <c r="F27" s="113" t="e">
+      <c r="F27" s="112" t="e">
         <f>E27/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G27" s="87"/>
+      <c r="G27" s="86"/>
       <c r="H27" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I27" s="63" t="e">
         <f>(E25+E24)/$I$28</f>
@@ -10324,12 +10319,12 @@
         <f>SUM(E24:E27)</f>
         <v>0</v>
       </c>
-      <c r="F28" s="112"/>
-      <c r="G28" s="87"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="86"/>
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="204">
+      <c r="I28" s="202">
         <f>Inputs!C77</f>
         <v>0</v>
       </c>
@@ -10339,171 +10334,171 @@
       </c>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="112" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="111" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="197">
+      <c r="D30" s="195">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
-      <c r="E30" s="88">
-        <v>0</v>
-      </c>
-      <c r="F30" s="112"/>
-      <c r="G30" s="87"/>
+      <c r="E30" s="87">
+        <v>0</v>
+      </c>
+      <c r="F30" s="111"/>
+      <c r="G30" s="86"/>
       <c r="H30" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
         <v>0</v>
       </c>
-      <c r="J30" s="87"/>
+      <c r="J30" s="86"/>
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="197">
+      <c r="D31" s="195">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
-      <c r="E31" s="88">
+      <c r="E31" s="87">
         <f t="shared" ref="E31:E42" si="1">C31*D31</f>
         <v>0</v>
       </c>
-      <c r="F31" s="112"/>
-      <c r="G31" s="87"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="86"/>
       <c r="H31" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
         <v>0</v>
       </c>
-      <c r="J31" s="87"/>
+      <c r="J31" s="86"/>
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="197">
+      <c r="D32" s="195">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
-      <c r="E32" s="88">
+      <c r="E32" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F32" s="112"/>
-      <c r="G32" s="87"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="86"/>
       <c r="H32" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
         <v>0</v>
       </c>
-      <c r="J32" s="87"/>
+      <c r="J32" s="86"/>
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="197">
+      <c r="D33" s="195">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
-      <c r="E33" s="88">
+      <c r="E33" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F33" s="112"/>
+      <c r="F33" s="111"/>
       <c r="G33" s="30">
         <f>IF(F33="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H33" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="I33" s="203">
+      <c r="H33" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="I33" s="201">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
-      <c r="J33" s="87"/>
+      <c r="J33" s="86"/>
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="197">
+      <c r="D34" s="195">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
-      <c r="E34" s="88">
+      <c r="E34" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F34" s="112"/>
-      <c r="G34" s="87"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="86"/>
       <c r="H34" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I34" s="84">
+        <v>73</v>
+      </c>
+      <c r="I34" s="83">
         <f>SUM(I30:I33)</f>
         <v>0</v>
       </c>
-      <c r="J34" s="87"/>
+      <c r="J34" s="86"/>
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="197">
+      <c r="D35" s="195">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
-      <c r="E35" s="88">
+      <c r="E35" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F35" s="133" t="str">
+      <c r="F35" s="132" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10511,25 +10506,25 @@
         <f>IF(F35="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="J35" s="87"/>
+      <c r="J35" s="86"/>
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="197">
+      <c r="D36" s="195">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
-      <c r="E36" s="88">
+      <c r="E36" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="133" t="str">
+      <c r="F36" s="132" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10537,26 +10532,26 @@
         <f>IF(F36="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="86"/>
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="197">
+      <c r="D37" s="195">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
-      <c r="E37" s="88">
+      <c r="E37" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="133" t="str">
+      <c r="F37" s="132" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10564,113 +10559,113 @@
         <f>IF(F37="Y",0,1)</f>
         <v>0</v>
       </c>
-      <c r="H37" s="87"/>
-      <c r="I37" s="87"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="86"/>
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
         <v>0</v>
       </c>
-      <c r="D38" s="197">
+      <c r="D38" s="195">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
-      <c r="E38" s="88">
+      <c r="E38" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F38" s="112"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="87"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="86"/>
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="197">
+      <c r="D39" s="195">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
-      <c r="E39" s="88">
+      <c r="E39" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F39" s="112"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="87"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="86"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="86"/>
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
         <v>0</v>
       </c>
-      <c r="D40" s="197">
+      <c r="D40" s="195">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
-      <c r="E40" s="88">
+      <c r="E40" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F40" s="112"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="87"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="86"/>
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
         <v>0</v>
       </c>
-      <c r="D41" s="197">
+      <c r="D41" s="195">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
-      <c r="E41" s="88">
+      <c r="E41" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F41" s="112"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="87"/>
-      <c r="I41" s="87"/>
+      <c r="F41" s="111"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="86"/>
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="197">
+      <c r="D42" s="195">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
-      <c r="E42" s="88">
+      <c r="E42" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F42" s="112"/>
-      <c r="G42" s="87"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="86"/>
       <c r="H42" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -10678,17 +10673,17 @@
       </c>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C43" s="87"/>
-      <c r="D43" s="87"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="87"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="86"/>
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -10698,16 +10693,16 @@
         <f>IF(E44=0,0,E44/C44)</f>
         <v>0</v>
       </c>
-      <c r="E44" s="88">
+      <c r="E44" s="87">
         <f>SUM(E30:E31)</f>
         <v>0</v>
       </c>
       <c r="F44" s="72"/>
-      <c r="G44" s="87"/>
+      <c r="G44" s="86"/>
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -10717,16 +10712,16 @@
         <f>IF(E45=0,0,E45/C45)</f>
         <v>0</v>
       </c>
-      <c r="E45" s="88">
+      <c r="E45" s="87">
         <f>SUM(E32:E35)</f>
         <v>0</v>
       </c>
       <c r="F45" s="72"/>
-      <c r="G45" s="87"/>
+      <c r="G45" s="86"/>
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -10736,14 +10731,14 @@
         <f>IF(E46=0,0,E46/C46)</f>
         <v>0</v>
       </c>
-      <c r="E46" s="88">
+      <c r="E46" s="87">
         <f>E36+E37+E38+E39</f>
         <v>0</v>
       </c>
-      <c r="F46" s="87"/>
-      <c r="G46" s="87"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="86"/>
       <c r="H46" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I46" s="63" t="e">
         <f>(E44+E24)/E64</f>
@@ -10756,7 +10751,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -10766,14 +10761,14 @@
         <f>IF(E47=0,0,E47/C47)</f>
         <v>0</v>
       </c>
-      <c r="E47" s="88">
+      <c r="E47" s="87">
         <f>E40+E41+E42</f>
         <v>0</v>
       </c>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="86"/>
       <c r="H47" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I47" s="63">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -10786,13 +10781,13 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>80</v>
-      </c>
-      <c r="C48" s="81">
+        <v>79</v>
+      </c>
+      <c r="C48" s="281">
         <f>SUM(C30:C42)</f>
         <v>0</v>
       </c>
-      <c r="D48" s="82" t="e">
+      <c r="D48" s="81" t="e">
         <f>E48/C48</f>
         <v>#DIV/0!</v>
       </c>
@@ -10800,12 +10795,12 @@
         <f>SUM(E30:E42)</f>
         <v>0</v>
       </c>
-      <c r="F48" s="87"/>
-      <c r="G48" s="87"/>
+      <c r="F48" s="86"/>
+      <c r="G48" s="86"/>
       <c r="H48" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="I48" s="281">
+        <v>80</v>
+      </c>
+      <c r="I48" s="279">
         <f>I49-I28</f>
         <v>6868812</v>
       </c>
@@ -10816,63 +10811,63 @@
         <v>13</v>
       </c>
       <c r="C49" s="61">
-        <f>C28+C48</f>
-        <v>0</v>
-      </c>
-      <c r="D49" s="56" t="e">
+        <f>Inputs!C41+Inputs!C37</f>
+        <v>13121656</v>
+      </c>
+      <c r="D49" s="56">
         <f>E49/C49</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E49" s="88">
+        <v>0</v>
+      </c>
+      <c r="E49" s="87">
         <f>E28+E48</f>
         <v>0</v>
       </c>
-      <c r="F49" s="87"/>
-      <c r="G49" s="87"/>
+      <c r="F49" s="86"/>
+      <c r="G49" s="86"/>
       <c r="H49" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I49" s="40">
         <f>Inputs!C37</f>
         <v>6868812</v>
       </c>
-      <c r="J49" s="87"/>
+      <c r="J49" s="86"/>
     </row>
     <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C50" s="87"/>
-      <c r="D50" s="87"/>
-      <c r="E50" s="87"/>
-      <c r="I50" s="87"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="86"/>
+      <c r="I50" s="86"/>
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" s="87"/>
+        <v>83</v>
+      </c>
+      <c r="C52" s="86"/>
       <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
         <v>BV of the MI</v>
       </c>
-      <c r="E52" s="87"/>
-      <c r="F52" s="87"/>
-      <c r="G52" s="87"/>
-      <c r="I52" s="87"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="86"/>
+      <c r="I52" s="86"/>
       <c r="K52" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C53" s="88">
+        <v>84</v>
+      </c>
+      <c r="C53" s="87">
         <f>MAX(D4,0)</f>
         <v>0</v>
       </c>
@@ -10880,45 +10875,45 @@
         <f>IF(E53=0, 0,E53/C53)</f>
         <v>0</v>
       </c>
-      <c r="E53" s="88">
+      <c r="E53" s="87">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
         <v>0</v>
       </c>
-      <c r="F53" s="87"/>
-      <c r="G53" s="87"/>
+      <c r="F53" s="86"/>
+      <c r="G53" s="86"/>
       <c r="I53" s="41"/>
       <c r="K53" s="33"/>
     </row>
     <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C54" s="87"/>
-      <c r="D54" s="87"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="87"/>
-      <c r="G54" s="87"/>
-      <c r="I54" s="87"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="86"/>
+      <c r="G54" s="86"/>
+      <c r="I54" s="86"/>
       <c r="K54" s="33"/>
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="124"/>
+      <c r="E55" s="123"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="I55" s="87"/>
+      <c r="I55" s="86"/>
       <c r="K55" s="33"/>
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" s="87"/>
-      <c r="D56" s="296">
+        <v>85</v>
+      </c>
+      <c r="C56" s="86"/>
+      <c r="D56" s="295">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="294"/>
+      <c r="E56" s="293"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -10926,61 +10921,61 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57" s="86"/>
+      <c r="D57" s="294">
+        <f>Inputs!C84</f>
+        <v>0</v>
+      </c>
+      <c r="E57" s="293"/>
+      <c r="G57" s="86"/>
+      <c r="I57" s="86"/>
+      <c r="K57" s="33" t="s">
         <v>87</v>
-      </c>
-      <c r="C57" s="87"/>
-      <c r="D57" s="295">
-        <f>Inputs!C84</f>
-        <v>0</v>
-      </c>
-      <c r="E57" s="294"/>
-      <c r="G57" s="87"/>
-      <c r="I57" s="87"/>
-      <c r="K57" s="33" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C58" s="87"/>
-      <c r="D58" s="295">
+        <v>88</v>
+      </c>
+      <c r="C58" s="86"/>
+      <c r="D58" s="294">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="294"/>
+      <c r="E58" s="293"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
-      <c r="I58" s="87"/>
+      <c r="I58" s="86"/>
       <c r="K58" s="33"/>
     </row>
     <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C59" s="87"/>
-      <c r="D59" s="87"/>
-      <c r="E59" s="87"/>
-      <c r="F59" s="87"/>
-      <c r="G59" s="87"/>
-      <c r="I59" s="87"/>
+      <c r="C59" s="86"/>
+      <c r="D59" s="86"/>
+      <c r="E59" s="86"/>
+      <c r="F59" s="86"/>
+      <c r="G59" s="86"/>
+      <c r="I59" s="86"/>
       <c r="K59" s="33"/>
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>90</v>
-      </c>
-      <c r="E60" s="87"/>
+        <v>89</v>
+      </c>
+      <c r="E60" s="86"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
-      <c r="I60" s="87"/>
+      <c r="I60" s="86"/>
       <c r="K60" s="33"/>
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -10994,35 +10989,35 @@
         <f>E14+E15+(E19*G19)+(E20*G20)+E31+E32+(E35*G35)+(E36*G36)+(E37*G37)</f>
         <v>0</v>
       </c>
-      <c r="F61" s="87"/>
-      <c r="G61" s="87"/>
-      <c r="I61" s="87"/>
+      <c r="F61" s="86"/>
+      <c r="G61" s="86"/>
+      <c r="I61" s="86"/>
       <c r="K61" s="33"/>
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="C62" s="116">
+        <v>133</v>
+      </c>
+      <c r="C62" s="115">
         <f>C11+C30</f>
         <v>0</v>
       </c>
-      <c r="D62" s="107">
+      <c r="D62" s="106">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E62" s="117">
+      <c r="E62" s="116">
         <f>E11+E30</f>
         <v>0</v>
       </c>
-      <c r="F62" s="87"/>
-      <c r="G62" s="87"/>
-      <c r="I62" s="87"/>
+      <c r="F62" s="86"/>
+      <c r="G62" s="86"/>
+      <c r="I62" s="86"/>
       <c r="K62" s="33"/>
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11036,29 +11031,29 @@
         <f>E61+E62</f>
         <v>0</v>
       </c>
-      <c r="F63" s="87"/>
-      <c r="G63" s="87"/>
-      <c r="I63" s="87"/>
+      <c r="F63" s="86"/>
+      <c r="G63" s="86"/>
+      <c r="I63" s="86"/>
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="120" t="s">
-        <v>143</v>
-      </c>
-      <c r="C64" s="205"/>
-      <c r="D64" s="205"/>
+      <c r="B64" s="119" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" s="203"/>
+      <c r="D64" s="203"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>0</v>
       </c>
-      <c r="F64" s="87"/>
-      <c r="G64" s="87"/>
-      <c r="I64" s="87"/>
+      <c r="F64" s="86"/>
+      <c r="G64" s="86"/>
+      <c r="I64" s="86"/>
       <c r="K64" s="33"/>
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11072,9 +11067,9 @@
         <f>E63-E64</f>
         <v>0</v>
       </c>
-      <c r="F65" s="87"/>
-      <c r="G65" s="87"/>
-      <c r="I65" s="87"/>
+      <c r="F65" s="86"/>
+      <c r="G65" s="86"/>
+      <c r="I65" s="86"/>
       <c r="K65" s="33"/>
     </row>
     <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
@@ -11082,32 +11077,32 @@
       <c r="C66" s="68"/>
       <c r="D66" s="29"/>
       <c r="E66" s="61"/>
-      <c r="F66" s="87"/>
-      <c r="G66" s="87"/>
-      <c r="I66" s="87"/>
+      <c r="F66" s="86"/>
+      <c r="G66" s="86"/>
+      <c r="I66" s="86"/>
       <c r="K66" s="33"/>
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E67" s="61"/>
-      <c r="F67" s="87"/>
-      <c r="G67" s="87"/>
-      <c r="I67" s="87"/>
+      <c r="F67" s="86"/>
+      <c r="G67" s="86"/>
+      <c r="I67" s="86"/>
       <c r="K67" s="33"/>
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
-        <v>0</v>
+        <v>13121656</v>
       </c>
       <c r="D68" s="29">
         <f t="shared" si="2"/>
@@ -11117,65 +11112,65 @@
         <f>E49-E63</f>
         <v>0</v>
       </c>
-      <c r="F68" s="87"/>
-      <c r="G68" s="87"/>
-      <c r="I68" s="87"/>
+      <c r="F68" s="86"/>
+      <c r="G68" s="86"/>
+      <c r="I68" s="86"/>
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="120" t="s">
-        <v>144</v>
-      </c>
-      <c r="C69" s="205"/>
-      <c r="D69" s="205"/>
-      <c r="E69" s="125">
+      <c r="B69" s="119" t="s">
+        <v>143</v>
+      </c>
+      <c r="C69" s="203"/>
+      <c r="D69" s="203"/>
+      <c r="E69" s="124">
         <f>I49-E64</f>
         <v>6868812</v>
       </c>
-      <c r="F69" s="87"/>
-      <c r="G69" s="87"/>
-      <c r="I69" s="87"/>
+      <c r="F69" s="86"/>
+      <c r="G69" s="86"/>
+      <c r="I69" s="86"/>
       <c r="K69" s="33"/>
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
-        <v>-6868812</v>
+        <v>6252844</v>
       </c>
       <c r="D70" s="29">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>-1.0985100539850345</v>
       </c>
       <c r="E70" s="68">
         <f>E68-E69</f>
         <v>-6868812</v>
       </c>
-      <c r="F70" s="87"/>
-      <c r="G70" s="87"/>
-      <c r="I70" s="87"/>
+      <c r="F70" s="86"/>
+      <c r="G70" s="86"/>
+      <c r="I70" s="86"/>
       <c r="K70" s="33"/>
     </row>
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
-      <c r="B72" s="106" t="s">
-        <v>122</v>
-      </c>
-      <c r="C72" s="283">
+      <c r="B72" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="C72" s="282">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="283"/>
-      <c r="E72" s="297" t="s">
-        <v>192</v>
-      </c>
-      <c r="F72" s="297"/>
-      <c r="H72" s="297" t="s">
+      <c r="D72" s="282"/>
+      <c r="E72" s="296" t="s">
         <v>191</v>
       </c>
-      <c r="I72" s="297"/>
+      <c r="F72" s="296"/>
+      <c r="H72" s="296" t="s">
+        <v>190</v>
+      </c>
+      <c r="I72" s="296"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11185,66 +11180,66 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000USD)</v>
       </c>
-      <c r="C73" s="284" t="s">
+      <c r="C73" s="283" t="s">
+        <v>96</v>
+      </c>
+      <c r="D73" s="283"/>
+      <c r="E73" s="297" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="284"/>
-      <c r="E73" s="298" t="s">
-        <v>98</v>
-      </c>
-      <c r="F73" s="284"/>
-      <c r="H73" s="298" t="s">
-        <v>98</v>
-      </c>
-      <c r="I73" s="284"/>
+      <c r="F73" s="283"/>
+      <c r="H73" s="297" t="s">
+        <v>97</v>
+      </c>
+      <c r="I73" s="283"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
         <v>13731411</v>
       </c>
-      <c r="D74" s="206"/>
-      <c r="E74" s="235">
+      <c r="D74" s="204"/>
+      <c r="E74" s="233">
         <f>Inputs!E91</f>
         <v>13731411</v>
       </c>
-      <c r="F74" s="206"/>
-      <c r="H74" s="235">
+      <c r="F74" s="204"/>
+      <c r="H74" s="233">
         <f>Inputs!F91</f>
         <v>13731411</v>
       </c>
-      <c r="I74" s="206"/>
+      <c r="I74" s="204"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="104" t="s">
-        <v>102</v>
+      <c r="B75" s="103" t="s">
+        <v>101</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
         <v>8311775</v>
       </c>
-      <c r="D75" s="158">
+      <c r="D75" s="156">
         <f>C75/$C$74</f>
         <v>0.60531106380837341</v>
       </c>
-      <c r="E75" s="235">
+      <c r="E75" s="233">
         <f>Inputs!E92</f>
         <v>8311775.0000000009</v>
       </c>
-      <c r="F75" s="159">
+      <c r="F75" s="157">
         <f>E75/E74</f>
         <v>0.60531106380837341</v>
       </c>
-      <c r="H75" s="235">
+      <c r="H75" s="233">
         <f>Inputs!F92</f>
         <v>8311775.0000000009</v>
       </c>
-      <c r="I75" s="159">
+      <c r="I75" s="157">
         <f>H75/$H$74</f>
         <v>0.60531106380837341</v>
       </c>
@@ -11252,50 +11247,50 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="C76" s="160">
+        <v>91</v>
+      </c>
+      <c r="C76" s="158">
         <f>C74-C75</f>
         <v>5419636</v>
       </c>
-      <c r="D76" s="207"/>
-      <c r="E76" s="161">
+      <c r="D76" s="205"/>
+      <c r="E76" s="159">
         <f>E74-E75</f>
         <v>5419635.9999999991</v>
       </c>
-      <c r="F76" s="207"/>
-      <c r="H76" s="161">
+      <c r="F76" s="205"/>
+      <c r="H76" s="159">
         <f>H74-H75</f>
         <v>5419635.9999999991</v>
       </c>
-      <c r="I76" s="207"/>
+      <c r="I76" s="205"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="104" t="s">
-        <v>230</v>
+      <c r="B77" s="103" t="s">
+        <v>229</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>4301767</v>
       </c>
-      <c r="D77" s="158">
+      <c r="D77" s="156">
         <f>C77/$C$74</f>
         <v>0.31327931266495485</v>
       </c>
-      <c r="E77" s="235">
+      <c r="E77" s="233">
         <f>Inputs!E93</f>
         <v>4301767</v>
       </c>
-      <c r="F77" s="159">
+      <c r="F77" s="157">
         <f>E77/E74</f>
         <v>0.31327931266495485</v>
       </c>
-      <c r="H77" s="235">
+      <c r="H77" s="233">
         <f>Inputs!F93</f>
         <v>4301767</v>
       </c>
-      <c r="I77" s="159">
+      <c r="I77" s="157">
         <f>H77/$H$74</f>
         <v>0.31327931266495485</v>
       </c>
@@ -11303,60 +11298,60 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="158">
+      <c r="D78" s="156">
         <f>C78/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E78" s="179">
+      <c r="E78" s="177">
         <f>E74*F78</f>
         <v>0</v>
       </c>
-      <c r="F78" s="159">
+      <c r="F78" s="157">
         <f>I78</f>
         <v>0</v>
       </c>
-      <c r="H78" s="235">
+      <c r="H78" s="233">
         <f>Inputs!F97</f>
         <v>0</v>
       </c>
-      <c r="I78" s="159">
+      <c r="I78" s="157">
         <f>H78/$H$74</f>
         <v>0</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="253" t="s">
-        <v>217</v>
-      </c>
-      <c r="C79" s="254">
+      <c r="B79" s="251" t="s">
+        <v>216</v>
+      </c>
+      <c r="C79" s="252">
         <f>C76-C77-C78</f>
         <v>1117869</v>
       </c>
-      <c r="D79" s="255">
+      <c r="D79" s="253">
         <f>C79/C74</f>
         <v>8.1409623526671804E-2</v>
       </c>
-      <c r="E79" s="256">
+      <c r="E79" s="254">
         <f>E76-E77-E78</f>
         <v>1117868.9999999991</v>
       </c>
-      <c r="F79" s="255">
+      <c r="F79" s="253">
         <f>E79/E74</f>
         <v>8.1409623526671734E-2</v>
       </c>
-      <c r="G79" s="257"/>
-      <c r="H79" s="256">
+      <c r="G79" s="255"/>
+      <c r="H79" s="254">
         <f>H76-H77-H78</f>
         <v>1117868.9999999991</v>
       </c>
-      <c r="I79" s="255">
+      <c r="I79" s="253">
         <f>H79/H74</f>
         <v>8.1409623526671734E-2</v>
       </c>
@@ -11364,61 +11359,61 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="158">
+      <c r="D80" s="156">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="179">
+      <c r="E80" s="177">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="159">
+      <c r="F80" s="157">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="235">
+      <c r="H80" s="233">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="159">
+      <c r="I80" s="157">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="180" t="s">
-        <v>126</v>
+      <c r="K80" s="178" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="104" t="s">
-        <v>238</v>
+      <c r="B81" s="103" t="s">
+        <v>236</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>124056</v>
       </c>
-      <c r="D81" s="158">
+      <c r="D81" s="156">
         <f>C81/$C$74</f>
         <v>9.0344684898005026E-3</v>
       </c>
-      <c r="E81" s="179">
+      <c r="E81" s="177">
         <f>E74*F81</f>
         <v>124056.00000000001</v>
       </c>
-      <c r="F81" s="159">
+      <c r="F81" s="157">
         <f>I81</f>
         <v>9.0344684898005026E-3</v>
       </c>
-      <c r="H81" s="235">
+      <c r="H81" s="233">
         <f>Inputs!F94</f>
         <v>124056.00000000001</v>
       </c>
-      <c r="I81" s="159">
+      <c r="I81" s="157">
         <f>H81/$H$74</f>
         <v>9.0344684898005026E-3</v>
       </c>
@@ -11426,59 +11421,59 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>131487</v>
       </c>
-      <c r="D82" s="158">
+      <c r="D82" s="156">
         <f>C82/$C$74</f>
         <v>9.5756364731927404E-3</v>
       </c>
-      <c r="E82" s="235">
+      <c r="E82" s="233">
         <f>Inputs!E95</f>
         <v>131487</v>
       </c>
-      <c r="F82" s="159">
+      <c r="F82" s="157">
         <f>E82/E74</f>
         <v>9.5756364731927404E-3</v>
       </c>
-      <c r="H82" s="235">
+      <c r="H82" s="233">
         <f>Inputs!F95</f>
         <v>131487</v>
       </c>
-      <c r="I82" s="159">
+      <c r="I82" s="157">
         <f>H82/$H$74</f>
         <v>9.5756364731927404E-3</v>
       </c>
       <c r="K82" s="24"/>
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="105" t="s">
-        <v>120</v>
-      </c>
-      <c r="C83" s="162">
+      <c r="B83" s="104" t="s">
+        <v>119</v>
+      </c>
+      <c r="C83" s="160">
         <f>C79-C81-C82-C80</f>
         <v>862326</v>
       </c>
-      <c r="D83" s="163">
+      <c r="D83" s="161">
         <f>C83/$C$74</f>
         <v>6.2799518563678561E-2</v>
       </c>
-      <c r="E83" s="164">
+      <c r="E83" s="162">
         <f>E79-E81-E82-E80</f>
         <v>862325.99999999907</v>
       </c>
-      <c r="F83" s="163">
+      <c r="F83" s="161">
         <f>E83/E74</f>
         <v>6.2799518563678491E-2</v>
       </c>
-      <c r="H83" s="164">
+      <c r="H83" s="162">
         <f>H79-H81-H82-H80</f>
         <v>862325.99999999907</v>
       </c>
-      <c r="I83" s="163">
+      <c r="I83" s="161">
         <f>H83/$H$74</f>
         <v>6.2799518563678491E-2</v>
       </c>
@@ -11486,184 +11481,184 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C84" s="208"/>
-      <c r="D84" s="158">
+        <v>92</v>
+      </c>
+      <c r="C84" s="206"/>
+      <c r="D84" s="156">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="209"/>
-      <c r="F84" s="178">
+      <c r="E84" s="207"/>
+      <c r="F84" s="176">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="209"/>
-      <c r="I84" s="201">
+      <c r="H84" s="207"/>
+      <c r="I84" s="199">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="260" t="s">
-        <v>156</v>
-      </c>
-      <c r="C85" s="254">
+      <c r="B85" s="258" t="s">
+        <v>155</v>
+      </c>
+      <c r="C85" s="252">
         <f>C83*(1-I84)</f>
         <v>646744.5</v>
       </c>
-      <c r="D85" s="255">
+      <c r="D85" s="253">
         <f>C85/$C$74</f>
         <v>4.7099638922758924E-2</v>
       </c>
-      <c r="E85" s="261">
+      <c r="E85" s="259">
         <f>E83*(1-F84)</f>
         <v>646744.4999999993</v>
       </c>
-      <c r="F85" s="255">
+      <c r="F85" s="253">
         <f>E85/E74</f>
         <v>4.7099638922758869E-2</v>
       </c>
-      <c r="G85" s="257"/>
-      <c r="H85" s="261">
+      <c r="G85" s="255"/>
+      <c r="H85" s="259">
         <f>H83*(1-I84)</f>
         <v>646744.4999999993</v>
       </c>
-      <c r="I85" s="255">
+      <c r="I85" s="253">
         <f>H85/$H$74</f>
         <v>4.7099638922758869E-2</v>
       </c>
       <c r="K85" s="24"/>
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B86" s="87" t="s">
-        <v>152</v>
-      </c>
-      <c r="C86" s="166">
+      <c r="B86" s="86" t="s">
+        <v>151</v>
+      </c>
+      <c r="C86" s="164">
         <f>C85*Data!C4/Common_Shares</f>
         <v>1.1015769930516173</v>
       </c>
-      <c r="D86" s="206"/>
-      <c r="E86" s="167">
+      <c r="D86" s="204"/>
+      <c r="E86" s="165">
         <f>E85*Data!C4/Common_Shares</f>
         <v>1.1015769930516162</v>
       </c>
-      <c r="F86" s="206"/>
-      <c r="H86" s="167">
+      <c r="F86" s="204"/>
+      <c r="H86" s="165">
         <f>H85*Data!C4/Common_Shares</f>
         <v>1.1015769930516162</v>
       </c>
-      <c r="I86" s="206"/>
+      <c r="I86" s="204"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15"